--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="319">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -947,10 +947,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>▲</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>施設利用代</t>
     <rPh sb="0" eb="2">
       <t>シセツ</t>
@@ -960,20 +956,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レンタル代</t>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1/20_社内サバゲー</t>
-    <rPh sb="5" eb="7">
-      <t>シャナイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2182,6 +2164,185 @@
   </si>
   <si>
     <t>http://zozo.jp/shop/sankyoshokai/goods/16672724/?did=42766267&amp;kid=13169</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食事</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/20_社内サバゲー(ユニオンベース)</t>
+    <rPh sb="5" eb="7">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通費概算</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レンタルマスク</t>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飲み物</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BB弾購入値引</t>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネビキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BB弾購入費(2万発)</t>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウニュウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マンハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BB弾返却分(5千発)</t>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HoRoPii</t>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SWAT 強硬 プロテクター 4点 セット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kisstaker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラビナ 6個</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BBボトル 大サイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクティカルメッシュゴーグル オリーブグリーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンドゥ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｷｬ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ペットボトル_ボトル口(一個使用不可)</t>
+    <rPh sb="10" eb="11">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カシミアストール購入</t>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://item.rakuten.co.jp/hayashiguchi/cs0055/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスマス予定</t>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2189,7 +2350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,7 +2429,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2320,6 +2481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,7 +2978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3073,6 +3240,57 @@
     <xf numFmtId="38" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3129,9 +3347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3422,13 +3637,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3436,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3447,7 +3662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3455,12 +3670,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -3472,7 +3687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +3710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -3534,7 +3749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -3551,7 +3766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -3562,7 +3777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -3576,7 +3791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -3590,7 +3805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -3598,27 +3813,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -3637,7 +3852,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -3647,14 +3862,14 @@
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43125</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -3677,8 +3892,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="1:11">
+      <c r="B3" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -3701,11 +3916,11 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -3729,8 +3944,8 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="91"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="108"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -3756,8 +3971,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="91"/>
+    <row r="6" spans="1:11">
+      <c r="B6" s="108"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -3780,8 +3995,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
+    <row r="7" spans="1:11">
+      <c r="B7" s="108"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -3804,8 +4019,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="92"/>
+    <row r="8" spans="1:11">
+      <c r="B8" s="109"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -3829,8 +4044,8 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="93"/>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
+      <c r="B9" s="110"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -3854,8 +4069,8 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
+    <row r="10" spans="1:11">
+      <c r="B10" s="104" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -3878,8 +4093,8 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="88"/>
+    <row r="11" spans="1:11">
+      <c r="B11" s="105"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -3905,8 +4120,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="88"/>
+    <row r="12" spans="1:11">
+      <c r="B12" s="105"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -3932,8 +4147,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1">
+      <c r="B13" s="106"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -3956,17 +4171,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -3974,22 +4189,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="C17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+    <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1">
+      <c r="B19" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
@@ -4000,8 +4215,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="96" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="113" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4011,8 +4226,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
+    <row r="22" spans="2:4">
+      <c r="B22" s="114"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -4020,8 +4235,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="98"/>
+    <row r="23" spans="2:4">
+      <c r="B23" s="115"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -4044,13 +4259,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -4064,19 +4279,19 @@
     <col min="10" max="10" width="8.88671875" style="37"/>
     <col min="11" max="11" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>115</v>
@@ -4087,31 +4302,31 @@
       <c r="F1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="P1" s="54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickTop="1">
       <c r="A2" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" s="45">
         <v>3258</v>
@@ -4120,31 +4335,31 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="44"/>
       <c r="J2" s="45"/>
       <c r="K2" s="44"/>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N2" s="37">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E3" s="45">
         <v>750</v>
@@ -4153,732 +4368,826 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="44"/>
       <c r="J3" s="45"/>
       <c r="K3" s="44"/>
       <c r="M3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="45">
+        <v>294</v>
+      </c>
+      <c r="N3" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="93">
         <v>150</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="92">
         <v>1</v>
       </c>
-      <c r="G4" s="57" t="s">
-        <v>137</v>
+      <c r="G4" s="95" t="s">
+        <v>134</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="44"/>
       <c r="J4" s="45"/>
       <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="45">
-        <v>363</v>
-      </c>
-      <c r="F5" s="44">
+      <c r="M4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N4" s="37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="102">
+        <v>999</v>
+      </c>
+      <c r="F5" s="101">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>137</v>
+      <c r="G5" s="103" t="s">
+        <v>305</v>
       </c>
       <c r="H5" s="51"/>
       <c r="I5" s="44"/>
       <c r="J5" s="45"/>
       <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="N5" s="64">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E6" s="45">
-        <v>1180</v>
+        <v>363</v>
       </c>
       <c r="F6" s="44">
         <v>1</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="44" t="s">
+      <c r="G6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
+      <c r="M6" s="89" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="90">
+        <f>SUM(N2:N5)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="45">
-        <v>1480</v>
-      </c>
-      <c r="F7" s="44">
+      <c r="D7" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="99">
+        <v>1180</v>
+      </c>
+      <c r="F7" s="98">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>135</v>
+      <c r="G7" s="100" t="s">
+        <v>141</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="44"/>
       <c r="J7" s="45"/>
       <c r="K7" s="44"/>
+      <c r="M7" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="N7" s="37">
+        <v>1700</v>
+      </c>
       <c r="P7" s="56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" thickTop="1">
       <c r="A8" s="44" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E8" s="45">
-        <v>578</v>
+        <v>1480</v>
       </c>
       <c r="F8" s="44">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>137</v>
+      <c r="G8" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="44"/>
       <c r="J8" s="45"/>
       <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="44">
+      <c r="M8" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="93">
+        <v>578</v>
+      </c>
+      <c r="F9" s="92">
         <v>1</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>134</v>
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="44"/>
       <c r="J9" s="45"/>
       <c r="K9" s="44"/>
+      <c r="M9" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="N9" s="37">
+        <v>150</v>
+      </c>
       <c r="P9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="45">
-        <v>38000</v>
-      </c>
-      <c r="F10" s="44">
+      <c r="C10" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="102">
+        <v>1288</v>
+      </c>
+      <c r="F10" s="101">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>138</v>
+      <c r="G10" s="103" t="s">
+        <v>305</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="44"/>
       <c r="J10" s="46"/>
       <c r="K10" s="44"/>
+      <c r="M10" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="64">
+        <v>-1250</v>
+      </c>
       <c r="P10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="44" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="45">
-        <v>2724</v>
+        <v>198</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>197</v>
       </c>
       <c r="F11" s="44">
         <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="44"/>
       <c r="J11" s="45"/>
       <c r="K11" s="44"/>
+      <c r="M11" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="N11" s="97">
+        <f>SUM(N6:N10)</f>
+        <v>7100</v>
+      </c>
       <c r="P11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="E12" s="45">
+        <v>38000</v>
       </c>
       <c r="F12" s="44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="44"/>
       <c r="J12" s="46"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>64</v>
+        <v>161</v>
+      </c>
+      <c r="E13" s="45">
+        <v>2724</v>
       </c>
       <c r="F13" s="44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="44"/>
       <c r="J13" s="46"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="45">
-        <v>900</v>
+        <v>104</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="44">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="44"/>
       <c r="J14" s="46"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="45">
-        <v>1940</v>
+        <v>167</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="44">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="44"/>
       <c r="J15" s="46"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="44" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E16" s="45">
-        <v>1280</v>
+        <v>900</v>
       </c>
       <c r="F16" s="44">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="44"/>
       <c r="J16" s="46"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="44" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E17" s="45">
-        <v>1500</v>
+        <v>1940</v>
       </c>
       <c r="F17" s="44">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>144</v>
+      <c r="G17" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="44"/>
       <c r="J17" s="46"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="44" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E18" s="45">
-        <v>929</v>
+        <v>1280</v>
       </c>
       <c r="F18" s="44">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="44"/>
       <c r="J18" s="46"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="44" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E19" s="45">
-        <v>430</v>
+        <v>1500</v>
       </c>
       <c r="F19" s="44">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="44"/>
       <c r="J19" s="46"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="44" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="45">
+      <c r="C20" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="93">
         <v>420</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="92">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>137</v>
+      <c r="G20" s="94" t="s">
+        <v>134</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="44"/>
       <c r="J20" s="46"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="45">
-        <v>6716</v>
-      </c>
-      <c r="F21" s="44">
+    <row r="21" spans="1:11">
+      <c r="A21" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="102">
+        <v>929</v>
+      </c>
+      <c r="F21" s="101">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>138</v>
+      <c r="G21" s="103" t="s">
+        <v>134</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="44"/>
       <c r="J21" s="46"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="45">
-        <v>1080</v>
-      </c>
-      <c r="F22" s="44">
+    <row r="22" spans="1:11">
+      <c r="A22" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="102">
+        <v>430</v>
+      </c>
+      <c r="F22" s="101">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>135</v>
+      <c r="G22" s="103" t="s">
+        <v>134</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="44"/>
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="45">
-        <v>2480</v>
-      </c>
-      <c r="F23" s="44">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>161</v>
+    <row r="23" spans="1:11">
+      <c r="A23" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="102">
+        <v>270</v>
+      </c>
+      <c r="F23" s="101">
+        <v>6</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>134</v>
       </c>
       <c r="H23" s="51"/>
       <c r="I23" s="44"/>
       <c r="J23" s="46"/>
       <c r="K23" s="44"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="44" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E24" s="45">
-        <v>682</v>
+        <v>6716</v>
       </c>
       <c r="F24" s="44">
         <v>1</v>
       </c>
-      <c r="G24" s="57" t="s">
-        <v>136</v>
+      <c r="G24" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="44"/>
       <c r="J24" s="46"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="E25" s="45">
-        <v>1166</v>
+        <v>1080</v>
       </c>
       <c r="F25" s="44">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="44"/>
       <c r="J25" s="46"/>
       <c r="K25" s="44"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="44" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E26" s="45">
-        <v>1400</v>
+        <v>2480</v>
       </c>
       <c r="F26" s="44">
         <v>1</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>135</v>
+      <c r="G26" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="44"/>
       <c r="J26" s="46"/>
       <c r="K26" s="44"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
+    <row r="27" spans="1:11">
+      <c r="A27" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="45">
+        <v>682</v>
+      </c>
+      <c r="F27" s="44">
+        <v>1</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>133</v>
+      </c>
       <c r="H27" s="51"/>
       <c r="I27" s="44"/>
       <c r="J27" s="46"/>
       <c r="K27" s="44"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+    <row r="28" spans="1:11">
+      <c r="A28" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>186</v>
+      </c>
       <c r="C28" s="44" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E28" s="45">
-        <v>-3653</v>
-      </c>
-      <c r="F28" s="44"/>
+        <v>1166</v>
+      </c>
+      <c r="F28" s="44">
+        <v>4000</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="H28" s="51"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="44"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+    <row r="29" spans="1:11">
+      <c r="A29" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>178</v>
+      </c>
       <c r="D29" s="44" t="s">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="E29" s="45">
-        <v>-300</v>
-      </c>
-      <c r="F29" s="44"/>
+        <v>216</v>
+      </c>
+      <c r="F29" s="44">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="H29" s="51"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="46"/>
       <c r="K29" s="44"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
+    <row r="30" spans="1:11">
+      <c r="A30" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>191</v>
+      </c>
       <c r="D30" s="44" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="E30" s="45">
-        <v>-100</v>
-      </c>
-      <c r="F30" s="44"/>
+        <v>1400</v>
+      </c>
+      <c r="F30" s="44">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H30" s="51"/>
       <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="44"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
-      <c r="D31" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="45">
-        <v>-300</v>
-      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="44"/>
       <c r="H31" s="51"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="44"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>125</v>
+      </c>
       <c r="D32" s="44" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E32" s="45">
-        <v>-1300</v>
+        <v>-3653</v>
       </c>
       <c r="F32" s="44"/>
       <c r="H32" s="51"/>
@@ -4886,15 +5195,15 @@
       <c r="J32" s="45"/>
       <c r="K32" s="44"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E33" s="45">
-        <v>-6</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="44"/>
       <c r="H33" s="51"/>
@@ -4902,68 +5211,140 @@
       <c r="J33" s="45"/>
       <c r="K33" s="44"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
+      <c r="D34" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="45">
+        <v>-100</v>
+      </c>
       <c r="F34" s="44"/>
       <c r="H34" s="51"/>
       <c r="I34" s="44"/>
       <c r="J34" s="45"/>
       <c r="K34" s="44"/>
     </row>
-    <row r="35" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="49">
-        <f>SUM(E2:E34)</f>
-        <v>63747</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="52" t="s">
+    <row r="35" spans="1:14">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="45">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="44"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="45">
+        <v>-1300</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="44"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="45">
+        <v>-6</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="44"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="44"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:14" s="39" customFormat="1">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="49">
+        <f>SUM(E2:E38)</f>
+        <v>66520</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="49">
-        <f>SUM(J2:J34)</f>
+      <c r="J39" s="49">
+        <f>SUM(J2:J38)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="47"/>
-      <c r="L35" s="39" t="s">
+      <c r="K39" s="47"/>
+      <c r="L39" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="M35" s="41">
-        <f>E35+J35</f>
-        <v>63747</v>
-      </c>
-      <c r="N35" s="40"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="5" t="s">
+      <c r="M39" s="41">
+        <f>E39+J39</f>
+        <v>66520</v>
+      </c>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" thickBot="1">
+      <c r="H43" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+    </row>
+    <row r="44" spans="1:14" ht="16.5" thickTop="1">
+      <c r="H44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I44" t="s">
         <v>110</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J44" s="37">
         <v>1562</v>
       </c>
-      <c r="K40" t="s">
-        <v>118</v>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="H45" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" t="s">
+        <v>310</v>
+      </c>
+      <c r="J45" s="37">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -4973,7 +5354,7 @@
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H6:K6"/>
   </mergeCells>
@@ -4990,7 +5371,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
@@ -5002,93 +5383,93 @@
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17">
       <c r="B1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
       <c r="C2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D2" s="37">
         <f>5*4+2</f>
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="C3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D3" s="37">
         <f>2*4+1</f>
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="C4" s="58" t="s">
         <v>207</v>
-      </c>
-      <c r="I3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="58" t="s">
-        <v>210</v>
       </c>
       <c r="D4" s="59">
         <v>230000</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="65" customFormat="1">
       <c r="B5" s="65" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="61"/>
       <c r="E5" s="60"/>
       <c r="F5" s="66"/>
       <c r="O5" s="65" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="73"/>
       <c r="E6" s="72"/>
       <c r="F6" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="C7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D7" s="37">
         <v>900</v>
@@ -5098,19 +5479,19 @@
         <v>19800</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H7" s="37"/>
       <c r="J7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D8" s="37">
         <v>500</v>
@@ -5120,10 +5501,10 @@
         <v>11000</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J8" s="67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K8" s="68">
         <v>78</v>
@@ -5133,12 +5514,12 @@
         <v>1716</v>
       </c>
       <c r="N8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="C9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" s="37">
         <v>2000</v>
@@ -5148,10 +5529,10 @@
         <v>18000</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K9" s="63">
         <v>108</v>
@@ -5161,15 +5542,15 @@
         <v>2376</v>
       </c>
       <c r="N9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="C10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="37">
         <v>98000</v>
@@ -5186,9 +5567,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="C11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D11" s="37">
         <v>5000</v>
@@ -5198,12 +5579,12 @@
         <v>5000</v>
       </c>
       <c r="N11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="C12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D12" s="37">
         <v>3000</v>
@@ -5213,12 +5594,12 @@
         <v>3000</v>
       </c>
       <c r="N12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="C13" s="63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D13" s="64">
         <v>2000</v>
@@ -5231,7 +5612,7 @@
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="F14" s="37">
         <f>SUM(F7:F13)</f>
         <v>156800</v>
@@ -5241,9 +5622,9 @@
         <v>0.68173913043478263</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="72" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="73"/>
@@ -5251,9 +5632,9 @@
       <c r="F16" s="73"/>
       <c r="G16" s="72"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="C17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="37">
         <v>1050</v>
@@ -5265,15 +5646,15 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="C18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D18" s="37">
         <v>2000</v>
@@ -5283,32 +5664,32 @@
         <v>4000</v>
       </c>
       <c r="G18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="J19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="J20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14">
       <c r="C21" s="63"/>
       <c r="D21" s="64"/>
       <c r="E21" s="63"/>
@@ -5316,7 +5697,7 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14">
       <c r="F22" s="37">
         <f>SUM(F17:F21)</f>
         <v>5050</v>
@@ -5326,12 +5707,12 @@
         <v>2.1956521739130434E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14">
       <c r="D25" s="80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="80">
         <f>D4-F14-F22</f>
@@ -5342,12 +5723,12 @@
         <v>0.29630434782608694</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C27" s="72"/>
       <c r="D27" s="73"/>
@@ -5355,12 +5736,12 @@
       <c r="F27" s="73"/>
       <c r="G27" s="72"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D28" s="37">
         <v>5000</v>
@@ -5370,15 +5751,15 @@
         <v>36000</v>
       </c>
       <c r="G28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D29" s="37">
         <v>1500</v>
@@ -5388,12 +5769,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D30" s="37">
         <v>5000</v>
@@ -5403,15 +5784,15 @@
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D31" s="37">
         <v>2000</v>
@@ -5421,17 +5802,17 @@
         <v>4000</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="C32" s="63"/>
       <c r="D32" s="64"/>
       <c r="E32" s="63"/>
       <c r="F32" s="64"/>
       <c r="G32" s="63"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14">
       <c r="F33" s="37">
         <f>SUM(F28:F32)</f>
         <v>51500</v>
@@ -5441,15 +5822,15 @@
         <v>0.75568598679383714</v>
       </c>
       <c r="H33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14">
       <c r="D35" s="77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F35" s="77">
         <f>F25-F33</f>
@@ -5460,122 +5841,122 @@
         <v>0.24431401320616286</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14">
       <c r="E36" s="79" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14">
       <c r="F38" s="37">
         <f>F35*12</f>
         <v>199800</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14">
       <c r="E39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F39" s="37">
         <f>900000-200000</f>
         <v>700000</v>
       </c>
       <c r="G39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14">
       <c r="D40" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F40" s="64">
         <f>SUM(F38:F39)</f>
         <v>899800</v>
       </c>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:14">
       <c r="D41" s="37">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F41" s="37">
         <f>$F$40*D41</f>
         <v>899800</v>
       </c>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:14">
       <c r="D42" s="37">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" ref="F42:F45" si="0">$F$40*D42</f>
         <v>1799600</v>
       </c>
       <c r="K42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14">
       <c r="D43" s="37">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="0"/>
         <v>2699400</v>
       </c>
       <c r="K43" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L43" s="37">
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:14">
       <c r="D44" s="37">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="0"/>
         <v>3599200</v>
       </c>
       <c r="H44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J44" s="37">
         <f>SUM(L43:L46)</f>
         <v>2584000</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L44" s="85">
         <v>1410000</v>
@@ -5588,26 +5969,26 @@
         <v>-1380000</v>
       </c>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:14">
       <c r="D45" s="37">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="0"/>
         <v>4499000</v>
       </c>
       <c r="I45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J45" s="83">
         <f>J44-F44</f>
         <v>-1015200</v>
       </c>
       <c r="K45" s="84" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L45" s="85">
         <v>534000</v>
@@ -5620,9 +6001,9 @@
         <v>-126000</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:14">
       <c r="K46" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L46" s="37">
         <v>150000</v>
@@ -5639,64 +6020,78 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="21">
         <v>43117</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="21">
+        <v>43125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="21">
         <v>43128</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="E9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="21">
         <v>43147</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="E12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F12" s="37">
         <v>3500</v>
@@ -5705,63 +6100,64 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="J13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="21">
         <v>43154</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" t="s">
         <v>282</v>
       </c>
-      <c r="G15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" t="s">
-        <v>285</v>
-      </c>
       <c r="I16" s="84" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J16" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" s="84"/>
+    </row>
+    <row r="17" spans="9:12">
+      <c r="I17" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" t="s">
         <v>291</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="L17" s="87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12">
+      <c r="J18" t="s">
         <v>292</v>
-      </c>
-      <c r="L16" s="84"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>293</v>
-      </c>
-      <c r="J17" t="s">
-        <v>294</v>
-      </c>
-      <c r="L17" s="106" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="L17" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1134140148503\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\source tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="346">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -2345,12 +2345,176 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>メガネ(ボストン型)</t>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xperia Z1互換バッテリー</t>
+    <rPh sb="9" eb="11">
+      <t>ゴカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自転車関連</t>
+    <rPh sb="0" eb="3">
+      <t>ジテンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピローカバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｅｄｙチャージ</t>
+  </si>
+  <si>
+    <t>１０９シネマズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blue tooth　スピーカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NETFLIX.COM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STEAM GAMES</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期券</t>
+    <rPh sb="0" eb="3">
+      <t>テイキケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾛﾘﾎﾟﾂﾌﾟ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ａｒｅｔｉ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紳士服ハルヤマスーツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル椿山荘</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレゼント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半年に一回</t>
+    <rPh sb="0" eb="2">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返還</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3月支払(2月一括)</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスマス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伊吹</t>
+    <rPh sb="0" eb="2">
+      <t>イブキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優里子mini</t>
+    <rPh sb="0" eb="3">
+      <t>ユリコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハヤシグチ毛皮ファーカシミヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優里子</t>
+    <rPh sb="0" eb="3">
+      <t>ユリコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半分ポイント返還</t>
+    <rPh sb="0" eb="2">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2426,6 +2590,21 @@
       <color theme="10"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2978,7 +3157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3347,6 +3526,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3865,7 +4071,7 @@
     <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43158</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -6017,15 +6223,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -6137,7 +6344,7 @@
       </c>
       <c r="L16" s="84"/>
     </row>
-    <row r="17" spans="9:12">
+    <row r="17" spans="2:19">
       <c r="I17" t="s">
         <v>290</v>
       </c>
@@ -6148,12 +6355,271 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="9:12">
+    <row r="18" spans="2:19">
       <c r="J18" t="s">
         <v>292</v>
       </c>
     </row>
+    <row r="22" spans="2:19">
+      <c r="H22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="H23" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="37">
+        <v>7200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="37">
+        <v>2980</v>
+      </c>
+      <c r="H24" s="131" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" s="130">
+        <v>9158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>344</v>
+      </c>
+      <c r="R24" s="124"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="37">
+        <v>1880</v>
+      </c>
+      <c r="H25" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25" s="130">
+        <v>480</v>
+      </c>
+      <c r="K25" t="s">
+        <v>345</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="125"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="H26" s="123" t="s">
+        <v>329</v>
+      </c>
+      <c r="I26" s="126">
+        <v>3240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>335</v>
+      </c>
+      <c r="O26" s="21"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="125"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="H27" s="123" t="s">
+        <v>330</v>
+      </c>
+      <c r="I27" s="126">
+        <v>6970</v>
+      </c>
+      <c r="J27" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" t="s">
+        <v>340</v>
+      </c>
+      <c r="O27" s="21"/>
+      <c r="S27" s="125"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="H28" s="127" t="s">
+        <v>328</v>
+      </c>
+      <c r="I28" s="128">
+        <v>43150</v>
+      </c>
+      <c r="J28" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="K28" s="127" t="s">
+        <v>336</v>
+      </c>
+      <c r="O28" s="21"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="125"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="H29" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="I29" s="130">
+        <v>149</v>
+      </c>
+      <c r="K29" t="s">
+        <v>345</v>
+      </c>
+      <c r="O29" s="21"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="125"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="H30" s="129"/>
+      <c r="I30" s="130">
+        <v>890</v>
+      </c>
+      <c r="K30" t="s">
+        <v>345</v>
+      </c>
+      <c r="O30" s="21"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="125"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="H31" s="129"/>
+      <c r="I31" s="130">
+        <v>899</v>
+      </c>
+      <c r="K31" t="s">
+        <v>345</v>
+      </c>
+      <c r="O31" s="21"/>
+      <c r="S31" s="125"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="H32" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="I32" s="130">
+        <v>2000</v>
+      </c>
+      <c r="O32" s="21"/>
+      <c r="S32" s="125"/>
+    </row>
+    <row r="33" spans="8:19">
+      <c r="H33" s="131" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="130">
+        <v>1026</v>
+      </c>
+      <c r="O33" s="21"/>
+      <c r="S33" s="125"/>
+    </row>
+    <row r="34" spans="8:19">
+      <c r="H34" s="123" t="s">
+        <v>325</v>
+      </c>
+      <c r="I34" s="37">
+        <v>2904</v>
+      </c>
+      <c r="J34" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" t="s">
+        <v>339</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="R34" s="124"/>
+      <c r="S34" s="125"/>
+    </row>
+    <row r="35" spans="8:19">
+      <c r="H35" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="I35" s="37">
+        <v>11000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>338</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="125"/>
+    </row>
+    <row r="36" spans="8:19">
+      <c r="H36" s="131" t="s">
+        <v>327</v>
+      </c>
+      <c r="I36" s="130">
+        <v>740</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="R36" s="124"/>
+      <c r="S36" s="125"/>
+    </row>
+    <row r="37" spans="8:19">
+      <c r="H37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I37" s="37">
+        <v>4900</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="125"/>
+    </row>
+    <row r="38" spans="8:19">
+      <c r="I38" s="37"/>
+      <c r="O38" s="21"/>
+      <c r="S38" s="125"/>
+    </row>
+    <row r="39" spans="8:19">
+      <c r="I39" s="37">
+        <f>SUM(I23:I37)</f>
+        <v>94706</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="125"/>
+    </row>
+    <row r="40" spans="8:19">
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="8:19">
+      <c r="I41" s="37">
+        <f>SUM(I36,I29:I33,I25,I24)</f>
+        <v>15342</v>
+      </c>
+      <c r="J41" s="62">
+        <f>I41/I39</f>
+        <v>0.16199607205456887</v>
+      </c>
+    </row>
+    <row r="42" spans="8:19">
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="8:19">
+      <c r="I43" s="37"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H29:H31"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="L17" r:id="rId1"/>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="考え" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ｓ" sheetId="3" r:id="rId3"/>
     <sheet name="行動" sheetId="4" r:id="rId4"/>
     <sheet name="案だし" sheetId="5" r:id="rId5"/>
+    <sheet name="札幌" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="382">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -2509,12 +2510,294 @@
     <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>メイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昼食</t>
+    <rPh sb="0" eb="2">
+      <t>チュウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夕食</t>
+    <rPh sb="0" eb="2">
+      <t>ユウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成田10:15-新千歳12:05</t>
+    <rPh sb="0" eb="2">
+      <t>ナリタ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シンチトセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新千歳19:30-成田21:05</t>
+    <rPh sb="0" eb="3">
+      <t>シンチトセ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナリタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>札幌ビューホテル大通公園</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>札幌市中央区大通西8丁目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大通・狸小路</t>
+    <rPh sb="0" eb="2">
+      <t>オオドオリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タヌキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>春スノボ</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桑園イオン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北大</t>
+    <rPh sb="0" eb="2">
+      <t>ホクダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北食</t>
+    <rPh sb="0" eb="1">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とりあたま</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シープバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気羊酒場 エレクトリックシープバー</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒツジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サカバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ととり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yoshi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スープカレー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>札駅</t>
+    <rPh sb="0" eb="1">
+      <t>サツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大通</t>
+    <rPh sb="0" eb="2">
+      <t>オオドオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3泊４日札幌旅行</t>
+    <rPh sb="1" eb="2">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(午後早めに離別)</t>
+    <rPh sb="1" eb="3">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北大周辺</t>
+    <rPh sb="0" eb="2">
+      <t>ホクダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル周辺</t>
+    <rPh sb="3" eb="5">
+      <t>シュウヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北食・中央食堂</t>
+    <rPh sb="0" eb="1">
+      <t>ホク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショクドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北○</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>和楽</t>
+    <rPh sb="0" eb="2">
+      <t>ワラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二十四軒</t>
+    <rPh sb="0" eb="3">
+      <t>ニジュウヨン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南北ストリート</t>
+    <rPh sb="0" eb="2">
+      <t>ナンボク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北二十四条</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>２４ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YOSHI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>札幌駅周辺?</t>
+    <rPh sb="0" eb="3">
+      <t>サッポロエキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>狸小路</t>
+    <rPh sb="0" eb="1">
+      <t>タヌキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3157,7 +3440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3470,6 +3753,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3527,32 +3834,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3843,13 +4132,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3857,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3868,7 +4157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3876,12 +4165,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -3893,7 +4182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -3901,7 +4190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +4205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -3927,7 +4216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -3941,7 +4230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -3955,7 +4244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -3972,7 +4261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -3983,7 +4272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -3997,7 +4286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -4011,7 +4300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4019,27 +4308,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -4058,7 +4347,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -4068,14 +4357,14 @@
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43158</v>
+        <v>43189</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -4098,8 +4387,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="107" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -4122,11 +4411,11 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -4150,8 +4439,8 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="108"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="116"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -4177,8 +4466,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="108"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="116"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -4201,8 +4490,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="108"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="116"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -4225,8 +4514,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="109"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="117"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -4250,8 +4539,8 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B9" s="110"/>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="118"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -4275,8 +4564,8 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="104" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="112" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -4299,8 +4588,8 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="105"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="113"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -4326,8 +4615,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="105"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="113"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -4353,8 +4642,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B13" s="106"/>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -4377,17 +4666,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -4395,22 +4684,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B19" s="111" t="s">
+    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="112"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
@@ -4421,8 +4710,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="113" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="121" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4432,8 +4721,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="114"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="122"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -4441,8 +4730,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="115"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="123"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -4471,7 +4760,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -4489,7 +4778,7 @@
     <col min="14" max="14" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>114</v>
       </c>
@@ -4508,12 +4797,12 @@
       <c r="F1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
       <c r="M1" t="s">
         <v>295</v>
       </c>
@@ -4521,7 +4810,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>147</v>
       </c>
@@ -4554,7 +4843,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>164</v>
       </c>
@@ -4587,7 +4876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
         <v>129</v>
       </c>
@@ -4620,7 +4909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>307</v>
       </c>
@@ -4653,7 +4942,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>129</v>
       </c>
@@ -4675,12 +4964,12 @@
       <c r="G6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="122"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
       <c r="M6" s="89" t="s">
         <v>299</v>
       </c>
@@ -4689,7 +4978,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
         <v>129</v>
       </c>
@@ -4725,7 +5014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1">
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>162</v>
       </c>
@@ -4758,7 +5047,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>144</v>
       </c>
@@ -4794,7 +5083,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>304</v>
       </c>
@@ -4830,7 +5119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>195</v>
       </c>
@@ -4864,7 +5153,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>102</v>
       </c>
@@ -4891,7 +5180,7 @@
       <c r="J12" s="46"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>103</v>
       </c>
@@ -4918,7 +5207,7 @@
       <c r="J13" s="46"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>103</v>
       </c>
@@ -4942,7 +5231,7 @@
       <c r="J14" s="46"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>102</v>
       </c>
@@ -4966,7 +5255,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>102</v>
       </c>
@@ -4993,7 +5282,7 @@
       <c r="J16" s="46"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>103</v>
       </c>
@@ -5020,7 +5309,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5336,7 @@
       <c r="J18" s="46"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>154</v>
       </c>
@@ -5074,7 +5363,7 @@
       <c r="J19" s="46"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="s">
         <v>120</v>
       </c>
@@ -5101,7 +5390,7 @@
       <c r="J20" s="46"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
         <v>151</v>
       </c>
@@ -5128,7 +5417,7 @@
       <c r="J21" s="46"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="101" t="s">
         <v>129</v>
       </c>
@@ -5155,7 +5444,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="44"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="101" t="s">
         <v>129</v>
       </c>
@@ -5182,7 +5471,7 @@
       <c r="J23" s="46"/>
       <c r="K23" s="44"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>103</v>
       </c>
@@ -5209,7 +5498,7 @@
       <c r="J24" s="46"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>103</v>
       </c>
@@ -5236,7 +5525,7 @@
       <c r="J25" s="46"/>
       <c r="K25" s="44"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>157</v>
       </c>
@@ -5263,7 +5552,7 @@
       <c r="J26" s="46"/>
       <c r="K26" s="44"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>122</v>
       </c>
@@ -5290,7 +5579,7 @@
       <c r="J27" s="46"/>
       <c r="K27" s="44"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>107</v>
       </c>
@@ -5317,7 +5606,7 @@
       <c r="J28" s="46"/>
       <c r="K28" s="44"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>312</v>
       </c>
@@ -5344,7 +5633,7 @@
       <c r="J29" s="46"/>
       <c r="K29" s="44"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>103</v>
       </c>
@@ -5371,7 +5660,7 @@
       <c r="J30" s="46"/>
       <c r="K30" s="44"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -5383,7 +5672,7 @@
       <c r="J31" s="46"/>
       <c r="K31" s="44"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44" t="s">
@@ -5401,7 +5690,7 @@
       <c r="J32" s="45"/>
       <c r="K32" s="44"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -5417,7 +5706,7 @@
       <c r="J33" s="45"/>
       <c r="K33" s="44"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -5433,7 +5722,7 @@
       <c r="J34" s="45"/>
       <c r="K34" s="44"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -5449,7 +5738,7 @@
       <c r="J35" s="45"/>
       <c r="K35" s="44"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -5465,7 +5754,7 @@
       <c r="J36" s="45"/>
       <c r="K36" s="44"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -5481,7 +5770,7 @@
       <c r="J37" s="45"/>
       <c r="K37" s="44"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -5493,7 +5782,7 @@
       <c r="J38" s="45"/>
       <c r="K38" s="44"/>
     </row>
-    <row r="39" spans="1:14" s="39" customFormat="1">
+    <row r="39" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -5524,14 +5813,14 @@
       </c>
       <c r="N39" s="40"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5" thickBot="1">
-      <c r="H43" s="116" t="s">
+    <row r="43" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" thickTop="1">
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+    </row>
+    <row r="44" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H44" s="5" t="s">
         <v>111</v>
       </c>
@@ -5542,7 +5831,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H45" s="5" t="s">
         <v>309</v>
       </c>
@@ -5577,7 +5866,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
@@ -5589,12 +5878,12 @@
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>200</v>
       </c>
@@ -5609,7 +5898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>201</v>
       </c>
@@ -5624,7 +5913,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" s="58" t="s">
         <v>207</v>
       </c>
@@ -5644,7 +5933,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1">
+    <row r="5" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
         <v>233</v>
       </c>
@@ -5656,7 +5945,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="72" t="s">
         <v>212</v>
       </c>
@@ -5673,7 +5962,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>222</v>
       </c>
@@ -5695,7 +5984,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>221</v>
       </c>
@@ -5723,7 +6012,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>220</v>
       </c>
@@ -5754,7 +6043,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>206</v>
       </c>
@@ -5773,7 +6062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>208</v>
       </c>
@@ -5788,7 +6077,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>210</v>
       </c>
@@ -5803,7 +6092,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="63" t="s">
         <v>209</v>
       </c>
@@ -5818,7 +6107,7 @@
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F14" s="37">
         <f>SUM(F7:F13)</f>
         <v>156800</v>
@@ -5828,7 +6117,7 @@
         <v>0.68173913043478263</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="72" t="s">
         <v>211</v>
       </c>
@@ -5838,7 +6127,7 @@
       <c r="F16" s="73"/>
       <c r="G16" s="72"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>213</v>
       </c>
@@ -5858,7 +6147,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>214</v>
       </c>
@@ -5879,7 +6168,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>219</v>
       </c>
@@ -5887,7 +6176,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>242</v>
       </c>
@@ -5895,7 +6184,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" s="63"/>
       <c r="D21" s="64"/>
       <c r="E21" s="63"/>
@@ -5903,7 +6192,7 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="37">
         <f>SUM(F17:F21)</f>
         <v>5050</v>
@@ -5913,7 +6202,7 @@
         <v>2.1956521739130434E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="80" t="s">
         <v>252</v>
       </c>
@@ -5932,7 +6221,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="72" t="s">
         <v>254</v>
       </c>
@@ -5942,7 +6231,7 @@
       <c r="F27" s="73"/>
       <c r="G27" s="72"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>258</v>
       </c>
@@ -5960,7 +6249,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>258</v>
       </c>
@@ -5975,7 +6264,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>258</v>
       </c>
@@ -5993,7 +6282,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>258</v>
       </c>
@@ -6011,14 +6300,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="63"/>
       <c r="D32" s="64"/>
       <c r="E32" s="63"/>
       <c r="F32" s="64"/>
       <c r="G32" s="63"/>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F33" s="37">
         <f>SUM(F28:F32)</f>
         <v>51500</v>
@@ -6031,7 +6320,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="4:14">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="77" t="s">
         <v>249</v>
       </c>
@@ -6050,7 +6339,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="4:14">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E36" s="79" t="s">
         <v>246</v>
       </c>
@@ -6058,7 +6347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="4:14">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F38" s="37">
         <f>F35*12</f>
         <v>199800</v>
@@ -6067,7 +6356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="4:14">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>250</v>
       </c>
@@ -6079,7 +6368,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="4:14">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="64" t="s">
         <v>256</v>
       </c>
@@ -6091,7 +6380,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="41" spans="4:14">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="37">
         <v>1</v>
       </c>
@@ -6103,7 +6392,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="42" spans="4:14">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="37">
         <v>2</v>
       </c>
@@ -6125,7 +6414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="4:14">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="37">
         <v>3</v>
       </c>
@@ -6143,7 +6432,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="4:14">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="37">
         <v>4</v>
       </c>
@@ -6175,7 +6464,7 @@
         <v>-1380000</v>
       </c>
     </row>
-    <row r="45" spans="4:14">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="37">
         <v>5</v>
       </c>
@@ -6207,7 +6496,7 @@
         <v>-126000</v>
       </c>
     </row>
-    <row r="46" spans="4:14">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
         <v>264</v>
       </c>
@@ -6225,20 +6514,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>43117</v>
       </c>
@@ -6246,7 +6535,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>43125</v>
       </c>
@@ -6263,7 +6552,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>43128</v>
       </c>
@@ -6274,12 +6563,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>43147</v>
       </c>
@@ -6296,7 +6585,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>278</v>
       </c>
@@ -6307,12 +6596,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>43154</v>
       </c>
@@ -6326,7 +6615,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>280</v>
       </c>
@@ -6344,7 +6633,7 @@
       </c>
       <c r="L16" s="84"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>290</v>
       </c>
@@ -6355,17 +6644,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H23" s="1" t="s">
         <v>332</v>
       </c>
@@ -6379,63 +6668,63 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>319</v>
       </c>
       <c r="D24" s="37">
         <v>2980</v>
       </c>
-      <c r="H24" s="131" t="s">
+      <c r="H24" s="111" t="s">
         <v>331</v>
       </c>
-      <c r="I24" s="130">
+      <c r="I24" s="110">
         <v>9158</v>
       </c>
       <c r="K24" t="s">
         <v>344</v>
       </c>
-      <c r="R24" s="124"/>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="R24" s="105"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>320</v>
       </c>
       <c r="D25" s="37">
         <v>1880</v>
       </c>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="I25" s="130">
+      <c r="I25" s="110">
         <v>480</v>
       </c>
       <c r="K25" t="s">
         <v>345</v>
       </c>
       <c r="O25" s="21"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="125"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="H26" s="123" t="s">
+      <c r="R25" s="105"/>
+      <c r="S25" s="106"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H26" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="I26" s="126">
+      <c r="I26" s="107">
         <v>3240</v>
       </c>
       <c r="J26" t="s">
         <v>335</v>
       </c>
       <c r="O26" s="21"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="125"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="H27" s="123" t="s">
+      <c r="R26" s="105"/>
+      <c r="S26" s="106"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H27" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="126">
+      <c r="I27" s="107">
         <v>6970</v>
       </c>
       <c r="J27" t="s">
@@ -6445,84 +6734,84 @@
         <v>340</v>
       </c>
       <c r="O27" s="21"/>
-      <c r="S27" s="125"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="H28" s="127" t="s">
+      <c r="S27" s="106"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H28" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="I28" s="128">
+      <c r="I28" s="109">
         <v>43150</v>
       </c>
-      <c r="J28" s="127" t="s">
+      <c r="J28" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="127" t="s">
+      <c r="K28" s="108" t="s">
         <v>336</v>
       </c>
       <c r="O28" s="21"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="125"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="H29" s="129" t="s">
+      <c r="R28" s="105"/>
+      <c r="S28" s="106"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H29" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="110">
         <v>149</v>
       </c>
       <c r="K29" t="s">
         <v>345</v>
       </c>
       <c r="O29" s="21"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="125"/>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="H30" s="129"/>
-      <c r="I30" s="130">
+      <c r="R29" s="105"/>
+      <c r="S29" s="106"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H30" s="131"/>
+      <c r="I30" s="110">
         <v>890</v>
       </c>
       <c r="K30" t="s">
         <v>345</v>
       </c>
       <c r="O30" s="21"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="125"/>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="H31" s="129"/>
-      <c r="I31" s="130">
+      <c r="R30" s="105"/>
+      <c r="S30" s="106"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H31" s="131"/>
+      <c r="I31" s="110">
         <v>899</v>
       </c>
       <c r="K31" t="s">
         <v>345</v>
       </c>
       <c r="O31" s="21"/>
-      <c r="S31" s="125"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="H32" s="131" t="s">
+      <c r="S31" s="106"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H32" s="111" t="s">
         <v>323</v>
       </c>
-      <c r="I32" s="130">
+      <c r="I32" s="110">
         <v>2000</v>
       </c>
       <c r="O32" s="21"/>
-      <c r="S32" s="125"/>
-    </row>
-    <row r="33" spans="8:19">
-      <c r="H33" s="131" t="s">
+      <c r="S32" s="106"/>
+    </row>
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H33" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="I33" s="130">
+      <c r="I33" s="110">
         <v>1026</v>
       </c>
       <c r="O33" s="21"/>
-      <c r="S33" s="125"/>
-    </row>
-    <row r="34" spans="8:19">
-      <c r="H34" s="123" t="s">
+      <c r="S33" s="106"/>
+    </row>
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H34" s="104" t="s">
         <v>325</v>
       </c>
       <c r="I34" s="37">
@@ -6535,11 +6824,11 @@
         <v>339</v>
       </c>
       <c r="O34" s="21"/>
-      <c r="R34" s="124"/>
-      <c r="S34" s="125"/>
-    </row>
-    <row r="35" spans="8:19">
-      <c r="H35" s="123" t="s">
+      <c r="R34" s="105"/>
+      <c r="S34" s="106"/>
+    </row>
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H35" s="104" t="s">
         <v>341</v>
       </c>
       <c r="I35" s="37">
@@ -6552,21 +6841,21 @@
         <v>338</v>
       </c>
       <c r="O35" s="21"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="125"/>
-    </row>
-    <row r="36" spans="8:19">
-      <c r="H36" s="131" t="s">
+      <c r="R35" s="105"/>
+      <c r="S35" s="106"/>
+    </row>
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H36" s="111" t="s">
         <v>327</v>
       </c>
-      <c r="I36" s="130">
+      <c r="I36" s="110">
         <v>740</v>
       </c>
       <c r="O36" s="21"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="125"/>
-    </row>
-    <row r="37" spans="8:19">
+      <c r="R36" s="105"/>
+      <c r="S36" s="106"/>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37" s="1" t="s">
         <v>324</v>
       </c>
@@ -6580,27 +6869,27 @@
         <v>342</v>
       </c>
       <c r="O37" s="21"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="125"/>
-    </row>
-    <row r="38" spans="8:19">
+      <c r="R37" s="105"/>
+      <c r="S37" s="106"/>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I38" s="37"/>
       <c r="O38" s="21"/>
-      <c r="S38" s="125"/>
-    </row>
-    <row r="39" spans="8:19">
+      <c r="S38" s="106"/>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I39" s="37">
         <f>SUM(I23:I37)</f>
         <v>94706</v>
       </c>
       <c r="O39" s="21"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="125"/>
-    </row>
-    <row r="40" spans="8:19">
+      <c r="R39" s="105"/>
+      <c r="S39" s="106"/>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="8:19">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I41" s="37">
         <f>SUM(I36,I29:I33,I25,I24)</f>
         <v>15342</v>
@@ -6610,10 +6899,10 @@
         <v>0.16199607205456887</v>
       </c>
     </row>
-    <row r="42" spans="8:19">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="8:19">
+    <row r="43" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I43" s="37"/>
     </row>
   </sheetData>
@@ -6627,4 +6916,235 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="133">
+        <v>43196</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="133"/>
+      <c r="C4" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="133">
+        <v>43197</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="133"/>
+      <c r="C6" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="133">
+        <v>43198</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="133"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="133">
+        <v>43199</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="133"/>
+      <c r="C10" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="考え" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="行動" sheetId="4" r:id="rId4"/>
     <sheet name="案だし" sheetId="5" r:id="rId5"/>
     <sheet name="札幌" sheetId="6" r:id="rId6"/>
+    <sheet name="将来" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="434">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -2792,12 +2793,609 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>SHS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリングガイド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">守護神 アルミ製 スプリングガイド Ver.3用 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楽</t>
+    <rPh sb="0" eb="1">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大里</t>
+    <rPh sb="0" eb="2">
+      <t>オオサト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユニクロ 小ネジサラ M5×25 50入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>施設利用代</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食事・飲物</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/5/27_定例会(ユニオンベース)</t>
+    <rPh sb="10" eb="13">
+      <t>テイレイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Bolle]シューティングゴーグル THUNDER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[CYC]精密バイオBB弾 0.25g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[]ダンプポーチ ミリタリーポーチ OD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VFC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HK417 レイルハンドガード/アルミCNC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BigDragon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベルト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>服装</t>
+    <rPh sb="0" eb="2">
+      <t>フクソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tacticalウエストベルト/Cordura1000D (OD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本語圏</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スペイン語圏</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>英語圏</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アメリカ・イギリス・フィリピン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワーキングホリデー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スペイン・チリ・グアテマラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1年間(最長2年間)</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>27歳</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>28歳</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>29歳</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30歳</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>31歳</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海外では低収入になる可能性がある</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特に"これから"学ぶスペイン語圏内では英語圏よりもより不安要素は高い</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とはいえ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>折衝案となるが、</t>
+    <rPh sb="0" eb="2">
+      <t>セッショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ワーホリを利用したチリへの渡航は勿論OK</t>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モチロン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　それに延長を利用して志望する建築家のところで修行するのもOK</t>
+    <rPh sb="4" eb="6">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケンチクカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とはいえ努力して優里子に付いて行きたいので</t>
+    <rPh sb="4" eb="6">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ユリコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海外であるならば英語(ワーホリが終わるころを目指して)を中心として仕事をみつけられるようにしたい</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まだとっかかりがあるから</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で修行を積む・そのうち修行が実り、仕事を得る・暮らすという考えは尊重したい</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミノ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>但し、俺は恐らく簡単にスペイン語圏での仕事を簡単には見つけられない/ 語学が弱いことからスペイン語習得も容易ではないと思っている</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゴガク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優里子がチリに行くのと同時に</t>
+    <rPh sb="0" eb="3">
+      <t>ユリコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>俺は英語の勉強を始め、1-2年後に</t>
+    <rPh sb="0" eb="1">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　日本で仕事をするか、英語圏で仕事をするか二人で決めたい</t>
+    <rPh sb="1" eb="3">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>英語圏で　優里子がある程度の安定した職につけるなら</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ユリコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本心だけ言えば、俺は優里子に</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ユリコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　師と言える沢山学んできてほしい、世界的に活躍できるようにな人間になってほしい、好きな仕事をしてほしい</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セカイテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カツヤク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2890,6 +3488,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2953,7 +3566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -3425,6 +4038,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3440,7 +4137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3555,9 +4252,6 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3705,18 +4399,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3729,21 +4411,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3777,6 +4444,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3837,11 +4549,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3861,6 +4579,189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162049" y="1800225"/>
+          <a:ext cx="1514475" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ワーホリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(1)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686049" y="1800225"/>
+          <a:ext cx="1495425" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ワーホリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(2)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4132,13 +5033,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -4146,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4157,7 +5058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4165,12 +5066,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -4182,7 +5083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -4190,7 +5091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +5106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -4216,7 +5117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4230,7 +5131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -4244,7 +5145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -4261,7 +5162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -4272,7 +5173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +5187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -4300,7 +5201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -4308,27 +5209,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -4347,7 +5248,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -4357,14 +5258,14 @@
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43251</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -4387,8 +5288,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="115" t="s">
+    <row r="3" spans="1:11">
+      <c r="B3" s="120" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -4411,11 +5312,11 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -4439,8 +5340,8 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="116"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="121"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -4466,8 +5367,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
+    <row r="6" spans="1:11">
+      <c r="B6" s="121"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -4490,8 +5391,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="116"/>
+    <row r="7" spans="1:11">
+      <c r="B7" s="121"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -4514,8 +5415,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="117"/>
+    <row r="8" spans="1:11">
+      <c r="B8" s="122"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -4539,8 +5440,8 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118"/>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
+      <c r="B9" s="123"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -4564,8 +5465,8 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+    <row r="10" spans="1:11">
+      <c r="B10" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -4588,8 +5489,8 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="113"/>
+    <row r="11" spans="1:11">
+      <c r="B11" s="118"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -4615,8 +5516,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="113"/>
+    <row r="12" spans="1:11">
+      <c r="B12" s="118"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -4642,8 +5543,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1">
+      <c r="B13" s="119"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -4666,17 +5567,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -4684,22 +5585,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="C17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119" t="s">
+    <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1">
+      <c r="B19" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
@@ -4710,8 +5611,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="121" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="126" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4721,8 +5622,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="122"/>
+    <row r="22" spans="2:4">
+      <c r="B22" s="127"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -4730,8 +5631,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="123"/>
+    <row r="23" spans="2:4">
+      <c r="B23" s="128"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -4754,13 +5655,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -4778,374 +5679,396 @@
     <col min="14" max="14" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
-      <c r="M1" t="s">
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
+      <c r="M1" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="N1" s="105"/>
+      <c r="P1" s="53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1">
+      <c r="A2" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>3258</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="43">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="M2" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="43"/>
+      <c r="M2" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="107">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>750</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="44"/>
-      <c r="M3" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="43"/>
+      <c r="M3" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="108">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="88">
         <v>150</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="87">
         <v>1</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44"/>
-      <c r="M4" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="43"/>
+      <c r="M4" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="107">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="92">
         <v>999</v>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="91">
         <v>1</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44"/>
-      <c r="M5" s="63" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="43"/>
+      <c r="M5" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="110">
         <v>-2500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A6" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>363</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130"/>
-      <c r="M6" s="89" t="s">
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="M6" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="N6" s="90">
+      <c r="N6" s="112">
         <f>SUM(N2:N5)</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1361</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="11"/>
+      <c r="M7" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="N7" s="107">
+        <v>1700</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" thickTop="1">
+      <c r="A8" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B8" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C8" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D8" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E8" s="88">
         <v>1180</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F8" s="87">
         <v>1</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G8" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="N7" s="37">
-        <v>1700</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="113" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="107">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E9" s="44">
         <v>1480</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F9" s="43">
         <v>1</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="N8" s="37">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="93">
-        <v>578</v>
-      </c>
-      <c r="F9" s="92">
-        <v>1</v>
-      </c>
-      <c r="G9" s="94" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" s="44">
+        <v>1496</v>
+      </c>
+      <c r="K9" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="107">
         <v>150</v>
       </c>
       <c r="P9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="101" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="102">
-        <v>1288</v>
-      </c>
-      <c r="F10" s="101">
+      <c r="D10" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="88">
+        <v>578</v>
+      </c>
+      <c r="F10" s="87">
         <v>1</v>
       </c>
-      <c r="G10" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="91" t="s">
+      <c r="G10" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="45">
+        <v>1221</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="110">
         <v>-1250</v>
       </c>
       <c r="P10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A11" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="44">
+      <c r="C11" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="92">
+        <v>1288</v>
+      </c>
+      <c r="F11" s="91">
         <v>1</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="44"/>
-      <c r="M11" s="96" t="s">
+      <c r="G11" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" s="44">
+        <v>200</v>
+      </c>
+      <c r="K11" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="115" t="s">
         <v>298</v>
       </c>
-      <c r="N11" s="97">
+      <c r="N11" s="116">
         <f>SUM(N6:N10)</f>
         <v>7100</v>
       </c>
@@ -5153,692 +6076,820 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A12" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="43">
+        <v>1</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E13" s="44">
         <v>38000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F13" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="43"/>
+      <c r="M13" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="N13" s="105"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E14" s="44">
         <v>2724</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F14" s="43">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="43"/>
+      <c r="M14" s="106" t="s">
+        <v>390</v>
+      </c>
+      <c r="N14" s="107">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F15" s="43">
         <v>2</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="43"/>
+      <c r="M15" s="106" t="s">
+        <v>391</v>
+      </c>
+      <c r="N15" s="107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A16" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="44">
+        <v>9526</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="43"/>
+      <c r="M16" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="N16" s="116">
+        <f>SUM(N14:N15)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F17" s="43">
         <v>2</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E18" s="44">
         <v>900</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F18" s="43">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E19" s="44">
         <v>1940</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F19" s="43">
         <v>1</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E20" s="44">
         <v>1280</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F20" s="43">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="H20" s="50"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E21" s="44">
         <v>1500</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F21" s="43">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B22" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C22" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D22" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E22" s="88">
         <v>420</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F22" s="87">
         <v>1</v>
       </c>
-      <c r="G20" s="94" t="s">
+      <c r="G22" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="H22" s="50"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B23" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C23" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D23" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E23" s="92">
         <v>929</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F23" s="91">
         <v>1</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G23" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="44"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="H23" s="50"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B24" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C24" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D24" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E24" s="92">
         <v>430</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F24" s="91">
         <v>1</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G24" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="44"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="H24" s="50"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B25" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C25" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D25" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E25" s="92">
         <v>270</v>
       </c>
-      <c r="F23" s="101">
+      <c r="F25" s="91">
         <v>6</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G25" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="44"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="H25" s="50"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D26" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E26" s="44">
         <v>6716</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="44"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="H26" s="50"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="43"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E27" s="44">
         <v>1080</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F27" s="43">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="44"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="H27" s="50"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="43"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B28" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C28" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D28" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E28" s="88">
         <v>2480</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F28" s="87">
         <v>1</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G28" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="44"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="H28" s="50"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E29" s="44">
         <v>682</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F29" s="43">
         <v>1</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G29" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="44"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="H29" s="50"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="43"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D30" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E30" s="44">
         <v>1166</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F30" s="43">
         <v>4000</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="H30" s="50"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="87" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B31" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C31" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D31" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E31" s="88">
         <v>216</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F31" s="87">
         <v>2</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G31" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="44"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="H31" s="50"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="43"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E32" s="44">
         <v>1400</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F32" s="43">
         <v>1</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="44"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="44"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="44"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44" t="s">
+      <c r="H32" s="50"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="43"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="44">
+        <v>1250</v>
+      </c>
+      <c r="F33" s="43">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H33" s="50"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="43"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E34" s="44">
+        <v>175</v>
+      </c>
+      <c r="F34" s="43">
+        <v>50</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="50"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="43"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="43"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="43"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="45">
-        <v>-3653</v>
-      </c>
-      <c r="F32" s="44"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="44"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44" t="s">
+      <c r="E36" s="44">
+        <v>-4540</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="43"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E37" s="44">
         <v>-300</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="44"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44" t="s">
+      <c r="F37" s="43"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="43"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E38" s="44">
         <v>-100</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="44"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44" t="s">
+      <c r="F38" s="43"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="43"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E39" s="44">
         <v>-300</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="44"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44" t="s">
+      <c r="F39" s="43"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="43"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E40" s="44">
         <v>-1300</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44" t="s">
+      <c r="F40" s="43"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="43"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E41" s="44">
         <v>-6</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="44"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="44"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48" t="s">
+      <c r="F41" s="43"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="43"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="43"/>
+    </row>
+    <row r="43" spans="1:14" s="38" customFormat="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="49">
-        <f>SUM(E2:E38)</f>
-        <v>66520</v>
-      </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="52" t="s">
+      <c r="E43" s="48">
+        <f>SUM(E2:E42)</f>
+        <v>77945</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="49">
-        <f>SUM(J2:J38)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="39" t="s">
+      <c r="J43" s="48">
+        <f>SUM(J2:J42)</f>
+        <v>2917</v>
+      </c>
+      <c r="K43" s="46"/>
+      <c r="L43" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="M39" s="41">
-        <f>E39+J39</f>
-        <v>66520</v>
-      </c>
-      <c r="N39" s="40"/>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="124" t="s">
+      <c r="M43" s="40">
+        <f>E43+J43</f>
+        <v>80862</v>
+      </c>
+      <c r="N43" s="39"/>
+    </row>
+    <row r="47" spans="1:14" ht="16.5" thickBot="1">
+      <c r="H47" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="5" t="s">
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" thickTop="1">
+      <c r="H48" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I48" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J48" s="37">
         <v>1562</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H45" s="5" t="s">
+    <row r="49" spans="8:10">
+      <c r="H49" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I49" t="s">
         <v>310</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J49" s="37">
         <v>648</v>
       </c>
     </row>
@@ -5849,7 +6900,7 @@
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H6:K6"/>
   </mergeCells>
@@ -5866,7 +6917,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
@@ -5878,12 +6929,12 @@
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17">
       <c r="B1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17">
       <c r="C2" t="s">
         <v>200</v>
       </c>
@@ -5898,7 +6949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17">
       <c r="C3" t="s">
         <v>201</v>
       </c>
@@ -5913,14 +6964,14 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="58" t="s">
+    <row r="4" spans="2:17">
+      <c r="C4" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="58">
         <v>230000</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>203</v>
       </c>
       <c r="I4" t="s">
@@ -5933,36 +6984,36 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+    <row r="5" spans="2:17" s="64" customFormat="1">
+      <c r="B5" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="66"/>
-      <c r="O5" s="65" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="65"/>
+      <c r="O5" s="64" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+    <row r="6" spans="2:17">
+      <c r="B6" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="74" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="74" t="s">
         <v>226</v>
       </c>
       <c r="N6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="C7" t="s">
         <v>222</v>
       </c>
@@ -5984,7 +7035,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
         <v>221</v>
       </c>
@@ -5998,13 +7049,13 @@
       <c r="G8" t="s">
         <v>225</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="67">
         <v>78</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="69">
         <f>K8*D2</f>
         <v>1716</v>
       </c>
@@ -6012,7 +7063,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="C9" t="s">
         <v>220</v>
       </c>
@@ -6026,13 +7077,13 @@
       <c r="G9" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="62">
         <v>108</v>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="70">
         <f>K9*D2</f>
         <v>2376</v>
       </c>
@@ -6043,7 +7094,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="C10" t="s">
         <v>206</v>
       </c>
@@ -6062,7 +7113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="C11" t="s">
         <v>208</v>
       </c>
@@ -6077,7 +7128,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="C12" t="s">
         <v>210</v>
       </c>
@@ -6092,42 +7143,42 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="63" t="s">
+    <row r="13" spans="2:17">
+      <c r="C13" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>2000</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64">
+      <c r="E13" s="62"/>
+      <c r="F13" s="63">
         <f>D13</f>
         <v>2000</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="F14" s="37">
         <f>SUM(F7:F13)</f>
         <v>156800</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f>F14/D4</f>
         <v>0.68173913043478263</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="72" t="s">
+    <row r="16" spans="2:17">
+      <c r="B16" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="72"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="71"/>
+    </row>
+    <row r="17" spans="2:14">
       <c r="C17" t="s">
         <v>213</v>
       </c>
@@ -6147,7 +7198,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="C18" t="s">
         <v>214</v>
       </c>
@@ -6168,7 +7219,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14">
       <c r="J19" t="s">
         <v>219</v>
       </c>
@@ -6176,7 +7227,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14">
       <c r="J20" t="s">
         <v>242</v>
       </c>
@@ -6184,36 +7235,36 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="2:14">
       <c r="F22" s="37">
         <f>SUM(F17:F21)</f>
         <v>5050</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="61">
         <f>F22/D4</f>
         <v>2.1956521739130434E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="80" t="s">
+    <row r="25" spans="2:14">
+      <c r="D25" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="79">
         <f>D4-F14-F22</f>
         <v>68150</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="81">
         <f>1-G14-G22</f>
         <v>0.29630434782608694</v>
       </c>
@@ -6221,17 +7272,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="72" t="s">
+    <row r="27" spans="2:14">
+      <c r="B27" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="71"/>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
         <v>258</v>
       </c>
@@ -6249,7 +7300,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
         <v>258</v>
       </c>
@@ -6264,7 +7315,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
         <v>258</v>
       </c>
@@ -6282,7 +7333,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
         <v>258</v>
       </c>
@@ -6300,19 +7351,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="63"/>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14">
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="62"/>
+    </row>
+    <row r="33" spans="4:14">
       <c r="F33" s="37">
         <f>SUM(F28:F32)</f>
         <v>51500</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="61">
         <f>F33/F25</f>
         <v>0.75568598679383714</v>
       </c>
@@ -6320,18 +7371,18 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="77" t="s">
+    <row r="35" spans="4:14">
+      <c r="D35" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="77">
+      <c r="F35" s="76">
         <f>F25-F33</f>
         <v>16650</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="77">
         <f>1-G33</f>
         <v>0.24431401320616286</v>
       </c>
@@ -6339,15 +7390,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E36" s="79" t="s">
+    <row r="36" spans="4:14">
+      <c r="E36" s="78" t="s">
         <v>246</v>
       </c>
       <c r="F36" s="37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:14">
       <c r="F38" s="37">
         <f>F35*12</f>
         <v>199800</v>
@@ -6356,7 +7407,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:14">
       <c r="E39" t="s">
         <v>250</v>
       </c>
@@ -6368,19 +7419,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="64" t="s">
+    <row r="40" spans="4:14">
+      <c r="D40" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="63">
         <f>SUM(F38:F39)</f>
         <v>899800</v>
       </c>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:14">
       <c r="D41" s="37">
         <v>1</v>
       </c>
@@ -6392,7 +7443,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:14">
       <c r="D42" s="37">
         <v>2</v>
       </c>
@@ -6414,7 +7465,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:14">
       <c r="D43" s="37">
         <v>3</v>
       </c>
@@ -6432,7 +7483,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:14">
       <c r="D44" s="37">
         <v>4</v>
       </c>
@@ -6450,21 +7501,21 @@
         <f>SUM(L43:L46)</f>
         <v>2584000</v>
       </c>
-      <c r="K44" s="84" t="s">
+      <c r="K44" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="L44" s="85">
+      <c r="L44" s="84">
         <v>1410000</v>
       </c>
-      <c r="M44" s="85">
+      <c r="M44" s="84">
         <v>2790000</v>
       </c>
-      <c r="N44" s="86">
+      <c r="N44" s="85">
         <f>L44-M44</f>
         <v>-1380000</v>
       </c>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:14">
       <c r="D45" s="37">
         <v>5</v>
       </c>
@@ -6478,25 +7529,25 @@
       <c r="I45" t="s">
         <v>265</v>
       </c>
-      <c r="J45" s="83">
+      <c r="J45" s="82">
         <f>J44-F44</f>
         <v>-1015200</v>
       </c>
-      <c r="K45" s="84" t="s">
+      <c r="K45" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="85">
+      <c r="L45" s="84">
         <v>534000</v>
       </c>
-      <c r="M45" s="85">
+      <c r="M45" s="84">
         <v>660000</v>
       </c>
-      <c r="N45" s="86">
+      <c r="N45" s="85">
         <f>L45-M45</f>
         <v>-126000</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:14">
       <c r="K46" t="s">
         <v>264</v>
       </c>
@@ -6518,16 +7569,16 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="21">
         <v>43117</v>
       </c>
@@ -6535,7 +7586,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" s="21">
         <v>43125</v>
       </c>
@@ -6545,14 +7596,14 @@
       <c r="D4" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="86" t="s">
         <v>317</v>
       </c>
       <c r="K4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="21">
         <v>43128</v>
       </c>
@@ -6563,12 +7614,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="E9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="21">
         <v>43147</v>
       </c>
@@ -6585,7 +7636,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="E12" t="s">
         <v>278</v>
       </c>
@@ -6596,12 +7647,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="J13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="21">
         <v>43154</v>
       </c>
@@ -6615,46 +7666,46 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="D16" t="s">
         <v>280</v>
       </c>
       <c r="G16" t="s">
         <v>282</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="K16" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="L16" s="84"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L16" s="83"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="I17" t="s">
         <v>290</v>
       </c>
       <c r="J17" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="86" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19">
       <c r="J18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19">
       <c r="H22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19">
       <c r="H23" s="1" t="s">
         <v>332</v>
       </c>
@@ -6668,63 +7719,63 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19">
       <c r="B24" t="s">
         <v>319</v>
       </c>
       <c r="D24" s="37">
         <v>2980</v>
       </c>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="I24" s="110">
+      <c r="I24" s="100">
         <v>9158</v>
       </c>
       <c r="K24" t="s">
         <v>344</v>
       </c>
-      <c r="R24" s="105"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R24" s="95"/>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
         <v>320</v>
       </c>
       <c r="D25" s="37">
         <v>1880</v>
       </c>
-      <c r="H25" s="111" t="s">
+      <c r="H25" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="I25" s="110">
+      <c r="I25" s="100">
         <v>480</v>
       </c>
       <c r="K25" t="s">
         <v>345</v>
       </c>
       <c r="O25" s="21"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="106"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H26" s="104" t="s">
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="H26" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="I26" s="107">
+      <c r="I26" s="97">
         <v>3240</v>
       </c>
       <c r="J26" t="s">
         <v>335</v>
       </c>
       <c r="O26" s="21"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="106"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H27" s="104" t="s">
+      <c r="R26" s="95"/>
+      <c r="S26" s="96"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="H27" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="107">
+      <c r="I27" s="97">
         <v>6970</v>
       </c>
       <c r="J27" t="s">
@@ -6734,84 +7785,84 @@
         <v>340</v>
       </c>
       <c r="O27" s="21"/>
-      <c r="S27" s="106"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H28" s="108" t="s">
+      <c r="S27" s="96"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="H28" s="98" t="s">
         <v>328</v>
       </c>
-      <c r="I28" s="109">
+      <c r="I28" s="99">
         <v>43150</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="98" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="98" t="s">
         <v>336</v>
       </c>
       <c r="O28" s="21"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="106"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="131" t="s">
+      <c r="R28" s="95"/>
+      <c r="S28" s="96"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="H29" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="I29" s="110">
+      <c r="I29" s="100">
         <v>149</v>
       </c>
       <c r="K29" t="s">
         <v>345</v>
       </c>
       <c r="O29" s="21"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="106"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H30" s="131"/>
-      <c r="I30" s="110">
+      <c r="R29" s="95"/>
+      <c r="S29" s="96"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="H30" s="136"/>
+      <c r="I30" s="100">
         <v>890</v>
       </c>
       <c r="K30" t="s">
         <v>345</v>
       </c>
       <c r="O30" s="21"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="106"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H31" s="131"/>
-      <c r="I31" s="110">
+      <c r="R30" s="95"/>
+      <c r="S30" s="96"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="H31" s="136"/>
+      <c r="I31" s="100">
         <v>899</v>
       </c>
       <c r="K31" t="s">
         <v>345</v>
       </c>
       <c r="O31" s="21"/>
-      <c r="S31" s="106"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H32" s="111" t="s">
+      <c r="S31" s="96"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="H32" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="I32" s="110">
+      <c r="I32" s="100">
         <v>2000</v>
       </c>
       <c r="O32" s="21"/>
-      <c r="S32" s="106"/>
-    </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H33" s="111" t="s">
+      <c r="S32" s="96"/>
+    </row>
+    <row r="33" spans="8:19">
+      <c r="H33" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="I33" s="110">
+      <c r="I33" s="100">
         <v>1026</v>
       </c>
       <c r="O33" s="21"/>
-      <c r="S33" s="106"/>
-    </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H34" s="104" t="s">
+      <c r="S33" s="96"/>
+    </row>
+    <row r="34" spans="8:19">
+      <c r="H34" s="94" t="s">
         <v>325</v>
       </c>
       <c r="I34" s="37">
@@ -6824,11 +7875,11 @@
         <v>339</v>
       </c>
       <c r="O34" s="21"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="106"/>
-    </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H35" s="104" t="s">
+      <c r="R34" s="95"/>
+      <c r="S34" s="96"/>
+    </row>
+    <row r="35" spans="8:19">
+      <c r="H35" s="94" t="s">
         <v>341</v>
       </c>
       <c r="I35" s="37">
@@ -6841,21 +7892,21 @@
         <v>338</v>
       </c>
       <c r="O35" s="21"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="106"/>
-    </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H36" s="111" t="s">
+      <c r="R35" s="95"/>
+      <c r="S35" s="96"/>
+    </row>
+    <row r="36" spans="8:19">
+      <c r="H36" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="I36" s="110">
+      <c r="I36" s="100">
         <v>740</v>
       </c>
       <c r="O36" s="21"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="106"/>
-    </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="R36" s="95"/>
+      <c r="S36" s="96"/>
+    </row>
+    <row r="37" spans="8:19">
       <c r="H37" s="1" t="s">
         <v>324</v>
       </c>
@@ -6869,40 +7920,40 @@
         <v>342</v>
       </c>
       <c r="O37" s="21"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="106"/>
-    </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="R37" s="95"/>
+      <c r="S37" s="96"/>
+    </row>
+    <row r="38" spans="8:19">
       <c r="I38" s="37"/>
       <c r="O38" s="21"/>
-      <c r="S38" s="106"/>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="S38" s="96"/>
+    </row>
+    <row r="39" spans="8:19">
       <c r="I39" s="37">
         <f>SUM(I23:I37)</f>
         <v>94706</v>
       </c>
       <c r="O39" s="21"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="106"/>
-    </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
+    </row>
+    <row r="40" spans="8:19">
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19">
       <c r="I41" s="37">
         <f>SUM(I36,I29:I33,I25,I24)</f>
         <v>15342</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="61">
         <f>I41/I39</f>
         <v>0.16199607205456887</v>
       </c>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:19">
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:19">
       <c r="I43" s="37"/>
     </row>
   </sheetData>
@@ -6922,11 +7973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -6934,8 +7985,8 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="78" t="s">
         <v>369</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -6954,8 +8005,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="133">
+    <row r="3" spans="2:7">
+      <c r="B3" s="137">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -6972,8 +8023,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="133"/>
+    <row r="4" spans="2:7">
+      <c r="B4" s="137"/>
       <c r="C4" s="5" t="s">
         <v>355</v>
       </c>
@@ -6985,8 +8036,8 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="133">
+    <row r="5" spans="2:7">
+      <c r="B5" s="137">
         <v>43197</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -7000,8 +8051,8 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="133"/>
+    <row r="6" spans="2:7">
+      <c r="B6" s="137"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
       </c>
@@ -7013,11 +8064,11 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="133">
+    <row r="7" spans="2:7">
+      <c r="B7" s="137">
         <v>43198</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="138" t="s">
         <v>356</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -7030,9 +8081,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="133"/>
-      <c r="C8" s="132"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>367</v>
@@ -7041,8 +8092,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="133">
+    <row r="9" spans="2:7">
+      <c r="B9" s="137">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -7057,8 +8108,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="133"/>
+    <row r="10" spans="2:7">
+      <c r="B10" s="137"/>
       <c r="C10" s="5" t="s">
         <v>379</v>
       </c>
@@ -7069,25 +8120,25 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="78" t="s">
         <v>352</v>
       </c>
       <c r="C12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="C13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>359</v>
       </c>
@@ -7095,7 +8146,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>367</v>
       </c>
@@ -7103,7 +8154,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>368</v>
       </c>
@@ -7111,27 +8162,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="C19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>375</v>
       </c>
@@ -7147,4 +8198,176 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="139" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139" t="s">
+        <v>415</v>
+      </c>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139" t="s">
+        <v>416</v>
+      </c>
+      <c r="K9" s="139"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="140" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>420</v>
+      </c>
+      <c r="J20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考え" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="436">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -2876,10 +2876,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[]ダンプポーチ ミリタリーポーチ OD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>VFC</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3388,6 +3384,18 @@
     <rPh sb="43" eb="45">
       <t>シゴト</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BLACKHAWKタイプ右用 ホルスター 防水 (1.黒色 P220 P226)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダンプポーチ ミリタリーポーチ OD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダンプポーチ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4137,7 +4145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4411,15 +4419,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4489,6 +4488,12 @@
     <xf numFmtId="38" fontId="6" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4558,8 +4563,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5261,7 +5272,7 @@
     <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43251</v>
+        <v>43252</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -5289,7 +5300,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -5316,7 +5327,7 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -5341,7 +5352,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="121"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -5368,7 +5379,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="121"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -5392,7 +5403,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="121"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -5416,7 +5427,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="122"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -5441,7 +5452,7 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B9" s="123"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -5466,7 +5477,7 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -5490,7 +5501,7 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="118"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -5517,7 +5528,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="118"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -5544,7 +5555,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B13" s="119"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -5592,10 +5603,10 @@
     </row>
     <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
     <row r="19" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="125"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
@@ -5612,7 +5623,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -5623,7 +5634,7 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="127"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -5632,7 +5643,7 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="128"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -5655,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5698,16 +5709,16 @@
       <c r="F1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="132"/>
-      <c r="M1" s="104" t="s">
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="131"/>
+      <c r="M1" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="N1" s="105"/>
+      <c r="N1" s="102"/>
       <c r="P1" s="53" t="s">
         <v>127</v>
       </c>
@@ -5738,10 +5749,10 @@
       <c r="I2" s="43"/>
       <c r="J2" s="44"/>
       <c r="K2" s="43"/>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="107">
+      <c r="N2" s="104">
         <v>3000</v>
       </c>
     </row>
@@ -5771,10 +5782,10 @@
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
       <c r="K3" s="43"/>
-      <c r="M3" s="106" t="s">
+      <c r="M3" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="108">
+      <c r="N3" s="105">
         <v>500</v>
       </c>
     </row>
@@ -5804,43 +5815,43 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
       <c r="K4" s="43"/>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="N4" s="107">
+      <c r="N4" s="104">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="139" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="140">
         <v>999</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="139">
         <v>1</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="141" t="s">
         <v>305</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="43"/>
       <c r="J5" s="44"/>
       <c r="K5" s="43"/>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="N5" s="110">
+      <c r="N5" s="107">
         <v>-2500</v>
       </c>
     </row>
@@ -5866,32 +5877,32 @@
       <c r="G6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-      <c r="M6" s="111" t="s">
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="M6" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="N6" s="112">
+      <c r="N6" s="109">
         <f>SUM(N2:N5)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="D7" s="43" t="s">
         <v>401</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>402</v>
       </c>
       <c r="E7" s="44">
         <v>1361</v>
@@ -5906,10 +5917,10 @@
       <c r="I7" s="43"/>
       <c r="J7" s="44"/>
       <c r="K7" s="11"/>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="N7" s="107">
+      <c r="N7" s="104">
         <v>1700</v>
       </c>
       <c r="P7" s="55" t="s">
@@ -5917,59 +5928,65 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" thickTop="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="44">
+        <v>200</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="J8" s="44">
+        <v>1780</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="104">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D9" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E9" s="88">
         <v>1180</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F9" s="87">
         <v>1</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G9" s="100" t="s">
         <v>141</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="11"/>
-      <c r="M8" s="113" t="s">
-        <v>302</v>
-      </c>
-      <c r="N8" s="107">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="44">
-        <v>1480</v>
-      </c>
-      <c r="F9" s="43">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>132</v>
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="43" t="s">
@@ -5978,13 +5995,13 @@
       <c r="J9" s="44">
         <v>1496</v>
       </c>
-      <c r="K9" s="102" t="s">
+      <c r="K9" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="113" t="s">
+      <c r="M9" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="N9" s="107">
+      <c r="N9" s="104">
         <v>150</v>
       </c>
       <c r="P9" t="s">
@@ -5992,26 +6009,26 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="88">
-        <v>578</v>
-      </c>
-      <c r="F10" s="87">
+      <c r="C10" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1480</v>
+      </c>
+      <c r="F10" s="43">
         <v>1</v>
       </c>
-      <c r="G10" s="89" t="s">
-        <v>134</v>
+      <c r="G10" s="50" t="s">
+        <v>132</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="43" t="s">
@@ -6020,13 +6037,13 @@
       <c r="J10" s="45">
         <v>1221</v>
       </c>
-      <c r="K10" s="102" t="s">
+      <c r="K10" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="N10" s="110">
+      <c r="N10" s="107">
         <v>-1250</v>
       </c>
       <c r="P10" t="s">
@@ -6034,41 +6051,35 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A11" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="92">
-        <v>1288</v>
-      </c>
-      <c r="F11" s="91">
+      <c r="D11" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="88">
+        <v>578</v>
+      </c>
+      <c r="F11" s="87">
         <v>1</v>
       </c>
-      <c r="G11" s="93" t="s">
-        <v>305</v>
+      <c r="G11" s="89" t="s">
+        <v>134</v>
       </c>
       <c r="H11" s="50"/>
-      <c r="I11" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="J11" s="44">
-        <v>200</v>
-      </c>
-      <c r="K11" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="115" t="s">
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="99"/>
+      <c r="M11" s="112" t="s">
         <v>298</v>
       </c>
-      <c r="N11" s="116">
+      <c r="N11" s="113">
         <f>SUM(N6:N10)</f>
         <v>7100</v>
       </c>
@@ -6077,23 +6088,26 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="43">
+      <c r="C12" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="140">
+        <v>1288</v>
+      </c>
+      <c r="F12" s="139">
         <v>1</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>305</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="43"/>
@@ -6102,65 +6116,62 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="43" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="44">
-        <v>38000</v>
+        <v>198</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="F13" s="43">
         <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="43"/>
       <c r="J13" s="45"/>
       <c r="K13" s="43"/>
-      <c r="M13" s="104" t="s">
+      <c r="M13" s="101" t="s">
         <v>392</v>
       </c>
-      <c r="N13" s="105"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E14" s="44">
-        <v>2724</v>
+        <v>38000</v>
       </c>
       <c r="F14" s="43">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="43"/>
       <c r="J14" s="45"/>
       <c r="K14" s="43"/>
-      <c r="M14" s="106" t="s">
+      <c r="M14" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="N14" s="107">
+      <c r="N14" s="104">
         <v>3000</v>
       </c>
     </row>
@@ -6175,77 +6186,80 @@
         <v>170</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>64</v>
+        <v>161</v>
+      </c>
+      <c r="E15" s="44">
+        <v>2724</v>
       </c>
       <c r="F15" s="43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="43"/>
       <c r="J15" s="45"/>
       <c r="K15" s="43"/>
-      <c r="M15" s="106" t="s">
+      <c r="M15" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="N15" s="107">
+      <c r="N15" s="104">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1">
       <c r="A16" s="43" t="s">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>397</v>
+        <v>170</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="E16" s="44">
-        <v>9526</v>
+        <v>104</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="43">
-        <v>1</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="43"/>
       <c r="J16" s="45"/>
       <c r="K16" s="43"/>
-      <c r="M16" s="115" t="s">
+      <c r="M16" s="112" t="s">
         <v>298</v>
       </c>
-      <c r="N16" s="116">
+      <c r="N16" s="113">
         <f>SUM(N14:N15)</f>
         <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>64</v>
+        <v>397</v>
+      </c>
+      <c r="E17" s="44">
+        <v>9526</v>
       </c>
       <c r="F17" s="43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>132</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="43"/>
@@ -6260,19 +6274,16 @@
         <v>176</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="44">
-        <v>900</v>
+        <v>167</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="43">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="43"/>
@@ -6281,7 +6292,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>176</v>
@@ -6290,16 +6301,16 @@
         <v>172</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="E19" s="44">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="F19" s="43">
         <v>1</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>132</v>
+      <c r="G19" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="43"/>
@@ -6308,24 +6319,24 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="43" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E20" s="44">
-        <v>1280</v>
+        <v>1940</v>
       </c>
       <c r="F20" s="43">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>132</v>
       </c>
       <c r="H20" s="50"/>
@@ -6335,25 +6346,25 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="43" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E21" s="44">
-        <v>1500</v>
+        <v>1280</v>
       </c>
       <c r="F21" s="43">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="43"/>
@@ -6361,26 +6372,26 @@
       <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="88">
-        <v>420</v>
-      </c>
-      <c r="F22" s="87">
+      <c r="C22" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="43">
         <v>1</v>
       </c>
-      <c r="G22" s="89" t="s">
-        <v>134</v>
+      <c r="G22" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="43"/>
@@ -6388,25 +6399,25 @@
       <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="91" t="s">
+      <c r="A23" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="92">
-        <v>929</v>
-      </c>
-      <c r="F23" s="91">
+      <c r="D23" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="88">
+        <v>420</v>
+      </c>
+      <c r="F23" s="87">
         <v>1</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="89" t="s">
         <v>134</v>
       </c>
       <c r="H23" s="50"/>
@@ -6415,25 +6426,25 @@
       <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="91" t="s">
+      <c r="A24" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="92">
-        <v>430</v>
-      </c>
-      <c r="F24" s="91">
+      <c r="D24" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="140">
+        <v>929</v>
+      </c>
+      <c r="F24" s="139">
         <v>1</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="141" t="s">
         <v>134</v>
       </c>
       <c r="H24" s="50"/>
@@ -6442,25 +6453,25 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="92">
-        <v>270</v>
-      </c>
-      <c r="F25" s="91">
-        <v>6</v>
-      </c>
-      <c r="G25" s="93" t="s">
+      <c r="D25" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="140">
+        <v>430</v>
+      </c>
+      <c r="F25" s="139">
+        <v>1</v>
+      </c>
+      <c r="G25" s="141" t="s">
         <v>134</v>
       </c>
       <c r="H25" s="50"/>
@@ -6469,26 +6480,26 @@
       <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="44">
-        <v>6716</v>
-      </c>
-      <c r="F26" s="43">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>135</v>
+      <c r="A26" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="139" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="140">
+        <v>270</v>
+      </c>
+      <c r="F26" s="139">
+        <v>6</v>
+      </c>
+      <c r="G26" s="141" t="s">
+        <v>134</v>
       </c>
       <c r="H26" s="50"/>
       <c r="I26" s="43"/>
@@ -6503,19 +6514,19 @@
         <v>179</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E27" s="44">
-        <v>1080</v>
+        <v>6716</v>
       </c>
       <c r="F27" s="43">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="43"/>
@@ -6523,26 +6534,26 @@
       <c r="K27" s="43"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="88">
-        <v>2480</v>
-      </c>
-      <c r="F28" s="87">
+      <c r="A28" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1080</v>
+      </c>
+      <c r="F28" s="43">
         <v>1</v>
       </c>
-      <c r="G28" s="89" t="s">
-        <v>158</v>
+      <c r="G28" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H28" s="50"/>
       <c r="I28" s="43"/>
@@ -6550,26 +6561,26 @@
       <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="44">
-        <v>682</v>
-      </c>
-      <c r="F29" s="43">
+      <c r="C29" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="88">
+        <v>2480</v>
+      </c>
+      <c r="F29" s="87">
         <v>1</v>
       </c>
-      <c r="G29" s="56" t="s">
-        <v>133</v>
+      <c r="G29" s="89" t="s">
+        <v>158</v>
       </c>
       <c r="H29" s="50"/>
       <c r="I29" s="43"/>
@@ -6578,25 +6589,25 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="43" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E30" s="44">
-        <v>1166</v>
+        <v>682</v>
       </c>
       <c r="F30" s="43">
-        <v>4000</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>133</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="43"/>
@@ -6604,26 +6615,26 @@
       <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="87" t="s">
+      <c r="A31" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="E31" s="88">
-        <v>216</v>
-      </c>
-      <c r="F31" s="87">
-        <v>2</v>
-      </c>
-      <c r="G31" s="90" t="s">
-        <v>313</v>
+      <c r="D31" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="44">
+        <v>1166</v>
+      </c>
+      <c r="F31" s="43">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="43"/>
@@ -6631,26 +6642,26 @@
       <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="44">
-        <v>1400</v>
-      </c>
-      <c r="F32" s="43">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>132</v>
+      <c r="C32" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="88">
+        <v>216</v>
+      </c>
+      <c r="F32" s="87">
+        <v>2</v>
+      </c>
+      <c r="G32" s="90" t="s">
+        <v>313</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="43"/>
@@ -6659,25 +6670,25 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="43" t="s">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>383</v>
+        <v>186</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>385</v>
+        <v>166</v>
       </c>
       <c r="E33" s="44">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="F33" s="43">
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="43"/>
@@ -6686,25 +6697,25 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>383</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E34" s="44">
-        <v>175</v>
+        <v>1250</v>
       </c>
       <c r="F34" s="43">
-        <v>50</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="43"/>
@@ -6712,12 +6723,27 @@
       <c r="K34" s="43"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43"/>
+      <c r="A35" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E35" s="44">
+        <v>175</v>
+      </c>
+      <c r="F35" s="43">
+        <v>50</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="H35" s="50"/>
       <c r="I35" s="43"/>
       <c r="J35" s="45"/>
@@ -6726,30 +6752,26 @@
     <row r="36" spans="1:14">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="44">
-        <v>-4540</v>
-      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="43"/>
       <c r="H36" s="50"/>
       <c r="I36" s="43"/>
-      <c r="J36" s="44"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
+      <c r="C37" s="43" t="s">
+        <v>125</v>
+      </c>
       <c r="D37" s="43" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E37" s="44">
-        <v>-300</v>
+        <v>-4540</v>
       </c>
       <c r="F37" s="43"/>
       <c r="H37" s="50"/>
@@ -6762,10 +6784,10 @@
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
       <c r="D38" s="43" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E38" s="44">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F38" s="43"/>
       <c r="H38" s="50"/>
@@ -6778,10 +6800,10 @@
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E39" s="44">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F39" s="43"/>
       <c r="H39" s="50"/>
@@ -6794,10 +6816,10 @@
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E40" s="44">
-        <v>-1300</v>
+        <v>-300</v>
       </c>
       <c r="F40" s="43"/>
       <c r="H40" s="50"/>
@@ -6810,10 +6832,10 @@
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E41" s="44">
-        <v>-6</v>
+        <v>-1300</v>
       </c>
       <c r="F41" s="43"/>
       <c r="H41" s="50"/>
@@ -6825,71 +6847,87 @@
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
+      <c r="D42" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="44">
+        <v>-84</v>
+      </c>
       <c r="F42" s="43"/>
       <c r="H42" s="50"/>
       <c r="I42" s="43"/>
       <c r="J42" s="44"/>
       <c r="K42" s="43"/>
     </row>
-    <row r="43" spans="1:14" s="38" customFormat="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47" t="s">
+    <row r="43" spans="1:14">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="43"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" spans="1:14" s="38" customFormat="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="48">
-        <f>SUM(E2:E42)</f>
-        <v>77945</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="51" t="s">
+      <c r="E44" s="48">
+        <f>SUM(E2:E43)</f>
+        <v>78067</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="48">
-        <f>SUM(J2:J42)</f>
-        <v>2917</v>
-      </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="38" t="s">
+      <c r="J44" s="48">
+        <f>SUM(J2:J43)</f>
+        <v>4497</v>
+      </c>
+      <c r="K44" s="46"/>
+      <c r="L44" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="M43" s="40">
-        <f>E43+J43</f>
-        <v>80862</v>
-      </c>
-      <c r="N43" s="39"/>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" thickBot="1">
-      <c r="H47" s="129" t="s">
+      <c r="M44" s="40">
+        <f>E44+J44</f>
+        <v>82564</v>
+      </c>
+      <c r="N44" s="39"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" thickBot="1">
+      <c r="H48" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" thickTop="1">
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+    </row>
+    <row r="49" spans="8:10" ht="16.5" thickTop="1">
+      <c r="H49" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>110</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J49" s="37">
         <v>1562</v>
       </c>
     </row>
-    <row r="49" spans="8:10">
-      <c r="H49" s="5" t="s">
+    <row r="50" spans="8:10">
+      <c r="H50" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I50" t="s">
         <v>310</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J50" s="37">
         <v>648</v>
       </c>
     </row>
@@ -6900,7 +6938,7 @@
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H6:K6"/>
   </mergeCells>
@@ -7726,16 +7764,16 @@
       <c r="D24" s="37">
         <v>2980</v>
       </c>
-      <c r="H24" s="101" t="s">
+      <c r="H24" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="I24" s="100">
+      <c r="I24" s="97">
         <v>9158</v>
       </c>
       <c r="K24" t="s">
         <v>344</v>
       </c>
-      <c r="R24" s="95"/>
+      <c r="R24" s="92"/>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" t="s">
@@ -7744,38 +7782,38 @@
       <c r="D25" s="37">
         <v>1880</v>
       </c>
-      <c r="H25" s="101" t="s">
+      <c r="H25" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="I25" s="100">
+      <c r="I25" s="97">
         <v>480</v>
       </c>
       <c r="K25" t="s">
         <v>345</v>
       </c>
       <c r="O25" s="21"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="96"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="93"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="I26" s="97">
+      <c r="I26" s="94">
         <v>3240</v>
       </c>
       <c r="J26" t="s">
         <v>335</v>
       </c>
       <c r="O26" s="21"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="96"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="97">
+      <c r="I27" s="94">
         <v>6970</v>
       </c>
       <c r="J27" t="s">
@@ -7785,84 +7823,84 @@
         <v>340</v>
       </c>
       <c r="O27" s="21"/>
-      <c r="S27" s="96"/>
+      <c r="S27" s="93"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="H28" s="98" t="s">
+      <c r="H28" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="I28" s="99">
+      <c r="I28" s="96">
         <v>43150</v>
       </c>
-      <c r="J28" s="98" t="s">
+      <c r="J28" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="98" t="s">
+      <c r="K28" s="95" t="s">
         <v>336</v>
       </c>
       <c r="O28" s="21"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="96"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="93"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="135" t="s">
         <v>321</v>
       </c>
-      <c r="I29" s="100">
+      <c r="I29" s="97">
         <v>149</v>
       </c>
       <c r="K29" t="s">
         <v>345</v>
       </c>
       <c r="O29" s="21"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="96"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="93"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="H30" s="136"/>
-      <c r="I30" s="100">
+      <c r="H30" s="135"/>
+      <c r="I30" s="97">
         <v>890</v>
       </c>
       <c r="K30" t="s">
         <v>345</v>
       </c>
       <c r="O30" s="21"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="93"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="H31" s="136"/>
-      <c r="I31" s="100">
+      <c r="H31" s="135"/>
+      <c r="I31" s="97">
         <v>899</v>
       </c>
       <c r="K31" t="s">
         <v>345</v>
       </c>
       <c r="O31" s="21"/>
-      <c r="S31" s="96"/>
+      <c r="S31" s="93"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="H32" s="101" t="s">
+      <c r="H32" s="98" t="s">
         <v>323</v>
       </c>
-      <c r="I32" s="100">
+      <c r="I32" s="97">
         <v>2000</v>
       </c>
       <c r="O32" s="21"/>
-      <c r="S32" s="96"/>
+      <c r="S32" s="93"/>
     </row>
     <row r="33" spans="8:19">
-      <c r="H33" s="101" t="s">
+      <c r="H33" s="98" t="s">
         <v>326</v>
       </c>
-      <c r="I33" s="100">
+      <c r="I33" s="97">
         <v>1026</v>
       </c>
       <c r="O33" s="21"/>
-      <c r="S33" s="96"/>
+      <c r="S33" s="93"/>
     </row>
     <row r="34" spans="8:19">
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="91" t="s">
         <v>325</v>
       </c>
       <c r="I34" s="37">
@@ -7875,11 +7913,11 @@
         <v>339</v>
       </c>
       <c r="O34" s="21"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="96"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="93"/>
     </row>
     <row r="35" spans="8:19">
-      <c r="H35" s="94" t="s">
+      <c r="H35" s="91" t="s">
         <v>341</v>
       </c>
       <c r="I35" s="37">
@@ -7892,19 +7930,19 @@
         <v>338</v>
       </c>
       <c r="O35" s="21"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="96"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="93"/>
     </row>
     <row r="36" spans="8:19">
-      <c r="H36" s="101" t="s">
+      <c r="H36" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="I36" s="100">
+      <c r="I36" s="97">
         <v>740</v>
       </c>
       <c r="O36" s="21"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="96"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="93"/>
     </row>
     <row r="37" spans="8:19">
       <c r="H37" s="1" t="s">
@@ -7920,13 +7958,13 @@
         <v>342</v>
       </c>
       <c r="O37" s="21"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="96"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="93"/>
     </row>
     <row r="38" spans="8:19">
       <c r="I38" s="37"/>
       <c r="O38" s="21"/>
-      <c r="S38" s="96"/>
+      <c r="S38" s="93"/>
     </row>
     <row r="39" spans="8:19">
       <c r="I39" s="37">
@@ -7934,8 +7972,8 @@
         <v>94706</v>
       </c>
       <c r="O39" s="21"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="96"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="93"/>
     </row>
     <row r="40" spans="8:19">
       <c r="I40" s="37"/>
@@ -8006,7 +8044,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="137">
+      <c r="B3" s="136">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -8024,7 +8062,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="137"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="5" t="s">
         <v>355</v>
       </c>
@@ -8037,7 +8075,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="137">
+      <c r="B5" s="136">
         <v>43197</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8052,7 +8090,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="137"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
       </c>
@@ -8065,10 +8103,10 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="137">
+      <c r="B7" s="136">
         <v>43198</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="137" t="s">
         <v>356</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -8082,8 +8120,8 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>367</v>
@@ -8093,7 +8131,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="137">
+      <c r="B9" s="136">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -8109,7 +8147,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="137"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="5" t="s">
         <v>379</v>
       </c>
@@ -8204,7 +8242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -8212,150 +8250,150 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" t="s">
         <v>406</v>
-      </c>
-      <c r="D2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" t="s">
-        <v>406</v>
-      </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="138" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="139" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139" t="s">
+      <c r="G9" s="138"/>
+      <c r="H9" s="138" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139" t="s">
+      <c r="I9" s="138"/>
+      <c r="J9" s="138" t="s">
         <v>415</v>
       </c>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139" t="s">
-        <v>416</v>
-      </c>
-      <c r="K9" s="139"/>
+      <c r="K9" s="138"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="140" t="s">
-        <v>426</v>
+      <c r="B18" s="115" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="J19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="考え" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="439">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -3396,6 +3396,72 @@
   </si>
   <si>
     <t>ダンプポーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来る限り互いに干渉されることなく・制限されることなく、自由に活動すること</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二人のうち、最低どちらかはある程度の資金確保ができる状態にすること</t>
+    <rPh sb="0" eb="2">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記二点を強調・妥協しつつも守っていきたい</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マモ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4494,6 +4560,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4561,15 +4636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5272,7 +5338,7 @@
     <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43252</v>
+        <v>43255</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -5300,7 +5366,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="122" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -5327,7 +5393,7 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -5352,7 +5418,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="120"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -5379,7 +5445,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="120"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -5403,7 +5469,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="120"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -5427,7 +5493,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="121"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -5452,7 +5518,7 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B9" s="122"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -5477,7 +5543,7 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="119" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -5501,7 +5567,7 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="117"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -5528,7 +5594,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="117"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -5555,7 +5621,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -5603,10 +5669,10 @@
     </row>
     <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
     <row r="19" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="124"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
@@ -5623,7 +5689,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="128" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -5634,7 +5700,7 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="126"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -5643,7 +5709,7 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="127"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -5668,7 +5734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -5709,12 +5775,12 @@
       <c r="F1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
       <c r="M1" s="101" t="s">
         <v>295</v>
       </c>
@@ -5823,25 +5889,25 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="140">
+      <c r="E5" s="117">
         <v>999</v>
       </c>
-      <c r="F5" s="139">
+      <c r="F5" s="116">
         <v>1</v>
       </c>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="118" t="s">
         <v>305</v>
       </c>
       <c r="H5" s="50"/>
@@ -5877,12 +5943,12 @@
       <c r="G6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="137"/>
       <c r="M6" s="108" t="s">
         <v>299</v>
       </c>
@@ -6088,25 +6154,25 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="116" t="s">
         <v>306</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="117">
         <v>1288</v>
       </c>
-      <c r="F12" s="139">
+      <c r="F12" s="116">
         <v>1</v>
       </c>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="118" t="s">
         <v>305</v>
       </c>
       <c r="H12" s="50"/>
@@ -6426,25 +6492,25 @@
       <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="140">
+      <c r="E24" s="117">
         <v>929</v>
       </c>
-      <c r="F24" s="139">
+      <c r="F24" s="116">
         <v>1</v>
       </c>
-      <c r="G24" s="141" t="s">
+      <c r="G24" s="118" t="s">
         <v>134</v>
       </c>
       <c r="H24" s="50"/>
@@ -6453,25 +6519,25 @@
       <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="140">
+      <c r="E25" s="117">
         <v>430</v>
       </c>
-      <c r="F25" s="139">
+      <c r="F25" s="116">
         <v>1</v>
       </c>
-      <c r="G25" s="141" t="s">
+      <c r="G25" s="118" t="s">
         <v>134</v>
       </c>
       <c r="H25" s="50"/>
@@ -6480,25 +6546,25 @@
       <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="117">
         <v>270</v>
       </c>
-      <c r="F26" s="139">
+      <c r="F26" s="116">
         <v>6</v>
       </c>
-      <c r="G26" s="141" t="s">
+      <c r="G26" s="118" t="s">
         <v>134</v>
       </c>
       <c r="H26" s="50"/>
@@ -6903,11 +6969,11 @@
       <c r="N44" s="39"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1">
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
     </row>
     <row r="49" spans="8:10" ht="16.5" thickTop="1">
       <c r="H49" s="5" t="s">
@@ -7843,7 +7909,7 @@
       <c r="S28" s="93"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="H29" s="135" t="s">
+      <c r="H29" s="138" t="s">
         <v>321</v>
       </c>
       <c r="I29" s="97">
@@ -7857,7 +7923,7 @@
       <c r="S29" s="93"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="H30" s="135"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="97">
         <v>890</v>
       </c>
@@ -7869,7 +7935,7 @@
       <c r="S30" s="93"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="H31" s="135"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="97">
         <v>899</v>
       </c>
@@ -8044,7 +8110,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="136">
+      <c r="B3" s="139">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -8062,7 +8128,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="136"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="5" t="s">
         <v>355</v>
       </c>
@@ -8075,7 +8141,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="136">
+      <c r="B5" s="139">
         <v>43197</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8090,7 +8156,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="136"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
       </c>
@@ -8103,10 +8169,10 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="136">
+      <c r="B7" s="139">
         <v>43198</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="140" t="s">
         <v>356</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -8120,8 +8186,8 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>367</v>
@@ -8131,7 +8197,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="136">
+      <c r="B9" s="139">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -8147,7 +8213,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="136"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="5" t="s">
         <v>379</v>
       </c>
@@ -8240,10 +8306,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K34"/>
+  <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8292,26 +8358,26 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="141" t="s">
         <v>411</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="141"/>
+      <c r="D9" s="141" t="s">
         <v>412</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138" t="s">
+      <c r="E9" s="141"/>
+      <c r="F9" s="141" t="s">
         <v>413</v>
       </c>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138" t="s">
+      <c r="G9" s="141"/>
+      <c r="H9" s="141" t="s">
         <v>414</v>
       </c>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138" t="s">
+      <c r="I9" s="141"/>
+      <c r="J9" s="141" t="s">
         <v>415</v>
       </c>
-      <c r="K9" s="138"/>
+      <c r="K9" s="141"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
@@ -8391,9 +8457,49 @@
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:17">
       <c r="B34" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="453">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -3464,12 +3464,305 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>考え直し</t>
+    <rPh sb="0" eb="1">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そもそも俺が東京に来た理由はなんだったか</t>
+    <rPh sb="4" eb="5">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IT企業を優先し、また東京に根差した企業を選んだのはなぜか</t>
+    <rPh sb="2" eb="4">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ネザ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それは、他分野に及ぶ社会ソリューションの提供は 優里子が目指す分野にも入り込めるから</t>
+    <rPh sb="4" eb="7">
+      <t>タブンヤ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ユリコ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　だからいま建設会社に常駐しているんでしょ</t>
+    <rPh sb="6" eb="8">
+      <t>ケンセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京で学ぶ・働くを予定していた優里子を追って東京に来たんではなかったか</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ユリコ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敢えてこの会社に残る選択肢等そもそもなかったんじゃないか</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>優里子がチリを目指すなら、そして着いて行っていいなら、それこそ当初の目的を考えれば本望なのではないか</t>
+    <rPh sb="0" eb="3">
+      <t>ユリコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホンモウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資金不足の道さえ退けられるならチリへ行くべき　それが回答でしょ</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シリゾ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海外で働くことに繋げること、日本に戻っても働ける道を出来る限り作っておくことはなるたけカバーリングはする必要はある</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5-7月は多段階リリース</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>27歳の覚悟</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来高請求システムは2018年4月末本番</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガツマツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　⇒ 2018年7月末には離職する覚悟で動く</t>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リショク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクゴ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4211,7 +4504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4637,6 +4930,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5110,13 +5406,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -5124,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5135,7 +5431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5143,12 +5439,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -5160,7 +5456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -5168,7 +5464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -5183,7 +5479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -5194,7 +5490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -5208,7 +5504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -5222,7 +5518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -5239,7 +5535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -5250,7 +5546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -5264,7 +5560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +5574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -5286,27 +5582,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -5325,7 +5621,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -5335,14 +5631,14 @@
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43258</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -5365,7 +5661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="122" t="s">
         <v>51</v>
       </c>
@@ -5389,7 +5685,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -5417,7 +5713,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="123"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
@@ -5444,7 +5740,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="123"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
@@ -5468,7 +5764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="123"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
@@ -5492,7 +5788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="124"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
@@ -5517,7 +5813,7 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="125"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
@@ -5542,7 +5838,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="119" t="s">
         <v>53</v>
       </c>
@@ -5566,7 +5862,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="120"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
@@ -5593,7 +5889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="120"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
@@ -5620,7 +5916,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="121"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
@@ -5644,17 +5940,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -5662,13 +5958,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1">
+    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="126" t="s">
         <v>76</v>
       </c>
@@ -5677,7 +5973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
@@ -5688,7 +5984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="128" t="s">
         <v>53</v>
       </c>
@@ -5699,7 +5995,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="129"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
@@ -5708,7 +6004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="130"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
@@ -5738,7 +6034,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -5756,7 +6052,7 @@
     <col min="14" max="14" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>114</v>
       </c>
@@ -5789,7 +6085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>147</v>
       </c>
@@ -5822,7 +6118,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>164</v>
       </c>
@@ -5855,7 +6151,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
         <v>129</v>
       </c>
@@ -5888,7 +6184,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>307</v>
       </c>
@@ -5921,7 +6217,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>129</v>
       </c>
@@ -5957,7 +6253,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>398</v>
       </c>
@@ -5993,7 +6289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1">
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>129</v>
       </c>
@@ -6032,7 +6328,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>129</v>
       </c>
@@ -6074,7 +6370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>162</v>
       </c>
@@ -6116,7 +6412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" thickBot="1">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87" t="s">
         <v>144</v>
       </c>
@@ -6153,7 +6449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="116" t="s">
         <v>304</v>
       </c>
@@ -6180,7 +6476,7 @@
       <c r="J12" s="45"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>195</v>
       </c>
@@ -6208,7 +6504,7 @@
       </c>
       <c r="N13" s="102"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>102</v>
       </c>
@@ -6241,7 +6537,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>103</v>
       </c>
@@ -6274,7 +6570,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" thickBot="1">
+    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>103</v>
       </c>
@@ -6305,7 +6601,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>395</v>
       </c>
@@ -6332,7 +6628,7 @@
       <c r="J17" s="45"/>
       <c r="K17" s="43"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>102</v>
       </c>
@@ -6356,7 +6652,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="43"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>102</v>
       </c>
@@ -6383,7 +6679,7 @@
       <c r="J19" s="45"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>103</v>
       </c>
@@ -6410,7 +6706,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="43"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>129</v>
       </c>
@@ -6437,7 +6733,7 @@
       <c r="J21" s="45"/>
       <c r="K21" s="43"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>154</v>
       </c>
@@ -6464,7 +6760,7 @@
       <c r="J22" s="45"/>
       <c r="K22" s="43"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
         <v>120</v>
       </c>
@@ -6491,7 +6787,7 @@
       <c r="J23" s="45"/>
       <c r="K23" s="43"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="116" t="s">
         <v>151</v>
       </c>
@@ -6518,7 +6814,7 @@
       <c r="J24" s="45"/>
       <c r="K24" s="43"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="116" t="s">
         <v>129</v>
       </c>
@@ -6545,7 +6841,7 @@
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>129</v>
       </c>
@@ -6572,7 +6868,7 @@
       <c r="J26" s="45"/>
       <c r="K26" s="43"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>103</v>
       </c>
@@ -6599,7 +6895,7 @@
       <c r="J27" s="45"/>
       <c r="K27" s="43"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>103</v>
       </c>
@@ -6626,7 +6922,7 @@
       <c r="J28" s="45"/>
       <c r="K28" s="43"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
         <v>157</v>
       </c>
@@ -6653,7 +6949,7 @@
       <c r="J29" s="45"/>
       <c r="K29" s="43"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>122</v>
       </c>
@@ -6680,7 +6976,7 @@
       <c r="J30" s="45"/>
       <c r="K30" s="43"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>107</v>
       </c>
@@ -6707,7 +7003,7 @@
       <c r="J31" s="45"/>
       <c r="K31" s="43"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>312</v>
       </c>
@@ -6734,7 +7030,7 @@
       <c r="J32" s="45"/>
       <c r="K32" s="43"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>103</v>
       </c>
@@ -6761,7 +7057,7 @@
       <c r="J33" s="45"/>
       <c r="K33" s="43"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>382</v>
       </c>
@@ -6788,7 +7084,7 @@
       <c r="J34" s="45"/>
       <c r="K34" s="43"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>387</v>
       </c>
@@ -6815,7 +7111,7 @@
       <c r="J35" s="45"/>
       <c r="K35" s="43"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -6827,7 +7123,7 @@
       <c r="J36" s="45"/>
       <c r="K36" s="43"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43" t="s">
@@ -6845,7 +7141,7 @@
       <c r="J37" s="44"/>
       <c r="K37" s="43"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -6861,7 +7157,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="43"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -6877,7 +7173,7 @@
       <c r="J39" s="44"/>
       <c r="K39" s="43"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -6893,7 +7189,7 @@
       <c r="J40" s="44"/>
       <c r="K40" s="43"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -6909,7 +7205,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="43"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -6925,7 +7221,7 @@
       <c r="J42" s="44"/>
       <c r="K42" s="43"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -6937,7 +7233,7 @@
       <c r="J43" s="44"/>
       <c r="K43" s="43"/>
     </row>
-    <row r="44" spans="1:14" s="38" customFormat="1">
+    <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -6968,14 +7264,14 @@
       </c>
       <c r="N44" s="39"/>
     </row>
-    <row r="48" spans="1:14" ht="16.5" thickBot="1">
+    <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="131" t="s">
         <v>121</v>
       </c>
       <c r="I48" s="131"/>
       <c r="J48" s="131"/>
     </row>
-    <row r="49" spans="8:10" ht="16.5" thickTop="1">
+    <row r="49" spans="8:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H49" s="5" t="s">
         <v>111</v>
       </c>
@@ -6986,7 +7282,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="50" spans="8:10">
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H50" s="5" t="s">
         <v>309</v>
       </c>
@@ -7021,7 +7317,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
@@ -7033,12 +7329,12 @@
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>200</v>
       </c>
@@ -7053,7 +7349,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>201</v>
       </c>
@@ -7068,7 +7364,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" s="57" t="s">
         <v>207</v>
       </c>
@@ -7088,7 +7384,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="64" customFormat="1">
+    <row r="5" spans="2:17" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>233</v>
       </c>
@@ -7100,7 +7396,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="71" t="s">
         <v>212</v>
       </c>
@@ -7117,7 +7413,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>222</v>
       </c>
@@ -7139,7 +7435,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>221</v>
       </c>
@@ -7167,7 +7463,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>220</v>
       </c>
@@ -7198,7 +7494,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>206</v>
       </c>
@@ -7217,7 +7513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>208</v>
       </c>
@@ -7232,7 +7528,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>210</v>
       </c>
@@ -7247,7 +7543,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="62" t="s">
         <v>209</v>
       </c>
@@ -7262,7 +7558,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F14" s="37">
         <f>SUM(F7:F13)</f>
         <v>156800</v>
@@ -7272,7 +7568,7 @@
         <v>0.68173913043478263</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="71" t="s">
         <v>211</v>
       </c>
@@ -7282,7 +7578,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="71"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>213</v>
       </c>
@@ -7302,7 +7598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>214</v>
       </c>
@@ -7323,7 +7619,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>219</v>
       </c>
@@ -7331,7 +7627,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>242</v>
       </c>
@@ -7339,7 +7635,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" s="62"/>
       <c r="D21" s="63"/>
       <c r="E21" s="62"/>
@@ -7347,7 +7643,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="37">
         <f>SUM(F17:F21)</f>
         <v>5050</v>
@@ -7357,7 +7653,7 @@
         <v>2.1956521739130434E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="79" t="s">
         <v>252</v>
       </c>
@@ -7376,7 +7672,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="71" t="s">
         <v>254</v>
       </c>
@@ -7386,7 +7682,7 @@
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>258</v>
       </c>
@@ -7404,7 +7700,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>258</v>
       </c>
@@ -7419,7 +7715,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>258</v>
       </c>
@@ -7437,7 +7733,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>258</v>
       </c>
@@ -7455,14 +7751,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="62"/>
       <c r="D32" s="63"/>
       <c r="E32" s="62"/>
       <c r="F32" s="63"/>
       <c r="G32" s="62"/>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F33" s="37">
         <f>SUM(F28:F32)</f>
         <v>51500</v>
@@ -7475,7 +7771,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="4:14">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="76" t="s">
         <v>249</v>
       </c>
@@ -7494,7 +7790,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="4:14">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E36" s="78" t="s">
         <v>246</v>
       </c>
@@ -7502,7 +7798,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="4:14">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F38" s="37">
         <f>F35*12</f>
         <v>199800</v>
@@ -7511,7 +7807,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="4:14">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>250</v>
       </c>
@@ -7523,7 +7819,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="4:14">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="63" t="s">
         <v>256</v>
       </c>
@@ -7535,7 +7831,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="41" spans="4:14">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="37">
         <v>1</v>
       </c>
@@ -7547,7 +7843,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="42" spans="4:14">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="37">
         <v>2</v>
       </c>
@@ -7569,7 +7865,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="4:14">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="37">
         <v>3</v>
       </c>
@@ -7587,7 +7883,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="4:14">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="37">
         <v>4</v>
       </c>
@@ -7619,7 +7915,7 @@
         <v>-1380000</v>
       </c>
     </row>
-    <row r="45" spans="4:14">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="37">
         <v>5</v>
       </c>
@@ -7651,7 +7947,7 @@
         <v>-126000</v>
       </c>
     </row>
-    <row r="46" spans="4:14">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
         <v>264</v>
       </c>
@@ -7673,16 +7969,16 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>43117</v>
       </c>
@@ -7690,7 +7986,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>43125</v>
       </c>
@@ -7707,7 +8003,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>43128</v>
       </c>
@@ -7718,12 +8014,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>43147</v>
       </c>
@@ -7740,7 +8036,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>278</v>
       </c>
@@ -7751,12 +8047,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>43154</v>
       </c>
@@ -7770,7 +8066,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>280</v>
       </c>
@@ -7788,7 +8084,7 @@
       </c>
       <c r="L16" s="83"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>290</v>
       </c>
@@ -7799,17 +8095,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H23" s="1" t="s">
         <v>332</v>
       </c>
@@ -7823,7 +8119,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>319</v>
       </c>
@@ -7841,7 +8137,7 @@
       </c>
       <c r="R24" s="92"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>320</v>
       </c>
@@ -7861,7 +8157,7 @@
       <c r="R25" s="92"/>
       <c r="S25" s="93"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H26" s="91" t="s">
         <v>329</v>
       </c>
@@ -7875,7 +8171,7 @@
       <c r="R26" s="92"/>
       <c r="S26" s="93"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H27" s="91" t="s">
         <v>330</v>
       </c>
@@ -7891,7 +8187,7 @@
       <c r="O27" s="21"/>
       <c r="S27" s="93"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H28" s="95" t="s">
         <v>328</v>
       </c>
@@ -7908,7 +8204,7 @@
       <c r="R28" s="92"/>
       <c r="S28" s="93"/>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H29" s="138" t="s">
         <v>321</v>
       </c>
@@ -7922,7 +8218,7 @@
       <c r="R29" s="92"/>
       <c r="S29" s="93"/>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H30" s="138"/>
       <c r="I30" s="97">
         <v>890</v>
@@ -7934,7 +8230,7 @@
       <c r="R30" s="92"/>
       <c r="S30" s="93"/>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H31" s="138"/>
       <c r="I31" s="97">
         <v>899</v>
@@ -7945,7 +8241,7 @@
       <c r="O31" s="21"/>
       <c r="S31" s="93"/>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H32" s="98" t="s">
         <v>323</v>
       </c>
@@ -7955,7 +8251,7 @@
       <c r="O32" s="21"/>
       <c r="S32" s="93"/>
     </row>
-    <row r="33" spans="8:19">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33" s="98" t="s">
         <v>326</v>
       </c>
@@ -7965,7 +8261,7 @@
       <c r="O33" s="21"/>
       <c r="S33" s="93"/>
     </row>
-    <row r="34" spans="8:19">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34" s="91" t="s">
         <v>325</v>
       </c>
@@ -7982,7 +8278,7 @@
       <c r="R34" s="92"/>
       <c r="S34" s="93"/>
     </row>
-    <row r="35" spans="8:19">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35" s="91" t="s">
         <v>341</v>
       </c>
@@ -7999,7 +8295,7 @@
       <c r="R35" s="92"/>
       <c r="S35" s="93"/>
     </row>
-    <row r="36" spans="8:19">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36" s="98" t="s">
         <v>327</v>
       </c>
@@ -8010,7 +8306,7 @@
       <c r="R36" s="92"/>
       <c r="S36" s="93"/>
     </row>
-    <row r="37" spans="8:19">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37" s="1" t="s">
         <v>324</v>
       </c>
@@ -8027,12 +8323,12 @@
       <c r="R37" s="92"/>
       <c r="S37" s="93"/>
     </row>
-    <row r="38" spans="8:19">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I38" s="37"/>
       <c r="O38" s="21"/>
       <c r="S38" s="93"/>
     </row>
-    <row r="39" spans="8:19">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I39" s="37">
         <f>SUM(I23:I37)</f>
         <v>94706</v>
@@ -8041,10 +8337,10 @@
       <c r="R39" s="92"/>
       <c r="S39" s="93"/>
     </row>
-    <row r="40" spans="8:19">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="8:19">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I41" s="37">
         <f>SUM(I36,I29:I33,I25,I24)</f>
         <v>15342</v>
@@ -8054,10 +8350,10 @@
         <v>0.16199607205456887</v>
       </c>
     </row>
-    <row r="42" spans="8:19">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="8:19">
+    <row r="43" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I43" s="37"/>
     </row>
   </sheetData>
@@ -8081,7 +8377,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -8089,7 +8385,7 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
         <v>369</v>
       </c>
@@ -8109,7 +8405,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="139">
         <v>43196</v>
       </c>
@@ -8127,7 +8423,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="139"/>
       <c r="C4" s="5" t="s">
         <v>355</v>
@@ -8140,7 +8436,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="139">
         <v>43197</v>
       </c>
@@ -8155,7 +8451,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="139"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
@@ -8168,7 +8464,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="139">
         <v>43198</v>
       </c>
@@ -8185,7 +8481,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="139"/>
       <c r="C8" s="140"/>
       <c r="D8" s="5"/>
@@ -8196,7 +8492,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="139">
         <v>43199</v>
       </c>
@@ -8212,7 +8508,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="139"/>
       <c r="C10" s="5" t="s">
         <v>379</v>
@@ -8224,7 +8520,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
         <v>352</v>
       </c>
@@ -8232,17 +8528,17 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>359</v>
       </c>
@@ -8250,7 +8546,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>367</v>
       </c>
@@ -8258,7 +8554,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>368</v>
       </c>
@@ -8266,27 +8562,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>375</v>
       </c>
@@ -8306,15 +8602,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q41"/>
+  <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>402</v>
       </c>
@@ -8325,7 +8621,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>403</v>
       </c>
@@ -8336,7 +8632,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>404</v>
       </c>
@@ -8347,17 +8643,17 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="141" t="s">
         <v>411</v>
       </c>
@@ -8379,32 +8675,32 @@
       </c>
       <c r="K9" s="141"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="115" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>419</v>
       </c>
@@ -8412,57 +8708,57 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8481,7 +8777,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -8489,7 +8785,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
@@ -8497,9 +8793,79 @@
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="142" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考え" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="474">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -1396,13 +1396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ペットボトルをBBボトルの代用</t>
-    <rPh sb="13" eb="15">
-      <t>ダイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>平日</t>
     <rPh sb="0" eb="2">
       <t>ヘイジツ</t>
@@ -2865,14 +2858,6 @@
     <rPh sb="10" eb="13">
       <t>テイレイカイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[Bolle]シューティングゴーグル THUNDER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[CYC]精密バイオBB弾 0.25g</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3387,10 +3372,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BLACKHAWKタイプ右用 ホルスター 防水 (1.黒色 P220 P226)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ダンプポーチ ミリタリーポーチ OD</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3755,6 +3736,123 @@
     <rPh sb="20" eb="21">
       <t>ウゴ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/6/17_定例会(リトルヘッドショット)</t>
+    <rPh sb="10" eb="13">
+      <t>テイレイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BLACKHAWKタイプ右用 ホルスター 防水 (1.黒色 P220 P226)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホルスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bolle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴーグル</t>
+  </si>
+  <si>
+    <t>シューティングゴーグル THUNDER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SHENKEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マガジンポーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HK417マガジン用 オープントップマガジンポーチ </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Alibabaクーポン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30mm スコープマウント トップレール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップレール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ali</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ZERO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Basic 生分解性バイオBB弾 0.25g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダットサイト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オープン式 ライフルサイトスコープドットサイト ダットサイト　照準器 20mm 対応　レッド/グリーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VERY100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/6/30_練習会(千葉デルタ)</t>
+    <rPh sb="10" eb="12">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BBボトル(大)</t>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店舗</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.103 電動ガン用 減速アダプター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アダプター</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3762,7 +3860,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3933,7 +4031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -4410,28 +4508,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4489,6 +4565,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4504,7 +4632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4802,65 +4930,86 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4930,9 +5079,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5406,13 +5552,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -5420,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5431,7 +5577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5439,12 +5585,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -5456,7 +5602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -5464,7 +5610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -5479,7 +5625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -5490,7 +5636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -5504,7 +5650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -5518,7 +5664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -5546,7 +5692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -5560,7 +5706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -5574,7 +5720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -5582,27 +5728,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -5621,7 +5767,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -5631,14 +5777,14 @@
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43283</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -5661,8 +5807,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+    <row r="3" spans="1:11">
+      <c r="B3" s="129" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -5685,11 +5831,11 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="123"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -5713,8 +5859,8 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="123"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="130"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -5740,8 +5886,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
+    <row r="6" spans="1:11">
+      <c r="B6" s="130"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -5764,8 +5910,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="123"/>
+    <row r="7" spans="1:11">
+      <c r="B7" s="130"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -5788,8 +5934,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="124"/>
+    <row r="8" spans="1:11">
+      <c r="B8" s="131"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -5813,8 +5959,8 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="125"/>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
+      <c r="B9" s="132"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -5838,8 +5984,8 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="119" t="s">
+    <row r="10" spans="1:11">
+      <c r="B10" s="126" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -5862,8 +6008,8 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="120"/>
+    <row r="11" spans="1:11">
+      <c r="B11" s="127"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -5889,8 +6035,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="120"/>
+    <row r="12" spans="1:11">
+      <c r="B12" s="127"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -5916,8 +6062,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="121"/>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1">
+      <c r="B13" s="128"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -5940,17 +6086,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -5958,22 +6104,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="C17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="126" t="s">
+    <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1">
+      <c r="B19" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="127"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
@@ -5984,8 +6130,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="128" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="135" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -5995,8 +6141,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
+    <row r="22" spans="2:4">
+      <c r="B22" s="136"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -6004,8 +6150,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="130"/>
+    <row r="23" spans="2:4">
+      <c r="B23" s="137"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -6028,13 +6174,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -6049,10 +6195,10 @@
     <col min="11" max="11" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="37"/>
+    <col min="14" max="14" width="15.77734375" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="41" t="s">
         <v>114</v>
       </c>
@@ -6071,21 +6217,21 @@
       <c r="F1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="134"/>
-      <c r="M1" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="N1" s="102"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="141"/>
+      <c r="M1" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="123"/>
       <c r="P1" s="53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1">
       <c r="A2" s="43" t="s">
         <v>147</v>
       </c>
@@ -6111,14 +6257,14 @@
       <c r="I2" s="43"/>
       <c r="J2" s="44"/>
       <c r="K2" s="43"/>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="104">
+      <c r="N2" s="101">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="43" t="s">
         <v>164</v>
       </c>
@@ -6144,14 +6290,14 @@
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
       <c r="K3" s="43"/>
-      <c r="M3" s="103" t="s">
-        <v>294</v>
-      </c>
-      <c r="N3" s="105">
+      <c r="M3" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="102">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="87" t="s">
         <v>129</v>
       </c>
@@ -6177,450 +6323,432 @@
       <c r="I4" s="43"/>
       <c r="J4" s="44"/>
       <c r="K4" s="43"/>
-      <c r="M4" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="N4" s="104">
+      <c r="M4" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="N4" s="101">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="116" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="E5" s="117">
+      <c r="D5" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="88">
         <v>999</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="87">
         <v>1</v>
       </c>
-      <c r="G5" s="118" t="s">
-        <v>305</v>
+      <c r="G5" s="89" t="s">
+        <v>304</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="43"/>
       <c r="J5" s="44"/>
       <c r="K5" s="43"/>
-      <c r="M5" s="106" t="s">
-        <v>301</v>
-      </c>
-      <c r="N5" s="107">
+      <c r="M5" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="N5" s="104">
         <v>-2500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A6" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="44">
-        <v>363</v>
-      </c>
-      <c r="F6" s="43">
+      <c r="C6" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="114">
+        <v>1496</v>
+      </c>
+      <c r="F6" s="113">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="137"/>
-      <c r="M6" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="N6" s="109">
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="M6" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="106">
         <f>SUM(N2:N5)</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="43" t="s">
-        <v>398</v>
+        <v>129</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>399</v>
+        <v>182</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>401</v>
+        <v>131</v>
       </c>
       <c r="E7" s="44">
-        <v>1361</v>
+        <v>363</v>
       </c>
       <c r="F7" s="43">
         <v>1</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>132</v>
+      <c r="G7" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="43"/>
       <c r="J7" s="44"/>
       <c r="K7" s="11"/>
-      <c r="M7" s="110" t="s">
-        <v>296</v>
-      </c>
-      <c r="N7" s="104">
+      <c r="M7" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="N7" s="101">
         <v>1700</v>
       </c>
       <c r="P7" s="55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" thickTop="1">
       <c r="A8" s="43" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>180</v>
+        <v>397</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="E8" s="44">
-        <v>200</v>
+        <v>1361</v>
       </c>
       <c r="F8" s="43">
         <v>1</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="111"/>
+      <c r="M8" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="N8" s="101">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" s="44">
+        <v>200</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1</v>
+      </c>
+      <c r="G9" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="J8" s="44">
-        <v>1780</v>
-      </c>
-      <c r="K8" s="114" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="110" t="s">
-        <v>302</v>
-      </c>
-      <c r="N8" s="104">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="88">
-        <v>1180</v>
-      </c>
-      <c r="F9" s="87">
-        <v>1</v>
-      </c>
-      <c r="G9" s="100" t="s">
-        <v>141</v>
-      </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" s="44">
-        <v>1496</v>
-      </c>
-      <c r="K9" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="110" t="s">
-        <v>300</v>
-      </c>
-      <c r="N9" s="104">
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="50"/>
+      <c r="M9" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="N9" s="101">
         <v>150</v>
       </c>
       <c r="P9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="43" t="s">
-        <v>162</v>
+        <v>455</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>188</v>
+        <v>456</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>163</v>
+        <v>457</v>
       </c>
       <c r="E10" s="44">
-        <v>1480</v>
+        <v>1274</v>
       </c>
       <c r="F10" s="43">
         <v>1</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>132</v>
+      <c r="G10" s="116" t="s">
+        <v>134</v>
       </c>
       <c r="H10" s="50"/>
-      <c r="I10" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="J10" s="45">
-        <v>1221</v>
-      </c>
-      <c r="K10" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="N10" s="107">
+      <c r="I10" s="43"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="50"/>
+      <c r="M10" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" s="104">
         <v>-1250</v>
       </c>
       <c r="P10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1">
       <c r="A11" s="87" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B11" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E11" s="88">
-        <v>578</v>
+        <v>1180</v>
       </c>
       <c r="F11" s="87">
         <v>1</v>
       </c>
-      <c r="G11" s="89" t="s">
-        <v>134</v>
+      <c r="G11" s="99" t="s">
+        <v>141</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="43"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="99"/>
-      <c r="M11" s="112" t="s">
-        <v>298</v>
-      </c>
-      <c r="N11" s="113">
+      <c r="K11" s="116"/>
+      <c r="M11" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="N11" s="110">
         <f>SUM(N6:N10)</f>
         <v>7100</v>
       </c>
-      <c r="P11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="116" t="s">
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A12" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="117">
-        <v>1288</v>
-      </c>
-      <c r="F12" s="116">
+      <c r="C12" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="88">
+        <v>1480</v>
+      </c>
+      <c r="F12" s="87">
         <v>1</v>
       </c>
-      <c r="G12" s="118" t="s">
-        <v>305</v>
+      <c r="G12" s="99" t="s">
+        <v>132</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="43"/>
       <c r="J12" s="45"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A13" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="C13" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="88">
+        <v>578</v>
+      </c>
+      <c r="F13" s="87">
         <v>1</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>134</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="43"/>
       <c r="J13" s="45"/>
       <c r="K13" s="43"/>
-      <c r="M13" s="101" t="s">
-        <v>392</v>
-      </c>
-      <c r="N13" s="102"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="44">
-        <v>38000</v>
-      </c>
-      <c r="F14" s="43">
+      <c r="M13" s="122" t="s">
+        <v>391</v>
+      </c>
+      <c r="N13" s="123"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickTop="1">
+      <c r="A14" s="113" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="114">
+        <v>1288</v>
+      </c>
+      <c r="F14" s="113">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>135</v>
+      <c r="G14" s="115" t="s">
+        <v>304</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="43"/>
       <c r="J14" s="45"/>
       <c r="K14" s="43"/>
-      <c r="M14" s="103" t="s">
-        <v>390</v>
-      </c>
-      <c r="N14" s="104">
+      <c r="M14" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="N14" s="101">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="43" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="44">
-        <v>2724</v>
+        <v>198</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="F15" s="43">
         <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="43"/>
       <c r="J15" s="45"/>
       <c r="K15" s="43"/>
-      <c r="M15" s="103" t="s">
-        <v>391</v>
-      </c>
-      <c r="N15" s="104">
+      <c r="M15" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="N15" s="101">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="16.5" thickBot="1">
       <c r="A16" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="E16" s="44">
+        <v>38000</v>
       </c>
       <c r="F16" s="43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="43"/>
       <c r="J16" s="45"/>
       <c r="K16" s="43"/>
-      <c r="M16" s="112" t="s">
-        <v>298</v>
-      </c>
-      <c r="N16" s="113">
+      <c r="M16" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="N16" s="125">
         <f>SUM(N14:N15)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16.5" thickBot="1">
       <c r="A17" s="43" t="s">
-        <v>395</v>
+        <v>103</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>396</v>
+        <v>170</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="E17" s="44">
-        <v>9526</v>
+        <v>2724</v>
       </c>
       <c r="F17" s="43">
         <v>1</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H17" s="50"/>
@@ -6628,18 +6756,18 @@
       <c r="J17" s="45"/>
       <c r="K17" s="43"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.5" thickBot="1">
       <c r="A18" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>64</v>
@@ -6651,351 +6779,394 @@
       <c r="I18" s="43"/>
       <c r="J18" s="45"/>
       <c r="K18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="N18" s="123"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1">
       <c r="A19" s="43" t="s">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>172</v>
+        <v>393</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="E19" s="44">
-        <v>900</v>
+        <v>9526</v>
       </c>
       <c r="F19" s="43">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>134</v>
+      <c r="G19" s="56" t="s">
+        <v>132</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="43"/>
       <c r="J19" s="45"/>
       <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="101">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="44">
-        <v>1940</v>
+        <v>167</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="F20" s="43">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="43"/>
       <c r="J20" s="45"/>
       <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="N20" s="101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" thickBot="1">
       <c r="A21" s="43" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E21" s="44">
-        <v>1280</v>
+        <v>900</v>
       </c>
       <c r="F21" s="43">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="43"/>
       <c r="J21" s="45"/>
       <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="N21" s="125">
+        <f>SUM(N19:N20)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" thickBot="1">
       <c r="A22" s="43" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E22" s="44">
-        <v>1500</v>
+        <v>1940</v>
       </c>
       <c r="F22" s="43">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>141</v>
+      <c r="G22" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="43"/>
       <c r="J22" s="45"/>
       <c r="K22" s="43"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="87" t="s">
+    <row r="23" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A23" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="88">
-        <v>420</v>
-      </c>
-      <c r="F23" s="87">
+      <c r="C23" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1280</v>
+      </c>
+      <c r="F23" s="43">
         <v>1</v>
       </c>
-      <c r="G23" s="89" t="s">
-        <v>134</v>
+      <c r="G23" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="43"/>
       <c r="J23" s="45"/>
       <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="116" t="s">
+      <c r="M23" s="122" t="s">
+        <v>468</v>
+      </c>
+      <c r="N23" s="123"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" thickTop="1">
+      <c r="A24" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="117">
-        <v>929</v>
-      </c>
-      <c r="F24" s="116">
+      <c r="C24" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="43">
         <v>1</v>
       </c>
-      <c r="G24" s="118" t="s">
-        <v>134</v>
+      <c r="G24" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="43"/>
       <c r="J24" s="45"/>
       <c r="K24" s="43"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="116" t="s">
+      <c r="M24" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="N24" s="101">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="117">
-        <v>430</v>
-      </c>
-      <c r="F25" s="116">
+      <c r="C25" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>459</v>
+      </c>
+      <c r="E25" s="114">
+        <v>1386</v>
+      </c>
+      <c r="F25" s="113">
         <v>1</v>
       </c>
-      <c r="G25" s="118" t="s">
-        <v>134</v>
+      <c r="G25" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="43"/>
       <c r="J25" s="45"/>
       <c r="K25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="116" t="s">
+      <c r="M25" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="N25" s="101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A26" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="117">
-        <v>270</v>
-      </c>
-      <c r="F26" s="116">
-        <v>6</v>
-      </c>
-      <c r="G26" s="118" t="s">
+      <c r="C26" s="113" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1880</v>
+      </c>
+      <c r="F26" s="113">
+        <v>1</v>
+      </c>
+      <c r="G26" s="115" t="s">
         <v>134</v>
       </c>
       <c r="H26" s="50"/>
       <c r="I26" s="43"/>
       <c r="J26" s="45"/>
       <c r="K26" s="43"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="N26" s="125">
+        <f>SUM(N24:N25)</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>177</v>
+        <v>473</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="E27" s="44">
-        <v>6716</v>
+        <v>2138</v>
       </c>
       <c r="F27" s="43">
         <v>1</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>135</v>
+      <c r="G27" s="121" t="s">
+        <v>471</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="43"/>
       <c r="J27" s="45"/>
       <c r="K27" s="43"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="44">
-        <v>1080</v>
-      </c>
-      <c r="F28" s="43">
+    <row r="28" spans="1:14">
+      <c r="A28" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="88">
+        <v>420</v>
+      </c>
+      <c r="F28" s="87">
         <v>1</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>132</v>
+      <c r="G28" s="89" t="s">
+        <v>134</v>
       </c>
       <c r="H28" s="50"/>
       <c r="I28" s="43"/>
       <c r="J28" s="45"/>
       <c r="K28" s="43"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="87" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E29" s="88">
-        <v>2480</v>
+        <v>929</v>
       </c>
       <c r="F29" s="87">
         <v>1</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="H29" s="50"/>
       <c r="I29" s="43"/>
       <c r="J29" s="45"/>
       <c r="K29" s="43"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="44">
-        <v>682</v>
-      </c>
-      <c r="F30" s="43">
+    <row r="30" spans="1:14">
+      <c r="A30" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="114">
+        <v>430</v>
+      </c>
+      <c r="F30" s="113">
         <v>1</v>
       </c>
-      <c r="G30" s="56" t="s">
-        <v>133</v>
+      <c r="G30" s="115" t="s">
+        <v>134</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="43"/>
       <c r="J30" s="45"/>
       <c r="K30" s="43"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="44">
-        <v>1166</v>
-      </c>
-      <c r="F31" s="43">
-        <v>4000</v>
-      </c>
-      <c r="G31" s="5" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="114">
+        <v>270</v>
+      </c>
+      <c r="F31" s="113">
+        <v>6</v>
+      </c>
+      <c r="G31" s="115" t="s">
         <v>134</v>
       </c>
       <c r="H31" s="50"/>
@@ -7003,53 +7174,53 @@
       <c r="J31" s="45"/>
       <c r="K31" s="43"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" s="88">
-        <v>216</v>
-      </c>
-      <c r="F32" s="87">
-        <v>2</v>
-      </c>
-      <c r="G32" s="90" t="s">
-        <v>313</v>
+    <row r="32" spans="1:14">
+      <c r="A32" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="44">
+        <v>6716</v>
+      </c>
+      <c r="F32" s="43">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="43"/>
       <c r="J32" s="45"/>
       <c r="K32" s="43"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E33" s="44">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="F33" s="43">
         <v>1</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H33" s="50"/>
@@ -7057,239 +7228,473 @@
       <c r="J33" s="45"/>
       <c r="K33" s="43"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>382</v>
+    <row r="34" spans="1:14">
+      <c r="A34" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="E34" s="44">
-        <v>1250</v>
+        <v>1780</v>
       </c>
       <c r="F34" s="43">
         <v>1</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>386</v>
+      <c r="G34" s="116" t="s">
+        <v>134</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="43"/>
       <c r="J34" s="45"/>
       <c r="K34" s="43"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="E35" s="44">
-        <v>175</v>
-      </c>
-      <c r="F35" s="43">
-        <v>50</v>
-      </c>
-      <c r="G35" s="56" t="s">
-        <v>133</v>
+    <row r="35" spans="1:14">
+      <c r="A35" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="88">
+        <v>2480</v>
+      </c>
+      <c r="F35" s="87">
+        <v>1</v>
+      </c>
+      <c r="G35" s="89" t="s">
+        <v>158</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="43"/>
       <c r="J35" s="45"/>
       <c r="K35" s="43"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43"/>
+    <row r="36" spans="1:14">
+      <c r="A36" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="44">
+        <v>682</v>
+      </c>
+      <c r="F36" s="43">
+        <v>1</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="H36" s="50"/>
       <c r="I36" s="43"/>
       <c r="J36" s="45"/>
       <c r="K36" s="43"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+    <row r="37" spans="1:14" s="64" customFormat="1">
+      <c r="A37" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>186</v>
+      </c>
       <c r="C37" s="43" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E37" s="44">
-        <v>-4540</v>
-      </c>
-      <c r="F37" s="43"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="44">
-        <v>-300</v>
-      </c>
-      <c r="F38" s="43"/>
+        <v>1166</v>
+      </c>
+      <c r="F37" s="43">
+        <v>4000</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="118"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="113"/>
+      <c r="N37" s="65"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="E38" s="114">
+        <v>999</v>
+      </c>
+      <c r="F38" s="43">
+        <v>4000</v>
+      </c>
+      <c r="G38" s="120" t="s">
+        <v>134</v>
+      </c>
       <c r="H38" s="50"/>
       <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="43"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="44">
-        <v>-100</v>
-      </c>
-      <c r="F39" s="43"/>
+    <row r="39" spans="1:14">
+      <c r="A39" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>313</v>
+      </c>
+      <c r="E39" s="88">
+        <v>216</v>
+      </c>
+      <c r="F39" s="87">
+        <v>2</v>
+      </c>
+      <c r="G39" s="90" t="s">
+        <v>312</v>
+      </c>
       <c r="H39" s="50"/>
       <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="43"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+    <row r="40" spans="1:14">
+      <c r="A40" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>178</v>
+      </c>
       <c r="D40" s="43" t="s">
-        <v>143</v>
+        <v>470</v>
       </c>
       <c r="E40" s="44">
-        <v>-300</v>
-      </c>
-      <c r="F40" s="43"/>
+        <v>268</v>
+      </c>
+      <c r="F40" s="43">
+        <v>1</v>
+      </c>
+      <c r="G40" s="121" t="s">
+        <v>471</v>
+      </c>
       <c r="H40" s="50"/>
       <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="43"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+    <row r="41" spans="1:14">
+      <c r="A41" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>191</v>
+      </c>
       <c r="D41" s="43" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E41" s="44">
-        <v>-1300</v>
-      </c>
-      <c r="F41" s="43"/>
+        <v>1400</v>
+      </c>
+      <c r="F41" s="43">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H41" s="50"/>
       <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="J41" s="45"/>
       <c r="K41" s="43"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+    <row r="42" spans="1:14">
+      <c r="A42" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>383</v>
+      </c>
       <c r="D42" s="43" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
       <c r="E42" s="44">
-        <v>-84</v>
-      </c>
-      <c r="F42" s="43"/>
+        <v>1250</v>
+      </c>
+      <c r="F42" s="43">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>385</v>
+      </c>
       <c r="H42" s="50"/>
       <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
+      <c r="J42" s="45"/>
       <c r="K42" s="43"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="43"/>
+    <row r="43" spans="1:14">
+      <c r="A43" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43" s="88">
+        <v>175</v>
+      </c>
+      <c r="F43" s="87">
+        <v>50</v>
+      </c>
+      <c r="G43" s="90" t="s">
+        <v>133</v>
+      </c>
       <c r="H43" s="50"/>
       <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="43"/>
     </row>
-    <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="43"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="43"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="43"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="44">
+        <v>-4540</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="44">
+        <v>-300</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="44">
+        <v>-100</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="44">
+        <v>-300</v>
+      </c>
+      <c r="F49" s="43"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="44">
+        <v>-1300</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="43"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="44">
+        <v>-84</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="E52" s="44">
+        <v>-446</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" spans="1:14" s="38" customFormat="1">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="48">
-        <f>SUM(E2:E43)</f>
-        <v>78067</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="51" t="s">
+      <c r="E53" s="48">
+        <f>SUM(E2:E52)</f>
+        <v>88842</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="48">
-        <f>SUM(J2:J43)</f>
-        <v>4497</v>
-      </c>
-      <c r="K44" s="46"/>
-      <c r="L44" s="38" t="s">
+      <c r="J53" s="48">
+        <f>SUM(J2:J52)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="46"/>
+      <c r="L53" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="M44" s="40">
-        <f>E44+J44</f>
-        <v>82564</v>
-      </c>
-      <c r="N44" s="39"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="131" t="s">
+      <c r="M53" s="40">
+        <f>E53+J53</f>
+        <v>88842</v>
+      </c>
+      <c r="N53" s="39"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" thickBot="1">
+      <c r="H57" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-    </row>
-    <row r="49" spans="8:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="5" t="s">
+      <c r="I57" s="138"/>
+      <c r="J57" s="138"/>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" thickTop="1">
+      <c r="H58" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I58" t="s">
         <v>110</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J58" s="37">
         <v>1562</v>
       </c>
     </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H50" s="5" t="s">
+    <row r="59" spans="1:14">
+      <c r="H59" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" t="s">
         <v>309</v>
       </c>
-      <c r="I50" t="s">
-        <v>310</v>
-      </c>
-      <c r="J50" s="37">
+      <c r="J59" s="37">
         <v>648</v>
       </c>
     </row>
@@ -7300,7 +7705,7 @@
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H57:J57"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H6:K6"/>
   </mergeCells>
@@ -7317,7 +7722,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
@@ -7329,93 +7734,93 @@
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17">
       <c r="B1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
       <c r="C2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="37">
         <f>5*4+2</f>
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="37">
         <f>2*4+1</f>
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="C4" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="58">
         <v>230000</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" t="s">
         <v>228</v>
       </c>
-      <c r="O4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:17" s="64" customFormat="1">
       <c r="B5" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="60"/>
       <c r="E5" s="59"/>
       <c r="F5" s="65"/>
       <c r="O5" s="64" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="72"/>
       <c r="E6" s="71"/>
       <c r="F6" s="73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="C7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="37">
         <v>900</v>
@@ -7425,19 +7830,19 @@
         <v>19800</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" s="37"/>
       <c r="J7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="37">
         <v>500</v>
@@ -7447,10 +7852,10 @@
         <v>11000</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K8" s="67">
         <v>78</v>
@@ -7460,12 +7865,12 @@
         <v>1716</v>
       </c>
       <c r="N8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="C9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="37">
         <v>2000</v>
@@ -7475,10 +7880,10 @@
         <v>18000</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K9" s="62">
         <v>108</v>
@@ -7488,15 +7893,15 @@
         <v>2376</v>
       </c>
       <c r="N9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="37">
         <v>98000</v>
@@ -7513,9 +7918,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="C11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="37">
         <v>5000</v>
@@ -7525,12 +7930,12 @@
         <v>5000</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="C12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="37">
         <v>3000</v>
@@ -7540,12 +7945,12 @@
         <v>3000</v>
       </c>
       <c r="N12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="C13" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="63">
         <v>2000</v>
@@ -7558,7 +7963,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="F14" s="37">
         <f>SUM(F7:F13)</f>
         <v>156800</v>
@@ -7568,9 +7973,9 @@
         <v>0.68173913043478263</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="72"/>
@@ -7578,9 +7983,9 @@
       <c r="F16" s="72"/>
       <c r="G16" s="71"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="C17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="37">
         <v>1050</v>
@@ -7592,15 +7997,15 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="C18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="37">
         <v>2000</v>
@@ -7610,32 +8015,32 @@
         <v>4000</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J18" t="s">
+        <v>217</v>
+      </c>
+      <c r="K18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="J19" t="s">
         <v>218</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14">
       <c r="J20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="C21" s="62"/>
       <c r="D21" s="63"/>
       <c r="E21" s="62"/>
@@ -7643,7 +8048,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14">
       <c r="F22" s="37">
         <f>SUM(F17:F21)</f>
         <v>5050</v>
@@ -7653,12 +8058,12 @@
         <v>2.1956521739130434E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14">
       <c r="D25" s="79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="79">
         <f>D4-F14-F22</f>
@@ -7669,12 +8074,12 @@
         <v>0.29630434782608694</v>
       </c>
       <c r="H25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="71" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="71" t="s">
-        <v>254</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72"/>
@@ -7682,12 +8087,12 @@
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" s="37">
         <v>5000</v>
@@ -7697,15 +8102,15 @@
         <v>36000</v>
       </c>
       <c r="G28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" s="37">
         <v>1500</v>
@@ -7715,12 +8120,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="37">
         <v>5000</v>
@@ -7730,15 +8135,15 @@
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="37">
         <v>2000</v>
@@ -7748,17 +8153,17 @@
         <v>4000</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="C32" s="62"/>
       <c r="D32" s="63"/>
       <c r="E32" s="62"/>
       <c r="F32" s="63"/>
       <c r="G32" s="62"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14">
       <c r="F33" s="37">
         <f>SUM(F28:F32)</f>
         <v>51500</v>
@@ -7768,15 +8173,15 @@
         <v>0.75568598679383714</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14">
       <c r="D35" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" s="76">
         <f>F25-F33</f>
@@ -7787,122 +8192,122 @@
         <v>0.24431401320616286</v>
       </c>
       <c r="H35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14">
       <c r="E36" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="4:14">
       <c r="F38" s="37">
         <f>F35*12</f>
         <v>199800</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14">
       <c r="E39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F39" s="37">
         <f>900000-200000</f>
         <v>700000</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14">
       <c r="D40" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F40" s="63">
         <f>SUM(F38:F39)</f>
         <v>899800</v>
       </c>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:14">
       <c r="D41" s="37">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" s="37">
         <f>$F$40*D41</f>
         <v>899800</v>
       </c>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:14">
       <c r="D42" s="37">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" ref="F42:F45" si="0">$F$40*D42</f>
         <v>1799600</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" t="s">
+        <v>268</v>
+      </c>
+      <c r="N42" t="s">
         <v>269</v>
       </c>
-      <c r="N42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="4:14">
       <c r="D43" s="37">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="0"/>
         <v>2699400</v>
       </c>
       <c r="K43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L43" s="37">
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:14">
       <c r="D44" s="37">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="0"/>
         <v>3599200</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J44" s="37">
         <f>SUM(L43:L46)</f>
         <v>2584000</v>
       </c>
       <c r="K44" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L44" s="84">
         <v>1410000</v>
@@ -7915,26 +8320,26 @@
         <v>-1380000</v>
       </c>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:14">
       <c r="D45" s="37">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="0"/>
         <v>4499000</v>
       </c>
       <c r="I45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J45" s="82">
         <f>J44-F44</f>
         <v>-1015200</v>
       </c>
       <c r="K45" s="83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L45" s="84">
         <v>534000</v>
@@ -7947,9 +8352,9 @@
         <v>-126000</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:14">
       <c r="K46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L46" s="37">
         <v>150000</v>
@@ -7969,76 +8374,76 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" s="21">
         <v>43117</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="21">
         <v>43125</v>
       </c>
       <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
         <v>315</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="K4" t="s">
         <v>317</v>
       </c>
-      <c r="K4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="21">
         <v>43128</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="E9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="21">
         <v>43147</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="E12" t="s">
         <v>277</v>
-      </c>
-      <c r="I11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>278</v>
       </c>
       <c r="F12" s="37">
         <v>3500</v>
@@ -8047,203 +8452,203 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="J13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="21">
         <v>43154</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" t="s">
         <v>279</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" t="s">
-        <v>282</v>
-      </c>
       <c r="I16" s="83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J16" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="K16" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="83" t="s">
+      <c r="L16" s="83"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="I17" t="s">
         <v>289</v>
       </c>
-      <c r="L16" s="83"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>290</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="J18" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:19">
       <c r="H22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="H23" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I23" s="37">
         <v>7200</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D24" s="37">
         <v>2980</v>
       </c>
       <c r="H24" s="98" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I24" s="97">
         <v>9158</v>
       </c>
       <c r="K24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R24" s="92"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D25" s="37">
         <v>1880</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I25" s="97">
         <v>480</v>
       </c>
       <c r="K25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O25" s="21"/>
       <c r="R25" s="92"/>
       <c r="S25" s="93"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19">
       <c r="H26" s="91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I26" s="94">
         <v>3240</v>
       </c>
       <c r="J26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O26" s="21"/>
       <c r="R26" s="92"/>
       <c r="S26" s="93"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19">
       <c r="H27" s="91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I27" s="94">
         <v>6970</v>
       </c>
       <c r="J27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O27" s="21"/>
       <c r="S27" s="93"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19">
       <c r="H28" s="95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I28" s="96">
         <v>43150</v>
       </c>
       <c r="J28" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="K28" s="95" t="s">
         <v>335</v>
-      </c>
-      <c r="K28" s="95" t="s">
-        <v>336</v>
       </c>
       <c r="O28" s="21"/>
       <c r="R28" s="92"/>
       <c r="S28" s="93"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="138" t="s">
-        <v>321</v>
+    <row r="29" spans="2:19">
+      <c r="H29" s="145" t="s">
+        <v>320</v>
       </c>
       <c r="I29" s="97">
         <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O29" s="21"/>
       <c r="R29" s="92"/>
       <c r="S29" s="93"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H30" s="138"/>
+    <row r="30" spans="2:19">
+      <c r="H30" s="145"/>
       <c r="I30" s="97">
         <v>890</v>
       </c>
       <c r="K30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O30" s="21"/>
       <c r="R30" s="92"/>
       <c r="S30" s="93"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H31" s="138"/>
+    <row r="31" spans="2:19">
+      <c r="H31" s="145"/>
       <c r="I31" s="97">
         <v>899</v>
       </c>
       <c r="K31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O31" s="21"/>
       <c r="S31" s="93"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19">
       <c r="H32" s="98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I32" s="97">
         <v>2000</v>
@@ -8251,9 +8656,9 @@
       <c r="O32" s="21"/>
       <c r="S32" s="93"/>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19">
       <c r="H33" s="98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I33" s="97">
         <v>1026</v>
@@ -8261,43 +8666,43 @@
       <c r="O33" s="21"/>
       <c r="S33" s="93"/>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19">
       <c r="H34" s="91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I34" s="37">
         <v>2904</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O34" s="21"/>
       <c r="R34" s="92"/>
       <c r="S34" s="93"/>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19">
       <c r="H35" s="91" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I35" s="37">
         <v>11000</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O35" s="21"/>
       <c r="R35" s="92"/>
       <c r="S35" s="93"/>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19">
       <c r="H36" s="98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I36" s="97">
         <v>740</v>
@@ -8306,29 +8711,29 @@
       <c r="R36" s="92"/>
       <c r="S36" s="93"/>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19">
       <c r="H37" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I37" s="37">
         <v>4900</v>
       </c>
       <c r="J37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O37" s="21"/>
       <c r="R37" s="92"/>
       <c r="S37" s="93"/>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19">
       <c r="I38" s="37"/>
       <c r="O38" s="21"/>
       <c r="S38" s="93"/>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19">
       <c r="I39" s="37">
         <f>SUM(I23:I37)</f>
         <v>94706</v>
@@ -8337,10 +8742,10 @@
       <c r="R39" s="92"/>
       <c r="S39" s="93"/>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:19">
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19">
       <c r="I41" s="37">
         <f>SUM(I36,I29:I33,I25,I24)</f>
         <v>15342</v>
@@ -8350,10 +8755,10 @@
         <v>0.16199607205456887</v>
       </c>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:19">
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:19">
       <c r="I43" s="37"/>
     </row>
   </sheetData>
@@ -8377,7 +8782,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -8385,206 +8790,206 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" s="78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>186</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="139">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="146">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="139"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="146"/>
       <c r="C4" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="146">
+        <v>43197</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="146"/>
+      <c r="C6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="146">
+        <v>43198</v>
+      </c>
+      <c r="C7" s="147" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="139">
-        <v>43197</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="139"/>
-      <c r="C6" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="139">
-        <v>43198</v>
-      </c>
-      <c r="C7" s="140" t="s">
-        <v>356</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="139">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="146">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="139"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="146"/>
       <c r="C10" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
         <v>352</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>359</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>367</v>
       </c>
-      <c r="C17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>368</v>
-      </c>
       <c r="C18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8604,161 +9009,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" t="s">
         <v>402</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
         <v>405</v>
       </c>
-      <c r="D2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="148" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="148" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="141" t="s">
+      <c r="G9" s="148"/>
+      <c r="H9" s="148" t="s">
         <v>411</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141" t="s">
+      <c r="I9" s="148"/>
+      <c r="J9" s="148" t="s">
         <v>412</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141" t="s">
+      <c r="K9" s="148"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
         <v>413</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141" t="s">
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
         <v>414</v>
       </c>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141" t="s">
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
         <v>415</v>
       </c>
-      <c r="K9" s="141"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="112" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="J19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="J20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="115" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>419</v>
-      </c>
-      <c r="J20" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="34" spans="1:17">
+      <c r="B34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8777,95 +9182,95 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="4" customFormat="1">
+      <c r="B44" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="47" spans="1:17">
+      <c r="B47" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="48" spans="1:17">
+      <c r="B48" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="117" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="142" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -19,6 +19,7 @@
     <sheet name="案だし" sheetId="5" r:id="rId5"/>
     <sheet name="札幌" sheetId="6" r:id="rId6"/>
     <sheet name="将来" sheetId="7" r:id="rId7"/>
+    <sheet name="記念" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="625">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -3372,10 +3373,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ダンプポーチ ミリタリーポーチ OD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ダンプポーチ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3830,10 +3827,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BBボトル(大)</t>
     <rPh sb="6" eb="7">
       <t>ダイ</t>
@@ -3853,6 +3846,848 @@
   </si>
   <si>
     <t>アダプター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京マルイ</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本体</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MP5A4 HG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダンプポーチ(\200)を購入したが…商品届かず</t>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダンプポーチ ミリタリーポーチ BK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.57 MP5K ショートマガジン スタンダード電動ガン用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.4 MP5 ノーマルマガジン スタンダード電動ガン用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.4V 1600mAh ニッケル水素バッテリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmanian Tiger 2 SGL MAG POUCH MP5 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tasmanian Tiger</t>
+  </si>
+  <si>
+    <t>ﾌﾟﾚ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BBQ代・飲物</t>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アングルフォアグリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BUSHNELL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1X40 Optics Rifle scope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR-2032 2BS [リチウムコイン電池 3V 2個]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maxell</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電池</t>
+    <rPh sb="0" eb="2">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[ノーブランド]</t>
+  </si>
+  <si>
+    <t>電動ガン</t>
+    <rPh sb="0" eb="2">
+      <t>デンドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ali</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドガードプロテクター・レイル タン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G.A.W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SBD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OPTION No.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京マルイ次世代電動ガン用ストック内蔵変換コネクター NO-CN39</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amazon割引</t>
+    <rPh sb="6" eb="8">
+      <t>ワリビキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Limskey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2s リポバッテリー 7.4v 1500mAh 30c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ali</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Digital Battery Capacity Checker RC CellMeter 7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ali</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/7/20_他チーム主催貸切(ユニオンベース)</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュサイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メルカリポイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SIG552 Seals</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾒﾙ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京マルイ</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メンテナンス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シリコンメンテナンススプレー 70ml</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GoolRC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッテリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B6 多機能 ミニ バランス 充電器 放電器 リポ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【PSE規格品】12V5A　汎用　ACアダプター　ノイズフィルターつき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最強防炎 ! LiPo Guard リポバッテリー セーフティーバッグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リポ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ni-MH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッテリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>充電機器</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾔﾌｵｸ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マガジン</t>
+  </si>
+  <si>
+    <t>MAG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MP5 スプリング給弾式マガジン【装弾数90発】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マガジン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.110 SIGノーマルマガジン リアルタイプ スタンダード電動ガン用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダットサイト</t>
+  </si>
+  <si>
+    <t>1X30ミリメートルレッドドットサイト　HT5-0040</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Runacc　バレルクリーニングキット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/8/19_定例会(リトルヘッドショット)</t>
+    <rPh sb="10" eb="13">
+      <t>テイレイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メルカリクーポン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LayLax</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リポバッテリー"R" 7.4V/2050mAh ミニバッテリーS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾒﾙ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iHelp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニッパー 150mm IH-61</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンダ部分にチューブ保護不要なT型コネクタ オスメス10ペア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOZAN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラックス 鉛フリーハンダ対応 便利なハケ付きキャップ付 容量30mL H-722</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <rPh sb="0" eb="2">
+      <t>コウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続コネクタ</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>八幡ねじ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銅ワッシャー　6mm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店舗</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エーモン工業</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒューズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1153 [ギボシ端子セット]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E425 [ミニ平型ヒューズホルダー30A（MAX）]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1278 [ミニ平型ヒューズ30A]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/8/25_定例会(ロックヒル)</t>
+    <rPh sb="10" eb="13">
+      <t>テイレイカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売却益</t>
+    <rPh sb="0" eb="3">
+      <t>バイキャクエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メルカリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - [No.151]SOPMOD用 ニッケル水素バッテリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - SOPMODバッテリー専用コネクタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1178 [配線コード AV2.00sq 5m]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配線</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エチゴヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BDU</t>
+  </si>
+  <si>
+    <t>コンバットパンツ マルチカム MC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾗｸ</t>
+  </si>
+  <si>
+    <t>ラクマクーポン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MP5K HC/MP5シリーズ共用 220連ダブルマガジン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾒﾙ</t>
+  </si>
+  <si>
+    <t>マガジンクリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.8 MP5 マガジンクリップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メルカリ売上利用</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1174 [配線コード AV1.25sq 5m 赤]</t>
+  </si>
+  <si>
+    <t>元取</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レンタルガン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レンタルウェア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総計/元取</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>【偽】</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>emerson gear</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ニセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レンタルマスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トラスコ中山</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TRRS0.89 [六角棒レンチ ショートタイプ 0.89mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1133 [平型端子 スピーカー用 AV(S)0.50-1.25sq Sサイズ 5セット]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端子</t>
+    <rPh sb="0" eb="2">
+      <t>タンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回の参加で元取り</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ユニオンベース参考</t>
+    <rPh sb="8" eb="10">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割引</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P付与</t>
+    <rPh sb="1" eb="3">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割引後</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P付与合計</t>
+    <rPh sb="1" eb="3">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円相当</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prime会員費</t>
+    <rPh sb="5" eb="7">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クーポン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポイントセール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本体帰属P</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>想定</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割引率</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大阪城</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>道頓堀</t>
+    <rPh sb="0" eb="3">
+      <t>ドウトンボリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海遊館</t>
+    <rPh sb="0" eb="3">
+      <t>カイユウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通天閣</t>
+    <rPh sb="0" eb="3">
+      <t>ツウテンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんばグランド花月</t>
+    <rPh sb="7" eb="9">
+      <t>カゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あべのハルカス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住吉大社</t>
+    <rPh sb="0" eb="4">
+      <t>スミヨシタイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>万博記念公園</t>
+    <rPh sb="0" eb="2">
+      <t>バンパク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイソー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収納</t>
+    <rPh sb="0" eb="2">
+      <t>シュウノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収納類2点</t>
+    <rPh sb="0" eb="2">
+      <t>シュウノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店舗</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KM企画</t>
+    <rPh sb="2" eb="4">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マズル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スチール製 ローレットマズルプロテクター逆ネジ ARVF15PR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクティカルフェイスマスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hunting Riser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウントレール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウントレールベース 20 ミリメートル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電動ガン 7.4V 1300mAh 25C50C リポ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kypom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入日</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.80 SIG 220連マガジン スタンダード電動ガン用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電動ガン用SBDスタンダードパッケージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電動ガン用SBD</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3860,7 +4695,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3968,8 +4803,24 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4027,6 +4878,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4632,7 +5501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4978,9 +5847,6 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5011,6 +5877,165 @@
     <xf numFmtId="38" fontId="6" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5068,6 +6093,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5078,6 +6109,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5089,6 +6129,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5552,13 +6597,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -5566,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5577,7 +6622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5585,12 +6630,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -5602,7 +6647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>15</v>
       </c>
@@ -5610,7 +6655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -5625,7 +6670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -5636,7 +6681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -5650,7 +6695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -5664,7 +6709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -5681,7 +6726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -5692,7 +6737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -5706,7 +6751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -5720,7 +6765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -5728,27 +6773,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -5767,7 +6812,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -5777,14 +6822,14 @@
     <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43283</v>
+        <v>43353</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -5807,8 +6852,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="129" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -5831,11 +6876,11 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="130"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -5859,8 +6904,8 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="130"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="182"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -5886,8 +6931,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="130"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="182"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -5910,8 +6955,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="130"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="182"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -5934,8 +6979,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="131"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="183"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -5959,8 +7004,8 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B9" s="132"/>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="184"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -5984,8 +7029,8 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="126" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="178" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -6008,8 +7053,8 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="127"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="179"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -6035,8 +7080,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="127"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="179"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -6062,8 +7107,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B13" s="128"/>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="180"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -6086,17 +7131,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>81</v>
       </c>
@@ -6104,22 +7149,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B19" s="133" t="s">
+    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="134"/>
+      <c r="C19" s="186"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
@@ -6130,8 +7175,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="135" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="187" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -6141,8 +7186,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="136"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="188"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -6150,8 +7195,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="137"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="189"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -6174,22 +7219,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="10.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.109375" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="37"/>
     <col min="11" max="11" width="3.21875" bestFit="1" customWidth="1"/>
@@ -6198,7 +7243,7 @@
     <col min="14" max="14" width="15.77734375" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>114</v>
       </c>
@@ -6217,21 +7262,23 @@
       <c r="F1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="205" t="s">
+        <v>621</v>
+      </c>
+      <c r="I1" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="141"/>
-      <c r="M1" s="122" t="s">
+      <c r="J1" s="192"/>
+      <c r="K1" s="193"/>
+      <c r="M1" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="123"/>
+      <c r="N1" s="122"/>
       <c r="P1" s="53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>147</v>
       </c>
@@ -6264,27 +7311,27 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="43" t="s">
-        <v>164</v>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="127" t="s">
+        <v>580</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>189</v>
+        <v>565</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>165</v>
+        <v>566</v>
       </c>
       <c r="E3" s="44">
-        <v>750</v>
+        <v>3300</v>
       </c>
       <c r="F3" s="43">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>132</v>
+      <c r="G3" s="158" t="s">
+        <v>567</v>
       </c>
       <c r="H3" s="50"/>
       <c r="I3" s="43"/>
@@ -6297,27 +7344,27 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="87" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="88">
-        <v>150</v>
-      </c>
-      <c r="F4" s="87">
+      <c r="C4" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="44">
+        <v>750</v>
+      </c>
+      <c r="F4" s="43">
         <v>1</v>
       </c>
-      <c r="G4" s="90" t="s">
-        <v>134</v>
+      <c r="G4" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H4" s="50"/>
       <c r="I4" s="43"/>
@@ -6330,9 +7377,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>180</v>
@@ -6341,16 +7388,16 @@
         <v>181</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="E5" s="88">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="F5" s="87">
         <v>1</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>304</v>
+      <c r="G5" s="90" t="s">
+        <v>134</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="43"/>
@@ -6363,34 +7410,34 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A6" s="113" t="s">
-        <v>452</v>
-      </c>
-      <c r="B6" s="113" t="s">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="114">
-        <v>1496</v>
-      </c>
-      <c r="F6" s="113">
+      <c r="C6" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="88">
+        <v>999</v>
+      </c>
+      <c r="F6" s="87">
         <v>1</v>
       </c>
-      <c r="G6" s="116" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="142" t="s">
+      <c r="G6" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="194" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="196"/>
       <c r="M6" s="105" t="s">
         <v>298</v>
       </c>
@@ -6399,26 +7446,26 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="44">
-        <v>363</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="C7" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="114">
+        <v>1496</v>
+      </c>
+      <c r="F7" s="113">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="115" t="s">
         <v>134</v>
       </c>
       <c r="H7" s="50"/>
@@ -6435,27 +7482,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1">
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>395</v>
+        <v>129</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>397</v>
+        <v>180</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>398</v>
+        <v>131</v>
       </c>
       <c r="E8" s="44">
-        <v>1361</v>
+        <v>363</v>
       </c>
       <c r="F8" s="43">
         <v>1</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>132</v>
+      <c r="G8" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="43"/>
@@ -6468,7 +7515,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>129</v>
       </c>
@@ -6476,19 +7523,19 @@
         <v>180</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>431</v>
+        <v>182</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>430</v>
+        <v>615</v>
       </c>
       <c r="E9" s="44">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="F9" s="43">
         <v>1</v>
       </c>
-      <c r="G9" s="111" t="s">
-        <v>134</v>
+      <c r="G9" s="176" t="s">
+        <v>495</v>
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="43"/>
@@ -6504,27 +7551,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>180</v>
+        <v>397</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="E10" s="44">
-        <v>1274</v>
+        <v>1361</v>
       </c>
       <c r="F10" s="43">
         <v>1</v>
       </c>
-      <c r="G10" s="116" t="s">
-        <v>134</v>
+      <c r="G10" s="50" t="s">
+        <v>132</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="43"/>
@@ -6540,32 +7587,32 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A11" s="87" t="s">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="88">
-        <v>1180</v>
-      </c>
-      <c r="F11" s="87">
+      <c r="C11" s="127" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="128">
+        <v>163</v>
+      </c>
+      <c r="F11" s="127">
         <v>1</v>
       </c>
-      <c r="G11" s="99" t="s">
-        <v>141</v>
+      <c r="G11" s="129" t="s">
+        <v>134</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="43"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="116"/>
+      <c r="K11" s="115"/>
       <c r="M11" s="109" t="s">
         <v>297</v>
       </c>
@@ -6574,85 +7621,83 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A12" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="87" t="s">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="88">
-        <v>1480</v>
-      </c>
-      <c r="F12" s="87">
+      <c r="C12" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="44">
+        <v>1274</v>
+      </c>
+      <c r="F12" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="99" t="s">
-        <v>132</v>
+      <c r="G12" s="115" t="s">
+        <v>134</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="43"/>
       <c r="J12" s="45"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A13" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="87" t="s">
+    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="88">
-        <v>578</v>
-      </c>
-      <c r="F13" s="87">
+      <c r="C13" s="130" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="130">
         <v>1</v>
       </c>
-      <c r="G13" s="89" t="s">
-        <v>134</v>
-      </c>
+      <c r="G13" s="132"/>
       <c r="H13" s="50"/>
       <c r="I13" s="43"/>
       <c r="J13" s="45"/>
       <c r="K13" s="43"/>
-      <c r="M13" s="122" t="s">
+      <c r="M13" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="N13" s="123"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" thickTop="1">
-      <c r="A14" s="113" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="113" t="s">
+      <c r="N13" s="122"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="113" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="114">
-        <v>1288</v>
-      </c>
-      <c r="F14" s="113">
+      <c r="C14" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="88">
+        <v>1180</v>
+      </c>
+      <c r="F14" s="87">
         <v>1</v>
       </c>
-      <c r="G14" s="115" t="s">
-        <v>304</v>
+      <c r="G14" s="99" t="s">
+        <v>141</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="43"/>
@@ -6665,24 +7710,27 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="43">
+      <c r="C15" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="88">
+        <v>1480</v>
+      </c>
+      <c r="F15" s="87">
         <v>1</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>132</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="43"/>
@@ -6695,116 +7743,119 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A16" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="44">
-        <v>38000</v>
-      </c>
-      <c r="F16" s="43">
+    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="88">
+        <v>578</v>
+      </c>
+      <c r="F16" s="87">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>135</v>
+      <c r="G16" s="89" t="s">
+        <v>134</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="43"/>
       <c r="J16" s="45"/>
       <c r="K16" s="43"/>
-      <c r="M16" s="124" t="s">
+      <c r="M16" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="N16" s="125">
+      <c r="N16" s="124">
         <f>SUM(N14:N15)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A17" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="44">
-        <v>2724</v>
-      </c>
-      <c r="F17" s="43">
+    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="88">
+        <v>1288</v>
+      </c>
+      <c r="F17" s="87">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>132</v>
+      <c r="G17" s="89" t="s">
+        <v>304</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="43"/>
       <c r="J17" s="45"/>
       <c r="K17" s="43"/>
     </row>
-    <row r="18" spans="1:14" ht="16.5" thickBot="1">
+    <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="F18" s="43">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="43"/>
       <c r="J18" s="45"/>
       <c r="K18" s="43"/>
-      <c r="M18" s="122" t="s">
-        <v>449</v>
-      </c>
-      <c r="N18" s="123"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" thickTop="1">
-      <c r="A19" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="B19" s="43" t="s">
+      <c r="M18" s="121" t="s">
+        <v>448</v>
+      </c>
+      <c r="N18" s="122"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="E19" s="44">
-        <v>9526</v>
-      </c>
-      <c r="F19" s="43">
+      <c r="C19" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="136">
+        <v>38000</v>
+      </c>
+      <c r="F19" s="135">
         <v>1</v>
       </c>
-      <c r="G19" s="56" t="s">
-        <v>132</v>
+      <c r="G19" s="137" t="s">
+        <v>135</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="43"/>
@@ -6817,25 +7868,26 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="43" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="C20" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="135">
         <v>2</v>
       </c>
+      <c r="G20" s="137"/>
       <c r="H20" s="50"/>
       <c r="I20" s="43"/>
       <c r="J20" s="45"/>
@@ -6847,41 +7899,41 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" thickBot="1">
+    <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>172</v>
+        <v>525</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E21" s="44">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="F21" s="43">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="G21" s="149" t="s">
+        <v>537</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="43"/>
       <c r="J21" s="45"/>
       <c r="K21" s="43"/>
-      <c r="M21" s="124" t="s">
+      <c r="M21" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="N21" s="125">
+      <c r="N21" s="124">
         <f>SUM(N19:N20)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" thickBot="1">
+    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>103</v>
       </c>
@@ -6889,18 +7941,18 @@
         <v>176</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E22" s="44">
-        <v>1940</v>
+        <v>2724</v>
       </c>
       <c r="F22" s="43">
         <v>1</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="5" t="s">
         <v>132</v>
       </c>
       <c r="H22" s="50"/>
@@ -6908,58 +7960,58 @@
       <c r="J22" s="45"/>
       <c r="K22" s="43"/>
     </row>
-    <row r="23" spans="1:14" ht="16.5" thickBot="1">
+    <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>129</v>
+        <v>392</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>128</v>
+        <v>394</v>
       </c>
       <c r="E23" s="44">
-        <v>1280</v>
+        <v>9526</v>
       </c>
       <c r="F23" s="43">
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="56" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="43"/>
       <c r="J23" s="45"/>
       <c r="K23" s="43"/>
-      <c r="M23" s="122" t="s">
-        <v>468</v>
-      </c>
-      <c r="N23" s="123"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" thickTop="1">
+      <c r="M23" s="121" t="s">
+        <v>467</v>
+      </c>
+      <c r="N23" s="122"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>176</v>
+        <v>494</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>155</v>
+        <v>496</v>
       </c>
       <c r="E24" s="44">
-        <v>1500</v>
+        <v>293</v>
       </c>
       <c r="F24" s="43">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>141</v>
+        <v>4</v>
+      </c>
+      <c r="G24" s="139" t="s">
+        <v>495</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="43"/>
@@ -6972,27 +8024,27 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="113" t="s">
-        <v>460</v>
-      </c>
-      <c r="B25" s="43" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="113" t="s">
-        <v>461</v>
-      </c>
-      <c r="D25" s="113" t="s">
-        <v>459</v>
-      </c>
-      <c r="E25" s="114">
-        <v>1386</v>
-      </c>
-      <c r="F25" s="113">
+      <c r="C25" s="130" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" s="131">
+        <v>11000</v>
+      </c>
+      <c r="F25" s="130">
         <v>1</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>462</v>
+      <c r="G25" s="132" t="s">
+        <v>135</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="43"/>
@@ -7005,696 +8057,2161 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A26" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="B26" s="43" t="s">
+    <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="E26" s="44">
-        <v>1880</v>
-      </c>
-      <c r="F26" s="113">
-        <v>1</v>
-      </c>
-      <c r="G26" s="115" t="s">
-        <v>134</v>
-      </c>
+      <c r="C26" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="130">
+        <v>2</v>
+      </c>
+      <c r="G26" s="132"/>
       <c r="H26" s="50"/>
       <c r="I26" s="43"/>
       <c r="J26" s="45"/>
       <c r="K26" s="43"/>
-      <c r="M26" s="124" t="s">
+      <c r="M26" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="N26" s="125">
+      <c r="N26" s="124">
         <f>SUM(N24:N25)</f>
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="43" t="s">
+    <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="E27" s="44">
-        <v>2138</v>
-      </c>
-      <c r="F27" s="43">
-        <v>1</v>
-      </c>
-      <c r="G27" s="121" t="s">
-        <v>471</v>
-      </c>
+      <c r="C27" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="130">
+        <v>2</v>
+      </c>
+      <c r="G27" s="132"/>
       <c r="H27" s="50"/>
       <c r="I27" s="43"/>
       <c r="J27" s="45"/>
       <c r="K27" s="43"/>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="87" t="s">
+    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="88">
-        <v>420</v>
-      </c>
-      <c r="F28" s="87">
+      <c r="C28" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1047</v>
+      </c>
+      <c r="F28" s="43">
         <v>1</v>
       </c>
-      <c r="G28" s="89" t="s">
-        <v>134</v>
+      <c r="G28" s="141" t="s">
+        <v>524</v>
       </c>
       <c r="H28" s="50"/>
       <c r="I28" s="43"/>
       <c r="J28" s="45"/>
       <c r="K28" s="43"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="87" t="s">
+      <c r="M28" s="121" t="s">
+        <v>507</v>
+      </c>
+      <c r="N28" s="122"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="88">
-        <v>929</v>
-      </c>
-      <c r="F29" s="87">
+      <c r="C29" s="160" t="s">
+        <v>525</v>
+      </c>
+      <c r="D29" s="160" t="s">
+        <v>569</v>
+      </c>
+      <c r="E29" s="161">
+        <v>3200</v>
+      </c>
+      <c r="F29" s="160">
         <v>1</v>
       </c>
-      <c r="G29" s="89" t="s">
-        <v>134</v>
+      <c r="G29" s="162" t="s">
+        <v>570</v>
       </c>
       <c r="H29" s="50"/>
       <c r="I29" s="43"/>
       <c r="J29" s="45"/>
       <c r="K29" s="43"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="113" t="s">
+      <c r="M29" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" s="101">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="113" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="114">
-        <v>430</v>
-      </c>
-      <c r="F30" s="113">
+      <c r="C30" s="160" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" s="160" t="s">
+        <v>572</v>
+      </c>
+      <c r="E30" s="163" t="s">
+        <v>573</v>
+      </c>
+      <c r="F30" s="160">
         <v>1</v>
       </c>
-      <c r="G30" s="115" t="s">
-        <v>134</v>
+      <c r="G30" s="162" t="s">
+        <v>570</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="43"/>
       <c r="J30" s="45"/>
       <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="113" t="s">
+      <c r="M30" s="100" t="s">
+        <v>483</v>
+      </c>
+      <c r="N30" s="101">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="113" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31" s="114">
-        <v>270</v>
-      </c>
-      <c r="F31" s="113">
-        <v>6</v>
-      </c>
-      <c r="G31" s="115" t="s">
-        <v>134</v>
+      <c r="C31" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="142" t="s">
+        <v>509</v>
+      </c>
+      <c r="E31" s="143">
+        <v>10000</v>
+      </c>
+      <c r="F31" s="142">
+        <v>1</v>
+      </c>
+      <c r="G31" s="144" t="s">
+        <v>510</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="43"/>
       <c r="J31" s="45"/>
       <c r="K31" s="43"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="43" t="s">
+      <c r="M31" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="N31" s="124">
+        <f>SUM(N29:N30)</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="44">
-        <v>6716</v>
-      </c>
-      <c r="F32" s="43">
+      <c r="B32" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="142" t="s">
+        <v>528</v>
+      </c>
+      <c r="D32" s="142" t="s">
+        <v>529</v>
+      </c>
+      <c r="E32" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="142">
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="G32" s="144"/>
       <c r="H32" s="50"/>
       <c r="I32" s="43"/>
       <c r="J32" s="45"/>
       <c r="K32" s="43"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>190</v>
+        <v>525</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>160</v>
+        <v>622</v>
       </c>
       <c r="E33" s="44">
-        <v>1080</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="43">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="G33" s="177" t="s">
+        <v>570</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="43"/>
       <c r="J33" s="45"/>
       <c r="K33" s="43"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>451</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="E34" s="44">
-        <v>1780</v>
-      </c>
-      <c r="F34" s="43">
-        <v>1</v>
-      </c>
-      <c r="G34" s="116" t="s">
-        <v>134</v>
-      </c>
+      <c r="M33" s="121" t="s">
+        <v>533</v>
+      </c>
+      <c r="N33" s="122"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="155" t="s">
+        <v>522</v>
+      </c>
+      <c r="C34" s="155" t="s">
+        <v>521</v>
+      </c>
+      <c r="D34" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="155">
+        <v>2</v>
+      </c>
+      <c r="G34" s="157"/>
       <c r="H34" s="50"/>
       <c r="I34" s="43"/>
       <c r="J34" s="45"/>
       <c r="K34" s="43"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="88">
-        <v>2480</v>
-      </c>
-      <c r="F35" s="87">
+      <c r="M34" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="N34" s="101">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="130" t="s">
+        <v>521</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>479</v>
+      </c>
+      <c r="E35" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="130">
         <v>1</v>
       </c>
-      <c r="G35" s="89" t="s">
-        <v>158</v>
-      </c>
+      <c r="G35" s="132"/>
       <c r="H35" s="50"/>
       <c r="I35" s="43"/>
       <c r="J35" s="45"/>
       <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="M35" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="N35" s="101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>122</v>
+        <v>499</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>194</v>
+        <v>520</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="E36" s="44">
-        <v>682</v>
+        <v>2830</v>
       </c>
       <c r="F36" s="43">
         <v>1</v>
       </c>
-      <c r="G36" s="56" t="s">
-        <v>133</v>
+      <c r="G36" s="139" t="s">
+        <v>134</v>
       </c>
       <c r="H36" s="50"/>
       <c r="I36" s="43"/>
       <c r="J36" s="45"/>
       <c r="K36" s="43"/>
-    </row>
-    <row r="37" spans="1:14" s="64" customFormat="1">
+      <c r="M36" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="N36" s="124">
+        <f>SUM(N34:N35)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="64" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>107</v>
+        <v>535</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>108</v>
+        <v>536</v>
       </c>
       <c r="E37" s="44">
-        <v>1166</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="43">
-        <v>4000</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="118"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="146" t="s">
+        <v>537</v>
+      </c>
+      <c r="H37" s="117"/>
       <c r="I37" s="113"/>
-      <c r="J37" s="119"/>
+      <c r="J37" s="118"/>
       <c r="K37" s="113"/>
       <c r="N37" s="65"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="113" t="s">
-        <v>463</v>
+    <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
+        <v>502</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="113" t="s">
-        <v>464</v>
-      </c>
-      <c r="E38" s="114">
-        <v>999</v>
+        <v>520</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="E38" s="44">
+        <v>1750</v>
       </c>
       <c r="F38" s="43">
-        <v>4000</v>
-      </c>
-      <c r="G38" s="120" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="G38" s="139" t="s">
+        <v>504</v>
       </c>
       <c r="H38" s="50"/>
       <c r="I38" s="43"/>
       <c r="J38" s="45"/>
       <c r="K38" s="43"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>313</v>
-      </c>
-      <c r="E39" s="88">
-        <v>216</v>
-      </c>
-      <c r="F39" s="87">
-        <v>2</v>
-      </c>
-      <c r="G39" s="90" t="s">
-        <v>312</v>
+      <c r="M38" s="121" t="s">
+        <v>557</v>
+      </c>
+      <c r="N38" s="122"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="E39" s="44">
+        <v>1270</v>
+      </c>
+      <c r="F39" s="43">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="H39" s="50"/>
       <c r="I39" s="43"/>
       <c r="J39" s="45"/>
       <c r="K39" s="43"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="M39" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="N39" s="101">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="E40" s="44">
-        <v>268</v>
+        <v>453</v>
       </c>
       <c r="F40" s="43">
         <v>1</v>
       </c>
-      <c r="G40" s="121" t="s">
-        <v>471</v>
+      <c r="G40" s="139" t="s">
+        <v>506</v>
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="43"/>
       <c r="J40" s="45"/>
       <c r="K40" s="43"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="43" t="s">
-        <v>103</v>
+      <c r="M40" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="N40" s="101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>191</v>
+        <v>520</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>166</v>
+        <v>519</v>
       </c>
       <c r="E41" s="44">
-        <v>1400</v>
+        <v>360</v>
       </c>
       <c r="F41" s="43">
         <v>1</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>132</v>
+      <c r="G41" s="141" t="s">
+        <v>514</v>
       </c>
       <c r="H41" s="50"/>
       <c r="I41" s="43"/>
       <c r="J41" s="45"/>
       <c r="K41" s="43"/>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="M41" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="N41" s="124">
+        <f>SUM(N39:N40)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>381</v>
+        <v>497</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>384</v>
+        <v>623</v>
       </c>
       <c r="E42" s="44">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="F42" s="43">
         <v>1</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>385</v>
+      <c r="G42" s="139" t="s">
+        <v>134</v>
       </c>
       <c r="H42" s="50"/>
       <c r="I42" s="43"/>
       <c r="J42" s="45"/>
       <c r="K42" s="43"/>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="87" t="s">
-        <v>386</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="C43" s="87" t="s">
-        <v>387</v>
-      </c>
-      <c r="D43" s="87" t="s">
-        <v>388</v>
-      </c>
-      <c r="E43" s="88">
-        <v>175</v>
-      </c>
-      <c r="F43" s="87">
-        <v>50</v>
-      </c>
-      <c r="G43" s="90" t="s">
-        <v>133</v>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="E43" s="44">
+        <v>599</v>
+      </c>
+      <c r="F43" s="43">
+        <v>3</v>
+      </c>
+      <c r="G43" s="177" t="s">
+        <v>537</v>
       </c>
       <c r="H43" s="50"/>
       <c r="I43" s="43"/>
       <c r="J43" s="45"/>
       <c r="K43" s="43"/>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="121"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>516</v>
+      </c>
+      <c r="C44" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="152">
+        <v>900</v>
+      </c>
+      <c r="F44" s="151">
+        <v>1</v>
+      </c>
+      <c r="G44" s="153" t="s">
+        <v>134</v>
+      </c>
       <c r="H44" s="50"/>
       <c r="I44" s="43"/>
       <c r="J44" s="45"/>
       <c r="K44" s="43"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="43"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="44">
+        <v>1940</v>
+      </c>
+      <c r="F45" s="43">
+        <v>1</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="H45" s="50"/>
       <c r="I45" s="43"/>
       <c r="J45" s="45"/>
       <c r="K45" s="43"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>516</v>
+      </c>
       <c r="C46" s="43" t="s">
-        <v>125</v>
+        <v>523</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>123</v>
+        <v>517</v>
       </c>
       <c r="E46" s="44">
-        <v>-4540</v>
-      </c>
-      <c r="F46" s="43"/>
+        <v>2600</v>
+      </c>
+      <c r="F46" s="43">
+        <v>1</v>
+      </c>
+      <c r="G46" s="141" t="s">
+        <v>514</v>
+      </c>
       <c r="H46" s="50"/>
       <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
+      <c r="J46" s="45"/>
       <c r="K46" s="43"/>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>523</v>
+      </c>
       <c r="D47" s="43" t="s">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="E47" s="44">
-        <v>-300</v>
-      </c>
-      <c r="F47" s="43"/>
+        <v>599</v>
+      </c>
+      <c r="F47" s="43">
+        <v>1</v>
+      </c>
+      <c r="G47" s="141" t="s">
+        <v>514</v>
+      </c>
       <c r="H47" s="50"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
+      <c r="J47" s="45"/>
       <c r="K47" s="43"/>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="44">
-        <v>-100</v>
-      </c>
-      <c r="F48" s="43"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="88">
+        <v>1280</v>
+      </c>
+      <c r="F48" s="87">
+        <v>1</v>
+      </c>
+      <c r="G48" s="89" t="s">
+        <v>132</v>
+      </c>
       <c r="H48" s="50"/>
       <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="43"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="44">
-        <v>-300</v>
-      </c>
-      <c r="F49" s="43"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="130" t="s">
+        <v>485</v>
+      </c>
+      <c r="E49" s="131" t="s">
+        <v>484</v>
+      </c>
+      <c r="F49" s="130">
+        <v>1</v>
+      </c>
+      <c r="G49" s="132"/>
       <c r="H49" s="50"/>
       <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
+      <c r="J49" s="45"/>
       <c r="K49" s="43"/>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="44">
-        <v>-1300</v>
-      </c>
-      <c r="F50" s="43"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="88">
+        <v>1500</v>
+      </c>
+      <c r="F50" s="87">
+        <v>1</v>
+      </c>
+      <c r="G50" s="89" t="s">
+        <v>141</v>
+      </c>
       <c r="H50" s="50"/>
       <c r="I50" s="43"/>
-      <c r="J50" s="44"/>
+      <c r="J50" s="45"/>
       <c r="K50" s="43"/>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="44">
-        <v>-84</v>
-      </c>
-      <c r="F51" s="43"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="E51" s="88">
+        <v>1386</v>
+      </c>
+      <c r="F51" s="87">
+        <v>1</v>
+      </c>
+      <c r="G51" s="90" t="s">
+        <v>461</v>
+      </c>
       <c r="H51" s="50"/>
       <c r="I51" s="43"/>
-      <c r="J51" s="44"/>
+      <c r="J51" s="45"/>
       <c r="K51" s="43"/>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>616</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>617</v>
+      </c>
       <c r="D52" s="43" t="s">
-        <v>458</v>
+        <v>618</v>
       </c>
       <c r="E52" s="44">
-        <v>-446</v>
-      </c>
-      <c r="F52" s="43"/>
+        <v>307</v>
+      </c>
+      <c r="F52" s="43">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>461</v>
+      </c>
       <c r="H52" s="50"/>
       <c r="I52" s="43"/>
-      <c r="J52" s="44"/>
+      <c r="J52" s="45"/>
       <c r="K52" s="43"/>
     </row>
-    <row r="53" spans="1:14" s="38" customFormat="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>464</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>465</v>
+      </c>
+      <c r="E53" s="88">
+        <v>1880</v>
+      </c>
+      <c r="F53" s="87">
+        <v>1</v>
+      </c>
+      <c r="G53" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="50"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="43"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="E54" s="44">
+        <v>1791</v>
+      </c>
+      <c r="F54" s="113">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H54" s="50"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="43"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="E55" s="44">
+        <v>2182</v>
+      </c>
+      <c r="F55" s="113">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H55" s="50"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="43"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" s="44">
+        <v>2138</v>
+      </c>
+      <c r="F56" s="43">
+        <v>1</v>
+      </c>
+      <c r="G56" s="120" t="s">
+        <v>469</v>
+      </c>
+      <c r="H56" s="50"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="43"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="E57" s="44">
+        <v>300</v>
+      </c>
+      <c r="F57" s="43">
+        <v>1</v>
+      </c>
+      <c r="G57" s="176" t="s">
+        <v>537</v>
+      </c>
+      <c r="H57" s="50"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="43"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="88">
+        <v>420</v>
+      </c>
+      <c r="F58" s="87">
+        <v>1</v>
+      </c>
+      <c r="G58" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="50"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="43"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="88">
+        <v>929</v>
+      </c>
+      <c r="F59" s="87">
+        <v>1</v>
+      </c>
+      <c r="G59" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="43"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="88">
+        <v>430</v>
+      </c>
+      <c r="F60" s="87">
+        <v>1</v>
+      </c>
+      <c r="G60" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="50"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="43"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="88">
+        <v>270</v>
+      </c>
+      <c r="F61" s="87">
+        <v>6</v>
+      </c>
+      <c r="G61" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="50"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="43"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="44">
+        <v>6716</v>
+      </c>
+      <c r="F62" s="43">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="50"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="43"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="44">
+        <v>1080</v>
+      </c>
+      <c r="F63" s="43">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" s="50"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="43"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="E64" s="44">
+        <v>1780</v>
+      </c>
+      <c r="F64" s="43">
+        <v>1</v>
+      </c>
+      <c r="G64" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" s="50"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="43"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="88">
+        <v>2480</v>
+      </c>
+      <c r="F65" s="87">
+        <v>1</v>
+      </c>
+      <c r="G65" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="50"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="43"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="44">
+        <v>682</v>
+      </c>
+      <c r="F66" s="43">
+        <v>1</v>
+      </c>
+      <c r="G66" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" s="50"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="43"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="E67" s="44">
+        <v>266</v>
+      </c>
+      <c r="F67" s="43">
+        <v>1</v>
+      </c>
+      <c r="G67" s="147" t="s">
+        <v>540</v>
+      </c>
+      <c r="H67" s="50"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="43"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="E68" s="44">
+        <v>388</v>
+      </c>
+      <c r="F68" s="43">
+        <v>1</v>
+      </c>
+      <c r="G68" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" s="50"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="43"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="E69" s="44">
+        <v>51</v>
+      </c>
+      <c r="F69" s="43">
+        <v>1</v>
+      </c>
+      <c r="G69" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" s="50"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="43"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="44">
+        <v>1166</v>
+      </c>
+      <c r="F70" s="43">
+        <v>4000</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="204">
+        <v>43353</v>
+      </c>
+      <c r="I70" s="43"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="43"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="113" t="s">
+        <v>462</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="E71" s="114">
+        <v>999</v>
+      </c>
+      <c r="F71" s="43">
+        <v>4000</v>
+      </c>
+      <c r="G71" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" s="50"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="43"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="113" t="s">
+        <v>462</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="E72" s="114">
+        <v>999</v>
+      </c>
+      <c r="F72" s="43">
+        <v>4000</v>
+      </c>
+      <c r="G72" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" s="50"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="43"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>313</v>
+      </c>
+      <c r="E73" s="88">
+        <v>216</v>
+      </c>
+      <c r="F73" s="87">
+        <v>2</v>
+      </c>
+      <c r="G73" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="H73" s="50"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="43"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="E74" s="44">
+        <v>268</v>
+      </c>
+      <c r="F74" s="43">
+        <v>1</v>
+      </c>
+      <c r="G74" s="120" t="s">
+        <v>469</v>
+      </c>
+      <c r="H74" s="50"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="43"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="44">
+        <v>1400</v>
+      </c>
+      <c r="F75" s="43">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H75" s="50"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="43"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="E76" s="44">
+        <v>1250</v>
+      </c>
+      <c r="F76" s="43">
+        <v>1</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H76" s="50"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="43"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="C77" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E77" s="88">
+        <v>175</v>
+      </c>
+      <c r="F77" s="87">
+        <v>50</v>
+      </c>
+      <c r="G77" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="50"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="43"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="113" t="s">
+        <v>548</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="E78" s="44">
+        <v>144</v>
+      </c>
+      <c r="F78" s="43">
+        <v>4</v>
+      </c>
+      <c r="G78" s="147" t="s">
+        <v>551</v>
+      </c>
+      <c r="H78" s="50"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="43"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="E79" s="44">
+        <v>230</v>
+      </c>
+      <c r="F79" s="43">
+        <v>2</v>
+      </c>
+      <c r="G79" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="H79" s="50"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="43"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" s="44">
+        <v>421</v>
+      </c>
+      <c r="F80" s="43">
+        <v>1</v>
+      </c>
+      <c r="G80" s="141" t="s">
+        <v>514</v>
+      </c>
+      <c r="H80" s="50"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="43"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="E81" s="44">
+        <v>564</v>
+      </c>
+      <c r="F81" s="43">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H81" s="50"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="43"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>542</v>
+      </c>
+      <c r="E82" s="44">
+        <v>720</v>
+      </c>
+      <c r="F82" s="43">
+        <v>10</v>
+      </c>
+      <c r="G82" s="147" t="s">
+        <v>543</v>
+      </c>
+      <c r="H82" s="50"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="43"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="87" t="s">
+        <v>552</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="D83" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E83" s="88">
+        <v>132</v>
+      </c>
+      <c r="F83" s="87">
+        <v>5</v>
+      </c>
+      <c r="G83" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="50"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="43"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="E84" s="44">
+        <v>143</v>
+      </c>
+      <c r="F84" s="43">
+        <v>5</v>
+      </c>
+      <c r="G84" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="50"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="43"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="87" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D85" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="E85" s="88">
+        <v>246</v>
+      </c>
+      <c r="F85" s="87">
+        <v>1</v>
+      </c>
+      <c r="G85" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="50"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="43"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="E86" s="44">
+        <v>117</v>
+      </c>
+      <c r="F86" s="43">
+        <v>2</v>
+      </c>
+      <c r="G86" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H86" s="50"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="43"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="87" t="s">
+        <v>552</v>
+      </c>
+      <c r="B87" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="D87" s="87" t="s">
+        <v>562</v>
+      </c>
+      <c r="E87" s="88">
+        <v>281</v>
+      </c>
+      <c r="F87" s="87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="50"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="43"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="E88" s="44">
+        <v>224</v>
+      </c>
+      <c r="F88" s="43">
+        <v>1</v>
+      </c>
+      <c r="G88" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" s="50"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="43"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="E89" s="44">
+        <v>432</v>
+      </c>
+      <c r="F89" s="43">
+        <v>2</v>
+      </c>
+      <c r="G89" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="H89" s="50"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="43"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="148"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="43"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" s="44">
+        <v>-1895</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="148"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="43"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="E92" s="44"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="43"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="E93" s="44"/>
+      <c r="F93" s="43"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="43"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="44">
+        <v>-8240</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="43"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="44">
+        <v>-300</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="43"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" s="44">
+        <v>-200</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="43"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="E97" s="44">
+        <v>-200</v>
+      </c>
+      <c r="F97" s="43"/>
+      <c r="G97" s="158"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="43"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="44">
+        <v>-300</v>
+      </c>
+      <c r="F98" s="43"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="43"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E99" s="44">
+        <v>-1300</v>
+      </c>
+      <c r="F99" s="43"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="43"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="44">
+        <v>-1083</v>
+      </c>
+      <c r="F100" s="43"/>
+      <c r="G100" s="139"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="43"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="E101" s="44">
+        <v>-73</v>
+      </c>
+      <c r="F101" s="43"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="43"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="E102" s="44">
+        <v>-446</v>
+      </c>
+      <c r="F102" s="43"/>
+      <c r="G102" s="140"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="43"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="E103" s="44">
+        <v>-1100</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="146"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="43"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="E104" s="44">
+        <v>-1895</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="158"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="43"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="E105" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="43"/>
+    </row>
+    <row r="106" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="48">
-        <f>SUM(E2:E52)</f>
-        <v>88842</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="51" t="s">
+      <c r="E106" s="48">
+        <f>SUM(E2:E105)</f>
+        <v>134808</v>
+      </c>
+      <c r="F106" s="49"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="J53" s="48">
-        <f>SUM(J2:J52)</f>
+      <c r="J106" s="48">
+        <f>SUM(J2:J105)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="46"/>
-      <c r="L53" s="38" t="s">
+      <c r="K106" s="46"/>
+      <c r="L106" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="M53" s="40">
-        <f>E53+J53</f>
-        <v>88842</v>
-      </c>
-      <c r="N53" s="39"/>
-    </row>
-    <row r="57" spans="1:14" ht="16.5" thickBot="1">
-      <c r="H57" s="138" t="s">
+      <c r="M106" s="40">
+        <f>E106+J106</f>
+        <v>134808</v>
+      </c>
+      <c r="N106" s="39"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>475</v>
+      </c>
+      <c r="L108" s="197" t="s">
+        <v>576</v>
+      </c>
+      <c r="M108" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="N108" s="164">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L109" s="197"/>
+      <c r="M109" s="56" t="s">
+        <v>581</v>
+      </c>
+      <c r="N109" s="164">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H110" s="190" t="s">
         <v>121</v>
       </c>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" thickTop="1">
-      <c r="H58" s="5" t="s">
+      <c r="I110" s="190"/>
+      <c r="J110" s="190"/>
+      <c r="L110" s="198"/>
+      <c r="M110" s="165" t="s">
+        <v>578</v>
+      </c>
+      <c r="N110" s="166">
+        <v>1000</v>
+      </c>
+      <c r="O110" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I111" t="s">
         <v>110</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J111" s="37">
         <v>1562</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="H59" s="5" t="s">
+      <c r="L111" t="s">
+        <v>579</v>
+      </c>
+      <c r="M111" s="167">
+        <f>M106/SUM(N108:N110)</f>
+        <v>33.701999999999998</v>
+      </c>
+      <c r="N111" s="37" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H112" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I112" t="s">
         <v>309</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J112" s="37">
         <v>648</v>
       </c>
     </row>
@@ -7704,10 +10221,11 @@
     <sortCondition ref="C2:C25"/>
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H6:K6"/>
+  <mergeCells count="4">
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="L108:L110"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7722,7 +10240,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
@@ -7734,12 +10252,12 @@
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>199</v>
       </c>
@@ -7754,7 +10272,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>200</v>
       </c>
@@ -7769,7 +10287,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" s="57" t="s">
         <v>206</v>
       </c>
@@ -7789,7 +10307,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="64" customFormat="1">
+    <row r="5" spans="2:17" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>232</v>
       </c>
@@ -7801,7 +10319,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="71" t="s">
         <v>211</v>
       </c>
@@ -7818,7 +10336,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>221</v>
       </c>
@@ -7840,7 +10358,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>220</v>
       </c>
@@ -7868,7 +10386,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>219</v>
       </c>
@@ -7899,7 +10417,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>205</v>
       </c>
@@ -7918,7 +10436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>207</v>
       </c>
@@ -7933,7 +10451,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>209</v>
       </c>
@@ -7948,7 +10466,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="62" t="s">
         <v>208</v>
       </c>
@@ -7963,7 +10481,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F14" s="37">
         <f>SUM(F7:F13)</f>
         <v>156800</v>
@@ -7973,7 +10491,7 @@
         <v>0.68173913043478263</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="71" t="s">
         <v>210</v>
       </c>
@@ -7983,7 +10501,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="71"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>212</v>
       </c>
@@ -8003,7 +10521,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>213</v>
       </c>
@@ -8024,7 +10542,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>218</v>
       </c>
@@ -8032,7 +10550,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>241</v>
       </c>
@@ -8040,7 +10558,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" s="62"/>
       <c r="D21" s="63"/>
       <c r="E21" s="62"/>
@@ -8048,7 +10566,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="37">
         <f>SUM(F17:F21)</f>
         <v>5050</v>
@@ -8058,7 +10576,7 @@
         <v>2.1956521739130434E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="79" t="s">
         <v>251</v>
       </c>
@@ -8077,7 +10595,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="71" t="s">
         <v>253</v>
       </c>
@@ -8087,7 +10605,7 @@
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>257</v>
       </c>
@@ -8105,7 +10623,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>257</v>
       </c>
@@ -8120,7 +10638,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>257</v>
       </c>
@@ -8138,7 +10656,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>257</v>
       </c>
@@ -8156,14 +10674,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="62"/>
       <c r="D32" s="63"/>
       <c r="E32" s="62"/>
       <c r="F32" s="63"/>
       <c r="G32" s="62"/>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F33" s="37">
         <f>SUM(F28:F32)</f>
         <v>51500</v>
@@ -8176,7 +10694,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="4:14">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="76" t="s">
         <v>248</v>
       </c>
@@ -8195,7 +10713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="4:14">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E36" s="78" t="s">
         <v>245</v>
       </c>
@@ -8203,7 +10721,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="4:14">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F38" s="37">
         <f>F35*12</f>
         <v>199800</v>
@@ -8212,7 +10730,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="4:14">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>249</v>
       </c>
@@ -8224,7 +10742,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="4:14">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="63" t="s">
         <v>255</v>
       </c>
@@ -8236,7 +10754,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="41" spans="4:14">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="37">
         <v>1</v>
       </c>
@@ -8248,7 +10766,7 @@
         <v>899800</v>
       </c>
     </row>
-    <row r="42" spans="4:14">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="37">
         <v>2</v>
       </c>
@@ -8270,7 +10788,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="4:14">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="37">
         <v>3</v>
       </c>
@@ -8288,7 +10806,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="44" spans="4:14">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="37">
         <v>4</v>
       </c>
@@ -8320,7 +10838,7 @@
         <v>-1380000</v>
       </c>
     </row>
-    <row r="45" spans="4:14">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="37">
         <v>5</v>
       </c>
@@ -8352,7 +10870,7 @@
         <v>-126000</v>
       </c>
     </row>
-    <row r="46" spans="4:14">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
         <v>263</v>
       </c>
@@ -8374,16 +10892,16 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>43117</v>
       </c>
@@ -8391,7 +10909,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>43125</v>
       </c>
@@ -8408,7 +10926,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>43128</v>
       </c>
@@ -8419,12 +10937,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>43147</v>
       </c>
@@ -8441,7 +10959,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>277</v>
       </c>
@@ -8452,12 +10970,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>43154</v>
       </c>
@@ -8471,7 +10989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>279</v>
       </c>
@@ -8489,7 +11007,7 @@
       </c>
       <c r="L16" s="83"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>289</v>
       </c>
@@ -8500,17 +11018,17 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H23" s="1" t="s">
         <v>331</v>
       </c>
@@ -8524,7 +11042,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>318</v>
       </c>
@@ -8542,7 +11060,7 @@
       </c>
       <c r="R24" s="92"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>319</v>
       </c>
@@ -8562,7 +11080,7 @@
       <c r="R25" s="92"/>
       <c r="S25" s="93"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H26" s="91" t="s">
         <v>328</v>
       </c>
@@ -8576,7 +11094,7 @@
       <c r="R26" s="92"/>
       <c r="S26" s="93"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H27" s="91" t="s">
         <v>329</v>
       </c>
@@ -8592,7 +11110,7 @@
       <c r="O27" s="21"/>
       <c r="S27" s="93"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H28" s="95" t="s">
         <v>327</v>
       </c>
@@ -8609,8 +11127,8 @@
       <c r="R28" s="92"/>
       <c r="S28" s="93"/>
     </row>
-    <row r="29" spans="2:19">
-      <c r="H29" s="145" t="s">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H29" s="199" t="s">
         <v>320</v>
       </c>
       <c r="I29" s="97">
@@ -8623,8 +11141,8 @@
       <c r="R29" s="92"/>
       <c r="S29" s="93"/>
     </row>
-    <row r="30" spans="2:19">
-      <c r="H30" s="145"/>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H30" s="199"/>
       <c r="I30" s="97">
         <v>890</v>
       </c>
@@ -8635,8 +11153,8 @@
       <c r="R30" s="92"/>
       <c r="S30" s="93"/>
     </row>
-    <row r="31" spans="2:19">
-      <c r="H31" s="145"/>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H31" s="199"/>
       <c r="I31" s="97">
         <v>899</v>
       </c>
@@ -8646,7 +11164,7 @@
       <c r="O31" s="21"/>
       <c r="S31" s="93"/>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H32" s="98" t="s">
         <v>322</v>
       </c>
@@ -8656,7 +11174,7 @@
       <c r="O32" s="21"/>
       <c r="S32" s="93"/>
     </row>
-    <row r="33" spans="8:19">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33" s="98" t="s">
         <v>325</v>
       </c>
@@ -8666,7 +11184,7 @@
       <c r="O33" s="21"/>
       <c r="S33" s="93"/>
     </row>
-    <row r="34" spans="8:19">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34" s="91" t="s">
         <v>324</v>
       </c>
@@ -8683,7 +11201,7 @@
       <c r="R34" s="92"/>
       <c r="S34" s="93"/>
     </row>
-    <row r="35" spans="8:19">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35" s="91" t="s">
         <v>340</v>
       </c>
@@ -8700,7 +11218,7 @@
       <c r="R35" s="92"/>
       <c r="S35" s="93"/>
     </row>
-    <row r="36" spans="8:19">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36" s="98" t="s">
         <v>326</v>
       </c>
@@ -8711,7 +11229,7 @@
       <c r="R36" s="92"/>
       <c r="S36" s="93"/>
     </row>
-    <row r="37" spans="8:19">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37" s="1" t="s">
         <v>323</v>
       </c>
@@ -8728,12 +11246,12 @@
       <c r="R37" s="92"/>
       <c r="S37" s="93"/>
     </row>
-    <row r="38" spans="8:19">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I38" s="37"/>
       <c r="O38" s="21"/>
       <c r="S38" s="93"/>
     </row>
-    <row r="39" spans="8:19">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I39" s="37">
         <f>SUM(I23:I37)</f>
         <v>94706</v>
@@ -8742,10 +11260,10 @@
       <c r="R39" s="92"/>
       <c r="S39" s="93"/>
     </row>
-    <row r="40" spans="8:19">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="8:19">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I41" s="37">
         <f>SUM(I36,I29:I33,I25,I24)</f>
         <v>15342</v>
@@ -8755,10 +11273,10 @@
         <v>0.16199607205456887</v>
       </c>
     </row>
-    <row r="42" spans="8:19">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="8:19">
+    <row r="43" spans="8:19" x14ac:dyDescent="0.25">
       <c r="I43" s="37"/>
     </row>
   </sheetData>
@@ -8782,7 +11300,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -8790,7 +11308,7 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
         <v>368</v>
       </c>
@@ -8810,8 +11328,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="146">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="200">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -8828,8 +11346,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="146"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="200"/>
       <c r="C4" s="5" t="s">
         <v>354</v>
       </c>
@@ -8841,8 +11359,8 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="146">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="200">
         <v>43197</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8856,8 +11374,8 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="146"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="200"/>
       <c r="C6" s="5" t="s">
         <v>357</v>
       </c>
@@ -8869,11 +11387,11 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="146">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="200">
         <v>43198</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="201" t="s">
         <v>355</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -8886,9 +11404,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="200"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>366</v>
@@ -8897,8 +11415,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="146">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="200">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -8913,8 +11431,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="146"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="200"/>
       <c r="C10" s="5" t="s">
         <v>378</v>
       </c>
@@ -8925,7 +11443,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
         <v>351</v>
       </c>
@@ -8933,17 +11451,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>358</v>
       </c>
@@ -8951,7 +11469,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>366</v>
       </c>
@@ -8959,7 +11477,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>367</v>
       </c>
@@ -8967,27 +11485,27 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>374</v>
       </c>
@@ -9013,9 +11531,9 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>399</v>
       </c>
@@ -9026,7 +11544,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>400</v>
       </c>
@@ -9037,7 +11555,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>401</v>
       </c>
@@ -9048,64 +11566,64 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="148" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="202" t="s">
         <v>408</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148" t="s">
+      <c r="C9" s="202"/>
+      <c r="D9" s="202" t="s">
         <v>409</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148" t="s">
+      <c r="E9" s="202"/>
+      <c r="F9" s="202" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148" t="s">
+      <c r="G9" s="202"/>
+      <c r="H9" s="202" t="s">
         <v>411</v>
       </c>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148" t="s">
+      <c r="I9" s="202"/>
+      <c r="J9" s="202" t="s">
         <v>412</v>
       </c>
-      <c r="K9" s="148"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="K9" s="202"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="112" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>416</v>
       </c>
@@ -9113,57 +11631,57 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -9182,95 +11700,95 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="B41" t="s">
+    <row r="44" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="4" customFormat="1">
-      <c r="B44" s="4" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="B45" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="B46" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
-      <c r="B47" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="B48" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="116" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="117" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -9285,4 +11803,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="203" t="s">
+        <v>597</v>
+      </c>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="37">
+        <v>37800</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="173" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" s="37">
+        <f>C4*0.1</f>
+        <v>3780</v>
+      </c>
+      <c r="D5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="174" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="169">
+        <f>C4*0.09161</f>
+        <v>3462.8579999999997</v>
+      </c>
+      <c r="D6" s="168" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="175" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="63">
+        <f>C4*0.04</f>
+        <v>1512</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="82">
+        <f>C4-C5</f>
+        <v>34020</v>
+      </c>
+      <c r="D8" s="170" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="62"/>
+      <c r="C9" s="171">
+        <f>SUM(C6:C7)</f>
+        <v>4974.8580000000002</v>
+      </c>
+      <c r="D9" s="172" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="82">
+        <f>C8-C9</f>
+        <v>29045.142</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62">
+        <v>400</v>
+      </c>
+      <c r="D11" s="172" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="82">
+        <f>SUM(C10:C11)</f>
+        <v>29445.142</v>
+      </c>
+      <c r="D12" s="170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" s="61">
+        <f>1-C12/C4</f>
+        <v>0.2210279894179894</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1504">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -9027,10 +9027,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1 × 22 レッドドットスコープ 20 ミリメートルウィーバーマウント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>百均</t>
     <rPh sb="0" eb="2">
       <t>ヒャッキン</t>
@@ -9385,20 +9381,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検討中/1923円/1個</t>
-    <rPh sb="0" eb="3">
-      <t>ケントウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>売出中B</t>
-    <rPh sb="0" eb="3">
-      <t>ウリダシチュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10198,6 +10180,28 @@
     <rPh sb="2" eb="4">
       <t>テイレイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 × 22 レッドドットスコープ 20 ミリメートルウィーバーマウント-4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1923円/1個</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/5/28　売却済</t>
+    <rPh sb="10" eb="12">
+      <t>バイキャク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1 × 22 レッドドットスコープ -4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11177,7 +11181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12327,6 +12331,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="17" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12372,6 +12403,39 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12381,37 +12445,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12420,15 +12460,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -12440,24 +12471,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="17" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="17" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13201,26 +13214,26 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="428" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="419"/>
-      <c r="D9" s="419" t="s">
+      <c r="C9" s="428"/>
+      <c r="D9" s="428" t="s">
         <v>392</v>
       </c>
-      <c r="E9" s="419"/>
-      <c r="F9" s="419" t="s">
+      <c r="E9" s="428"/>
+      <c r="F9" s="428" t="s">
         <v>393</v>
       </c>
-      <c r="G9" s="419"/>
-      <c r="H9" s="419" t="s">
+      <c r="G9" s="428"/>
+      <c r="H9" s="428" t="s">
         <v>394</v>
       </c>
-      <c r="I9" s="419"/>
-      <c r="J9" s="419" t="s">
+      <c r="I9" s="428"/>
+      <c r="J9" s="428" t="s">
         <v>395</v>
       </c>
-      <c r="K9" s="419"/>
+      <c r="K9" s="428"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
@@ -13444,11 +13457,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="420" t="s">
+      <c r="B3" s="429" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="420"/>
-      <c r="D3" s="420"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="75" t="s">
@@ -13646,7 +13659,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="416" t="s">
+      <c r="A2" s="423" t="s">
         <v>644</v>
       </c>
       <c r="B2" s="193">
@@ -13657,7 +13670,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="416"/>
+      <c r="A3" s="423"/>
       <c r="B3" s="193">
         <v>23</v>
       </c>
@@ -13666,7 +13679,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="416"/>
+      <c r="A4" s="423"/>
       <c r="B4" s="193">
         <v>24</v>
       </c>
@@ -13675,7 +13688,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="416"/>
+      <c r="A5" s="423"/>
       <c r="B5" s="194">
         <v>25</v>
       </c>
@@ -13687,7 +13700,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="416"/>
+      <c r="A6" s="423"/>
       <c r="B6" s="194">
         <v>26</v>
       </c>
@@ -13696,7 +13709,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="416"/>
+      <c r="A7" s="423"/>
       <c r="B7" s="194">
         <v>27</v>
       </c>
@@ -13708,7 +13721,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="416"/>
+      <c r="A8" s="423"/>
       <c r="B8" s="194">
         <v>28</v>
       </c>
@@ -13720,7 +13733,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="416"/>
+      <c r="A9" s="423"/>
       <c r="B9" s="193">
         <v>29</v>
       </c>
@@ -13735,7 +13748,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="416"/>
+      <c r="A10" s="423"/>
       <c r="B10" s="193">
         <v>30</v>
       </c>
@@ -13750,7 +13763,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="416"/>
+      <c r="A11" s="423"/>
       <c r="B11" s="184">
         <v>31</v>
       </c>
@@ -13762,7 +13775,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="416" t="s">
+      <c r="A12" s="423" t="s">
         <v>645</v>
       </c>
       <c r="B12" s="184">
@@ -13776,7 +13789,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="416"/>
+      <c r="A13" s="423"/>
       <c r="B13" s="184">
         <v>2</v>
       </c>
@@ -13788,7 +13801,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="416"/>
+      <c r="A14" s="423"/>
       <c r="B14" s="184">
         <v>3</v>
       </c>
@@ -13800,7 +13813,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="416"/>
+      <c r="A15" s="423"/>
       <c r="B15" s="184">
         <v>4</v>
       </c>
@@ -13815,7 +13828,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="416"/>
+      <c r="A16" s="423"/>
       <c r="B16" s="193">
         <v>5</v>
       </c>
@@ -13827,7 +13840,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="416"/>
+      <c r="A17" s="423"/>
       <c r="B17" s="193">
         <v>6</v>
       </c>
@@ -13836,7 +13849,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="416"/>
+      <c r="A18" s="423"/>
       <c r="B18" s="194">
         <v>7</v>
       </c>
@@ -13887,7 +13900,7 @@
     <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43612</v>
+        <v>43613</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -13915,7 +13928,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="386" t="s">
+      <c r="B3" s="395" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -13942,7 +13955,7 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="387"/>
+      <c r="B4" s="396"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -13967,7 +13980,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="387"/>
+      <c r="B5" s="396"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -13994,7 +14007,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="387"/>
+      <c r="B6" s="396"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -14018,7 +14031,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="387"/>
+      <c r="B7" s="396"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -14042,7 +14055,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="388"/>
+      <c r="B8" s="397"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -14067,7 +14080,7 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B9" s="389"/>
+      <c r="B9" s="398"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -14092,7 +14105,7 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="383" t="s">
+      <c r="B10" s="392" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -14116,7 +14129,7 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="384"/>
+      <c r="B11" s="393"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -14143,7 +14156,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="384"/>
+      <c r="B12" s="393"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -14170,7 +14183,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B13" s="385"/>
+      <c r="B13" s="394"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -14218,10 +14231,10 @@
     </row>
     <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
     <row r="19" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B19" s="390" t="s">
+      <c r="B19" s="399" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="391"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
@@ -14238,7 +14251,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="392" t="s">
+      <c r="B21" s="401" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -14249,7 +14262,7 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="393"/>
+      <c r="B22" s="402"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -14258,7 +14271,7 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="394"/>
+      <c r="B23" s="403"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -14281,11 +14294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q306"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E173" sqref="E173"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -14343,11 +14356,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="418" t="s">
         <v>1143</v>
       </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="400"/>
+      <c r="B2" s="419"/>
+      <c r="C2" s="420"/>
       <c r="D2" s="250"/>
       <c r="E2" s="251"/>
       <c r="F2" s="250"/>
@@ -14421,7 +14434,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="D4" s="108" t="s">
         <v>436</v>
@@ -14487,7 +14500,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="41" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>168</v>
@@ -14496,7 +14509,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E6" s="42">
         <v>4621</v>
@@ -14872,7 +14885,7 @@
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="41" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="J16" s="177"/>
       <c r="K16" s="41"/>
@@ -14908,7 +14921,7 @@
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="41" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="J17" s="176"/>
       <c r="K17" s="41"/>
@@ -14998,16 +15011,16 @@
         <v>175</v>
       </c>
       <c r="D20" s="308" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E20" s="313" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F20" s="308">
         <v>1</v>
       </c>
       <c r="G20" s="310" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H20" s="311"/>
       <c r="I20" s="308"/>
@@ -15275,7 +15288,7 @@
       </c>
       <c r="H28" s="48"/>
       <c r="I28" s="332" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J28" s="176"/>
       <c r="K28" s="41"/>
@@ -15381,11 +15394,11 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A32" s="395" t="s">
+      <c r="A32" s="404" t="s">
         <v>733</v>
       </c>
-      <c r="B32" s="396"/>
-      <c r="C32" s="397"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="406"/>
       <c r="D32" s="250"/>
       <c r="E32" s="251"/>
       <c r="F32" s="250"/>
@@ -15741,11 +15754,11 @@
       <c r="K42" s="41"/>
     </row>
     <row r="43" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A43" s="395" t="s">
+      <c r="A43" s="404" t="s">
         <v>1180</v>
       </c>
-      <c r="B43" s="396"/>
-      <c r="C43" s="397"/>
+      <c r="B43" s="405"/>
+      <c r="C43" s="406"/>
       <c r="D43" s="250"/>
       <c r="E43" s="251"/>
       <c r="F43" s="250"/>
@@ -16004,11 +16017,11 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="395" t="s">
+      <c r="A51" s="404" t="s">
         <v>1154</v>
       </c>
-      <c r="B51" s="396"/>
-      <c r="C51" s="397"/>
+      <c r="B51" s="405"/>
+      <c r="C51" s="406"/>
       <c r="D51" s="250"/>
       <c r="E51" s="251"/>
       <c r="F51" s="250"/>
@@ -16236,11 +16249,11 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A58" s="395" t="s">
+      <c r="A58" s="404" t="s">
         <v>1156</v>
       </c>
-      <c r="B58" s="396"/>
-      <c r="C58" s="397"/>
+      <c r="B58" s="405"/>
+      <c r="C58" s="406"/>
       <c r="D58" s="250"/>
       <c r="E58" s="251"/>
       <c r="F58" s="250"/>
@@ -16264,7 +16277,7 @@
     </row>
     <row r="59" spans="1:16" ht="16.5" thickBot="1">
       <c r="A59" s="166" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B59" s="166" t="s">
         <v>616</v>
@@ -16295,7 +16308,7 @@
     </row>
     <row r="60" spans="1:16" ht="16.5" thickBot="1">
       <c r="A60" s="166" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B60" s="166" t="s">
         <v>616</v>
@@ -16337,7 +16350,7 @@
     </row>
     <row r="61" spans="1:16" ht="16.5" thickTop="1">
       <c r="A61" s="108" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B61" s="108" t="s">
         <v>164</v>
@@ -16346,7 +16359,7 @@
         <v>505</v>
       </c>
       <c r="D61" s="108" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E61" s="109">
         <v>4860</v>
@@ -16355,7 +16368,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="175" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H61" s="260">
         <v>43556</v>
@@ -16525,7 +16538,7 @@
     </row>
     <row r="66" spans="1:16" ht="16.5" thickTop="1">
       <c r="A66" s="108" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B66" s="108" t="s">
         <v>164</v>
@@ -16654,11 +16667,11 @@
       <c r="K69" s="41"/>
     </row>
     <row r="70" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A70" s="395" t="s">
+      <c r="A70" s="404" t="s">
         <v>1157</v>
       </c>
-      <c r="B70" s="396"/>
-      <c r="C70" s="397"/>
+      <c r="B70" s="405"/>
+      <c r="C70" s="406"/>
       <c r="D70" s="250"/>
       <c r="E70" s="251"/>
       <c r="F70" s="250"/>
@@ -17115,7 +17128,7 @@
         <v>1136</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D82" s="41" t="s">
         <v>1139</v>
@@ -17283,11 +17296,11 @@
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="395" t="s">
+      <c r="A87" s="404" t="s">
         <v>1158</v>
       </c>
-      <c r="B87" s="396"/>
-      <c r="C87" s="397"/>
+      <c r="B87" s="405"/>
+      <c r="C87" s="406"/>
       <c r="D87" s="250"/>
       <c r="E87" s="251"/>
       <c r="F87" s="250"/>
@@ -17337,7 +17350,7 @@
         <v>839</v>
       </c>
       <c r="J88" s="180" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="K88" s="41"/>
       <c r="M88" s="114" t="s">
@@ -17605,16 +17618,16 @@
     </row>
     <row r="96" spans="1:16" ht="16.5" thickTop="1">
       <c r="A96" s="41" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B96" s="41" t="s">
         <v>164</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E96" s="42">
         <v>9936</v>
@@ -17623,16 +17636,16 @@
         <v>1</v>
       </c>
       <c r="G96" s="330" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H96" s="158" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I96" s="41" t="s">
         <v>839</v>
       </c>
       <c r="J96" s="180" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="K96" s="41"/>
       <c r="M96" s="96" t="s">
@@ -17660,11 +17673,11 @@
       <c r="N97" s="97"/>
     </row>
     <row r="98" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A98" s="395" t="s">
+      <c r="A98" s="404" t="s">
         <v>1296</v>
       </c>
-      <c r="B98" s="396"/>
-      <c r="C98" s="397"/>
+      <c r="B98" s="405"/>
+      <c r="C98" s="406"/>
       <c r="D98" s="250"/>
       <c r="E98" s="251"/>
       <c r="F98" s="250"/>
@@ -18267,11 +18280,11 @@
       <c r="K114" s="41"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A115" s="395" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B115" s="396"/>
-      <c r="C115" s="397"/>
+      <c r="A115" s="404" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B115" s="405"/>
+      <c r="C115" s="406"/>
       <c r="D115" s="250"/>
       <c r="E115" s="251"/>
       <c r="F115" s="250"/>
@@ -18301,16 +18314,16 @@
     </row>
     <row r="116" spans="1:16" ht="16.5" thickTop="1">
       <c r="A116" s="308" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B116" s="308" t="s">
         <v>164</v>
       </c>
       <c r="C116" s="308" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D116" s="308" t="s">
         <v>1329</v>
-      </c>
-      <c r="D116" s="308" t="s">
-        <v>1330</v>
       </c>
       <c r="E116" s="309">
         <v>7000</v>
@@ -18325,10 +18338,10 @@
         <v>43553</v>
       </c>
       <c r="I116" s="308" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J116" s="327" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K116" s="308"/>
       <c r="L116" t="s">
@@ -18346,19 +18359,19 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="308" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B117" s="308" t="s">
         <v>164</v>
       </c>
       <c r="C117" s="308" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D117" s="308" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E117" s="313" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F117" s="308">
         <v>1</v>
@@ -18368,7 +18381,7 @@
       </c>
       <c r="H117" s="311"/>
       <c r="I117" s="308" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J117" s="312"/>
       <c r="K117" s="308"/>
@@ -18381,16 +18394,16 @@
     </row>
     <row r="118" spans="1:16" ht="16.5" thickBot="1">
       <c r="A118" s="41" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D118" s="41" t="s">
         <v>1408</v>
-      </c>
-      <c r="B118" s="41" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>1411</v>
       </c>
       <c r="E118" s="42">
         <v>3000</v>
@@ -18399,13 +18412,13 @@
         <v>3</v>
       </c>
       <c r="G118" s="356" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="H118" s="158">
         <v>43577</v>
       </c>
       <c r="I118" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J118" s="177"/>
       <c r="K118" s="41"/>
@@ -18419,19 +18432,19 @@
     </row>
     <row r="119" spans="1:16" ht="16.5" thickBot="1">
       <c r="A119" s="308" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B119" s="308" t="s">
         <v>164</v>
       </c>
       <c r="C119" s="308" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D119" s="308" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E119" s="313" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F119" s="308">
         <v>1</v>
@@ -18441,7 +18454,7 @@
       </c>
       <c r="H119" s="311"/>
       <c r="I119" s="325" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J119" s="256" t="s">
         <v>1174</v>
@@ -18450,19 +18463,19 @@
     </row>
     <row r="120" spans="1:16" ht="16.5" thickBot="1">
       <c r="A120" s="308" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B120" s="308" t="s">
         <v>164</v>
       </c>
       <c r="C120" s="308" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D120" s="308" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E120" s="313" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F120" s="308">
         <v>1</v>
@@ -18498,10 +18511,10 @@
         <v>164</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D121" s="41" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E121" s="42">
         <v>551</v>
@@ -18510,16 +18523,16 @@
         <v>1</v>
       </c>
       <c r="G121" s="297" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H121" s="158">
         <v>43556</v>
       </c>
       <c r="I121" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J121" s="180" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="K121" s="41"/>
       <c r="M121" s="96" t="s">
@@ -18537,10 +18550,10 @@
         <v>164</v>
       </c>
       <c r="C122" s="84" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D122" s="84" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E122" s="85">
         <v>1075</v>
@@ -18549,16 +18562,16 @@
         <v>1</v>
       </c>
       <c r="G122" s="86" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H122" s="319">
         <v>43556</v>
       </c>
       <c r="I122" s="324" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J122" s="256" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="K122" s="41"/>
       <c r="M122" s="96" t="s">
@@ -18570,16 +18583,16 @@
     </row>
     <row r="123" spans="1:16" ht="16.5" thickBot="1">
       <c r="A123" s="137" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B123" s="138" t="s">
         <v>164</v>
       </c>
       <c r="C123" s="138" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D123" s="138" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E123" s="139">
         <v>1047</v>
@@ -18588,16 +18601,16 @@
         <v>1</v>
       </c>
       <c r="G123" s="140" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H123" s="344">
         <v>43556</v>
       </c>
       <c r="I123" s="345" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J123" s="262" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="K123" s="41"/>
       <c r="M123" s="114" t="s">
@@ -18634,10 +18647,10 @@
         <v>43539</v>
       </c>
       <c r="I124" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J124" s="262" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="K124" s="108"/>
     </row>
@@ -18649,10 +18662,10 @@
         <v>164</v>
       </c>
       <c r="C125" s="41" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D125" s="41" t="s">
         <v>1353</v>
-      </c>
-      <c r="D125" s="41" t="s">
-        <v>1354</v>
       </c>
       <c r="E125" s="42">
         <v>1961</v>
@@ -18667,7 +18680,7 @@
         <v>43562</v>
       </c>
       <c r="I125" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J125" s="177"/>
       <c r="K125" s="41"/>
@@ -18696,7 +18709,7 @@
         <v>885</v>
       </c>
       <c r="D126" s="41" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E126" s="42">
         <v>450</v>
@@ -18705,16 +18718,16 @@
         <v>1</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H126" s="158">
         <v>43555</v>
       </c>
       <c r="I126" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J126" s="302" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="K126" s="41"/>
       <c r="M126" s="96" t="s">
@@ -18726,16 +18739,16 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="41" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B127" s="41" t="s">
         <v>1356</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="C127" s="41" t="s">
         <v>1357</v>
       </c>
-      <c r="C127" s="41" t="s">
+      <c r="D127" s="41" t="s">
         <v>1358</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>1359</v>
       </c>
       <c r="E127" s="42">
         <v>1500</v>
@@ -18750,7 +18763,7 @@
         <v>43565</v>
       </c>
       <c r="I127" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J127" s="177"/>
       <c r="K127" s="41"/>
@@ -18763,16 +18776,16 @@
     </row>
     <row r="128" spans="1:16" ht="16.5" thickBot="1">
       <c r="A128" s="41" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B128" s="41" t="s">
         <v>164</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D128" s="41" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E128" s="42">
         <v>2289</v>
@@ -18781,13 +18794,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="330" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="H128" s="158">
         <v>43571</v>
       </c>
       <c r="I128" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J128" s="177"/>
       <c r="K128" s="41"/>
@@ -18807,7 +18820,7 @@
         <v>164</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D129" s="41" t="s">
         <v>1091</v>
@@ -18825,25 +18838,25 @@
         <v>43573</v>
       </c>
       <c r="I129" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J129" s="180" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="K129" s="41"/>
     </row>
     <row r="130" spans="1:16" ht="16.5" thickBot="1">
       <c r="A130" s="84" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B130" s="84" t="s">
         <v>164</v>
       </c>
       <c r="C130" s="84" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D130" s="84" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E130" s="85">
         <v>480</v>
@@ -18858,10 +18871,10 @@
         <v>43586</v>
       </c>
       <c r="I130" s="373" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="J130" s="180" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="K130" s="41"/>
       <c r="L130" t="s">
@@ -18880,16 +18893,16 @@
     </row>
     <row r="131" spans="1:16" ht="16.5" thickTop="1">
       <c r="A131" s="41" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B131" s="41" t="s">
         <v>164</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E131" s="42">
         <v>2332</v>
@@ -18904,7 +18917,7 @@
         <v>43586</v>
       </c>
       <c r="I131" s="108" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J131" s="177"/>
       <c r="K131" s="41"/>
@@ -18935,11 +18948,11 @@
       </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="395" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B133" s="396"/>
-      <c r="C133" s="397"/>
+      <c r="A133" s="404" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B133" s="405"/>
+      <c r="C133" s="406"/>
       <c r="D133" s="250"/>
       <c r="E133" s="251"/>
       <c r="F133" s="250"/>
@@ -18962,16 +18975,16 @@
     </row>
     <row r="134" spans="1:16" ht="16.5" thickBot="1">
       <c r="A134" s="41" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B134" s="41" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D134" s="41" t="s">
         <v>1430</v>
-      </c>
-      <c r="B134" s="41" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C134" s="41" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D134" s="41" t="s">
-        <v>1433</v>
       </c>
       <c r="E134" s="42">
         <v>5000</v>
@@ -18986,7 +18999,7 @@
         <v>43588</v>
       </c>
       <c r="I134" s="41" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J134" s="177"/>
       <c r="K134" s="41"/>
@@ -19003,13 +19016,13 @@
         <v>121</v>
       </c>
       <c r="B135" s="41" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D135" s="41" t="s">
         <v>1431</v>
-      </c>
-      <c r="C135" s="41" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D135" s="41" t="s">
-        <v>1434</v>
       </c>
       <c r="E135" s="42">
         <v>498</v>
@@ -19018,13 +19031,13 @@
         <v>1</v>
       </c>
       <c r="G135" s="366" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H135" s="158">
         <v>43589</v>
       </c>
       <c r="I135" s="41" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J135" s="177"/>
       <c r="K135" s="41"/>
@@ -19037,7 +19050,7 @@
         <v>164</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D136" s="41" t="s">
         <v>1091</v>
@@ -19055,10 +19068,10 @@
         <v>43598</v>
       </c>
       <c r="I136" s="41" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J136" s="177" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="K136" s="41"/>
       <c r="L136" t="s">
@@ -19077,16 +19090,16 @@
     </row>
     <row r="137" spans="1:16" ht="16.5" thickTop="1">
       <c r="A137" s="108" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B137" s="41" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C137" s="41" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D137" s="41" t="s">
         <v>1481</v>
-      </c>
-      <c r="C137" s="41" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D137" s="41" t="s">
-        <v>1484</v>
       </c>
       <c r="E137" s="42">
         <v>2064</v>
@@ -19095,13 +19108,13 @@
         <v>2</v>
       </c>
       <c r="G137" s="380" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H137" s="158">
         <v>43612</v>
       </c>
       <c r="I137" s="41" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J137" s="177"/>
       <c r="K137" s="41"/>
@@ -19114,16 +19127,16 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="41" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B138" s="41" t="s">
         <v>164</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E138" s="42">
         <v>630</v>
@@ -19132,13 +19145,13 @@
         <v>1</v>
       </c>
       <c r="G138" s="382" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H138" s="158">
         <v>43605</v>
       </c>
       <c r="I138" s="41" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J138" s="177"/>
       <c r="K138" s="41"/>
@@ -19163,11 +19176,11 @@
       <c r="K139" s="41"/>
     </row>
     <row r="140" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A140" s="395" t="s">
+      <c r="A140" s="404" t="s">
         <v>1159</v>
       </c>
-      <c r="B140" s="396"/>
-      <c r="C140" s="397"/>
+      <c r="B140" s="405"/>
+      <c r="C140" s="406"/>
       <c r="D140" s="250"/>
       <c r="E140" s="251"/>
       <c r="F140" s="250"/>
@@ -19182,14 +19195,14 @@
       <c r="J140" s="253"/>
       <c r="K140" s="250"/>
       <c r="M140" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="N140" s="113"/>
       <c r="O140" s="20">
         <v>27</v>
       </c>
       <c r="P140" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="16.5" thickTop="1">
@@ -19214,7 +19227,7 @@
       <c r="G141" s="122"/>
       <c r="H141" s="48"/>
       <c r="I141" s="236" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="J141" s="177"/>
       <c r="K141" s="41"/>
@@ -19249,7 +19262,7 @@
       </c>
       <c r="H142" s="48"/>
       <c r="I142" s="41" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="J142" s="177"/>
       <c r="K142" s="41"/>
@@ -19284,7 +19297,7 @@
       </c>
       <c r="H143" s="48"/>
       <c r="I143" s="41" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="J143" s="177"/>
       <c r="K143" s="41"/>
@@ -19304,7 +19317,7 @@
         <v>496</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D144" s="41" t="s">
         <v>595</v>
@@ -19320,14 +19333,14 @@
       </c>
       <c r="H144" s="48"/>
       <c r="I144" s="41" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="J144" s="177"/>
       <c r="K144" s="41"/>
     </row>
     <row r="145" spans="1:16" ht="16.5" thickBot="1">
       <c r="A145" s="41" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B145" s="41" t="s">
         <v>159</v>
@@ -19336,7 +19349,7 @@
         <v>500</v>
       </c>
       <c r="D145" s="41" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E145" s="42">
         <v>1348</v>
@@ -19345,18 +19358,18 @@
         <v>1</v>
       </c>
       <c r="G145" s="378" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="H145" s="158">
         <v>43609</v>
       </c>
       <c r="I145" s="41" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="J145" s="177"/>
       <c r="K145" s="41"/>
       <c r="M145" s="112" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="N145" s="113"/>
       <c r="O145" s="20">
@@ -19374,7 +19387,7 @@
         <v>496</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D146" s="41" t="s">
         <v>486</v>
@@ -19409,7 +19422,7 @@
         <v>496</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D147" s="41" t="s">
         <v>499</v>
@@ -19460,7 +19473,7 @@
       </c>
       <c r="H148" s="48"/>
       <c r="I148" s="236" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="J148" s="177"/>
       <c r="K148" s="41"/>
@@ -19530,17 +19543,17 @@
       <c r="J150" s="177"/>
       <c r="K150" s="41"/>
       <c r="L150" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M150" s="112" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="N150" s="113"/>
       <c r="O150" s="20">
         <v>29</v>
       </c>
       <c r="P150" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="16.5" thickTop="1">
@@ -19567,7 +19580,7 @@
       </c>
       <c r="H151" s="48"/>
       <c r="I151" s="236" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="J151" s="180" t="s">
         <v>1160</v>
@@ -19580,7 +19593,7 @@
         <v>4500</v>
       </c>
       <c r="P151" s="357" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -19607,7 +19620,7 @@
       </c>
       <c r="H152" s="48"/>
       <c r="I152" s="236" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="J152" s="180" t="s">
         <v>1160</v>
@@ -19714,10 +19727,10 @@
       <c r="J155" s="178"/>
       <c r="K155" s="108"/>
       <c r="L155" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="M155" s="112" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="N155" s="113"/>
       <c r="O155" s="20">
@@ -19783,11 +19796,11 @@
       </c>
     </row>
     <row r="158" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A158" s="395" t="s">
+      <c r="A158" s="404" t="s">
         <v>1161</v>
       </c>
-      <c r="B158" s="396"/>
-      <c r="C158" s="397"/>
+      <c r="B158" s="405"/>
+      <c r="C158" s="406"/>
       <c r="D158" s="250"/>
       <c r="E158" s="251"/>
       <c r="F158" s="250"/>
@@ -19867,18 +19880,18 @@
         <v>693</v>
       </c>
       <c r="J160" s="180" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="K160" s="41"/>
       <c r="M160" s="112" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="N160" s="113"/>
       <c r="O160" s="20">
         <v>31</v>
       </c>
       <c r="P160" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="16.5" thickTop="1">
@@ -20037,7 +20050,7 @@
         <v>3</v>
       </c>
       <c r="G165" s="233" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H165" s="48"/>
       <c r="I165" s="41" t="s">
@@ -20048,47 +20061,45 @@
       </c>
       <c r="K165" s="41"/>
       <c r="M165" s="112" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="N165" s="113"/>
       <c r="O165" s="20">
         <v>32</v>
       </c>
       <c r="P165" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="16.5" thickTop="1">
-      <c r="A166" s="41" t="s">
+      <c r="A166" s="314" t="s">
         <v>772</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="41" t="s">
+      <c r="C166" s="217" t="s">
         <v>510</v>
       </c>
-      <c r="D166" s="41" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E166" s="42">
+      <c r="D166" s="217" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E166" s="218">
         <v>1923</v>
       </c>
-      <c r="F166" s="41">
+      <c r="F166" s="217">
         <v>1</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="G166" s="346" t="s">
         <v>444</v>
       </c>
-      <c r="H166" s="158">
+      <c r="H166" s="347">
         <v>43553</v>
       </c>
-      <c r="I166" s="236" t="s">
-        <v>1371</v>
-      </c>
-      <c r="J166" s="256" t="s">
-        <v>1372</v>
-      </c>
+      <c r="I166" s="318" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J166" s="177"/>
       <c r="K166" s="41"/>
       <c r="M166" s="96" t="s">
         <v>112</v>
@@ -20099,7 +20110,7 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="314" t="s">
-        <v>772</v>
+        <v>1413</v>
       </c>
       <c r="B167" s="217" t="s">
         <v>164</v>
@@ -20108,7 +20119,7 @@
         <v>510</v>
       </c>
       <c r="D167" s="217" t="s">
-        <v>1404</v>
+        <v>1424</v>
       </c>
       <c r="E167" s="218">
         <v>1923</v>
@@ -20116,14 +20127,14 @@
       <c r="F167" s="217">
         <v>1</v>
       </c>
-      <c r="G167" s="346" t="s">
-        <v>444</v>
+      <c r="G167" s="219" t="s">
+        <v>1205</v>
       </c>
       <c r="H167" s="347">
         <v>43553</v>
       </c>
       <c r="I167" s="318" t="s">
-        <v>1403</v>
+        <v>1425</v>
       </c>
       <c r="J167" s="177"/>
       <c r="K167" s="41"/>
@@ -20136,7 +20147,7 @@
     </row>
     <row r="168" spans="1:16" ht="16.5" thickBot="1">
       <c r="A168" s="314" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B168" s="217" t="s">
         <v>164</v>
@@ -20145,7 +20156,7 @@
         <v>510</v>
       </c>
       <c r="D168" s="217" t="s">
-        <v>1427</v>
+        <v>1466</v>
       </c>
       <c r="E168" s="218">
         <v>1923</v>
@@ -20160,7 +20171,7 @@
         <v>43553</v>
       </c>
       <c r="I168" s="318" t="s">
-        <v>1428</v>
+        <v>1467</v>
       </c>
       <c r="J168" s="177"/>
       <c r="K168" s="41"/>
@@ -20174,7 +20185,7 @@
     </row>
     <row r="169" spans="1:16" ht="16.5" thickBot="1">
       <c r="A169" s="314" t="s">
-        <v>1416</v>
+        <v>772</v>
       </c>
       <c r="B169" s="217" t="s">
         <v>164</v>
@@ -20183,7 +20194,7 @@
         <v>510</v>
       </c>
       <c r="D169" s="217" t="s">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="E169" s="218">
         <v>1923</v>
@@ -20191,16 +20202,18 @@
       <c r="F169" s="217">
         <v>1</v>
       </c>
-      <c r="G169" s="219" t="s">
-        <v>1205</v>
+      <c r="G169" s="346" t="s">
+        <v>444</v>
       </c>
       <c r="H169" s="347">
         <v>43553</v>
       </c>
       <c r="I169" s="318" t="s">
-        <v>1470</v>
-      </c>
-      <c r="J169" s="177"/>
+        <v>1502</v>
+      </c>
+      <c r="J169" s="177" t="s">
+        <v>1501</v>
+      </c>
       <c r="K169" s="41"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickBot="1">
@@ -20214,7 +20227,7 @@
         <v>510</v>
       </c>
       <c r="D170" s="217" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E170" s="218">
         <v>1285</v>
@@ -20229,27 +20242,27 @@
         <v>43553</v>
       </c>
       <c r="I170" s="318" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="J170" s="177"/>
       <c r="K170" s="41"/>
       <c r="L170" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="M170" s="112" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="N170" s="113"/>
       <c r="O170" s="20">
         <v>33</v>
       </c>
       <c r="P170" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="16.5" thickTop="1">
       <c r="A171" s="314" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B171" s="217" t="s">
         <v>164</v>
@@ -20258,7 +20271,7 @@
         <v>510</v>
       </c>
       <c r="D171" s="217" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E171" s="218">
         <v>1285</v>
@@ -20273,7 +20286,7 @@
         <v>43553</v>
       </c>
       <c r="I171" s="318" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="J171" s="177"/>
       <c r="K171" s="41"/>
@@ -20286,7 +20299,7 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="314" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B172" s="217" t="s">
         <v>164</v>
@@ -20295,7 +20308,7 @@
         <v>510</v>
       </c>
       <c r="D172" s="217" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E172" s="218">
         <v>1285</v>
@@ -20310,7 +20323,7 @@
         <v>43553</v>
       </c>
       <c r="I172" s="318" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="J172" s="177"/>
       <c r="K172" s="41"/>
@@ -20332,7 +20345,7 @@
         <v>510</v>
       </c>
       <c r="D173" s="217" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E173" s="218">
         <v>1285</v>
@@ -20347,10 +20360,10 @@
         <v>43553</v>
       </c>
       <c r="I173" s="318" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="J173" s="177" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="K173" s="41"/>
       <c r="M173" s="114" t="s">
@@ -20375,11 +20388,11 @@
       <c r="K174" s="41"/>
     </row>
     <row r="175" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A175" s="395" t="s">
+      <c r="A175" s="404" t="s">
         <v>1164</v>
       </c>
-      <c r="B175" s="396"/>
-      <c r="C175" s="397"/>
+      <c r="B175" s="405"/>
+      <c r="C175" s="406"/>
       <c r="D175" s="250"/>
       <c r="E175" s="251"/>
       <c r="F175" s="250"/>
@@ -20394,17 +20407,17 @@
       <c r="J175" s="253"/>
       <c r="K175" s="250"/>
       <c r="L175" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="M175" s="112" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="N175" s="113"/>
       <c r="O175" s="20">
         <v>34</v>
       </c>
       <c r="P175" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="16.5" thickTop="1">
@@ -20432,7 +20445,7 @@
       <c r="H176" s="48"/>
       <c r="I176" s="48"/>
       <c r="J176" s="180" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="K176" s="41"/>
       <c r="M176" s="96" t="s">
@@ -20538,7 +20551,7 @@
       <c r="H179" s="48"/>
       <c r="I179" s="48"/>
       <c r="J179" s="180" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="K179" s="41"/>
     </row>
@@ -20553,7 +20566,7 @@
         <v>1204</v>
       </c>
       <c r="D180" s="267" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E180" s="268">
         <v>2900</v>
@@ -20573,7 +20586,7 @@
       <c r="J180" s="177"/>
       <c r="K180" s="41"/>
       <c r="M180" s="112" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="N180" s="113"/>
       <c r="O180" s="20">
@@ -20591,7 +20604,7 @@
         <v>1204</v>
       </c>
       <c r="D181" s="267" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E181" s="268">
         <v>2900</v>
@@ -20628,7 +20641,7 @@
         <v>1204</v>
       </c>
       <c r="D182" s="217" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E182" s="218">
         <v>2900</v>
@@ -20643,7 +20656,7 @@
         <v>43515</v>
       </c>
       <c r="I182" s="318" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J182" s="262"/>
       <c r="K182" s="41"/>
@@ -20659,13 +20672,13 @@
         <v>121</v>
       </c>
       <c r="B183" s="41" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D183" s="41" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E183" s="42">
         <v>1190</v>
@@ -20674,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="349" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="H183" s="158">
         <v>43573</v>
@@ -20882,11 +20895,11 @@
       <c r="K190" s="41"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="395" t="s">
+      <c r="A191" s="404" t="s">
         <v>1163</v>
       </c>
-      <c r="B191" s="396"/>
-      <c r="C191" s="397"/>
+      <c r="B191" s="405"/>
+      <c r="C191" s="406"/>
       <c r="D191" s="250"/>
       <c r="E191" s="251"/>
       <c r="F191" s="250"/>
@@ -21002,11 +21015,11 @@
       <c r="K195" s="41"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="395" t="s">
+      <c r="A196" s="404" t="s">
         <v>1165</v>
       </c>
-      <c r="B196" s="396"/>
-      <c r="C196" s="397"/>
+      <c r="B196" s="405"/>
+      <c r="C196" s="406"/>
       <c r="D196" s="250"/>
       <c r="E196" s="251"/>
       <c r="F196" s="250"/>
@@ -21235,35 +21248,35 @@
       <c r="K203" s="288"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="421" t="s">
+      <c r="A204" s="386" t="s">
         <v>445</v>
       </c>
-      <c r="B204" s="422" t="s">
+      <c r="B204" s="387" t="s">
         <v>174</v>
       </c>
-      <c r="C204" s="422" t="s">
+      <c r="C204" s="387" t="s">
         <v>166</v>
       </c>
-      <c r="D204" s="422" t="s">
+      <c r="D204" s="387" t="s">
         <v>446</v>
       </c>
-      <c r="E204" s="423">
+      <c r="E204" s="388">
         <v>1950</v>
       </c>
-      <c r="F204" s="422">
+      <c r="F204" s="387">
         <v>8000</v>
       </c>
-      <c r="G204" s="424" t="s">
+      <c r="G204" s="389" t="s">
         <v>126</v>
       </c>
-      <c r="H204" s="425">
+      <c r="H204" s="390">
         <v>43525</v>
       </c>
-      <c r="I204" s="422" t="s">
+      <c r="I204" s="387" t="s">
         <v>696</v>
       </c>
-      <c r="J204" s="426"/>
-      <c r="K204" s="422"/>
+      <c r="J204" s="391"/>
+      <c r="K204" s="387"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="41" t="s">
@@ -21276,7 +21289,7 @@
         <v>166</v>
       </c>
       <c r="D205" s="41" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E205" s="42">
         <v>999</v>
@@ -21442,14 +21455,14 @@
         <v>1</v>
       </c>
       <c r="G210" s="233" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H210" s="48"/>
       <c r="I210" s="41" t="s">
         <v>683</v>
       </c>
       <c r="J210" s="180" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="K210" s="41"/>
       <c r="O210" s="299"/>
@@ -21561,11 +21574,11 @@
       <c r="O214" s="299"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="395" t="s">
+      <c r="A215" s="404" t="s">
         <v>1162</v>
       </c>
-      <c r="B215" s="396"/>
-      <c r="C215" s="397"/>
+      <c r="B215" s="405"/>
+      <c r="C215" s="406"/>
       <c r="D215" s="250"/>
       <c r="E215" s="251"/>
       <c r="F215" s="250"/>
@@ -21723,7 +21736,7 @@
         <v>4</v>
       </c>
       <c r="G220" s="233" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H220" s="48"/>
       <c r="I220" s="41" t="s">
@@ -21948,7 +21961,7 @@
         <v>697</v>
       </c>
       <c r="J227" s="292" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="K227" s="288"/>
       <c r="O227" s="329"/>
@@ -21964,7 +21977,7 @@
         <v>527</v>
       </c>
       <c r="D228" s="41" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="E228" s="42">
         <v>231</v>
@@ -22012,7 +22025,7 @@
         <v>1278</v>
       </c>
       <c r="J229" s="292" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="K229" s="288"/>
       <c r="O229" s="350"/>
@@ -22046,14 +22059,14 @@
         <v>1102</v>
       </c>
       <c r="J230" s="292" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="K230" s="288"/>
       <c r="O230" s="348"/>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="41" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B231" s="41" t="s">
         <v>174</v>
@@ -22062,7 +22075,7 @@
         <v>562</v>
       </c>
       <c r="D231" s="41" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E231" s="42">
         <v>143</v>
@@ -22071,7 +22084,7 @@
         <v>5</v>
       </c>
       <c r="G231" s="368" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H231" s="158">
         <v>43592</v>
@@ -22112,7 +22125,7 @@
         <v>696</v>
       </c>
       <c r="J232" s="292" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="K232" s="288"/>
       <c r="O232" s="355"/>
@@ -22245,16 +22258,16 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="41" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B237" s="41" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C237" s="41" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D237" s="41" t="s">
         <v>1391</v>
-      </c>
-      <c r="B237" s="41" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C237" s="41" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D237" s="41" t="s">
-        <v>1394</v>
       </c>
       <c r="E237" s="42">
         <v>190</v>
@@ -22263,14 +22276,14 @@
         <v>1</v>
       </c>
       <c r="G237" s="349" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="H237" s="158">
         <v>43572</v>
       </c>
       <c r="I237" s="41"/>
       <c r="J237" s="177" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="K237" s="41"/>
       <c r="O237" s="365"/>
@@ -22616,7 +22629,7 @@
         <v>684</v>
       </c>
       <c r="J248" s="177" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K248" s="41"/>
       <c r="O248" s="381"/>
@@ -22666,17 +22679,17 @@
       <c r="O250" s="381"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="395" t="s">
+      <c r="A251" s="404" t="s">
         <v>1169</v>
       </c>
-      <c r="B251" s="396"/>
-      <c r="C251" s="397"/>
+      <c r="B251" s="405"/>
+      <c r="C251" s="406"/>
       <c r="D251" s="250"/>
       <c r="E251" s="251"/>
       <c r="F251" s="250"/>
       <c r="G251" s="252"/>
       <c r="H251" s="254" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I251" s="255">
         <f>SUM(E252:E253)</f>
@@ -22688,16 +22701,16 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="41" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B252" s="41" t="s">
         <v>164</v>
       </c>
       <c r="C252" s="41" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D252" s="41" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E252" s="42">
         <v>218</v>
@@ -22706,7 +22719,7 @@
         <v>1</v>
       </c>
       <c r="G252" s="297" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H252" s="158">
         <v>43556</v>
@@ -22732,19 +22745,19 @@
     <row r="254" spans="1:15">
       <c r="A254" s="41"/>
       <c r="B254" s="41"/>
-      <c r="C254" s="406" t="s">
+      <c r="C254" s="412" t="s">
         <v>536</v>
       </c>
-      <c r="D254" s="407"/>
-      <c r="E254" s="408"/>
+      <c r="D254" s="413"/>
+      <c r="E254" s="414"/>
       <c r="F254" s="339"/>
       <c r="G254" s="340"/>
       <c r="H254" s="341" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I254" s="342">
-        <f>SUM(E255:E273)</f>
-        <v>-47737</v>
+        <f>SUM(E255:E274)</f>
+        <v>-50997</v>
       </c>
       <c r="J254" s="343"/>
       <c r="K254" s="339"/>
@@ -22771,7 +22784,7 @@
       <c r="D256" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="E256" s="405">
+      <c r="E256" s="411">
         <v>-1895</v>
       </c>
       <c r="F256" s="41"/>
@@ -22788,7 +22801,7 @@
       <c r="D257" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="E257" s="405"/>
+      <c r="E257" s="411"/>
       <c r="F257" s="41"/>
       <c r="H257" s="48"/>
       <c r="I257" s="41"/>
@@ -22834,7 +22847,7 @@
       <c r="B260" s="41"/>
       <c r="C260" s="338"/>
       <c r="D260" s="41" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E260" s="303">
         <v>-3440</v>
@@ -22852,7 +22865,7 @@
       <c r="B261" s="41"/>
       <c r="C261" s="338"/>
       <c r="D261" s="41" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E261" s="328">
         <v>-1460</v>
@@ -22870,7 +22883,7 @@
       <c r="B262" s="41"/>
       <c r="C262" s="338"/>
       <c r="D262" s="41" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E262" s="328">
         <v>-650</v>
@@ -22888,7 +22901,7 @@
       <c r="B263" s="41"/>
       <c r="C263" s="338"/>
       <c r="D263" s="41" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E263" s="328">
         <v>-2740</v>
@@ -22906,7 +22919,7 @@
       <c r="B264" s="41"/>
       <c r="C264" s="338"/>
       <c r="D264" s="41" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E264" s="361">
         <v>-2920</v>
@@ -22924,7 +22937,7 @@
       <c r="B265" s="41"/>
       <c r="C265" s="338"/>
       <c r="D265" s="41" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E265" s="369">
         <v>-2920</v>
@@ -22942,7 +22955,7 @@
       <c r="B266" s="41"/>
       <c r="C266" s="338"/>
       <c r="D266" s="41" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E266" s="364">
         <v>-2920</v>
@@ -22960,7 +22973,7 @@
       <c r="B267" s="41"/>
       <c r="C267" s="338"/>
       <c r="D267" s="41" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E267" s="364">
         <v>-3260</v>
@@ -22978,7 +22991,7 @@
       <c r="B268" s="41"/>
       <c r="C268" s="338"/>
       <c r="D268" s="41" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E268" s="352">
         <v>-3260</v>
@@ -22996,7 +23009,7 @@
       <c r="B269" s="41"/>
       <c r="C269" s="338"/>
       <c r="D269" s="41" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E269" s="376">
         <v>-3242</v>
@@ -23013,41 +23026,42 @@
       <c r="A270" s="41"/>
       <c r="B270" s="41"/>
       <c r="C270" s="338"/>
-      <c r="D270" s="41"/>
-      <c r="E270" s="376"/>
+      <c r="D270" s="41" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E270" s="383">
+        <v>-3260</v>
+      </c>
       <c r="F270" s="41"/>
-      <c r="G270" s="378"/>
+      <c r="G270" s="385"/>
       <c r="H270" s="48"/>
       <c r="I270" s="41"/>
       <c r="J270" s="177"/>
       <c r="K270" s="41"/>
-      <c r="O270" s="377"/>
+      <c r="O270" s="384"/>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="41"/>
       <c r="B271" s="41"/>
       <c r="C271" s="338"/>
-      <c r="D271" s="41" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E271" s="43"/>
+      <c r="D271" s="41"/>
+      <c r="E271" s="376"/>
       <c r="F271" s="41"/>
-      <c r="G271" s="212"/>
+      <c r="G271" s="378"/>
       <c r="H271" s="48"/>
       <c r="I271" s="41"/>
       <c r="J271" s="177"/>
       <c r="K271" s="41"/>
+      <c r="O271" s="377"/>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="41"/>
       <c r="B272" s="41"/>
       <c r="C272" s="338"/>
       <c r="D272" s="41" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E272" s="42">
-        <v>-12360</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="E272" s="43"/>
       <c r="F272" s="41"/>
       <c r="G272" s="212"/>
       <c r="H272" s="48"/>
@@ -23059,79 +23073,80 @@
       <c r="A273" s="41"/>
       <c r="B273" s="41"/>
       <c r="C273" s="338"/>
-      <c r="D273" s="150"/>
-      <c r="E273" s="336"/>
+      <c r="D273" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E273" s="42">
+        <v>-12360</v>
+      </c>
       <c r="F273" s="41"/>
-      <c r="G273" s="323"/>
+      <c r="G273" s="212"/>
       <c r="H273" s="48"/>
       <c r="I273" s="41"/>
       <c r="J273" s="177"/>
       <c r="K273" s="41"/>
-      <c r="O273" s="322"/>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="41"/>
       <c r="B274" s="41"/>
-      <c r="C274" s="409" t="s">
-        <v>118</v>
-      </c>
-      <c r="D274" s="410"/>
-      <c r="E274" s="411"/>
-      <c r="F274" s="316"/>
-      <c r="G274" s="333"/>
-      <c r="H274" s="335" t="s">
-        <v>1370</v>
-      </c>
-      <c r="I274" s="337">
-        <f>SUM(E275:E290)</f>
-        <v>-85370</v>
-      </c>
-      <c r="J274" s="334"/>
-      <c r="K274" s="316"/>
+      <c r="C274" s="338"/>
+      <c r="D274" s="150"/>
+      <c r="E274" s="336"/>
+      <c r="F274" s="41"/>
+      <c r="G274" s="323"/>
+      <c r="H274" s="48"/>
+      <c r="I274" s="41"/>
+      <c r="J274" s="177"/>
+      <c r="K274" s="41"/>
+      <c r="O274" s="322"/>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="41"/>
       <c r="B275" s="41"/>
-      <c r="C275" s="316"/>
-      <c r="D275" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E275" s="42">
-        <v>-23900</v>
-      </c>
-      <c r="F275" s="41"/>
-      <c r="G275" s="305"/>
-      <c r="H275" s="48"/>
-      <c r="I275" s="41"/>
-      <c r="J275" s="176"/>
-      <c r="K275" s="41"/>
-      <c r="O275" s="304"/>
+      <c r="C275" s="415" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" s="416"/>
+      <c r="E275" s="417"/>
+      <c r="F275" s="316"/>
+      <c r="G275" s="333"/>
+      <c r="H275" s="335" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I275" s="337">
+        <f>SUM(E276:E291)</f>
+        <v>-85370</v>
+      </c>
+      <c r="J275" s="334"/>
+      <c r="K275" s="316"/>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="41"/>
       <c r="B276" s="41"/>
       <c r="C276" s="316"/>
       <c r="D276" s="41" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E276" s="42">
-        <v>-2811</v>
+        <v>-23900</v>
       </c>
       <c r="F276" s="41"/>
+      <c r="G276" s="305"/>
       <c r="H276" s="48"/>
       <c r="I276" s="41"/>
       <c r="J276" s="176"/>
       <c r="K276" s="41"/>
+      <c r="O276" s="304"/>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="41"/>
       <c r="B277" s="41"/>
       <c r="C277" s="316"/>
       <c r="D277" s="41" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E277" s="42">
-        <v>-440</v>
+        <v>-2811</v>
       </c>
       <c r="F277" s="41"/>
       <c r="H277" s="48"/>
@@ -23144,13 +23159,12 @@
       <c r="B278" s="41"/>
       <c r="C278" s="316"/>
       <c r="D278" s="41" t="s">
-        <v>546</v>
+        <v>117</v>
       </c>
       <c r="E278" s="42">
-        <v>-535</v>
+        <v>-440</v>
       </c>
       <c r="F278" s="41"/>
-      <c r="G278" s="145"/>
       <c r="H278" s="48"/>
       <c r="I278" s="41"/>
       <c r="J278" s="176"/>
@@ -23161,13 +23175,13 @@
       <c r="B279" s="41"/>
       <c r="C279" s="316"/>
       <c r="D279" s="41" t="s">
-        <v>1179</v>
+        <v>546</v>
       </c>
       <c r="E279" s="42">
-        <v>-3990</v>
+        <v>-535</v>
       </c>
       <c r="F279" s="41"/>
-      <c r="G279" s="257"/>
+      <c r="G279" s="145"/>
       <c r="H279" s="48"/>
       <c r="I279" s="41"/>
       <c r="J279" s="176"/>
@@ -23178,12 +23192,13 @@
       <c r="B280" s="41"/>
       <c r="C280" s="316"/>
       <c r="D280" s="41" t="s">
-        <v>131</v>
+        <v>1179</v>
       </c>
       <c r="E280" s="42">
-        <v>-1600</v>
+        <v>-3990</v>
       </c>
       <c r="F280" s="41"/>
+      <c r="G280" s="257"/>
       <c r="H280" s="48"/>
       <c r="I280" s="41"/>
       <c r="J280" s="176"/>
@@ -23194,10 +23209,10 @@
       <c r="B281" s="41"/>
       <c r="C281" s="316"/>
       <c r="D281" s="41" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E281" s="42">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="F281" s="41"/>
       <c r="H281" s="48"/>
@@ -23210,13 +23225,12 @@
       <c r="B282" s="41"/>
       <c r="C282" s="316"/>
       <c r="D282" s="41" t="s">
-        <v>1096</v>
+        <v>144</v>
       </c>
       <c r="E282" s="42">
-        <v>-1886</v>
+        <v>-1300</v>
       </c>
       <c r="F282" s="41"/>
-      <c r="G282" s="229"/>
       <c r="H282" s="48"/>
       <c r="I282" s="41"/>
       <c r="J282" s="176"/>
@@ -23227,13 +23241,13 @@
       <c r="B283" s="41"/>
       <c r="C283" s="316"/>
       <c r="D283" s="41" t="s">
-        <v>1284</v>
+        <v>1096</v>
       </c>
       <c r="E283" s="42">
-        <v>-1267</v>
+        <v>-1886</v>
       </c>
       <c r="F283" s="41"/>
-      <c r="G283" s="287"/>
+      <c r="G283" s="229"/>
       <c r="H283" s="48"/>
       <c r="I283" s="41"/>
       <c r="J283" s="176"/>
@@ -23244,13 +23258,13 @@
       <c r="B284" s="41"/>
       <c r="C284" s="316"/>
       <c r="D284" s="41" t="s">
-        <v>141</v>
+        <v>1284</v>
       </c>
       <c r="E284" s="42">
-        <v>-4528</v>
+        <v>-1267</v>
       </c>
       <c r="F284" s="41"/>
-      <c r="G284" s="129"/>
+      <c r="G284" s="287"/>
       <c r="H284" s="48"/>
       <c r="I284" s="41"/>
       <c r="J284" s="176"/>
@@ -23261,13 +23275,13 @@
       <c r="B285" s="41"/>
       <c r="C285" s="316"/>
       <c r="D285" s="41" t="s">
-        <v>678</v>
+        <v>141</v>
       </c>
       <c r="E285" s="42">
-        <v>-3138</v>
+        <v>-4528</v>
       </c>
       <c r="F285" s="41"/>
-      <c r="G285" s="170"/>
+      <c r="G285" s="129"/>
       <c r="H285" s="48"/>
       <c r="I285" s="41"/>
       <c r="J285" s="176"/>
@@ -23278,12 +23292,13 @@
       <c r="B286" s="41"/>
       <c r="C286" s="316"/>
       <c r="D286" s="41" t="s">
-        <v>482</v>
+        <v>678</v>
       </c>
       <c r="E286" s="42">
-        <v>-73</v>
+        <v>-3138</v>
       </c>
       <c r="F286" s="41"/>
+      <c r="G286" s="170"/>
       <c r="H286" s="48"/>
       <c r="I286" s="41"/>
       <c r="J286" s="176"/>
@@ -23294,13 +23309,12 @@
       <c r="B287" s="41"/>
       <c r="C287" s="316"/>
       <c r="D287" s="41" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="E287" s="42">
-        <v>-562</v>
+        <v>-73</v>
       </c>
       <c r="F287" s="41"/>
-      <c r="G287" s="130"/>
       <c r="H287" s="48"/>
       <c r="I287" s="41"/>
       <c r="J287" s="176"/>
@@ -23311,13 +23325,13 @@
       <c r="B288" s="41"/>
       <c r="C288" s="316"/>
       <c r="D288" s="41" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="E288" s="42">
-        <v>-2461</v>
+        <v>-562</v>
       </c>
       <c r="F288" s="41"/>
-      <c r="G288" s="135"/>
+      <c r="G288" s="130"/>
       <c r="H288" s="48"/>
       <c r="I288" s="41"/>
       <c r="J288" s="176"/>
@@ -23328,13 +23342,13 @@
       <c r="B289" s="41"/>
       <c r="C289" s="316"/>
       <c r="D289" s="41" t="s">
-        <v>552</v>
+        <v>489</v>
       </c>
       <c r="E289" s="42">
-        <v>-34529</v>
+        <v>-2461</v>
       </c>
       <c r="F289" s="41"/>
-      <c r="G289" s="145"/>
+      <c r="G289" s="135"/>
       <c r="H289" s="48"/>
       <c r="I289" s="41"/>
       <c r="J289" s="176"/>
@@ -23345,193 +23359,210 @@
       <c r="B290" s="41"/>
       <c r="C290" s="316"/>
       <c r="D290" s="41" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="E290" s="42">
-        <v>-2350</v>
+        <v>-34529</v>
       </c>
       <c r="F290" s="41"/>
+      <c r="G290" s="145"/>
       <c r="H290" s="48"/>
       <c r="I290" s="41"/>
       <c r="J290" s="176"/>
       <c r="K290" s="41"/>
     </row>
-    <row r="291" spans="1:17" s="38" customFormat="1">
-      <c r="A291" s="44"/>
-      <c r="B291" s="44"/>
-      <c r="C291" s="44"/>
-      <c r="D291" s="45" t="s">
+    <row r="291" spans="1:17">
+      <c r="A291" s="41"/>
+      <c r="B291" s="41"/>
+      <c r="C291" s="316"/>
+      <c r="D291" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="E291" s="42">
+        <v>-2350</v>
+      </c>
+      <c r="F291" s="41"/>
+      <c r="H291" s="48"/>
+      <c r="I291" s="41"/>
+      <c r="J291" s="176"/>
+      <c r="K291" s="41"/>
+    </row>
+    <row r="292" spans="1:17" s="38" customFormat="1">
+      <c r="A292" s="44"/>
+      <c r="B292" s="44"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E291" s="46">
-        <f>SUM(E2:E290)</f>
-        <v>279737</v>
-      </c>
-      <c r="F291" s="47"/>
-      <c r="G291" s="51"/>
-      <c r="H291" s="50"/>
-      <c r="I291" s="49">
-        <f>SUM(I274,I254,I215,I196,I191,I175,I158,I140,I115,I98,I87,I70,I58,I51,I43,I32,I2,I251,I133)</f>
-        <v>279737</v>
-      </c>
-      <c r="J291" s="46"/>
-      <c r="K291" s="44"/>
-      <c r="L291" s="38" t="s">
+      <c r="E292" s="46">
+        <f>SUM(E2:E291)</f>
+        <v>276477</v>
+      </c>
+      <c r="F292" s="47"/>
+      <c r="G292" s="51"/>
+      <c r="H292" s="50"/>
+      <c r="I292" s="49">
+        <f>SUM(I275,I254,I215,I196,I191,I175,I158,I140,I115,I98,I87,I70,I58,I51,I43,I32,I2,I251,I133)</f>
+        <v>276477</v>
+      </c>
+      <c r="J292" s="46"/>
+      <c r="K292" s="44"/>
+      <c r="L292" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="M291" s="40">
-        <f>E291</f>
-        <v>279737</v>
-      </c>
-      <c r="N291" s="39"/>
-      <c r="O291" s="164"/>
-    </row>
-    <row r="293" spans="1:17">
-      <c r="L293" s="401" t="s">
+      <c r="M292" s="40">
+        <f>E292</f>
+        <v>276477</v>
+      </c>
+      <c r="N292" s="39"/>
+      <c r="O292" s="164"/>
+    </row>
+    <row r="294" spans="1:17">
+      <c r="L294" s="407" t="s">
         <v>554</v>
       </c>
-      <c r="M293" s="53" t="s">
+      <c r="M294" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="N293" s="146">
+      <c r="N294" s="146">
         <v>2500</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="16.5" thickBot="1">
-      <c r="B294" s="52"/>
-      <c r="D294" s="52" t="s">
+    <row r="295" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B295" s="52"/>
+      <c r="D295" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="H294" s="160"/>
-      <c r="I294" s="160"/>
-      <c r="J294" s="160"/>
-      <c r="L294" s="401"/>
-      <c r="M294" s="53" t="s">
+      <c r="H295" s="160"/>
+      <c r="I295" s="160"/>
+      <c r="J295" s="160"/>
+      <c r="L295" s="407"/>
+      <c r="M295" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="N294" s="146">
+      <c r="N295" s="146">
         <v>500</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="16.5" thickTop="1">
-      <c r="A295" t="s">
+    <row r="296" spans="1:17" ht="16.5" thickTop="1">
+      <c r="A296" t="s">
         <v>1297</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D296" t="s">
         <v>842</v>
       </c>
-      <c r="L295" s="402"/>
-      <c r="M295" s="147" t="s">
+      <c r="L296" s="408"/>
+      <c r="M296" s="147" t="s">
         <v>556</v>
       </c>
-      <c r="N295" s="148">
+      <c r="N296" s="148">
         <v>1000</v>
       </c>
-      <c r="O295" s="20" t="s">
+      <c r="O296" s="20" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="296" spans="1:17">
-      <c r="A296" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D296" s="198" t="s">
-        <v>843</v>
-      </c>
-      <c r="L296" t="s">
-        <v>557</v>
-      </c>
-      <c r="M296" s="149">
-        <f>M291/SUM(N293:N295)</f>
-        <v>69.934250000000006</v>
-      </c>
-      <c r="N296" s="37" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="297" spans="1:17">
       <c r="A297" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B297" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D297" t="s">
-        <v>844</v>
-      </c>
-      <c r="O297" s="403">
-        <v>43612</v>
-      </c>
-      <c r="P297" s="404"/>
-      <c r="Q297" t="s">
-        <v>778</v>
+        <v>1301</v>
+      </c>
+      <c r="D297" s="198" t="s">
+        <v>843</v>
+      </c>
+      <c r="L297" t="s">
+        <v>557</v>
+      </c>
+      <c r="M297" s="149">
+        <f>M292/SUM(N294:N296)</f>
+        <v>69.119249999999994</v>
+      </c>
+      <c r="N297" s="37" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="298" spans="1:17">
       <c r="A298" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D298" t="s">
+        <v>844</v>
+      </c>
+      <c r="O298" s="409">
+        <v>43612</v>
+      </c>
+      <c r="P298" s="410"/>
+      <c r="Q298" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17">
+      <c r="A299" t="s">
         <v>1300</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>1303</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D299" t="s">
         <v>845</v>
       </c>
-      <c r="L298" s="189" t="s">
+      <c r="L299" s="189" t="s">
         <v>711</v>
       </c>
-      <c r="M298" s="190">
-        <f>P298/M296</f>
-        <v>0.47187179386352179</v>
-      </c>
-      <c r="N298" s="190"/>
-      <c r="O298" s="75" t="s">
+      <c r="M299" s="190">
+        <f>P299/M297</f>
+        <v>0.47743573606484452</v>
+      </c>
+      <c r="N299" s="190"/>
+      <c r="O299" s="75" t="s">
         <v>712</v>
       </c>
-      <c r="P298" s="181">
+      <c r="P299" s="181">
         <v>33</v>
       </c>
-      <c r="Q298" t="s">
+      <c r="Q299" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="299" spans="1:17">
-      <c r="D299" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="300" spans="1:17">
       <c r="D300" t="s">
-        <v>847</v>
-      </c>
-      <c r="H300" s="188"/>
+        <v>846</v>
+      </c>
     </row>
     <row r="301" spans="1:17">
       <c r="D301" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H301" s="191"/>
+        <v>847</v>
+      </c>
+      <c r="H301" s="188"/>
     </row>
     <row r="302" spans="1:17">
       <c r="D302" t="s">
-        <v>1402</v>
+        <v>1295</v>
       </c>
       <c r="H302" s="191"/>
     </row>
     <row r="303" spans="1:17">
       <c r="D303" t="s">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="H303" s="191"/>
     </row>
-    <row r="305" spans="8:8">
-      <c r="H305" s="195"/>
+    <row r="304" spans="1:17">
+      <c r="D304" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H304" s="191"/>
     </row>
     <row r="306" spans="8:8">
       <c r="H306" s="195"/>
+    </row>
+    <row r="307" spans="8:8">
+      <c r="H307" s="195"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q131"/>
@@ -23541,18 +23572,6 @@
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="L293:L295"/>
-    <mergeCell ref="O297:P297"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="C254:E254"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A58:C58"/>
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A196:C196"/>
@@ -23563,6 +23582,18 @@
     <mergeCell ref="A158:C158"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="L294:L296"/>
+    <mergeCell ref="O298:P298"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="C254:E254"/>
+    <mergeCell ref="C275:E275"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23596,34 +23627,34 @@
       <c r="B1" s="202" t="s">
         <v>821</v>
       </c>
-      <c r="C1" s="412" t="s">
+      <c r="C1" s="424" t="s">
         <v>783</v>
       </c>
-      <c r="D1" s="412"/>
-      <c r="E1" s="412" t="s">
+      <c r="D1" s="424"/>
+      <c r="E1" s="424" t="s">
         <v>791</v>
       </c>
-      <c r="F1" s="412"/>
+      <c r="F1" s="424"/>
       <c r="G1" s="203" t="s">
         <v>820</v>
       </c>
       <c r="H1" s="203" t="s">
         <v>800</v>
       </c>
-      <c r="I1" s="412" t="s">
+      <c r="I1" s="424" t="s">
         <v>797</v>
       </c>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="412"/>
-      <c r="P1" s="412" t="s">
+      <c r="J1" s="424"/>
+      <c r="K1" s="424"/>
+      <c r="L1" s="424"/>
+      <c r="M1" s="424"/>
+      <c r="N1" s="424"/>
+      <c r="O1" s="424"/>
+      <c r="P1" s="424" t="s">
         <v>794</v>
       </c>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="413"/>
+      <c r="Q1" s="424"/>
+      <c r="R1" s="425"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -23644,21 +23675,21 @@
       <c r="F2" s="200" t="s">
         <v>785</v>
       </c>
-      <c r="G2" s="416" t="s">
+      <c r="G2" s="423" t="s">
         <v>853</v>
       </c>
       <c r="H2" s="7">
         <v>38000</v>
       </c>
-      <c r="I2" s="414" t="s">
+      <c r="I2" s="421" t="s">
         <v>805</v>
       </c>
-      <c r="J2" s="414"/>
-      <c r="K2" s="414"/>
-      <c r="L2" s="414"/>
-      <c r="M2" s="414"/>
-      <c r="N2" s="414"/>
-      <c r="O2" s="414"/>
+      <c r="J2" s="421"/>
+      <c r="K2" s="421"/>
+      <c r="L2" s="421"/>
+      <c r="M2" s="421"/>
+      <c r="N2" s="421"/>
+      <c r="O2" s="421"/>
       <c r="P2" t="s">
         <v>795</v>
       </c>
@@ -23682,19 +23713,19 @@
       <c r="F3" s="200" t="s">
         <v>785</v>
       </c>
-      <c r="G3" s="416"/>
+      <c r="G3" s="423"/>
       <c r="H3" s="7">
         <v>19000</v>
       </c>
-      <c r="I3" s="414" t="s">
+      <c r="I3" s="421" t="s">
         <v>1305</v>
       </c>
-      <c r="J3" s="414"/>
-      <c r="K3" s="414"/>
-      <c r="L3" s="414"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="414"/>
-      <c r="O3" s="414"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="421"/>
+      <c r="L3" s="421"/>
+      <c r="M3" s="421"/>
+      <c r="N3" s="421"/>
+      <c r="O3" s="421"/>
       <c r="P3" s="198" t="s">
         <v>796</v>
       </c>
@@ -23718,19 +23749,19 @@
       <c r="F4" s="200" t="s">
         <v>785</v>
       </c>
-      <c r="G4" s="416"/>
+      <c r="G4" s="423"/>
       <c r="H4" s="7">
         <v>9250</v>
       </c>
-      <c r="I4" s="414" t="s">
+      <c r="I4" s="421" t="s">
         <v>1304</v>
       </c>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
-      <c r="N4" s="414"/>
-      <c r="O4" s="414"/>
+      <c r="J4" s="421"/>
+      <c r="K4" s="421"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="421"/>
+      <c r="N4" s="421"/>
+      <c r="O4" s="421"/>
       <c r="P4" s="198" t="s">
         <v>801</v>
       </c>
@@ -23754,7 +23785,7 @@
       <c r="F5" s="140" t="s">
         <v>785</v>
       </c>
-      <c r="G5" s="416"/>
+      <c r="G5" s="423"/>
       <c r="H5" s="228">
         <v>11000</v>
       </c>
@@ -23781,7 +23812,7 @@
         <v>790</v>
       </c>
       <c r="C6" s="295" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D6" s="200" t="s">
         <v>784</v>
@@ -23798,15 +23829,15 @@
       <c r="H6" s="7">
         <v>5999</v>
       </c>
-      <c r="I6" s="415" t="s">
+      <c r="I6" s="422" t="s">
         <v>1289</v>
       </c>
-      <c r="J6" s="415"/>
-      <c r="K6" s="415"/>
-      <c r="L6" s="415"/>
-      <c r="M6" s="415"/>
-      <c r="N6" s="415"/>
-      <c r="O6" s="415"/>
+      <c r="J6" s="422"/>
+      <c r="K6" s="422"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="422"/>
+      <c r="N6" s="422"/>
+      <c r="O6" s="422"/>
       <c r="P6" t="s">
         <v>799</v>
       </c>
@@ -23836,25 +23867,25 @@
       <c r="H7" s="7">
         <v>24700</v>
       </c>
-      <c r="I7" s="414" t="s">
+      <c r="I7" s="421" t="s">
         <v>1290</v>
       </c>
-      <c r="J7" s="414"/>
-      <c r="K7" s="414"/>
-      <c r="L7" s="414"/>
-      <c r="M7" s="414"/>
-      <c r="N7" s="414"/>
-      <c r="O7" s="414"/>
+      <c r="J7" s="421"/>
+      <c r="K7" s="421"/>
+      <c r="L7" s="421"/>
+      <c r="M7" s="421"/>
+      <c r="N7" s="421"/>
+      <c r="O7" s="421"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
       <c r="A8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B8" s="307" t="s">
         <v>1351</v>
       </c>
-      <c r="B8" s="307" t="s">
-        <v>1352</v>
-      </c>
       <c r="C8" s="359" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D8" s="307" t="s">
         <v>784</v>
@@ -23866,7 +23897,7 @@
         <v>785</v>
       </c>
       <c r="G8" s="360" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="H8" s="7">
         <v>6650</v>
@@ -24028,16 +24059,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26139,7 +26170,7 @@
       <c r="S28" s="90"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="H29" s="417" t="s">
+      <c r="H29" s="426" t="s">
         <v>303</v>
       </c>
       <c r="I29" s="94">
@@ -26153,7 +26184,7 @@
       <c r="S29" s="90"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="H30" s="417"/>
+      <c r="H30" s="426"/>
       <c r="I30" s="94">
         <v>890</v>
       </c>
@@ -26165,7 +26196,7 @@
       <c r="S30" s="90"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="H31" s="417"/>
+      <c r="H31" s="426"/>
       <c r="I31" s="94">
         <v>899</v>
       </c>
@@ -26340,7 +26371,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="418">
+      <c r="B3" s="427">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -26358,7 +26389,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="418"/>
+      <c r="B4" s="427"/>
       <c r="C4" s="5" t="s">
         <v>337</v>
       </c>
@@ -26371,7 +26402,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="418">
+      <c r="B5" s="427">
         <v>43197</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -26386,7 +26417,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="418"/>
+      <c r="B6" s="427"/>
       <c r="C6" s="5" t="s">
         <v>340</v>
       </c>
@@ -26399,10 +26430,10 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="418">
+      <c r="B7" s="427">
         <v>43198</v>
       </c>
-      <c r="C7" s="416" t="s">
+      <c r="C7" s="423" t="s">
         <v>338</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -26416,8 +26447,8 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="418"/>
-      <c r="C8" s="416"/>
+      <c r="B8" s="427"/>
+      <c r="C8" s="423"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>349</v>
@@ -26427,7 +26458,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="418">
+      <c r="B9" s="427">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -26443,7 +26474,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="418"/>
+      <c r="B10" s="427"/>
       <c r="C10" s="5" t="s">
         <v>361</v>
       </c>

--- a/いろいろ考え.xlsx
+++ b/いろいろ考え.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考え" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="1967">
   <si>
     <t>部屋はある程度綺麗に　というか広くした！</t>
     <rPh sb="0" eb="2">
@@ -12274,13 +12274,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/8/28(未着)</t>
-    <rPh sb="10" eb="12">
-      <t>ミチャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>守護神 High Torque Motor Short type -2</t>
     <rPh sb="0" eb="3">
       <t>シュゴシン</t>
@@ -12333,10 +12326,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>withﾊｯﾀｰ&amp;ｿﾃﾞｨ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2019/10/5_夜戦ファスガン定例in静岡</t>
     <rPh sb="10" eb="12">
       <t>ヤセン</t>
@@ -12436,13 +12425,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>37発(15+22)</t>
-    <rPh sb="2" eb="3">
-      <t>ハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2019/10/13_他チーム主催貸切(戦国)</t>
     <rPh sb="11" eb="12">
       <t>タ</t>
@@ -12723,6 +12705,71 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>サト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>withﾊｯﾀｰ&amp;ｿﾃﾞｨ&amp;岡野君・高橋君</t>
+    <rPh sb="15" eb="16">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>・</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>タカハシクン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マガジン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50連ロングマガジン</t>
+    <rPh sb="2" eb="3">
+      <t>レン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SA:サイドアームズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>72発(22+50)</t>
+    <rPh sb="2" eb="3">
+      <t>ハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※基準値
+AR-CP2000
+HG-CP1000</t>
+    <rPh sb="1" eb="4">
+      <t>キジュンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最低売却益</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイキャク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -13736,7 +13783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15171,6 +15218,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15207,66 +15263,66 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -15278,6 +15334,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -16488,7 +16550,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="511">
+      <c r="B3" s="514">
         <v>43196</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -16506,7 +16568,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="511"/>
+      <c r="B4" s="514"/>
       <c r="C4" s="5" t="s">
         <v>335</v>
       </c>
@@ -16519,7 +16581,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="511">
+      <c r="B5" s="514">
         <v>43197</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -16534,7 +16596,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="511"/>
+      <c r="B6" s="514"/>
       <c r="C6" s="5" t="s">
         <v>338</v>
       </c>
@@ -16547,10 +16609,10 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="511">
+      <c r="B7" s="514">
         <v>43198</v>
       </c>
-      <c r="C7" s="507" t="s">
+      <c r="C7" s="512" t="s">
         <v>336</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -16564,8 +16626,8 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="511"/>
-      <c r="C8" s="507"/>
+      <c r="B8" s="514"/>
+      <c r="C8" s="512"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>347</v>
@@ -16575,7 +16637,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="511">
+      <c r="B9" s="514">
         <v>43199</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -16591,7 +16653,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="511"/>
+      <c r="B10" s="514"/>
       <c r="C10" s="5" t="s">
         <v>359</v>
       </c>
@@ -16736,26 +16798,26 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="512" t="s">
+      <c r="B9" s="515" t="s">
         <v>389</v>
       </c>
-      <c r="C9" s="512"/>
-      <c r="D9" s="512" t="s">
+      <c r="C9" s="515"/>
+      <c r="D9" s="515" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="512"/>
-      <c r="F9" s="512" t="s">
+      <c r="E9" s="515"/>
+      <c r="F9" s="515" t="s">
         <v>391</v>
       </c>
-      <c r="G9" s="512"/>
-      <c r="H9" s="512" t="s">
+      <c r="G9" s="515"/>
+      <c r="H9" s="515" t="s">
         <v>392</v>
       </c>
-      <c r="I9" s="512"/>
-      <c r="J9" s="512" t="s">
+      <c r="I9" s="515"/>
+      <c r="J9" s="515" t="s">
         <v>393</v>
       </c>
-      <c r="K9" s="512"/>
+      <c r="K9" s="515"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
@@ -16979,11 +17041,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="513" t="s">
+      <c r="B3" s="516" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="516"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="72" t="s">
@@ -17171,7 +17233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -17179,27 +17241,27 @@
   <sheetData>
     <row r="11" spans="11:11">
       <c r="K11" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="12" spans="11:11">
       <c r="K12" s="80" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="13" spans="11:11">
       <c r="K13" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="14" spans="11:11">
       <c r="K14" s="80" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" s="80" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -17241,7 +17303,7 @@
     <row r="1" spans="1:11">
       <c r="A1" s="21">
         <f ca="1">TODAY()</f>
-        <v>43713</v>
+        <v>43717</v>
       </c>
       <c r="B1" s="21"/>
     </row>
@@ -17269,7 +17331,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="481" t="s">
+      <c r="B3" s="484" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -17296,7 +17358,7 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="482"/>
+      <c r="B4" s="485"/>
       <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
@@ -17321,7 +17383,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="482"/>
+      <c r="B5" s="485"/>
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
@@ -17348,7 +17410,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="482"/>
+      <c r="B6" s="485"/>
       <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
@@ -17372,7 +17434,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="482"/>
+      <c r="B7" s="485"/>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
@@ -17396,7 +17458,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="483"/>
+      <c r="B8" s="486"/>
       <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
@@ -17421,7 +17483,7 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B9" s="484"/>
+      <c r="B9" s="487"/>
       <c r="C9" s="28" t="s">
         <v>97</v>
       </c>
@@ -17446,7 +17508,7 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="478" t="s">
+      <c r="B10" s="481" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -17470,7 +17532,7 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="479"/>
+      <c r="B11" s="482"/>
       <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
@@ -17497,7 +17559,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="479"/>
+      <c r="B12" s="482"/>
       <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
@@ -17524,7 +17586,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B13" s="480"/>
+      <c r="B13" s="483"/>
       <c r="C13" s="17" t="s">
         <v>80</v>
       </c>
@@ -17572,10 +17634,10 @@
     </row>
     <row r="18" spans="2:4" ht="16.5" thickBot="1"/>
     <row r="19" spans="2:4" ht="16.5" thickBot="1">
-      <c r="B19" s="485" t="s">
+      <c r="B19" s="488" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="486"/>
+      <c r="C19" s="489"/>
       <c r="D19" s="23" t="s">
         <v>84</v>
       </c>
@@ -17592,7 +17654,7 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="487" t="s">
+      <c r="B21" s="490" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -17603,7 +17665,7 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="488"/>
+      <c r="B22" s="491"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -17612,7 +17674,7 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="489"/>
+      <c r="B23" s="492"/>
       <c r="C23" s="10" t="s">
         <v>79</v>
       </c>
@@ -17638,11 +17700,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S401"/>
+  <dimension ref="A1:T404"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q258" sqref="Q258"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17662,8 +17724,9 @@
     <col min="13" max="13" width="18.21875" customWidth="1"/>
     <col min="14" max="14" width="15.77734375" style="37" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" style="20"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1">
@@ -17702,11 +17765,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A2" s="502" t="s">
+      <c r="A2" s="496" t="s">
         <v>1081</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="504"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="498"/>
       <c r="D2" s="220"/>
       <c r="E2" s="221"/>
       <c r="F2" s="220"/>
@@ -17833,7 +17896,7 @@
         <v>43390</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="J5" s="165"/>
       <c r="K5" s="45"/>
@@ -18164,7 +18227,7 @@
         <v>1083</v>
       </c>
       <c r="J14" s="166" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="K14" s="476"/>
       <c r="M14" s="93" t="s">
@@ -18203,7 +18266,7 @@
         <v>693</v>
       </c>
       <c r="J15" s="166" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="K15" s="476"/>
       <c r="M15" s="93" t="s">
@@ -18242,7 +18305,7 @@
         <v>693</v>
       </c>
       <c r="J16" s="166" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="K16" s="476"/>
       <c r="M16" s="111" t="s">
@@ -18255,34 +18318,34 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1">
       <c r="A17" s="39" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="E17" s="465" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="F17" s="39">
         <v>1</v>
       </c>
       <c r="G17" s="210" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="H17" s="150">
         <v>43708</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="J17" s="169" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="K17" s="475"/>
     </row>
@@ -18297,7 +18360,7 @@
         <v>436</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="E18" s="40">
         <v>1991</v>
@@ -18306,19 +18369,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="467" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="H18" s="150">
         <v>43712</v>
       </c>
       <c r="I18" s="39" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J18" s="169" t="s">
         <v>1949</v>
       </c>
-      <c r="J18" s="169" t="s">
-        <v>1952</v>
-      </c>
       <c r="K18" s="475" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="M18" s="109" t="s">
         <v>429</v>
@@ -18355,10 +18418,10 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="39" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="J19" s="169" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="K19" s="475"/>
       <c r="M19" s="93" t="s">
@@ -18892,11 +18955,11 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="58" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A36" s="492" t="s">
+      <c r="A36" s="493" t="s">
         <v>1890</v>
       </c>
-      <c r="B36" s="493"/>
-      <c r="C36" s="494"/>
+      <c r="B36" s="494"/>
+      <c r="C36" s="495"/>
       <c r="D36" s="220"/>
       <c r="E36" s="221"/>
       <c r="F36" s="220"/>
@@ -19063,7 +19126,7 @@
         <v>373</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>374</v>
@@ -19101,7 +19164,7 @@
         <v>468</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>374</v>
@@ -19174,7 +19237,7 @@
         <v>471</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>472</v>
@@ -19212,7 +19275,7 @@
         <v>362</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>364</v>
@@ -19264,11 +19327,11 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A47" s="492" t="s">
+      <c r="A47" s="493" t="s">
         <v>1110</v>
       </c>
-      <c r="B47" s="493"/>
-      <c r="C47" s="494"/>
+      <c r="B47" s="494"/>
+      <c r="C47" s="495"/>
       <c r="D47" s="220"/>
       <c r="E47" s="221"/>
       <c r="F47" s="220"/>
@@ -19479,7 +19542,7 @@
         <v>103</v>
       </c>
       <c r="B53" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C53" s="447" t="s">
         <v>540</v>
@@ -19600,11 +19663,11 @@
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="492" t="s">
+      <c r="A57" s="493" t="s">
         <v>1089</v>
       </c>
-      <c r="B57" s="493"/>
-      <c r="C57" s="494"/>
+      <c r="B57" s="494"/>
+      <c r="C57" s="495"/>
       <c r="D57" s="220"/>
       <c r="E57" s="221"/>
       <c r="F57" s="220"/>
@@ -19735,7 +19798,7 @@
         <v>837</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>835</v>
@@ -19780,7 +19843,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>472</v>
@@ -19836,11 +19899,11 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A64" s="492" t="s">
+      <c r="A64" s="493" t="s">
         <v>1091</v>
       </c>
-      <c r="B64" s="493"/>
-      <c r="C64" s="494"/>
+      <c r="B64" s="494"/>
+      <c r="C64" s="495"/>
       <c r="D64" s="220"/>
       <c r="E64" s="221"/>
       <c r="F64" s="220"/>
@@ -19976,7 +20039,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>582</v>
@@ -20014,7 +20077,7 @@
         <v>1191</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C69" s="105" t="s">
         <v>1192</v>
@@ -20045,7 +20108,7 @@
         <v>1195</v>
       </c>
       <c r="B70" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C70" s="39" t="s">
         <v>1196</v>
@@ -20092,7 +20155,7 @@
         <v>1269</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C71" s="105" t="s">
         <v>1198</v>
@@ -20137,7 +20200,7 @@
         <v>837</v>
       </c>
       <c r="B72" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>835</v>
@@ -20176,7 +20239,7 @@
         <v>113</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C73" s="105" t="s">
         <v>160</v>
@@ -20212,7 +20275,7 @@
         <v>829</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>832</v>
@@ -20243,7 +20306,7 @@
         <v>120</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>1824</v>
@@ -20284,7 +20347,7 @@
         <v>120</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C76" s="39" t="s">
         <v>1823</v>
@@ -20326,7 +20389,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C77" s="105" t="s">
         <v>178</v>
@@ -20380,11 +20443,11 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A79" s="492" t="s">
+      <c r="A79" s="493" t="s">
         <v>1092</v>
       </c>
-      <c r="B79" s="493"/>
-      <c r="C79" s="494"/>
+      <c r="B79" s="494"/>
+      <c r="C79" s="495"/>
       <c r="D79" s="220"/>
       <c r="E79" s="221"/>
       <c r="F79" s="220"/>
@@ -20598,7 +20661,7 @@
         <v>714</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>725</v>
@@ -20645,7 +20708,7 @@
         <v>712</v>
       </c>
       <c r="B86" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>698</v>
@@ -20685,7 +20748,7 @@
         <v>710</v>
       </c>
       <c r="B87" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C87" s="39" t="s">
         <v>452</v>
@@ -20722,7 +20785,7 @@
         <v>708</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C88" s="39" t="s">
         <v>723</v>
@@ -20760,7 +20823,7 @@
         <v>837</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>835</v>
@@ -20793,7 +20856,7 @@
         <v>120</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>1076</v>
@@ -20834,7 +20897,7 @@
         <v>1079</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C91" s="39" t="s">
         <v>1351</v>
@@ -20871,7 +20934,7 @@
         <v>630</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C92" s="39" t="s">
         <v>632</v>
@@ -20908,7 +20971,7 @@
         <v>942</v>
       </c>
       <c r="B93" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C93" s="39" t="s">
         <v>578</v>
@@ -20946,7 +21009,7 @@
         <v>120</v>
       </c>
       <c r="B94" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C94" s="105" t="s">
         <v>178</v>
@@ -20977,7 +21040,7 @@
         <v>1870</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>1133</v>
@@ -21039,11 +21102,11 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="492" t="s">
+      <c r="A97" s="493" t="s">
         <v>1093</v>
       </c>
-      <c r="B97" s="493"/>
-      <c r="C97" s="494"/>
+      <c r="B97" s="494"/>
+      <c r="C97" s="495"/>
       <c r="D97" s="220"/>
       <c r="E97" s="221"/>
       <c r="F97" s="220"/>
@@ -21136,7 +21199,7 @@
         <v>823</v>
       </c>
       <c r="B100" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>833</v>
@@ -21180,7 +21243,7 @@
         <v>824</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>830</v>
@@ -21223,7 +21286,7 @@
         <v>827</v>
       </c>
       <c r="B102" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>831</v>
@@ -21260,7 +21323,7 @@
         <v>935</v>
       </c>
       <c r="B103" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>723</v>
@@ -21298,7 +21361,7 @@
         <v>577</v>
       </c>
       <c r="B104" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C104" s="39" t="s">
         <v>578</v>
@@ -21330,7 +21393,7 @@
         <v>1132</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>1147</v>
@@ -21374,7 +21437,7 @@
         <v>1298</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>1301</v>
@@ -21416,7 +21479,7 @@
         <v>1446</v>
       </c>
       <c r="B107" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C107" s="39" t="s">
         <v>1447</v>
@@ -21469,11 +21532,11 @@
       </c>
     </row>
     <row r="109" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A109" s="492" t="s">
+      <c r="A109" s="493" t="s">
         <v>1220</v>
       </c>
-      <c r="B109" s="493"/>
-      <c r="C109" s="494"/>
+      <c r="B109" s="494"/>
+      <c r="C109" s="495"/>
       <c r="D109" s="220"/>
       <c r="E109" s="221"/>
       <c r="F109" s="220"/>
@@ -21493,7 +21556,7 @@
         <v>1031</v>
       </c>
       <c r="B110" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C110" s="39" t="s">
         <v>1032</v>
@@ -21537,7 +21600,7 @@
         <v>823</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C111" s="39" t="s">
         <v>833</v>
@@ -21583,7 +21646,7 @@
         <v>827</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C112" s="39" t="s">
         <v>831</v>
@@ -21620,7 +21683,7 @@
         <v>468</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>698</v>
@@ -21658,7 +21721,7 @@
         <v>1111</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C114" s="39" t="s">
         <v>1114</v>
@@ -21691,7 +21754,7 @@
         <v>1105</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>1106</v>
@@ -21738,7 +21801,7 @@
         <v>1111</v>
       </c>
       <c r="B116" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C116" s="39" t="s">
         <v>1112</v>
@@ -21778,7 +21841,7 @@
         <v>1116</v>
       </c>
       <c r="B117" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C117" s="105" t="s">
         <v>1117</v>
@@ -21815,7 +21878,7 @@
         <v>1118</v>
       </c>
       <c r="B118" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C118" s="105" t="s">
         <v>1119</v>
@@ -21853,7 +21916,7 @@
         <v>1154</v>
       </c>
       <c r="B119" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C119" s="105" t="s">
         <v>1120</v>
@@ -21884,7 +21947,7 @@
         <v>1121</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C120" s="105" t="s">
         <v>1122</v>
@@ -21928,7 +21991,7 @@
         <v>1126</v>
       </c>
       <c r="B121" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C121" s="105" t="s">
         <v>1127</v>
@@ -21965,7 +22028,7 @@
         <v>1150</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C122" s="39" t="s">
         <v>1151</v>
@@ -22002,7 +22065,7 @@
         <v>468</v>
       </c>
       <c r="B123" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C123" s="39" t="s">
         <v>1449</v>
@@ -22040,7 +22103,7 @@
         <v>1074</v>
       </c>
       <c r="B124" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C124" s="39" t="s">
         <v>996</v>
@@ -22093,11 +22156,11 @@
       </c>
     </row>
     <row r="126" spans="1:17" ht="16.5" thickTop="1">
-      <c r="A126" s="492" t="s">
+      <c r="A126" s="493" t="s">
         <v>1253</v>
       </c>
-      <c r="B126" s="493"/>
-      <c r="C126" s="494"/>
+      <c r="B126" s="494"/>
+      <c r="C126" s="495"/>
       <c r="D126" s="220"/>
       <c r="E126" s="221"/>
       <c r="F126" s="220"/>
@@ -22223,7 +22286,7 @@
       </c>
       <c r="H129" s="276"/>
       <c r="I129" s="474" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="J129" s="277"/>
       <c r="K129" s="273"/>
@@ -22277,7 +22340,7 @@
         <v>1260</v>
       </c>
       <c r="B131" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C131" s="447" t="s">
         <v>1256</v>
@@ -22318,7 +22381,7 @@
         <v>1258</v>
       </c>
       <c r="B132" s="273" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C132" s="273" t="s">
         <v>1257</v>
@@ -22353,7 +22416,7 @@
         <v>120</v>
       </c>
       <c r="B133" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>1246</v>
@@ -22392,7 +22455,7 @@
         <v>120</v>
       </c>
       <c r="B134" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C134" s="447" t="s">
         <v>1247</v>
@@ -22432,7 +22495,7 @@
         <v>1242</v>
       </c>
       <c r="B135" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C135" s="447" t="s">
         <v>1246</v>
@@ -22465,7 +22528,7 @@
         <v>1116</v>
       </c>
       <c r="B136" s="105" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C136" s="105" t="s">
         <v>1200</v>
@@ -22511,7 +22574,7 @@
         <v>103</v>
       </c>
       <c r="B137" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C137" s="39" t="s">
         <v>1273</v>
@@ -22551,7 +22614,7 @@
         <v>827</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C138" s="39" t="s">
         <v>831</v>
@@ -22590,7 +22653,7 @@
         <v>1276</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>1277</v>
@@ -22621,7 +22684,7 @@
         <v>1801</v>
       </c>
       <c r="B140" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>1296</v>
@@ -22662,7 +22725,7 @@
         <v>837</v>
       </c>
       <c r="B141" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C141" s="39" t="s">
         <v>1309</v>
@@ -22704,7 +22767,7 @@
         <v>1347</v>
       </c>
       <c r="B142" s="81" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C142" s="81" t="s">
         <v>1349</v>
@@ -22743,7 +22806,7 @@
         <v>1348</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>1350</v>
@@ -22906,11 +22969,11 @@
       </c>
     </row>
     <row r="149" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A149" s="492" t="s">
+      <c r="A149" s="493" t="s">
         <v>1391</v>
       </c>
-      <c r="B149" s="493"/>
-      <c r="C149" s="494"/>
+      <c r="B149" s="494"/>
+      <c r="C149" s="495"/>
       <c r="D149" s="220"/>
       <c r="E149" s="221"/>
       <c r="F149" s="220"/>
@@ -22974,7 +23037,7 @@
         <v>837</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C151" s="39" t="s">
         <v>1309</v>
@@ -23065,7 +23128,7 @@
         <v>1392</v>
       </c>
       <c r="B153" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C153" s="39" t="s">
         <v>1393</v>
@@ -23140,7 +23203,7 @@
         <v>1417</v>
       </c>
       <c r="B155" s="39" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C155" s="39" t="s">
         <v>1418</v>
@@ -23148,7 +23211,7 @@
       <c r="D155" s="39" t="s">
         <v>1419</v>
       </c>
-      <c r="E155" s="491">
+      <c r="E155" s="501">
         <v>2222</v>
       </c>
       <c r="F155" s="39">
@@ -23184,7 +23247,7 @@
         <v>1421</v>
       </c>
       <c r="B156" s="39" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C156" s="39" t="s">
         <v>1420</v>
@@ -23192,7 +23255,7 @@
       <c r="D156" s="39" t="s">
         <v>1422</v>
       </c>
-      <c r="E156" s="491"/>
+      <c r="E156" s="501"/>
       <c r="F156" s="39">
         <v>1</v>
       </c>
@@ -23222,7 +23285,7 @@
         <v>1417</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C157" s="39" t="s">
         <v>1451</v>
@@ -23259,7 +23322,7 @@
         <v>1617</v>
       </c>
       <c r="B158" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C158" s="39" t="s">
         <v>1620</v>
@@ -23297,7 +23360,7 @@
         <v>1421</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C159" s="39" t="s">
         <v>988</v>
@@ -23328,7 +23391,7 @@
         <v>1764</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C160" s="39" t="s">
         <v>1762</v>
@@ -23407,7 +23470,7 @@
         <v>120</v>
       </c>
       <c r="B162" s="447" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="C162" s="447" t="s">
         <v>1826</v>
@@ -23481,11 +23544,11 @@
       <c r="K164" s="39"/>
     </row>
     <row r="165" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A165" s="492" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B165" s="493"/>
-      <c r="C165" s="494"/>
+      <c r="A165" s="493" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B165" s="494"/>
+      <c r="C165" s="495"/>
       <c r="D165" s="220"/>
       <c r="E165" s="221"/>
       <c r="F165" s="220"/>
@@ -23571,7 +23634,7 @@
       <c r="H167" s="45"/>
       <c r="I167" s="39"/>
       <c r="J167" s="166" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="K167" s="39"/>
       <c r="M167" s="93" t="s">
@@ -23862,7 +23925,7 @@
         <v>103</v>
       </c>
       <c r="B176" s="253" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C176" s="253" t="s">
         <v>176</v>
@@ -23900,10 +23963,10 @@
         <v>103</v>
       </c>
       <c r="B177" s="39" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C177" s="39" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D177" s="39" t="s">
         <v>147</v>
@@ -24223,7 +24286,7 @@
       <c r="D186" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="E186" s="491">
+      <c r="E186" s="501">
         <v>-1895</v>
       </c>
       <c r="F186" s="39"/>
@@ -24252,7 +24315,7 @@
       <c r="D187" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="E187" s="491"/>
+      <c r="E187" s="501"/>
       <c r="F187" s="39"/>
       <c r="H187" s="45"/>
       <c r="I187" s="39"/>
@@ -24314,11 +24377,11 @@
       <c r="O189" s="340"/>
     </row>
     <row r="190" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A190" s="492" t="s">
-        <v>1955</v>
-      </c>
-      <c r="B190" s="493"/>
-      <c r="C190" s="494"/>
+      <c r="A190" s="493" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B190" s="494"/>
+      <c r="C190" s="495"/>
       <c r="D190" s="220"/>
       <c r="E190" s="221"/>
       <c r="F190" s="220"/>
@@ -24338,7 +24401,7 @@
         <v>447</v>
       </c>
       <c r="B191" s="105" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C191" s="105" t="s">
         <v>445</v>
@@ -24378,7 +24441,7 @@
         <v>120</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C192" s="39" t="s">
         <v>503</v>
@@ -24415,7 +24478,7 @@
         <v>736</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C193" s="39" t="s">
         <v>503</v>
@@ -24459,7 +24522,7 @@
         <v>581</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C194" s="39" t="s">
         <v>582</v>
@@ -24493,7 +24556,7 @@
         <v>466</v>
       </c>
       <c r="B195" s="105" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C195" s="105" t="s">
         <v>445</v>
@@ -24528,7 +24591,7 @@
         <v>141</v>
       </c>
       <c r="B196" s="105" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C196" s="105" t="s">
         <v>179</v>
@@ -24547,7 +24610,7 @@
       </c>
       <c r="H196" s="45"/>
       <c r="I196" s="468" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="J196" s="166"/>
       <c r="K196" s="39"/>
@@ -24557,7 +24620,7 @@
         <v>440</v>
       </c>
       <c r="B197" s="105" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C197" s="105" t="s">
         <v>441</v>
@@ -24576,7 +24639,7 @@
       </c>
       <c r="H197" s="45"/>
       <c r="I197" s="477" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="J197" s="166"/>
       <c r="K197" s="39"/>
@@ -24596,16 +24659,16 @@
     </row>
     <row r="198" spans="1:17" ht="16.5" thickTop="1">
       <c r="A198" s="39" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B198" s="105" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C198" s="39" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="D198" s="39" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="E198" s="40">
         <v>2205</v>
@@ -24614,13 +24677,13 @@
         <v>2</v>
       </c>
       <c r="G198" s="425" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="H198" s="150">
         <v>43712</v>
       </c>
       <c r="I198" s="468" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="J198" s="166"/>
       <c r="K198" s="39"/>
@@ -24642,13 +24705,13 @@
         <v>120</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="D199" s="39" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="E199" s="40">
         <v>230</v>
@@ -24657,7 +24720,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="467" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="H199" s="150">
         <v>43712</v>
@@ -24684,7 +24747,7 @@
         <v>736</v>
       </c>
       <c r="B200" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C200" s="447" t="s">
         <v>503</v>
@@ -24722,7 +24785,7 @@
         <v>1326</v>
       </c>
       <c r="B201" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C201" s="447" t="s">
         <v>503</v>
@@ -24761,7 +24824,7 @@
         <v>1326</v>
       </c>
       <c r="B202" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C202" s="447" t="s">
         <v>503</v>
@@ -24792,7 +24855,7 @@
         <v>736</v>
       </c>
       <c r="B203" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C203" s="447" t="s">
         <v>503</v>
@@ -24835,7 +24898,7 @@
         <v>736</v>
       </c>
       <c r="B204" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C204" s="447" t="s">
         <v>503</v>
@@ -24876,7 +24939,7 @@
         <v>1326</v>
       </c>
       <c r="B205" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C205" s="447" t="s">
         <v>503</v>
@@ -24914,7 +24977,7 @@
         <v>1326</v>
       </c>
       <c r="B206" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C206" s="447" t="s">
         <v>503</v>
@@ -24953,7 +25016,7 @@
         <v>736</v>
       </c>
       <c r="B207" s="447" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C207" s="447" t="s">
         <v>503</v>
@@ -25240,11 +25303,11 @@
       <c r="O216" s="313"/>
     </row>
     <row r="217" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A217" s="492" t="s">
+      <c r="A217" s="493" t="s">
         <v>1096</v>
       </c>
-      <c r="B217" s="493"/>
-      <c r="C217" s="494"/>
+      <c r="B217" s="494"/>
+      <c r="C217" s="495"/>
       <c r="D217" s="220"/>
       <c r="E217" s="221"/>
       <c r="F217" s="220"/>
@@ -25272,7 +25335,7 @@
         <v>103</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C218" s="39" t="s">
         <v>452</v>
@@ -25302,7 +25365,7 @@
         <v>935</v>
       </c>
       <c r="B219" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C219" s="39" t="s">
         <v>723</v>
@@ -25346,7 +25409,7 @@
         <v>1240</v>
       </c>
       <c r="B220" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>1241</v>
@@ -25388,7 +25451,7 @@
         <v>1577</v>
       </c>
       <c r="B221" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>833</v>
@@ -25430,7 +25493,7 @@
         <v>1577</v>
       </c>
       <c r="B222" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>831</v>
@@ -25467,7 +25530,7 @@
         <v>1581</v>
       </c>
       <c r="B223" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>1580</v>
@@ -25504,7 +25567,7 @@
         <v>120</v>
       </c>
       <c r="B224" s="117" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C224" s="117" t="s">
         <v>178</v>
@@ -25532,7 +25595,7 @@
         <v>120</v>
       </c>
       <c r="B225" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C225" s="39" t="s">
         <v>1820</v>
@@ -25581,13 +25644,13 @@
         <v>120</v>
       </c>
       <c r="B226" s="39" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C226" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D226" s="39" t="s">
         <v>1934</v>
-      </c>
-      <c r="C226" s="39" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D226" s="39" t="s">
-        <v>1937</v>
       </c>
       <c r="E226" s="40">
         <v>297</v>
@@ -25596,7 +25659,7 @@
         <v>1</v>
       </c>
       <c r="G226" s="467" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="H226" s="150">
         <v>43712</v>
@@ -25616,7 +25679,7 @@
         <v>103</v>
       </c>
       <c r="B227" s="160" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C227" s="160" t="s">
         <v>651</v>
@@ -25651,7 +25714,7 @@
         <v>120</v>
       </c>
       <c r="B228" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C228" s="39" t="s">
         <v>1822</v>
@@ -25691,7 +25754,7 @@
         <v>120</v>
       </c>
       <c r="B229" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C229" s="39" t="s">
         <v>1821</v>
@@ -25722,7 +25785,7 @@
         <v>1524</v>
       </c>
       <c r="B230" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C230" s="39" t="s">
         <v>1456</v>
@@ -25761,7 +25824,7 @@
         <v>1525</v>
       </c>
       <c r="B231" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C231" s="447" t="s">
         <v>1456</v>
@@ -25785,7 +25848,7 @@
         <v>1700</v>
       </c>
       <c r="J231" s="166" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K231" s="39"/>
       <c r="M231" s="93" t="s">
@@ -25803,7 +25866,7 @@
         <v>1524</v>
       </c>
       <c r="B232" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C232" s="447" t="s">
         <v>374</v>
@@ -25841,7 +25904,7 @@
         <v>1524</v>
       </c>
       <c r="B233" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C233" s="447" t="s">
         <v>374</v>
@@ -25878,7 +25941,7 @@
         <v>468</v>
       </c>
       <c r="B234" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C234" s="447" t="s">
         <v>999</v>
@@ -25916,7 +25979,7 @@
         <v>468</v>
       </c>
       <c r="B235" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C235" s="447" t="s">
         <v>999</v>
@@ -25947,7 +26010,7 @@
         <v>468</v>
       </c>
       <c r="B236" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C236" s="447" t="s">
         <v>999</v>
@@ -25976,14 +26039,14 @@
         <v>1696</v>
       </c>
       <c r="M236" s="109" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="N236" s="110"/>
       <c r="O236" s="328">
         <v>45</v>
       </c>
       <c r="P236" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="237" spans="1:17" ht="16.5" thickTop="1">
@@ -25991,7 +26054,7 @@
         <v>1634</v>
       </c>
       <c r="B237" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C237" s="447" t="s">
         <v>999</v>
@@ -26034,7 +26097,7 @@
         <v>468</v>
       </c>
       <c r="B238" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C238" s="447" t="s">
         <v>999</v>
@@ -26065,7 +26128,7 @@
         <v>371</v>
       </c>
       <c r="N238" s="94">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O238" s="328"/>
     </row>
@@ -26074,7 +26137,7 @@
         <v>468</v>
       </c>
       <c r="B239" s="447" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C239" s="447" t="s">
         <v>999</v>
@@ -26106,7 +26169,7 @@
       </c>
       <c r="N239" s="112">
         <f>SUM(N236:N238)</f>
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="O239" s="328"/>
     </row>
@@ -26115,7 +26178,7 @@
         <v>468</v>
       </c>
       <c r="B240" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C240" s="39" t="s">
         <v>999</v>
@@ -26147,7 +26210,7 @@
         <v>120</v>
       </c>
       <c r="B241" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C241" s="39" t="s">
         <v>1819</v>
@@ -26175,14 +26238,14 @@
       </c>
       <c r="K241" s="39"/>
       <c r="M241" s="109" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="N241" s="110"/>
       <c r="O241" s="264">
         <v>46</v>
       </c>
       <c r="P241" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="242" spans="1:18" ht="16.5" thickTop="1">
@@ -26190,7 +26253,7 @@
         <v>1132</v>
       </c>
       <c r="B242" s="447" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C242" s="447" t="s">
         <v>1133</v>
@@ -26223,7 +26286,7 @@
       </c>
       <c r="O242" s="264"/>
       <c r="P242" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -26231,7 +26294,7 @@
         <v>1132</v>
       </c>
       <c r="B243" s="447" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C243" s="447" t="s">
         <v>1133</v>
@@ -26269,7 +26332,7 @@
         <v>1132</v>
       </c>
       <c r="B244" s="447" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C244" s="447" t="s">
         <v>1133</v>
@@ -26308,7 +26371,7 @@
         <v>1132</v>
       </c>
       <c r="B245" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>1133</v>
@@ -26325,8 +26388,8 @@
       <c r="G245" s="444" t="s">
         <v>1134</v>
       </c>
-      <c r="H245" s="150" t="s">
-        <v>1892</v>
+      <c r="H245" s="150">
+        <v>43705</v>
       </c>
       <c r="I245" s="39"/>
       <c r="J245" s="166"/>
@@ -26338,13 +26401,13 @@
         <v>1132</v>
       </c>
       <c r="B246" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C246" s="39" t="s">
         <v>1133</v>
       </c>
       <c r="D246" s="39" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E246" s="40">
         <v>2700</v>
@@ -26355,17 +26418,17 @@
       <c r="G246" s="458" t="s">
         <v>1134</v>
       </c>
-      <c r="H246" s="150" t="s">
-        <v>1892</v>
+      <c r="H246" s="150">
+        <v>43705</v>
       </c>
       <c r="I246" s="39"/>
       <c r="J246" s="166"/>
       <c r="K246" s="39"/>
       <c r="L246" t="s">
-        <v>1900</v>
+        <v>1958</v>
       </c>
       <c r="M246" s="109" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="N246" s="110"/>
       <c r="O246" s="459">
@@ -26378,7 +26441,7 @@
         <v>1720</v>
       </c>
       <c r="R246" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="16.5" thickTop="1">
@@ -26386,7 +26449,7 @@
         <v>120</v>
       </c>
       <c r="B247" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>1313</v>
@@ -26425,7 +26488,7 @@
         <v>1720</v>
       </c>
       <c r="R247" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -26433,7 +26496,7 @@
         <v>733</v>
       </c>
       <c r="B248" s="81" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C248" s="81" t="s">
         <v>734</v>
@@ -26458,27 +26521,20 @@
       </c>
       <c r="J248" s="166"/>
       <c r="K248" s="39"/>
-      <c r="M248" s="93" t="s">
-        <v>371</v>
+      <c r="M248" s="100" t="s">
+        <v>1187</v>
       </c>
       <c r="N248" s="94">
-        <v>550</v>
-      </c>
-      <c r="O248" s="459"/>
-      <c r="P248" t="s">
-        <v>1898</v>
-      </c>
-      <c r="Q248" s="305"/>
-      <c r="R248" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" ht="16.5" thickBot="1">
+        <v>1160</v>
+      </c>
+      <c r="O248" s="286"/>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="81" t="s">
         <v>138</v>
       </c>
       <c r="B249" s="81" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C249" s="81" t="s">
         <v>160</v>
@@ -26501,21 +26557,27 @@
       </c>
       <c r="J249" s="166"/>
       <c r="K249" s="39"/>
-      <c r="M249" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="N249" s="112">
-        <f>SUM(N246:N248)</f>
-        <v>4550</v>
+      <c r="M249" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="N249" s="94">
+        <v>550</v>
       </c>
       <c r="O249" s="459"/>
+      <c r="P249" t="s">
+        <v>1897</v>
+      </c>
+      <c r="Q249" s="305"/>
+      <c r="R249" t="s">
+        <v>1963</v>
+      </c>
     </row>
     <row r="250" spans="1:18" ht="16.5" thickBot="1">
       <c r="A250" s="160" t="s">
         <v>468</v>
       </c>
       <c r="B250" s="160" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C250" s="160" t="s">
         <v>645</v>
@@ -26538,6 +26600,13 @@
       </c>
       <c r="J250" s="166"/>
       <c r="K250" s="39"/>
+      <c r="M250" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="N250" s="112">
+        <f>SUM(N246:N249)</f>
+        <v>5710</v>
+      </c>
       <c r="O250" s="459"/>
     </row>
     <row r="251" spans="1:18" ht="16.5" thickBot="1">
@@ -26545,7 +26614,7 @@
         <v>120</v>
       </c>
       <c r="B251" s="81" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C251" s="81" t="s">
         <v>160</v>
@@ -26568,21 +26637,9 @@
       </c>
       <c r="J251" s="166"/>
       <c r="K251" s="39"/>
-      <c r="L251" t="s">
-        <v>1899</v>
-      </c>
-      <c r="M251" s="109" t="s">
-        <v>1901</v>
-      </c>
-      <c r="N251" s="110"/>
-      <c r="O251" s="459">
-        <v>48</v>
-      </c>
-      <c r="P251" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18" ht="16.5" thickTop="1">
+      <c r="O251" s="459"/>
+    </row>
+    <row r="252" spans="1:18" ht="16.5" thickBot="1">
       <c r="A252" s="81" t="s">
         <v>120</v>
       </c>
@@ -26610,21 +26667,21 @@
       </c>
       <c r="J252" s="166"/>
       <c r="K252" s="39"/>
-      <c r="M252" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="N252" s="94">
-        <v>0</v>
-      </c>
-      <c r="O252" s="459"/>
+      <c r="L252" t="s">
+        <v>1898</v>
+      </c>
+      <c r="M252" s="109" t="s">
+        <v>1899</v>
+      </c>
+      <c r="N252" s="110"/>
+      <c r="O252" s="459">
+        <v>48</v>
+      </c>
       <c r="P252" t="s">
-        <v>1736</v>
-      </c>
-      <c r="Q252" s="305" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" ht="16.5" thickTop="1">
       <c r="A253" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26645,14 +26702,20 @@
       <c r="J253" s="166"/>
       <c r="K253" s="39"/>
       <c r="M253" s="93" t="s">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="N253" s="94">
         <v>0</v>
       </c>
       <c r="O253" s="459"/>
-    </row>
-    <row r="254" spans="1:18" ht="16.5" thickBot="1">
+      <c r="P253" t="s">
+        <v>1736</v>
+      </c>
+      <c r="Q253" s="305" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26672,11 +26735,10 @@
       <c r="I254" s="39"/>
       <c r="J254" s="166"/>
       <c r="K254" s="39"/>
-      <c r="M254" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="N254" s="112">
-        <f>SUM(N251:N253)</f>
+      <c r="M254" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="N254" s="94">
         <v>0</v>
       </c>
       <c r="O254" s="459"/>
@@ -26701,6 +26763,13 @@
       <c r="I255" s="39"/>
       <c r="J255" s="166"/>
       <c r="K255" s="39"/>
+      <c r="M255" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="N255" s="112">
+        <f>SUM(N252:N254)</f>
+        <v>0</v>
+      </c>
       <c r="O255" s="459"/>
     </row>
     <row r="256" spans="1:18" ht="16.5" thickBot="1">
@@ -26723,19 +26792,9 @@
       <c r="I256" s="39"/>
       <c r="J256" s="166"/>
       <c r="K256" s="39"/>
-      <c r="L256" t="s">
-        <v>1847</v>
-      </c>
-      <c r="M256" s="109" t="s">
-        <v>1919</v>
-      </c>
-      <c r="N256" s="110"/>
-      <c r="O256" s="438"/>
-      <c r="P256" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" ht="16.5" thickTop="1">
+      <c r="O256" s="459"/>
+    </row>
+    <row r="257" spans="1:16" ht="16.5" thickBot="1">
       <c r="A257" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26755,18 +26814,19 @@
       <c r="I257" s="39"/>
       <c r="J257" s="166"/>
       <c r="K257" s="39"/>
-      <c r="M257" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="N257" s="94">
-        <v>0</v>
-      </c>
+      <c r="L257" t="s">
+        <v>1847</v>
+      </c>
+      <c r="M257" s="109" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N257" s="110"/>
       <c r="O257" s="438"/>
       <c r="P257" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" ht="16.5" thickTop="1">
       <c r="A258" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26787,14 +26847,17 @@
       <c r="J258" s="166"/>
       <c r="K258" s="39"/>
       <c r="M258" s="93" t="s">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="N258" s="94">
         <v>0</v>
       </c>
       <c r="O258" s="438"/>
-    </row>
-    <row r="259" spans="1:16" ht="16.5" thickBot="1">
+      <c r="P258" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16">
       <c r="A259" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26814,11 +26877,10 @@
       <c r="I259" s="39"/>
       <c r="J259" s="166"/>
       <c r="K259" s="39"/>
-      <c r="M259" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="N259" s="112">
-        <f>SUM(N256:N258)</f>
+      <c r="M259" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="N259" s="94">
         <v>0</v>
       </c>
       <c r="O259" s="438"/>
@@ -26843,7 +26905,14 @@
       <c r="I260" s="39"/>
       <c r="J260" s="166"/>
       <c r="K260" s="39"/>
-      <c r="O260" s="324"/>
+      <c r="M260" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="N260" s="112">
+        <f>SUM(N257:N259)</f>
+        <v>0</v>
+      </c>
+      <c r="O260" s="438"/>
     </row>
     <row r="261" spans="1:16" ht="16.5" thickBot="1">
       <c r="A261" s="293" t="s">
@@ -26865,19 +26934,9 @@
       <c r="I261" s="39"/>
       <c r="J261" s="166"/>
       <c r="K261" s="39"/>
-      <c r="L261" t="s">
-        <v>1842</v>
-      </c>
-      <c r="M261" s="109" t="s">
-        <v>1850</v>
-      </c>
-      <c r="N261" s="110"/>
-      <c r="O261" s="393"/>
-      <c r="P261" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" ht="16.5" thickTop="1">
+      <c r="O261" s="324"/>
+    </row>
+    <row r="262" spans="1:16" ht="16.5" thickBot="1">
       <c r="A262" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26897,15 +26956,19 @@
       <c r="I262" s="39"/>
       <c r="J262" s="166"/>
       <c r="K262" s="39"/>
-      <c r="M262" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="N262" s="94">
-        <v>0</v>
-      </c>
+      <c r="L262" t="s">
+        <v>1842</v>
+      </c>
+      <c r="M262" s="109" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N262" s="110"/>
       <c r="O262" s="393"/>
-    </row>
-    <row r="263" spans="1:16">
+      <c r="P262" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" ht="16.5" thickTop="1">
       <c r="A263" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26926,14 +26989,14 @@
       <c r="J263" s="166"/>
       <c r="K263" s="39"/>
       <c r="M263" s="93" t="s">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="N263" s="94">
         <v>0</v>
       </c>
       <c r="O263" s="393"/>
     </row>
-    <row r="264" spans="1:16" ht="16.5" thickBot="1">
+    <row r="264" spans="1:16">
       <c r="A264" s="293" t="s">
         <v>1414</v>
       </c>
@@ -26953,16 +27016,15 @@
       <c r="I264" s="39"/>
       <c r="J264" s="166"/>
       <c r="K264" s="39"/>
-      <c r="M264" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="N264" s="112">
-        <f>SUM(N261:N263)</f>
+      <c r="M264" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="N264" s="94">
         <v>0</v>
       </c>
       <c r="O264" s="393"/>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" ht="16.5" thickBot="1">
       <c r="A265" s="39"/>
       <c r="B265" s="39"/>
       <c r="C265" s="39"/>
@@ -26974,14 +27036,21 @@
       <c r="I265" s="39"/>
       <c r="J265" s="166"/>
       <c r="K265" s="39"/>
-      <c r="O265" s="315"/>
+      <c r="M265" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="N265" s="112">
+        <f>SUM(N262:N264)</f>
+        <v>0</v>
+      </c>
+      <c r="O265" s="393"/>
     </row>
     <row r="266" spans="1:16">
-      <c r="A266" s="492" t="s">
+      <c r="A266" s="493" t="s">
         <v>1095</v>
       </c>
-      <c r="B266" s="493"/>
-      <c r="C266" s="494"/>
+      <c r="B266" s="494"/>
+      <c r="C266" s="495"/>
       <c r="D266" s="220"/>
       <c r="E266" s="221"/>
       <c r="F266" s="220"/>
@@ -26995,7 +27064,7 @@
       </c>
       <c r="J266" s="223"/>
       <c r="K266" s="220"/>
-      <c r="O266" s="286"/>
+      <c r="O266" s="315"/>
     </row>
     <row r="267" spans="1:16">
       <c r="A267" s="39" t="s">
@@ -27064,7 +27133,7 @@
         <v>120</v>
       </c>
       <c r="B269" s="39" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="C269" s="39" t="s">
         <v>431</v>
@@ -27104,11 +27173,11 @@
       <c r="O270" s="313"/>
     </row>
     <row r="271" spans="1:16">
-      <c r="A271" s="492" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B271" s="493"/>
-      <c r="C271" s="494"/>
+      <c r="A271" s="493" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B271" s="494"/>
+      <c r="C271" s="495"/>
       <c r="D271" s="220"/>
       <c r="E271" s="221"/>
       <c r="F271" s="220"/>
@@ -27117,8 +27186,8 @@
         <v>1085</v>
       </c>
       <c r="I271" s="225">
-        <f>SUM(E272:E274)</f>
-        <v>1092</v>
+        <f>SUM(E272:E275)</f>
+        <v>5032</v>
       </c>
       <c r="J271" s="223"/>
       <c r="K271" s="220"/>
@@ -27126,31 +27195,31 @@
     </row>
     <row r="272" spans="1:16">
       <c r="A272" s="39" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B272" s="39" t="s">
         <v>1626</v>
       </c>
       <c r="C272" s="39" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D272" s="39" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E272" s="462" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F272" s="39">
         <v>1</v>
       </c>
       <c r="G272" s="464" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="H272" s="150">
         <v>43708</v>
       </c>
       <c r="I272" s="39" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="J272" s="166"/>
       <c r="K272" s="39"/>
@@ -27158,127 +27227,129 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="39" t="s">
-        <v>1906</v>
+        <v>1913</v>
       </c>
       <c r="B273" s="39" t="s">
         <v>1626</v>
       </c>
       <c r="C273" s="39" t="s">
-        <v>1910</v>
+        <v>1959</v>
       </c>
       <c r="D273" s="39" t="s">
-        <v>1907</v>
+        <v>1960</v>
       </c>
       <c r="E273" s="40">
-        <v>1092</v>
+        <v>3940</v>
       </c>
       <c r="F273" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G273" s="460" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H273" s="150">
+        <v>43717</v>
+      </c>
+      <c r="I273" s="39" t="s">
         <v>1909</v>
       </c>
-      <c r="H273" s="150">
-        <v>43711</v>
-      </c>
-      <c r="I273" s="39" t="s">
-        <v>1911</v>
-      </c>
-      <c r="J273" s="166"/>
+      <c r="J273" s="169" t="s">
+        <v>1962</v>
+      </c>
       <c r="K273" s="39"/>
       <c r="O273" s="324"/>
     </row>
     <row r="274" spans="1:15">
-      <c r="A274" s="39"/>
-      <c r="B274" s="39"/>
-      <c r="C274" s="39"/>
-      <c r="D274" s="39"/>
-      <c r="E274" s="40"/>
-      <c r="F274" s="39"/>
-      <c r="G274" s="440"/>
-      <c r="H274" s="150"/>
-      <c r="I274" s="39"/>
+      <c r="A274" s="39" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B274" s="39" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C274" s="39" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D274" s="39" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E274" s="40">
+        <v>1092</v>
+      </c>
+      <c r="F274" s="39">
+        <v>3</v>
+      </c>
+      <c r="G274" s="480" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H274" s="150">
+        <v>43711</v>
+      </c>
+      <c r="I274" s="39" t="s">
+        <v>1909</v>
+      </c>
       <c r="J274" s="166"/>
       <c r="K274" s="39"/>
       <c r="O274" s="342"/>
     </row>
     <row r="275" spans="1:15">
-      <c r="A275" s="492" t="s">
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
+      <c r="C275" s="39"/>
+      <c r="D275" s="39"/>
+      <c r="E275" s="40"/>
+      <c r="F275" s="39"/>
+      <c r="G275" s="440"/>
+      <c r="H275" s="150"/>
+      <c r="I275" s="39"/>
+      <c r="J275" s="166"/>
+      <c r="K275" s="39"/>
+      <c r="O275" s="342"/>
+    </row>
+    <row r="276" spans="1:15">
+      <c r="A276" s="493" t="s">
         <v>1622</v>
       </c>
-      <c r="B275" s="493"/>
-      <c r="C275" s="494"/>
-      <c r="D275" s="220"/>
-      <c r="E275" s="221"/>
-      <c r="F275" s="220"/>
-      <c r="G275" s="222"/>
-      <c r="H275" s="224" t="s">
+      <c r="B276" s="494"/>
+      <c r="C276" s="495"/>
+      <c r="D276" s="220"/>
+      <c r="E276" s="221"/>
+      <c r="F276" s="220"/>
+      <c r="G276" s="222"/>
+      <c r="H276" s="224" t="s">
         <v>1085</v>
       </c>
-      <c r="I275" s="225">
-        <f>SUM(E276:E294)</f>
+      <c r="I276" s="225">
+        <f>SUM(E277:E295)</f>
         <v>25037</v>
       </c>
-      <c r="J275" s="223"/>
-      <c r="K275" s="220"/>
-      <c r="O275" s="342"/>
-    </row>
-    <row r="276" spans="1:15">
-      <c r="A276" s="39" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B276" s="39" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C276" s="39" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D276" s="39" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E276" s="40">
-        <v>3600</v>
-      </c>
-      <c r="F276" s="39">
-        <v>1</v>
-      </c>
-      <c r="G276" s="382" t="s">
-        <v>1578</v>
-      </c>
-      <c r="H276" s="150">
-        <v>43638</v>
-      </c>
-      <c r="I276" s="39" t="s">
-        <v>1624</v>
-      </c>
-      <c r="J276" s="166"/>
-      <c r="K276" s="39"/>
+      <c r="J276" s="223"/>
+      <c r="K276" s="220"/>
       <c r="O276" s="344"/>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="39" t="s">
-        <v>103</v>
+        <v>1593</v>
       </c>
       <c r="B277" s="39" t="s">
         <v>1625</v>
       </c>
       <c r="C277" s="39" t="s">
-        <v>1640</v>
+        <v>1592</v>
       </c>
       <c r="D277" s="39" t="s">
-        <v>1645</v>
+        <v>1600</v>
       </c>
       <c r="E277" s="40">
-        <v>1540</v>
+        <v>3600</v>
       </c>
       <c r="F277" s="39">
         <v>1</v>
       </c>
-      <c r="G277" s="399" t="s">
-        <v>126</v>
+      <c r="G277" s="382" t="s">
+        <v>1578</v>
       </c>
       <c r="H277" s="150">
-        <v>43651</v>
+        <v>43638</v>
       </c>
       <c r="I277" s="39" t="s">
         <v>1624</v>
@@ -27295,22 +27366,22 @@
         <v>1625</v>
       </c>
       <c r="C278" s="39" t="s">
-        <v>498</v>
+        <v>1640</v>
       </c>
       <c r="D278" s="39" t="s">
-        <v>1694</v>
+        <v>1645</v>
       </c>
       <c r="E278" s="40">
-        <v>3000</v>
+        <v>1540</v>
       </c>
       <c r="F278" s="39">
-        <v>2</v>
-      </c>
-      <c r="G278" s="403" t="s">
-        <v>1695</v>
+        <v>1</v>
+      </c>
+      <c r="G278" s="399" t="s">
+        <v>126</v>
       </c>
       <c r="H278" s="150">
-        <v>43661</v>
+        <v>43651</v>
       </c>
       <c r="I278" s="39" t="s">
         <v>1624</v>
@@ -27321,91 +27392,91 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="39" t="s">
-        <v>1601</v>
+        <v>103</v>
       </c>
       <c r="B279" s="39" t="s">
-        <v>1933</v>
+        <v>1625</v>
       </c>
       <c r="C279" s="39" t="s">
-        <v>1309</v>
+        <v>498</v>
       </c>
       <c r="D279" s="39" t="s">
-        <v>1602</v>
+        <v>1694</v>
       </c>
       <c r="E279" s="40">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="F279" s="39">
-        <v>1</v>
-      </c>
-      <c r="G279" s="384" t="s">
-        <v>126</v>
+        <v>2</v>
+      </c>
+      <c r="G279" s="403" t="s">
+        <v>1695</v>
       </c>
       <c r="H279" s="150">
-        <v>43641</v>
+        <v>43661</v>
       </c>
       <c r="I279" s="39" t="s">
         <v>1624</v>
       </c>
-      <c r="J279" s="166" t="s">
-        <v>1310</v>
-      </c>
+      <c r="J279" s="166"/>
       <c r="K279" s="39"/>
       <c r="O279" s="344"/>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="39" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="B280" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C280" s="39" t="s">
-        <v>1620</v>
+        <v>1309</v>
       </c>
       <c r="D280" s="39" t="s">
-        <v>1673</v>
+        <v>1602</v>
       </c>
       <c r="E280" s="40">
-        <v>860</v>
+        <v>2750</v>
       </c>
       <c r="F280" s="39">
         <v>1</v>
       </c>
-      <c r="G280" s="391" t="s">
-        <v>1619</v>
+      <c r="G280" s="384" t="s">
+        <v>126</v>
       </c>
       <c r="H280" s="150">
-        <v>43648</v>
+        <v>43641</v>
       </c>
       <c r="I280" s="39" t="s">
         <v>1624</v>
       </c>
-      <c r="J280" s="166"/>
+      <c r="J280" s="166" t="s">
+        <v>1310</v>
+      </c>
       <c r="K280" s="39"/>
       <c r="O280" s="347"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="39" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B281" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C281" s="39" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D281" s="39" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="E281" s="40">
-        <v>1350</v>
+        <v>860</v>
       </c>
       <c r="F281" s="39">
         <v>1</v>
       </c>
       <c r="G281" s="391" t="s">
-        <v>1647</v>
+        <v>1619</v>
       </c>
       <c r="H281" s="150">
         <v>43648</v>
@@ -27418,64 +27489,64 @@
       <c r="O281" s="347"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="446" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B282" s="447" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C282" s="447" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D282" s="447" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E282" s="451">
-        <v>1600</v>
-      </c>
-      <c r="F282" s="447">
+      <c r="A282" s="39" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B282" s="39" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C282" s="39" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D282" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E282" s="40">
+        <v>1350</v>
+      </c>
+      <c r="F282" s="39">
         <v>1</v>
       </c>
-      <c r="G282" s="449" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H282" s="455">
-        <v>43652</v>
-      </c>
-      <c r="I282" s="404" t="s">
-        <v>1658</v>
+      <c r="G282" s="391" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H282" s="150">
+        <v>43648</v>
+      </c>
+      <c r="I282" s="39" t="s">
+        <v>1624</v>
       </c>
       <c r="J282" s="166"/>
       <c r="K282" s="39"/>
       <c r="O282" s="349"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="39" t="s">
+      <c r="A283" s="446" t="s">
         <v>1641</v>
       </c>
-      <c r="B283" s="39" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C283" s="39" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D283" s="39" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E283" s="40">
-        <v>1800</v>
-      </c>
-      <c r="F283" s="39">
+      <c r="B283" s="447" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C283" s="447" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D283" s="447" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E283" s="451">
+        <v>1600</v>
+      </c>
+      <c r="F283" s="447">
         <v>1</v>
       </c>
-      <c r="G283" s="399" t="s">
+      <c r="G283" s="449" t="s">
         <v>1646</v>
       </c>
-      <c r="H283" s="150">
+      <c r="H283" s="455">
         <v>43652</v>
       </c>
-      <c r="I283" s="39" t="s">
-        <v>1624</v>
+      <c r="I283" s="404" t="s">
+        <v>1658</v>
       </c>
       <c r="J283" s="166"/>
       <c r="K283" s="39"/>
@@ -27483,28 +27554,28 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="39" t="s">
-        <v>1421</v>
+        <v>1641</v>
       </c>
       <c r="B284" s="39" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="C284" s="39" t="s">
-        <v>1674</v>
+        <v>1643</v>
       </c>
       <c r="D284" s="39" t="s">
-        <v>1671</v>
+        <v>1644</v>
       </c>
       <c r="E284" s="40">
-        <v>1571</v>
+        <v>1800</v>
       </c>
       <c r="F284" s="39">
         <v>1</v>
       </c>
-      <c r="G284" s="403" t="s">
-        <v>1670</v>
+      <c r="G284" s="399" t="s">
+        <v>1646</v>
       </c>
       <c r="H284" s="150">
-        <v>43660</v>
+        <v>43652</v>
       </c>
       <c r="I284" s="39" t="s">
         <v>1624</v>
@@ -27515,19 +27586,19 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="39" t="s">
-        <v>1677</v>
+        <v>1421</v>
       </c>
       <c r="B285" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C285" s="39" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="D285" s="39" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="E285" s="40">
-        <v>1610</v>
+        <v>1571</v>
       </c>
       <c r="F285" s="39">
         <v>1</v>
@@ -27550,16 +27621,16 @@
         <v>1677</v>
       </c>
       <c r="B286" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C286" s="39" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D286" s="39" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E286" s="40">
-        <v>620</v>
+        <v>1610</v>
       </c>
       <c r="F286" s="39">
         <v>1</v>
@@ -27582,16 +27653,16 @@
         <v>1677</v>
       </c>
       <c r="B287" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D287" s="39" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E287" s="40">
-        <v>2490</v>
+        <v>620</v>
       </c>
       <c r="F287" s="39">
         <v>1</v>
@@ -27611,25 +27682,25 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="39" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="B288" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="D288" s="39" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E288" s="40">
-        <v>544</v>
+        <v>2490</v>
       </c>
       <c r="F288" s="39">
-        <v>4</v>
-      </c>
-      <c r="G288" s="399" t="s">
-        <v>1686</v>
+        <v>1</v>
+      </c>
+      <c r="G288" s="403" t="s">
+        <v>1670</v>
       </c>
       <c r="H288" s="150">
         <v>43660</v>
@@ -27643,25 +27714,25 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="39" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="B289" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C289" s="39" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="E289" s="40">
-        <v>1260</v>
+        <v>544</v>
       </c>
       <c r="F289" s="39">
-        <v>10</v>
-      </c>
-      <c r="G289" s="403" t="s">
-        <v>652</v>
+        <v>4</v>
+      </c>
+      <c r="G289" s="399" t="s">
+        <v>1686</v>
       </c>
       <c r="H289" s="150">
         <v>43660</v>
@@ -27675,28 +27746,28 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="39" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="B290" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C290" s="39" t="s">
-        <v>1705</v>
+        <v>1688</v>
       </c>
       <c r="D290" s="39" t="s">
-        <v>1704</v>
+        <v>1687</v>
       </c>
       <c r="E290" s="40">
-        <v>379</v>
+        <v>1260</v>
       </c>
       <c r="F290" s="39">
-        <v>1</v>
-      </c>
-      <c r="G290" s="408" t="s">
-        <v>1703</v>
+        <v>10</v>
+      </c>
+      <c r="G290" s="403" t="s">
+        <v>652</v>
       </c>
       <c r="H290" s="150">
-        <v>43667</v>
+        <v>43660</v>
       </c>
       <c r="I290" s="39" t="s">
         <v>1624</v>
@@ -27706,29 +27777,29 @@
       <c r="O290" s="381"/>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="105" t="s">
-        <v>120</v>
+      <c r="A291" s="39" t="s">
+        <v>1702</v>
       </c>
       <c r="B291" s="39" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C291" s="39" t="s">
-        <v>489</v>
+        <v>1705</v>
       </c>
       <c r="D291" s="39" t="s">
-        <v>1343</v>
+        <v>1704</v>
       </c>
       <c r="E291" s="40">
-        <v>498</v>
+        <v>379</v>
       </c>
       <c r="F291" s="39">
         <v>1</v>
       </c>
-      <c r="G291" s="314" t="s">
-        <v>1344</v>
+      <c r="G291" s="408" t="s">
+        <v>1703</v>
       </c>
       <c r="H291" s="150">
-        <v>43589</v>
+        <v>43667</v>
       </c>
       <c r="I291" s="39" t="s">
         <v>1624</v>
@@ -27738,29 +27809,29 @@
       <c r="O291" s="381"/>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="39" t="s">
-        <v>1836</v>
+      <c r="A292" s="105" t="s">
+        <v>120</v>
       </c>
       <c r="B292" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C292" s="39" t="s">
-        <v>1837</v>
+        <v>489</v>
       </c>
       <c r="D292" s="39" t="s">
-        <v>1835</v>
+        <v>1343</v>
       </c>
       <c r="E292" s="40">
-        <v>1075</v>
+        <v>498</v>
       </c>
       <c r="F292" s="39">
         <v>1</v>
       </c>
-      <c r="G292" s="433" t="s">
+      <c r="G292" s="314" t="s">
         <v>1344</v>
       </c>
       <c r="H292" s="150">
-        <v>43680</v>
+        <v>43589</v>
       </c>
       <c r="I292" s="39" t="s">
         <v>1624</v>
@@ -27770,35 +27841,53 @@
       <c r="O292" s="381"/>
     </row>
     <row r="293" spans="1:15">
-      <c r="A293" s="293" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B293" s="293"/>
-      <c r="C293" s="293"/>
+      <c r="A293" s="39" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B293" s="39" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C293" s="39" t="s">
+        <v>1837</v>
+      </c>
       <c r="D293" s="39" t="s">
-        <v>1660</v>
+        <v>1835</v>
       </c>
       <c r="E293" s="40">
-        <v>-1510</v>
-      </c>
-      <c r="F293" s="39"/>
-      <c r="G293" s="401" t="s">
-        <v>652</v>
-      </c>
-      <c r="H293" s="150"/>
-      <c r="I293" s="39"/>
+        <v>1075</v>
+      </c>
+      <c r="F293" s="39">
+        <v>1</v>
+      </c>
+      <c r="G293" s="433" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H293" s="150">
+        <v>43680</v>
+      </c>
+      <c r="I293" s="39" t="s">
+        <v>1624</v>
+      </c>
       <c r="J293" s="166"/>
       <c r="K293" s="39"/>
       <c r="O293" s="381"/>
     </row>
     <row r="294" spans="1:15">
-      <c r="A294" s="39"/>
-      <c r="B294" s="39"/>
-      <c r="C294" s="39"/>
-      <c r="D294" s="39"/>
-      <c r="E294" s="40"/>
+      <c r="A294" s="293" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B294" s="293"/>
+      <c r="C294" s="293"/>
+      <c r="D294" s="39" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E294" s="40">
+        <v>-1510</v>
+      </c>
       <c r="F294" s="39"/>
-      <c r="G294" s="394"/>
+      <c r="G294" s="401" t="s">
+        <v>652</v>
+      </c>
       <c r="H294" s="150"/>
       <c r="I294" s="39"/>
       <c r="J294" s="166"/>
@@ -27806,86 +27895,70 @@
       <c r="O294" s="383"/>
     </row>
     <row r="295" spans="1:15">
-      <c r="A295" s="492" t="s">
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
+      <c r="C295" s="39"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="40"/>
+      <c r="F295" s="39"/>
+      <c r="G295" s="394"/>
+      <c r="H295" s="150"/>
+      <c r="I295" s="39"/>
+      <c r="J295" s="166"/>
+      <c r="K295" s="39"/>
+      <c r="O295" s="385"/>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="A296" s="493" t="s">
         <v>1097</v>
       </c>
-      <c r="B295" s="493"/>
-      <c r="C295" s="494"/>
-      <c r="D295" s="220"/>
-      <c r="E295" s="221"/>
-      <c r="F295" s="220"/>
-      <c r="G295" s="222"/>
-      <c r="H295" s="224" t="s">
+      <c r="B296" s="494"/>
+      <c r="C296" s="495"/>
+      <c r="D296" s="220"/>
+      <c r="E296" s="221"/>
+      <c r="F296" s="220"/>
+      <c r="G296" s="222"/>
+      <c r="H296" s="224" t="s">
         <v>1085</v>
       </c>
-      <c r="I295" s="225">
-        <f>SUM(E296:E316)</f>
+      <c r="I296" s="225">
+        <f>SUM(E297:E317)</f>
         <v>26232</v>
       </c>
-      <c r="J295" s="223"/>
-      <c r="K295" s="220"/>
-      <c r="O295" s="385"/>
-    </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="39" t="s">
+      <c r="J296" s="223"/>
+      <c r="K296" s="220"/>
+      <c r="O296" s="388"/>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="B296" s="39" t="s">
+      <c r="B297" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C296" s="39" t="s">
+      <c r="C297" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="D296" s="39" t="s">
+      <c r="D297" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="E296" s="40">
+      <c r="E297" s="40">
         <v>6399</v>
       </c>
-      <c r="F296" s="39">
+      <c r="F297" s="39">
         <v>1</v>
       </c>
-      <c r="G296" s="11" t="s">
+      <c r="G297" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H296" s="150">
+      <c r="H297" s="150">
         <v>43405</v>
       </c>
-      <c r="I296" s="39" t="s">
+      <c r="I297" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="J296" s="166"/>
-      <c r="K296" s="39"/>
-      <c r="O296" s="388"/>
-    </row>
-    <row r="297" spans="1:15">
-      <c r="A297" s="253" t="s">
-        <v>106</v>
-      </c>
-      <c r="B297" s="253" t="s">
-        <v>172</v>
-      </c>
-      <c r="C297" s="253" t="s">
-        <v>165</v>
-      </c>
-      <c r="D297" s="253" t="s">
-        <v>107</v>
-      </c>
-      <c r="E297" s="254">
-        <v>1166</v>
-      </c>
-      <c r="F297" s="253">
-        <v>4000</v>
-      </c>
-      <c r="G297" s="255" t="s">
-        <v>125</v>
-      </c>
-      <c r="H297" s="258"/>
-      <c r="I297" s="253" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J297" s="257"/>
-      <c r="K297" s="253"/>
+      <c r="J297" s="166"/>
+      <c r="K297" s="39"/>
       <c r="O297" s="388"/>
     </row>
     <row r="298" spans="1:15">
@@ -27899,20 +27972,18 @@
         <v>165</v>
       </c>
       <c r="D298" s="253" t="s">
-        <v>821</v>
+        <v>107</v>
       </c>
       <c r="E298" s="254">
-        <v>980</v>
+        <v>1166</v>
       </c>
       <c r="F298" s="253">
         <v>4000</v>
       </c>
-      <c r="G298" s="259" t="s">
-        <v>123</v>
-      </c>
-      <c r="H298" s="256">
-        <v>43459</v>
-      </c>
+      <c r="G298" s="255" t="s">
+        <v>125</v>
+      </c>
+      <c r="H298" s="258"/>
       <c r="I298" s="253" t="s">
         <v>1203</v>
       </c>
@@ -27922,7 +27993,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="253" t="s">
-        <v>443</v>
+        <v>106</v>
       </c>
       <c r="B299" s="253" t="s">
         <v>172</v>
@@ -27931,18 +28002,20 @@
         <v>165</v>
       </c>
       <c r="D299" s="253" t="s">
-        <v>444</v>
+        <v>821</v>
       </c>
       <c r="E299" s="254">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="F299" s="253">
         <v>4000</v>
       </c>
-      <c r="G299" s="255" t="s">
-        <v>125</v>
-      </c>
-      <c r="H299" s="258"/>
+      <c r="G299" s="259" t="s">
+        <v>123</v>
+      </c>
+      <c r="H299" s="256">
+        <v>43459</v>
+      </c>
       <c r="I299" s="253" t="s">
         <v>1203</v>
       </c>
@@ -28002,9 +28075,7 @@
       <c r="G301" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="H301" s="256">
-        <v>43381</v>
-      </c>
+      <c r="H301" s="258"/>
       <c r="I301" s="253" t="s">
         <v>1203</v>
       </c>
@@ -28035,7 +28106,7 @@
         <v>125</v>
       </c>
       <c r="H302" s="256">
-        <v>43423</v>
+        <v>43381</v>
       </c>
       <c r="I302" s="253" t="s">
         <v>1203</v>
@@ -28045,67 +28116,67 @@
       <c r="O302" s="390"/>
     </row>
     <row r="303" spans="1:15">
-      <c r="A303" s="333" t="s">
+      <c r="A303" s="253" t="s">
         <v>443</v>
       </c>
-      <c r="B303" s="334" t="s">
+      <c r="B303" s="253" t="s">
         <v>172</v>
       </c>
-      <c r="C303" s="334" t="s">
+      <c r="C303" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="D303" s="334" t="s">
+      <c r="D303" s="253" t="s">
         <v>444</v>
       </c>
-      <c r="E303" s="335">
+      <c r="E303" s="254">
+        <v>999</v>
+      </c>
+      <c r="F303" s="253">
+        <v>4000</v>
+      </c>
+      <c r="G303" s="255" t="s">
+        <v>125</v>
+      </c>
+      <c r="H303" s="256">
+        <v>43423</v>
+      </c>
+      <c r="I303" s="253" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J303" s="257"/>
+      <c r="K303" s="253"/>
+      <c r="O303" s="390"/>
+    </row>
+    <row r="304" spans="1:15">
+      <c r="A304" s="333" t="s">
+        <v>443</v>
+      </c>
+      <c r="B304" s="334" t="s">
+        <v>172</v>
+      </c>
+      <c r="C304" s="334" t="s">
+        <v>165</v>
+      </c>
+      <c r="D304" s="334" t="s">
+        <v>444</v>
+      </c>
+      <c r="E304" s="335">
         <v>1950</v>
       </c>
-      <c r="F303" s="334">
+      <c r="F304" s="334">
         <v>8000</v>
       </c>
-      <c r="G303" s="336" t="s">
+      <c r="G304" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="H303" s="337">
+      <c r="H304" s="337">
         <v>43525</v>
       </c>
-      <c r="I303" s="334" t="s">
+      <c r="I304" s="334" t="s">
         <v>675</v>
       </c>
-      <c r="J303" s="338"/>
-      <c r="K303" s="334"/>
-      <c r="O303" s="390"/>
-    </row>
-    <row r="304" spans="1:15">
-      <c r="A304" s="253" t="s">
-        <v>654</v>
-      </c>
-      <c r="B304" s="253" t="s">
-        <v>172</v>
-      </c>
-      <c r="C304" s="253" t="s">
-        <v>165</v>
-      </c>
-      <c r="D304" s="253" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E304" s="254">
-        <v>999</v>
-      </c>
-      <c r="F304" s="253">
-        <v>4000</v>
-      </c>
-      <c r="G304" s="255" t="s">
-        <v>655</v>
-      </c>
-      <c r="H304" s="256">
-        <v>43603</v>
-      </c>
-      <c r="I304" s="253" t="s">
-        <v>675</v>
-      </c>
-      <c r="J304" s="257"/>
-      <c r="K304" s="253"/>
+      <c r="J304" s="338"/>
+      <c r="K304" s="334"/>
       <c r="O304" s="393"/>
     </row>
     <row r="305" spans="1:15">
@@ -28131,7 +28202,7 @@
         <v>655</v>
       </c>
       <c r="H305" s="256">
-        <v>43648</v>
+        <v>43603</v>
       </c>
       <c r="I305" s="253" t="s">
         <v>675</v>
@@ -28141,67 +28212,67 @@
       <c r="O305" s="393"/>
     </row>
     <row r="306" spans="1:15">
-      <c r="A306" s="39" t="s">
+      <c r="A306" s="253" t="s">
         <v>654</v>
       </c>
-      <c r="B306" s="39" t="s">
+      <c r="B306" s="253" t="s">
         <v>172</v>
       </c>
-      <c r="C306" s="39" t="s">
+      <c r="C306" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="D306" s="39" t="s">
+      <c r="D306" s="253" t="s">
         <v>1398</v>
       </c>
-      <c r="E306" s="40">
+      <c r="E306" s="254">
+        <v>999</v>
+      </c>
+      <c r="F306" s="253">
+        <v>4000</v>
+      </c>
+      <c r="G306" s="255" t="s">
+        <v>655</v>
+      </c>
+      <c r="H306" s="256">
+        <v>43648</v>
+      </c>
+      <c r="I306" s="253" t="s">
+        <v>675</v>
+      </c>
+      <c r="J306" s="257"/>
+      <c r="K306" s="253"/>
+      <c r="O306" s="393"/>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" s="39" t="s">
+        <v>654</v>
+      </c>
+      <c r="B307" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C307" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D307" s="39" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E307" s="40">
         <v>1000</v>
       </c>
-      <c r="F306" s="39">
+      <c r="F307" s="39">
         <v>4000</v>
       </c>
-      <c r="G306" s="442" t="s">
+      <c r="G307" s="442" t="s">
         <v>655</v>
       </c>
-      <c r="H306" s="150">
+      <c r="H307" s="150">
         <v>43687</v>
       </c>
-      <c r="I306" s="39" t="s">
+      <c r="I307" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="J306" s="166"/>
-      <c r="K306" s="39"/>
-      <c r="O306" s="393"/>
-    </row>
-    <row r="307" spans="1:15">
-      <c r="A307" s="253" t="s">
-        <v>654</v>
-      </c>
-      <c r="B307" s="253" t="s">
-        <v>172</v>
-      </c>
-      <c r="C307" s="253" t="s">
-        <v>165</v>
-      </c>
-      <c r="D307" s="253" t="s">
-        <v>656</v>
-      </c>
-      <c r="E307" s="254">
-        <v>999</v>
-      </c>
-      <c r="F307" s="253">
-        <v>5000</v>
-      </c>
-      <c r="G307" s="255" t="s">
-        <v>655</v>
-      </c>
-      <c r="H307" s="256">
-        <v>43423</v>
-      </c>
-      <c r="I307" s="253" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J307" s="257"/>
-      <c r="K307" s="253"/>
+      <c r="J307" s="166"/>
+      <c r="K307" s="39"/>
       <c r="O307" s="393"/>
     </row>
     <row r="308" spans="1:15">
@@ -28218,63 +28289,61 @@
         <v>656</v>
       </c>
       <c r="E308" s="254">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F308" s="253">
         <v>5000</v>
       </c>
       <c r="G308" s="255" t="s">
-        <v>838</v>
+        <v>655</v>
       </c>
       <c r="H308" s="256">
-        <v>43478</v>
+        <v>43423</v>
       </c>
       <c r="I308" s="253" t="s">
-        <v>675</v>
-      </c>
-      <c r="J308" s="395" t="s">
-        <v>1098</v>
-      </c>
+        <v>1203</v>
+      </c>
+      <c r="J308" s="257"/>
       <c r="K308" s="253"/>
       <c r="O308" s="398"/>
     </row>
     <row r="309" spans="1:15">
-      <c r="A309" s="39" t="s">
+      <c r="A309" s="253" t="s">
         <v>654</v>
       </c>
-      <c r="B309" s="39" t="s">
+      <c r="B309" s="253" t="s">
         <v>172</v>
       </c>
-      <c r="C309" s="39" t="s">
+      <c r="C309" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="D309" s="39" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E309" s="40">
+      <c r="D309" s="253" t="s">
+        <v>656</v>
+      </c>
+      <c r="E309" s="254">
         <v>1000</v>
       </c>
-      <c r="F309" s="39">
+      <c r="F309" s="253">
         <v>5000</v>
       </c>
-      <c r="G309" s="435" t="s">
+      <c r="G309" s="255" t="s">
         <v>838</v>
       </c>
-      <c r="H309" s="150">
-        <v>43681</v>
-      </c>
-      <c r="I309" s="39" t="s">
+      <c r="H309" s="256">
+        <v>43478</v>
+      </c>
+      <c r="I309" s="253" t="s">
         <v>675</v>
       </c>
-      <c r="J309" s="169" t="s">
-        <v>1844</v>
-      </c>
-      <c r="K309" s="39"/>
+      <c r="J309" s="395" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K309" s="253"/>
       <c r="O309" s="398"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="39" t="s">
-        <v>1861</v>
+        <v>654</v>
       </c>
       <c r="B310" s="39" t="s">
         <v>172</v>
@@ -28283,30 +28352,32 @@
         <v>165</v>
       </c>
       <c r="D310" s="39" t="s">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="E310" s="40">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="F310" s="39">
-        <v>4000</v>
-      </c>
-      <c r="G310" s="442" t="s">
-        <v>655</v>
+        <v>5000</v>
+      </c>
+      <c r="G310" s="435" t="s">
+        <v>838</v>
       </c>
       <c r="H310" s="150">
-        <v>43687</v>
+        <v>43681</v>
       </c>
       <c r="I310" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="J310" s="166"/>
+      <c r="J310" s="169" t="s">
+        <v>1844</v>
+      </c>
       <c r="K310" s="39"/>
       <c r="O310" s="398"/>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="39" t="s">
-        <v>658</v>
+        <v>1861</v>
       </c>
       <c r="B311" s="39" t="s">
         <v>172</v>
@@ -28315,19 +28386,19 @@
         <v>165</v>
       </c>
       <c r="D311" s="39" t="s">
-        <v>657</v>
+        <v>1860</v>
       </c>
       <c r="E311" s="40">
-        <v>1480</v>
+        <v>1580</v>
       </c>
       <c r="F311" s="39">
-        <v>2000</v>
-      </c>
-      <c r="G311" s="210" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G311" s="442" t="s">
         <v>655</v>
       </c>
       <c r="H311" s="150">
-        <v>43390</v>
+        <v>43687</v>
       </c>
       <c r="I311" s="39" t="s">
         <v>675</v>
@@ -28338,7 +28409,7 @@
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="39" t="s">
-        <v>533</v>
+        <v>658</v>
       </c>
       <c r="B312" s="39" t="s">
         <v>172</v>
@@ -28347,189 +28418,189 @@
         <v>165</v>
       </c>
       <c r="D312" s="39" t="s">
-        <v>449</v>
+        <v>657</v>
       </c>
       <c r="E312" s="40">
-        <v>268</v>
+        <v>1480</v>
       </c>
       <c r="F312" s="39">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G312" s="210" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H312" s="45"/>
+        <v>655</v>
+      </c>
+      <c r="H312" s="150">
+        <v>43390</v>
+      </c>
       <c r="I312" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="J312" s="169" t="s">
-        <v>1268</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="J312" s="166"/>
       <c r="K312" s="39"/>
       <c r="O312" s="402"/>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="39" t="s">
-        <v>103</v>
+        <v>533</v>
       </c>
       <c r="B313" s="39" t="s">
         <v>172</v>
       </c>
       <c r="C313" s="39" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D313" s="39" t="s">
-        <v>153</v>
+        <v>449</v>
       </c>
       <c r="E313" s="40">
-        <v>1400</v>
+        <v>268</v>
       </c>
       <c r="F313" s="39">
         <v>1</v>
       </c>
-      <c r="G313" s="11" t="s">
-        <v>123</v>
+      <c r="G313" s="210" t="s">
+        <v>1399</v>
       </c>
       <c r="H313" s="45"/>
       <c r="I313" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="J313" s="166"/>
+      <c r="J313" s="169" t="s">
+        <v>1268</v>
+      </c>
       <c r="K313" s="39"/>
       <c r="O313" s="402"/>
     </row>
     <row r="314" spans="1:15">
-      <c r="A314" s="81" t="s">
-        <v>293</v>
-      </c>
-      <c r="B314" s="81" t="s">
+      <c r="A314" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B314" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C314" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D314" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="E314" s="82">
-        <v>216</v>
-      </c>
-      <c r="F314" s="81">
-        <v>2</v>
-      </c>
-      <c r="G314" s="84" t="s">
-        <v>450</v>
+      <c r="C314" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D314" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E314" s="40">
+        <v>1400</v>
+      </c>
+      <c r="F314" s="39">
+        <v>1</v>
+      </c>
+      <c r="G314" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="H314" s="45"/>
-      <c r="I314" s="168" t="s">
-        <v>666</v>
+      <c r="I314" s="39" t="s">
+        <v>665</v>
       </c>
       <c r="J314" s="166"/>
       <c r="K314" s="39"/>
       <c r="O314" s="402"/>
     </row>
     <row r="315" spans="1:15">
-      <c r="A315" s="39" t="s">
-        <v>784</v>
-      </c>
-      <c r="B315" s="39" t="s">
+      <c r="A315" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="B315" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="C315" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="D315" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="E315" s="40">
-        <v>800</v>
-      </c>
-      <c r="F315" s="39">
-        <v>10</v>
-      </c>
-      <c r="G315" s="187" t="s">
-        <v>487</v>
-      </c>
-      <c r="H315" s="150">
-        <v>43423</v>
-      </c>
-      <c r="I315" s="39" t="s">
-        <v>786</v>
+      <c r="C315" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D315" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="E315" s="82">
+        <v>216</v>
+      </c>
+      <c r="F315" s="81">
+        <v>2</v>
+      </c>
+      <c r="G315" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="H315" s="45"/>
+      <c r="I315" s="168" t="s">
+        <v>666</v>
       </c>
       <c r="J315" s="166"/>
       <c r="K315" s="39"/>
       <c r="O315" s="398"/>
     </row>
     <row r="316" spans="1:15">
-      <c r="A316" s="39"/>
-      <c r="B316" s="39"/>
-      <c r="C316" s="39"/>
-      <c r="D316" s="39"/>
-      <c r="E316" s="40"/>
-      <c r="F316" s="39"/>
-      <c r="G316" s="219"/>
-      <c r="H316" s="150"/>
-      <c r="I316" s="39"/>
+      <c r="A316" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="B316" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C316" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="D316" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="E316" s="40">
+        <v>800</v>
+      </c>
+      <c r="F316" s="39">
+        <v>10</v>
+      </c>
+      <c r="G316" s="187" t="s">
+        <v>487</v>
+      </c>
+      <c r="H316" s="150">
+        <v>43423</v>
+      </c>
+      <c r="I316" s="39" t="s">
+        <v>786</v>
+      </c>
       <c r="J316" s="166"/>
       <c r="K316" s="39"/>
       <c r="O316" s="402"/>
     </row>
     <row r="317" spans="1:15">
-      <c r="A317" s="492" t="s">
+      <c r="A317" s="39"/>
+      <c r="B317" s="39"/>
+      <c r="C317" s="39"/>
+      <c r="D317" s="39"/>
+      <c r="E317" s="40"/>
+      <c r="F317" s="39"/>
+      <c r="G317" s="219"/>
+      <c r="H317" s="150"/>
+      <c r="I317" s="39"/>
+      <c r="J317" s="166"/>
+      <c r="K317" s="39"/>
+      <c r="O317" s="402"/>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="A318" s="493" t="s">
         <v>1094</v>
       </c>
-      <c r="B317" s="493"/>
-      <c r="C317" s="494"/>
-      <c r="D317" s="220"/>
-      <c r="E317" s="221"/>
-      <c r="F317" s="220"/>
-      <c r="G317" s="222"/>
-      <c r="H317" s="224" t="s">
+      <c r="B318" s="494"/>
+      <c r="C318" s="495"/>
+      <c r="D318" s="220"/>
+      <c r="E318" s="221"/>
+      <c r="F318" s="220"/>
+      <c r="G318" s="222"/>
+      <c r="H318" s="224" t="s">
         <v>1085</v>
       </c>
-      <c r="I317" s="225">
-        <f>SUM(E318:E357)</f>
+      <c r="I318" s="225">
+        <f>SUM(E319:E358)</f>
         <v>11493</v>
       </c>
-      <c r="J317" s="223"/>
-      <c r="K317" s="220"/>
-      <c r="O317" s="402"/>
-    </row>
-    <row r="318" spans="1:15">
-      <c r="A318" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B318" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C318" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D318" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E318" s="40">
-        <v>682</v>
-      </c>
-      <c r="F318" s="39">
-        <v>1</v>
-      </c>
-      <c r="G318" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H318" s="150">
-        <v>43353</v>
-      </c>
-      <c r="I318" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="J318" s="166"/>
-      <c r="K318" s="39"/>
+      <c r="J318" s="223"/>
+      <c r="K318" s="220"/>
       <c r="O318" s="402"/>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="39" t="s">
-        <v>511</v>
+        <v>114</v>
       </c>
       <c r="B319" s="39" t="s">
         <v>172</v>
@@ -28538,18 +28609,20 @@
         <v>180</v>
       </c>
       <c r="D319" s="39" t="s">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="E319" s="40">
-        <v>266</v>
+        <v>682</v>
       </c>
       <c r="F319" s="39">
         <v>1</v>
       </c>
       <c r="G319" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="H319" s="45"/>
+        <v>124</v>
+      </c>
+      <c r="H319" s="150">
+        <v>43353</v>
+      </c>
       <c r="I319" s="39" t="s">
         <v>674</v>
       </c>
@@ -28559,25 +28632,25 @@
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="39" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B320" s="39" t="s">
-        <v>514</v>
+        <v>172</v>
       </c>
       <c r="C320" s="39" t="s">
-        <v>519</v>
+        <v>180</v>
       </c>
       <c r="D320" s="39" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E320" s="40">
-        <v>388</v>
+        <v>266</v>
       </c>
       <c r="F320" s="39">
         <v>1</v>
       </c>
-      <c r="G320" s="210" t="s">
-        <v>125</v>
+      <c r="G320" s="50" t="s">
+        <v>513</v>
       </c>
       <c r="H320" s="45"/>
       <c r="I320" s="39" t="s">
@@ -28589,25 +28662,25 @@
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="39" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="B321" s="39" t="s">
-        <v>172</v>
+        <v>514</v>
       </c>
       <c r="C321" s="39" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="D321" s="39" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="E321" s="40">
-        <v>51</v>
+        <v>388</v>
       </c>
       <c r="F321" s="39">
         <v>1</v>
       </c>
-      <c r="G321" s="50" t="s">
-        <v>124</v>
+      <c r="G321" s="210" t="s">
+        <v>125</v>
       </c>
       <c r="H321" s="45"/>
       <c r="I321" s="39" t="s">
@@ -28618,8 +28691,8 @@
       <c r="O321" s="405"/>
     </row>
     <row r="322" spans="1:15">
-      <c r="A322" s="105" t="s">
-        <v>120</v>
+      <c r="A322" s="39" t="s">
+        <v>548</v>
       </c>
       <c r="B322" s="39" t="s">
         <v>172</v>
@@ -28628,20 +28701,18 @@
         <v>180</v>
       </c>
       <c r="D322" s="39" t="s">
-        <v>1453</v>
+        <v>549</v>
       </c>
       <c r="E322" s="40">
-        <v>900</v>
+        <v>51</v>
       </c>
       <c r="F322" s="39">
         <v>1</v>
       </c>
-      <c r="G322" s="348" t="s">
-        <v>123</v>
-      </c>
-      <c r="H322" s="150">
-        <v>43621</v>
-      </c>
+      <c r="G322" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H322" s="45"/>
       <c r="I322" s="39" t="s">
         <v>674</v>
       </c>
@@ -28651,97 +28722,99 @@
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="105" t="s">
-        <v>521</v>
+        <v>120</v>
       </c>
       <c r="B323" s="39" t="s">
-        <v>514</v>
+        <v>172</v>
       </c>
       <c r="C323" s="39" t="s">
-        <v>522</v>
+        <v>180</v>
       </c>
       <c r="D323" s="39" t="s">
-        <v>523</v>
+        <v>1453</v>
       </c>
       <c r="E323" s="40">
-        <v>144</v>
+        <v>900</v>
       </c>
       <c r="F323" s="39">
-        <v>4</v>
-      </c>
-      <c r="G323" s="210" t="s">
-        <v>1400</v>
-      </c>
-      <c r="H323" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="G323" s="348" t="s">
+        <v>123</v>
+      </c>
+      <c r="H323" s="150">
+        <v>43621</v>
+      </c>
       <c r="I323" s="39" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J323" s="166"/>
       <c r="K323" s="39"/>
       <c r="O323" s="405"/>
     </row>
     <row r="324" spans="1:15">
-      <c r="A324" s="39" t="s">
-        <v>468</v>
+      <c r="A324" s="105" t="s">
+        <v>521</v>
       </c>
       <c r="B324" s="39" t="s">
-        <v>1598</v>
+        <v>514</v>
       </c>
       <c r="C324" s="39" t="s">
-        <v>1599</v>
+        <v>522</v>
       </c>
       <c r="D324" s="39" t="s">
-        <v>1597</v>
+        <v>523</v>
       </c>
       <c r="E324" s="40">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="F324" s="39">
-        <v>1</v>
-      </c>
-      <c r="G324" s="382" t="s">
-        <v>1443</v>
-      </c>
-      <c r="H324" s="150">
-        <v>43631</v>
-      </c>
-      <c r="I324" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="G324" s="210" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H324" s="45"/>
+      <c r="I324" s="39" t="s">
+        <v>676</v>
+      </c>
       <c r="J324" s="166"/>
       <c r="K324" s="39"/>
       <c r="O324" s="407"/>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="39" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B325" s="39" t="s">
-        <v>625</v>
+        <v>1598</v>
       </c>
       <c r="C325" s="39" t="s">
-        <v>622</v>
+        <v>1599</v>
       </c>
       <c r="D325" s="39" t="s">
-        <v>486</v>
+        <v>1597</v>
       </c>
       <c r="E325" s="40">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="F325" s="39">
         <v>1</v>
       </c>
-      <c r="G325" s="210" t="s">
-        <v>487</v>
-      </c>
-      <c r="H325" s="45"/>
-      <c r="I325" s="39" t="s">
-        <v>676</v>
-      </c>
+      <c r="G325" s="382" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H325" s="150">
+        <v>43631</v>
+      </c>
+      <c r="I325" s="39"/>
       <c r="J325" s="166"/>
       <c r="K325" s="39"/>
       <c r="O325" s="407"/>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="39" t="s">
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="B326" s="39" t="s">
         <v>625</v>
@@ -28753,17 +28826,15 @@
         <v>486</v>
       </c>
       <c r="E326" s="40">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="F326" s="39">
         <v>1</v>
       </c>
-      <c r="G326" s="262" t="s">
-        <v>123</v>
-      </c>
-      <c r="H326" s="150">
-        <v>43556</v>
-      </c>
+      <c r="G326" s="210" t="s">
+        <v>487</v>
+      </c>
+      <c r="H326" s="45"/>
       <c r="I326" s="39" t="s">
         <v>676</v>
       </c>
@@ -28772,28 +28843,30 @@
       <c r="O326" s="426"/>
     </row>
     <row r="327" spans="1:15">
-      <c r="A327" s="105" t="s">
-        <v>120</v>
+      <c r="A327" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="B327" s="39" t="s">
         <v>625</v>
       </c>
       <c r="C327" s="39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D327" s="39" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="E327" s="40">
-        <v>564</v>
+        <v>363</v>
       </c>
       <c r="F327" s="39">
         <v>1</v>
       </c>
-      <c r="G327" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="H327" s="45"/>
+      <c r="G327" s="262" t="s">
+        <v>123</v>
+      </c>
+      <c r="H327" s="150">
+        <v>43556</v>
+      </c>
       <c r="I327" s="39" t="s">
         <v>676</v>
       </c>
@@ -28802,30 +28875,28 @@
       <c r="O327" s="426"/>
     </row>
     <row r="328" spans="1:15">
-      <c r="A328" s="39" t="s">
-        <v>621</v>
+      <c r="A328" s="105" t="s">
+        <v>120</v>
       </c>
       <c r="B328" s="39" t="s">
         <v>625</v>
       </c>
       <c r="C328" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D328" s="39" t="s">
-        <v>619</v>
+        <v>505</v>
       </c>
       <c r="E328" s="40">
-        <v>350</v>
+        <v>564</v>
       </c>
       <c r="F328" s="39">
         <v>1</v>
       </c>
-      <c r="G328" s="210" t="s">
-        <v>487</v>
-      </c>
-      <c r="H328" s="150">
-        <v>43381</v>
-      </c>
+      <c r="G328" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="H328" s="45"/>
       <c r="I328" s="39" t="s">
         <v>676</v>
       </c>
@@ -28835,28 +28906,28 @@
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="39" t="s">
-        <v>1615</v>
+        <v>621</v>
       </c>
       <c r="B329" s="39" t="s">
         <v>625</v>
       </c>
       <c r="C329" s="39" t="s">
-        <v>1614</v>
+        <v>624</v>
       </c>
       <c r="D329" s="39" t="s">
-        <v>1613</v>
+        <v>619</v>
       </c>
       <c r="E329" s="40">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F329" s="39">
         <v>1</v>
       </c>
-      <c r="G329" s="391" t="s">
-        <v>655</v>
+      <c r="G329" s="210" t="s">
+        <v>487</v>
       </c>
       <c r="H329" s="150">
-        <v>43648</v>
+        <v>43381</v>
       </c>
       <c r="I329" s="39" t="s">
         <v>676</v>
@@ -28867,28 +28938,28 @@
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="39" t="s">
-        <v>1692</v>
+        <v>1615</v>
       </c>
       <c r="B330" s="39" t="s">
         <v>625</v>
       </c>
       <c r="C330" s="39" t="s">
-        <v>1693</v>
+        <v>1614</v>
       </c>
       <c r="D330" s="39" t="s">
-        <v>1691</v>
+        <v>1613</v>
       </c>
       <c r="E330" s="40">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="F330" s="39">
-        <v>2</v>
-      </c>
-      <c r="G330" s="403" t="s">
-        <v>1690</v>
+        <v>1</v>
+      </c>
+      <c r="G330" s="391" t="s">
+        <v>655</v>
       </c>
       <c r="H330" s="150">
-        <v>43662</v>
+        <v>43648</v>
       </c>
       <c r="I330" s="39" t="s">
         <v>676</v>
@@ -28899,28 +28970,28 @@
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="39" t="s">
-        <v>627</v>
+        <v>1692</v>
       </c>
       <c r="B331" s="39" t="s">
         <v>625</v>
       </c>
       <c r="C331" s="39" t="s">
-        <v>628</v>
+        <v>1693</v>
       </c>
       <c r="D331" s="39" t="s">
-        <v>626</v>
+        <v>1691</v>
       </c>
       <c r="E331" s="40">
-        <v>510</v>
+        <v>324</v>
       </c>
       <c r="F331" s="39">
-        <v>1</v>
-      </c>
-      <c r="G331" s="210" t="s">
-        <v>487</v>
+        <v>2</v>
+      </c>
+      <c r="G331" s="403" t="s">
+        <v>1690</v>
       </c>
       <c r="H331" s="150">
-        <v>43381</v>
+        <v>43662</v>
       </c>
       <c r="I331" s="39" t="s">
         <v>676</v>
@@ -28930,99 +29001,99 @@
       <c r="O331" s="429"/>
     </row>
     <row r="332" spans="1:15">
-      <c r="A332" s="253" t="s">
+      <c r="A332" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="B332" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="C332" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="D332" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="E332" s="40">
+        <v>510</v>
+      </c>
+      <c r="F332" s="39">
+        <v>1</v>
+      </c>
+      <c r="G332" s="210" t="s">
+        <v>487</v>
+      </c>
+      <c r="H332" s="150">
+        <v>43381</v>
+      </c>
+      <c r="I332" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="J332" s="166"/>
+      <c r="K332" s="39"/>
+      <c r="O332" s="429"/>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="A333" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="B332" s="253" t="s">
+      <c r="B333" s="253" t="s">
         <v>514</v>
       </c>
-      <c r="C332" s="253" t="s">
+      <c r="C333" s="253" t="s">
         <v>520</v>
       </c>
-      <c r="D332" s="253" t="s">
+      <c r="D333" s="253" t="s">
         <v>515</v>
       </c>
-      <c r="E332" s="254">
+      <c r="E333" s="254">
         <v>720</v>
       </c>
-      <c r="F332" s="253">
+      <c r="F333" s="253">
         <v>10</v>
       </c>
-      <c r="G332" s="255" t="s">
+      <c r="G333" s="255" t="s">
         <v>516</v>
       </c>
-      <c r="H332" s="258"/>
-      <c r="I332" s="253" t="s">
+      <c r="H333" s="258"/>
+      <c r="I333" s="253" t="s">
         <v>676</v>
       </c>
-      <c r="J332" s="257" t="s">
+      <c r="J333" s="257" t="s">
         <v>1358</v>
       </c>
-      <c r="K332" s="253"/>
-      <c r="O332" s="429"/>
-    </row>
-    <row r="333" spans="1:15">
-      <c r="A333" s="39" t="s">
+      <c r="K333" s="253"/>
+      <c r="O333" s="429"/>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="B333" s="39" t="s">
+      <c r="B334" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C333" s="39" t="s">
+      <c r="C334" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="D333" s="39" t="s">
+      <c r="D334" s="39" t="s">
         <v>1369</v>
       </c>
-      <c r="E333" s="40">
+      <c r="E334" s="40">
         <v>231</v>
       </c>
-      <c r="F333" s="39">
+      <c r="F334" s="39">
         <v>5</v>
       </c>
-      <c r="G333" s="322" t="s">
+      <c r="G334" s="322" t="s">
         <v>469</v>
       </c>
-      <c r="H333" s="150">
+      <c r="H334" s="150">
         <v>43595</v>
       </c>
-      <c r="I333" s="39" t="s">
+      <c r="I334" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="J333" s="166"/>
-      <c r="K333" s="39"/>
-      <c r="O333" s="429"/>
-    </row>
-    <row r="334" spans="1:15">
-      <c r="A334" s="253" t="s">
-        <v>524</v>
-      </c>
-      <c r="B334" s="253" t="s">
-        <v>172</v>
-      </c>
-      <c r="C334" s="253" t="s">
-        <v>551</v>
-      </c>
-      <c r="D334" s="253" t="s">
-        <v>550</v>
-      </c>
-      <c r="E334" s="254">
-        <v>143</v>
-      </c>
-      <c r="F334" s="253">
-        <v>5</v>
-      </c>
-      <c r="G334" s="259" t="s">
-        <v>124</v>
-      </c>
-      <c r="H334" s="258"/>
-      <c r="I334" s="253" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J334" s="257" t="s">
-        <v>1357</v>
-      </c>
-      <c r="K334" s="253"/>
+      <c r="J334" s="166"/>
+      <c r="K334" s="39"/>
       <c r="O334" s="429"/>
     </row>
     <row r="335" spans="1:15">
@@ -29047,11 +29118,9 @@
       <c r="G335" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="H335" s="256">
-        <v>43497</v>
-      </c>
+      <c r="H335" s="258"/>
       <c r="I335" s="253" t="s">
-        <v>1041</v>
+        <v>1204</v>
       </c>
       <c r="J335" s="257" t="s">
         <v>1357</v>
@@ -29060,163 +29129,165 @@
       <c r="O335" s="429"/>
     </row>
     <row r="336" spans="1:15">
-      <c r="A336" s="39" t="s">
+      <c r="A336" s="253" t="s">
+        <v>524</v>
+      </c>
+      <c r="B336" s="253" t="s">
+        <v>172</v>
+      </c>
+      <c r="C336" s="253" t="s">
+        <v>551</v>
+      </c>
+      <c r="D336" s="253" t="s">
+        <v>550</v>
+      </c>
+      <c r="E336" s="254">
+        <v>143</v>
+      </c>
+      <c r="F336" s="253">
+        <v>5</v>
+      </c>
+      <c r="G336" s="259" t="s">
+        <v>124</v>
+      </c>
+      <c r="H336" s="256">
+        <v>43497</v>
+      </c>
+      <c r="I336" s="253" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J336" s="257" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K336" s="253"/>
+      <c r="O336" s="431"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="39" t="s">
         <v>1363</v>
       </c>
-      <c r="B336" s="39" t="s">
+      <c r="B337" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C336" s="39" t="s">
+      <c r="C337" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="D336" s="39" t="s">
+      <c r="D337" s="39" t="s">
         <v>1364</v>
       </c>
-      <c r="E336" s="40">
+      <c r="E337" s="40">
         <v>143</v>
       </c>
-      <c r="F336" s="39">
+      <c r="F337" s="39">
         <v>5</v>
       </c>
-      <c r="G336" s="316" t="s">
+      <c r="G337" s="316" t="s">
         <v>1365</v>
       </c>
-      <c r="H336" s="150">
+      <c r="H337" s="150">
         <v>43592</v>
       </c>
-      <c r="I336" s="39" t="s">
+      <c r="I337" s="39" t="s">
         <v>1041</v>
       </c>
-      <c r="J336" s="166"/>
-      <c r="K336" s="39"/>
-      <c r="O336" s="431"/>
-    </row>
-    <row r="337" spans="1:15">
-      <c r="A337" s="253" t="s">
+      <c r="J337" s="166"/>
+      <c r="K337" s="39"/>
+      <c r="O337" s="431"/>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="253" t="s">
         <v>524</v>
       </c>
-      <c r="B337" s="253" t="s">
+      <c r="B338" s="253" t="s">
         <v>172</v>
       </c>
-      <c r="C337" s="253" t="s">
+      <c r="C338" s="253" t="s">
         <v>551</v>
       </c>
-      <c r="D337" s="253" t="s">
+      <c r="D338" s="253" t="s">
         <v>782</v>
       </c>
-      <c r="E337" s="254">
+      <c r="E338" s="254">
         <v>129</v>
       </c>
-      <c r="F337" s="253">
+      <c r="F338" s="253">
         <v>5</v>
       </c>
-      <c r="G337" s="255" t="s">
+      <c r="G338" s="255" t="s">
         <v>487</v>
       </c>
-      <c r="H337" s="256">
+      <c r="H338" s="256">
         <v>43423</v>
       </c>
-      <c r="I337" s="253" t="s">
+      <c r="I338" s="253" t="s">
         <v>675</v>
       </c>
-      <c r="J337" s="257" t="s">
+      <c r="J338" s="257" t="s">
         <v>1357</v>
       </c>
-      <c r="K337" s="253"/>
-      <c r="O337" s="431"/>
-    </row>
-    <row r="338" spans="1:15">
-      <c r="A338" s="39" t="s">
+      <c r="K338" s="253"/>
+      <c r="O338" s="426"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="39" t="s">
         <v>788</v>
       </c>
-      <c r="B338" s="39" t="s">
+      <c r="B339" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C338" s="39" t="s">
+      <c r="C339" s="39" t="s">
         <v>789</v>
       </c>
-      <c r="D338" s="39" t="s">
+      <c r="D339" s="39" t="s">
         <v>787</v>
       </c>
-      <c r="E338" s="40">
+      <c r="E339" s="40">
         <v>182</v>
       </c>
-      <c r="F338" s="39">
+      <c r="F339" s="39">
         <v>15</v>
       </c>
-      <c r="G338" s="50" t="s">
+      <c r="G339" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="H338" s="150">
+      <c r="H339" s="150">
         <v>43423</v>
       </c>
-      <c r="I338" s="39" t="s">
+      <c r="I339" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="J338" s="166"/>
-      <c r="K338" s="39"/>
-      <c r="O338" s="426"/>
-    </row>
-    <row r="339" spans="1:15">
-      <c r="A339" s="253" t="s">
+      <c r="J339" s="166"/>
+      <c r="K339" s="39"/>
+      <c r="O339" s="434"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" s="253" t="s">
         <v>524</v>
       </c>
-      <c r="B339" s="253" t="s">
+      <c r="B340" s="253" t="s">
         <v>172</v>
       </c>
-      <c r="C339" s="253" t="s">
+      <c r="C340" s="253" t="s">
         <v>525</v>
       </c>
-      <c r="D339" s="253" t="s">
+      <c r="D340" s="253" t="s">
         <v>528</v>
       </c>
-      <c r="E339" s="254">
+      <c r="E340" s="254">
         <v>117</v>
       </c>
-      <c r="F339" s="253">
+      <c r="F340" s="253">
         <v>2</v>
       </c>
-      <c r="G339" s="259" t="s">
+      <c r="G340" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="H339" s="258"/>
-      <c r="I339" s="253" t="s">
+      <c r="H340" s="258"/>
+      <c r="I340" s="253" t="s">
         <v>1204</v>
       </c>
-      <c r="J339" s="257"/>
-      <c r="K339" s="253"/>
-      <c r="O339" s="434"/>
-    </row>
-    <row r="340" spans="1:15">
-      <c r="A340" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="B340" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C340" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="D340" s="39" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E340" s="40">
-        <v>110</v>
-      </c>
-      <c r="F340" s="39">
-        <v>2</v>
-      </c>
-      <c r="G340" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H340" s="150">
-        <v>43494</v>
-      </c>
-      <c r="I340" s="39" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J340" s="166"/>
-      <c r="K340" s="39"/>
+      <c r="J340" s="257"/>
+      <c r="K340" s="253"/>
       <c r="O340" s="439"/>
     </row>
     <row r="341" spans="1:15">
@@ -29227,22 +29298,22 @@
         <v>172</v>
       </c>
       <c r="C341" s="39" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D341" s="39" t="s">
-        <v>544</v>
+        <v>1040</v>
       </c>
       <c r="E341" s="40">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="F341" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G341" s="50" t="s">
         <v>124</v>
       </c>
       <c r="H341" s="150">
-        <v>43358</v>
+        <v>43494</v>
       </c>
       <c r="I341" s="39" t="s">
         <v>1041</v>
@@ -29253,93 +29324,93 @@
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="39" t="s">
-        <v>1304</v>
+        <v>524</v>
       </c>
       <c r="B342" s="39" t="s">
-        <v>1305</v>
+        <v>172</v>
       </c>
       <c r="C342" s="39" t="s">
-        <v>1306</v>
+        <v>532</v>
       </c>
       <c r="D342" s="39" t="s">
-        <v>1307</v>
+        <v>544</v>
       </c>
       <c r="E342" s="40">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="F342" s="39">
         <v>1</v>
       </c>
-      <c r="G342" s="297" t="s">
-        <v>1308</v>
+      <c r="G342" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="H342" s="150">
-        <v>43572</v>
-      </c>
-      <c r="I342" s="39"/>
-      <c r="J342" s="166" t="s">
-        <v>1359</v>
-      </c>
+        <v>43358</v>
+      </c>
+      <c r="I342" s="39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J342" s="166"/>
       <c r="K342" s="39"/>
       <c r="O342" s="441"/>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="39" t="s">
-        <v>1101</v>
+        <v>1304</v>
       </c>
       <c r="B343" s="39" t="s">
-        <v>172</v>
+        <v>1305</v>
       </c>
       <c r="C343" s="39" t="s">
-        <v>574</v>
+        <v>1306</v>
       </c>
       <c r="D343" s="39" t="s">
-        <v>575</v>
+        <v>1307</v>
       </c>
       <c r="E343" s="40">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="F343" s="39">
-        <v>2</v>
-      </c>
-      <c r="G343" s="50" t="s">
-        <v>576</v>
-      </c>
-      <c r="H343" s="45"/>
-      <c r="I343" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="J343" s="166"/>
+        <v>1</v>
+      </c>
+      <c r="G343" s="297" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H343" s="150">
+        <v>43572</v>
+      </c>
+      <c r="I343" s="39"/>
+      <c r="J343" s="166" t="s">
+        <v>1359</v>
+      </c>
       <c r="K343" s="39"/>
       <c r="O343" s="441"/>
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="39" t="s">
-        <v>611</v>
+        <v>1101</v>
       </c>
       <c r="B344" s="39" t="s">
         <v>172</v>
       </c>
       <c r="C344" s="39" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
       <c r="D344" s="39" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="E344" s="40">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="F344" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G344" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H344" s="150">
-        <v>43377</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="H344" s="45"/>
       <c r="I344" s="39" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="J344" s="166"/>
       <c r="K344" s="39"/>
@@ -29347,7 +29418,7 @@
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="39" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B345" s="39" t="s">
         <v>172</v>
@@ -29356,10 +29427,10 @@
         <v>612</v>
       </c>
       <c r="D345" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E345" s="40">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="F345" s="39">
         <v>1</v>
@@ -29368,7 +29439,7 @@
         <v>124</v>
       </c>
       <c r="H345" s="150">
-        <v>43378</v>
+        <v>43377</v>
       </c>
       <c r="I345" s="39" t="s">
         <v>686</v>
@@ -29378,93 +29449,93 @@
       <c r="O345" s="441"/>
     </row>
     <row r="346" spans="1:15">
-      <c r="A346" s="253" t="s">
+      <c r="A346" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="B346" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C346" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="D346" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="E346" s="40">
+        <v>397</v>
+      </c>
+      <c r="F346" s="39">
+        <v>1</v>
+      </c>
+      <c r="G346" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H346" s="150">
+        <v>43378</v>
+      </c>
+      <c r="I346" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="J346" s="166"/>
+      <c r="K346" s="39"/>
+      <c r="O346" s="441"/>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="A347" s="253" t="s">
         <v>620</v>
       </c>
-      <c r="B346" s="253" t="s">
+      <c r="B347" s="253" t="s">
         <v>172</v>
       </c>
-      <c r="C346" s="253" t="s">
+      <c r="C347" s="253" t="s">
         <v>616</v>
       </c>
-      <c r="D346" s="253" t="s">
+      <c r="D347" s="253" t="s">
         <v>617</v>
       </c>
-      <c r="E346" s="254">
+      <c r="E347" s="254">
         <v>360</v>
       </c>
-      <c r="F346" s="253">
+      <c r="F347" s="253">
         <v>20</v>
       </c>
-      <c r="G346" s="255" t="s">
+      <c r="G347" s="255" t="s">
         <v>618</v>
       </c>
-      <c r="H346" s="256">
+      <c r="H347" s="256">
         <v>43381</v>
       </c>
-      <c r="I346" s="253" t="s">
+      <c r="I347" s="253" t="s">
         <v>675</v>
       </c>
-      <c r="J346" s="257"/>
-      <c r="K346" s="253"/>
-      <c r="O346" s="441"/>
-    </row>
-    <row r="347" spans="1:15">
-      <c r="A347" s="39" t="s">
+      <c r="J347" s="257"/>
+      <c r="K347" s="253"/>
+      <c r="O347" s="443"/>
+    </row>
+    <row r="348" spans="1:15">
+      <c r="A348" s="39" t="s">
         <v>1611</v>
-      </c>
-      <c r="B347" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C347" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="D347" s="39" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E347" s="40">
-        <v>364</v>
-      </c>
-      <c r="F347" s="39">
-        <v>20</v>
-      </c>
-      <c r="G347" s="391" t="s">
-        <v>655</v>
-      </c>
-      <c r="H347" s="150">
-        <v>43648</v>
-      </c>
-      <c r="I347" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="J347" s="166"/>
-      <c r="K347" s="39"/>
-      <c r="O347" s="443"/>
-    </row>
-    <row r="348" spans="1:15">
-      <c r="A348" s="105" t="s">
-        <v>120</v>
       </c>
       <c r="B348" s="39" t="s">
         <v>172</v>
       </c>
       <c r="C348" s="39" t="s">
-        <v>960</v>
+        <v>616</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>959</v>
+        <v>1612</v>
       </c>
       <c r="E348" s="40">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="F348" s="39">
-        <v>1</v>
-      </c>
-      <c r="G348" s="210" t="s">
-        <v>487</v>
+        <v>20</v>
+      </c>
+      <c r="G348" s="391" t="s">
+        <v>655</v>
       </c>
       <c r="H348" s="150">
-        <v>43486</v>
+        <v>43648</v>
       </c>
       <c r="I348" s="39" t="s">
         <v>675</v>
@@ -29474,8 +29545,8 @@
       <c r="O348" s="443"/>
     </row>
     <row r="349" spans="1:15">
-      <c r="A349" s="39" t="s">
-        <v>1202</v>
+      <c r="A349" s="105" t="s">
+        <v>120</v>
       </c>
       <c r="B349" s="39" t="s">
         <v>172</v>
@@ -29484,19 +29555,19 @@
         <v>960</v>
       </c>
       <c r="D349" s="39" t="s">
-        <v>1201</v>
+        <v>959</v>
       </c>
       <c r="E349" s="40">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F349" s="39">
         <v>1</v>
       </c>
-      <c r="G349" s="50" t="s">
-        <v>124</v>
+      <c r="G349" s="210" t="s">
+        <v>487</v>
       </c>
       <c r="H349" s="150">
-        <v>43531</v>
+        <v>43486</v>
       </c>
       <c r="I349" s="39" t="s">
         <v>675</v>
@@ -29506,32 +29577,32 @@
       <c r="O349" s="439"/>
     </row>
     <row r="350" spans="1:15">
-      <c r="A350" s="81" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B350" s="81" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C350" s="81" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D350" s="81" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E350" s="82">
-        <v>170</v>
-      </c>
-      <c r="F350" s="81">
+      <c r="A350" s="39" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B350" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C350" s="39" t="s">
+        <v>960</v>
+      </c>
+      <c r="D350" s="39" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E350" s="40">
+        <v>100</v>
+      </c>
+      <c r="F350" s="39">
         <v>1</v>
       </c>
-      <c r="G350" s="83" t="s">
-        <v>1209</v>
+      <c r="G350" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="H350" s="150">
-        <v>43538</v>
-      </c>
-      <c r="I350" s="168" t="s">
-        <v>666</v>
+        <v>43531</v>
+      </c>
+      <c r="I350" s="39" t="s">
+        <v>675</v>
       </c>
       <c r="J350" s="166"/>
       <c r="K350" s="39"/>
@@ -29539,27 +29610,29 @@
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="81" t="s">
-        <v>367</v>
+        <v>1206</v>
       </c>
       <c r="B351" s="81" t="s">
-        <v>363</v>
+        <v>1207</v>
       </c>
       <c r="C351" s="81" t="s">
-        <v>368</v>
+        <v>1208</v>
       </c>
       <c r="D351" s="81" t="s">
-        <v>369</v>
+        <v>1205</v>
       </c>
       <c r="E351" s="82">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F351" s="81">
-        <v>50</v>
-      </c>
-      <c r="G351" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="H351" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="G351" s="83" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H351" s="150">
+        <v>43538</v>
+      </c>
       <c r="I351" s="168" t="s">
         <v>666</v>
       </c>
@@ -29569,22 +29642,22 @@
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="81" t="s">
-        <v>524</v>
+        <v>367</v>
       </c>
       <c r="B352" s="81" t="s">
-        <v>172</v>
+        <v>363</v>
       </c>
       <c r="C352" s="81" t="s">
-        <v>551</v>
+        <v>368</v>
       </c>
       <c r="D352" s="81" t="s">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="E352" s="82">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="F352" s="81">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G352" s="84" t="s">
         <v>124</v>
@@ -29599,7 +29672,7 @@
     </row>
     <row r="353" spans="1:15">
       <c r="A353" s="81" t="s">
-        <v>1039</v>
+        <v>524</v>
       </c>
       <c r="B353" s="81" t="s">
         <v>172</v>
@@ -29608,20 +29681,18 @@
         <v>551</v>
       </c>
       <c r="D353" s="81" t="s">
-        <v>1038</v>
+        <v>526</v>
       </c>
       <c r="E353" s="82">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="F353" s="81">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G353" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H353" s="150">
-        <v>43494</v>
-      </c>
+      <c r="H353" s="45"/>
       <c r="I353" s="168" t="s">
         <v>666</v>
       </c>
@@ -29631,33 +29702,33 @@
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="81" t="s">
-        <v>524</v>
+        <v>1039</v>
       </c>
       <c r="B354" s="81" t="s">
         <v>172</v>
       </c>
       <c r="C354" s="81" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="D354" s="81" t="s">
-        <v>527</v>
+        <v>1038</v>
       </c>
       <c r="E354" s="82">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="F354" s="81">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G354" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H354" s="45"/>
+      <c r="H354" s="150">
+        <v>43494</v>
+      </c>
       <c r="I354" s="168" t="s">
         <v>666</v>
       </c>
-      <c r="J354" s="166" t="s">
-        <v>1270</v>
-      </c>
+      <c r="J354" s="166"/>
       <c r="K354" s="39"/>
       <c r="O354" s="443"/>
     </row>
@@ -29669,13 +29740,13 @@
         <v>172</v>
       </c>
       <c r="C355" s="81" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D355" s="81" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E355" s="82">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="F355" s="81">
         <v>1</v>
@@ -29687,35 +29758,35 @@
       <c r="I355" s="168" t="s">
         <v>666</v>
       </c>
-      <c r="J355" s="166"/>
+      <c r="J355" s="166" t="s">
+        <v>1270</v>
+      </c>
       <c r="K355" s="39"/>
       <c r="O355" s="463"/>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="81" t="s">
-        <v>791</v>
+        <v>524</v>
       </c>
       <c r="B356" s="81" t="s">
         <v>172</v>
       </c>
       <c r="C356" s="81" t="s">
-        <v>792</v>
+        <v>532</v>
       </c>
       <c r="D356" s="81" t="s">
-        <v>790</v>
+        <v>531</v>
       </c>
       <c r="E356" s="82">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="F356" s="81">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G356" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="H356" s="150">
-        <v>43423</v>
-      </c>
+      <c r="H356" s="45"/>
       <c r="I356" s="168" t="s">
         <v>666</v>
       </c>
@@ -29724,52 +29795,70 @@
       <c r="O356" s="466"/>
     </row>
     <row r="357" spans="1:15">
-      <c r="A357" s="39"/>
-      <c r="B357" s="39"/>
-      <c r="C357" s="39"/>
-      <c r="D357" s="39"/>
-      <c r="E357" s="40"/>
-      <c r="F357" s="39"/>
-      <c r="G357" s="219"/>
-      <c r="H357" s="150"/>
-      <c r="I357" s="39"/>
+      <c r="A357" s="81" t="s">
+        <v>791</v>
+      </c>
+      <c r="B357" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C357" s="81" t="s">
+        <v>792</v>
+      </c>
+      <c r="D357" s="81" t="s">
+        <v>790</v>
+      </c>
+      <c r="E357" s="82">
+        <v>160</v>
+      </c>
+      <c r="F357" s="81">
+        <v>10</v>
+      </c>
+      <c r="G357" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="H357" s="150">
+        <v>43423</v>
+      </c>
+      <c r="I357" s="168" t="s">
+        <v>666</v>
+      </c>
       <c r="J357" s="166"/>
       <c r="K357" s="39"/>
       <c r="O357" s="466"/>
     </row>
     <row r="358" spans="1:15">
-      <c r="A358" s="492" t="s">
+      <c r="A358" s="39"/>
+      <c r="B358" s="39"/>
+      <c r="C358" s="39"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="40"/>
+      <c r="F358" s="39"/>
+      <c r="G358" s="219"/>
+      <c r="H358" s="150"/>
+      <c r="I358" s="39"/>
+      <c r="J358" s="166"/>
+      <c r="K358" s="39"/>
+      <c r="O358" s="463"/>
+    </row>
+    <row r="359" spans="1:15">
+      <c r="A359" s="493" t="s">
         <v>1100</v>
       </c>
-      <c r="B358" s="493"/>
-      <c r="C358" s="494"/>
-      <c r="D358" s="220"/>
-      <c r="E358" s="221"/>
-      <c r="F358" s="220"/>
-      <c r="G358" s="222"/>
-      <c r="H358" s="224" t="s">
+      <c r="B359" s="494"/>
+      <c r="C359" s="495"/>
+      <c r="D359" s="220"/>
+      <c r="E359" s="221"/>
+      <c r="F359" s="220"/>
+      <c r="G359" s="222"/>
+      <c r="H359" s="224" t="s">
         <v>1287</v>
       </c>
-      <c r="I358" s="225">
-        <f>SUM(E359:E360)</f>
+      <c r="I359" s="225">
+        <f>SUM(E360:E361)</f>
         <v>0</v>
       </c>
-      <c r="J358" s="223"/>
-      <c r="K358" s="220"/>
-      <c r="O358" s="463"/>
-    </row>
-    <row r="359" spans="1:15">
-      <c r="A359" s="39"/>
-      <c r="B359" s="39"/>
-      <c r="C359" s="39"/>
-      <c r="D359" s="39"/>
-      <c r="E359" s="40"/>
-      <c r="F359" s="39"/>
-      <c r="G359" s="467"/>
-      <c r="H359" s="150"/>
-      <c r="I359" s="39"/>
-      <c r="J359" s="166"/>
-      <c r="K359" s="39"/>
+      <c r="J359" s="223"/>
+      <c r="K359" s="220"/>
       <c r="O359" s="463"/>
     </row>
     <row r="360" spans="1:15">
@@ -29779,76 +29868,74 @@
       <c r="D360" s="39"/>
       <c r="E360" s="40"/>
       <c r="F360" s="39"/>
-      <c r="G360" s="406"/>
+      <c r="G360" s="467"/>
       <c r="H360" s="150"/>
       <c r="I360" s="39"/>
       <c r="J360" s="166"/>
       <c r="K360" s="39"/>
-      <c r="O360" s="331"/>
+      <c r="O360" s="479"/>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="39"/>
       <c r="B361" s="39"/>
-      <c r="C361" s="499" t="s">
-        <v>117</v>
-      </c>
-      <c r="D361" s="500"/>
-      <c r="E361" s="501"/>
-      <c r="F361" s="279"/>
-      <c r="G361" s="289"/>
-      <c r="H361" s="291" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I361" s="292">
-        <f>SUM(E362:E377)</f>
-        <v>-115003</v>
-      </c>
-      <c r="J361" s="290"/>
-      <c r="K361" s="279"/>
+      <c r="C361" s="39"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="40"/>
+      <c r="F361" s="39"/>
+      <c r="G361" s="406"/>
+      <c r="H361" s="150"/>
+      <c r="I361" s="39"/>
+      <c r="J361" s="166"/>
+      <c r="K361" s="39"/>
+      <c r="O361" s="331"/>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="39"/>
       <c r="B362" s="39"/>
-      <c r="C362" s="279"/>
-      <c r="D362" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E362" s="40">
-        <v>-24880</v>
-      </c>
-      <c r="F362" s="39"/>
-      <c r="G362" s="270"/>
-      <c r="H362" s="45"/>
-      <c r="I362" s="39"/>
-      <c r="J362" s="165"/>
-      <c r="K362" s="39"/>
-      <c r="O362" s="269"/>
+      <c r="C362" s="502" t="s">
+        <v>117</v>
+      </c>
+      <c r="D362" s="503"/>
+      <c r="E362" s="504"/>
+      <c r="F362" s="279"/>
+      <c r="G362" s="289"/>
+      <c r="H362" s="291" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I362" s="292">
+        <f>SUM(E363:E378)</f>
+        <v>-115003</v>
+      </c>
+      <c r="J362" s="290"/>
+      <c r="K362" s="279"/>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="39"/>
       <c r="B363" s="39"/>
       <c r="C363" s="279"/>
       <c r="D363" s="39" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E363" s="40">
-        <v>-3111</v>
+        <v>-24880</v>
       </c>
       <c r="F363" s="39"/>
+      <c r="G363" s="270"/>
       <c r="H363" s="45"/>
       <c r="I363" s="39"/>
       <c r="J363" s="165"/>
       <c r="K363" s="39"/>
+      <c r="O363" s="269"/>
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="39"/>
       <c r="B364" s="39"/>
       <c r="C364" s="279"/>
       <c r="D364" s="39" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E364" s="40">
-        <v>-440</v>
+        <v>-3111</v>
       </c>
       <c r="F364" s="39"/>
       <c r="H364" s="45"/>
@@ -29861,13 +29948,12 @@
       <c r="B365" s="39"/>
       <c r="C365" s="279"/>
       <c r="D365" s="39" t="s">
-        <v>537</v>
+        <v>116</v>
       </c>
       <c r="E365" s="40">
-        <v>-635</v>
+        <v>-440</v>
       </c>
       <c r="F365" s="39"/>
-      <c r="G365" s="137"/>
       <c r="H365" s="45"/>
       <c r="I365" s="39"/>
       <c r="J365" s="165"/>
@@ -29877,14 +29963,14 @@
       <c r="A366" s="39"/>
       <c r="B366" s="39"/>
       <c r="C366" s="279"/>
-      <c r="D366" s="213" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E366" s="445">
-        <v>-14238</v>
+      <c r="D366" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="E366" s="40">
+        <v>-635</v>
       </c>
       <c r="F366" s="39"/>
-      <c r="G366" s="226"/>
+      <c r="G366" s="137"/>
       <c r="H366" s="45"/>
       <c r="I366" s="39"/>
       <c r="J366" s="165"/>
@@ -29894,13 +29980,14 @@
       <c r="A367" s="39"/>
       <c r="B367" s="39"/>
       <c r="C367" s="279"/>
-      <c r="D367" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E367" s="40">
-        <v>-1600</v>
+      <c r="D367" s="213" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E367" s="445">
+        <v>-14238</v>
       </c>
       <c r="F367" s="39"/>
+      <c r="G367" s="226"/>
       <c r="H367" s="45"/>
       <c r="I367" s="39"/>
       <c r="J367" s="165"/>
@@ -29910,11 +29997,11 @@
       <c r="A368" s="39"/>
       <c r="B368" s="39"/>
       <c r="C368" s="279"/>
-      <c r="D368" s="213" t="s">
-        <v>143</v>
-      </c>
-      <c r="E368" s="445">
-        <v>-2840</v>
+      <c r="D368" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E368" s="40">
+        <v>-1600</v>
       </c>
       <c r="F368" s="39"/>
       <c r="H368" s="45"/>
@@ -29926,14 +30013,13 @@
       <c r="A369" s="39"/>
       <c r="B369" s="39"/>
       <c r="C369" s="279"/>
-      <c r="D369" s="39" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E369" s="40">
-        <v>-1886</v>
+      <c r="D369" s="213" t="s">
+        <v>143</v>
+      </c>
+      <c r="E369" s="445">
+        <v>-2840</v>
       </c>
       <c r="F369" s="39"/>
-      <c r="G369" s="206"/>
       <c r="H369" s="45"/>
       <c r="I369" s="39"/>
       <c r="J369" s="165"/>
@@ -29944,13 +30030,13 @@
       <c r="B370" s="39"/>
       <c r="C370" s="279"/>
       <c r="D370" s="39" t="s">
-        <v>1210</v>
+        <v>1035</v>
       </c>
       <c r="E370" s="40">
-        <v>-1267</v>
+        <v>-1886</v>
       </c>
       <c r="F370" s="39"/>
-      <c r="G370" s="252"/>
+      <c r="G370" s="206"/>
       <c r="H370" s="45"/>
       <c r="I370" s="39"/>
       <c r="J370" s="165"/>
@@ -29961,13 +30047,13 @@
       <c r="B371" s="39"/>
       <c r="C371" s="279"/>
       <c r="D371" s="39" t="s">
-        <v>140</v>
+        <v>1210</v>
       </c>
       <c r="E371" s="40">
-        <v>-4530</v>
+        <v>-1267</v>
       </c>
       <c r="F371" s="39"/>
-      <c r="G371" s="124"/>
+      <c r="G371" s="252"/>
       <c r="H371" s="45"/>
       <c r="I371" s="39"/>
       <c r="J371" s="165"/>
@@ -29978,13 +30064,13 @@
       <c r="B372" s="39"/>
       <c r="C372" s="279"/>
       <c r="D372" s="39" t="s">
-        <v>661</v>
+        <v>140</v>
       </c>
       <c r="E372" s="40">
-        <v>-3138</v>
+        <v>-4530</v>
       </c>
       <c r="F372" s="39"/>
-      <c r="G372" s="159"/>
+      <c r="G372" s="124"/>
       <c r="H372" s="45"/>
       <c r="I372" s="39"/>
       <c r="J372" s="165"/>
@@ -29995,12 +30081,13 @@
       <c r="B373" s="39"/>
       <c r="C373" s="279"/>
       <c r="D373" s="39" t="s">
-        <v>475</v>
+        <v>661</v>
       </c>
       <c r="E373" s="40">
-        <v>-73</v>
+        <v>-3138</v>
       </c>
       <c r="F373" s="39"/>
+      <c r="G373" s="159"/>
       <c r="H373" s="45"/>
       <c r="I373" s="39"/>
       <c r="J373" s="165"/>
@@ -30011,13 +30098,12 @@
       <c r="B374" s="39"/>
       <c r="C374" s="279"/>
       <c r="D374" s="39" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="E374" s="40">
-        <v>-562</v>
+        <v>-73</v>
       </c>
       <c r="F374" s="39"/>
-      <c r="G374" s="125"/>
       <c r="H374" s="45"/>
       <c r="I374" s="39"/>
       <c r="J374" s="165"/>
@@ -30028,13 +30114,13 @@
       <c r="B375" s="39"/>
       <c r="C375" s="279"/>
       <c r="D375" s="39" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="E375" s="40">
-        <v>-3061</v>
+        <v>-562</v>
       </c>
       <c r="F375" s="39"/>
-      <c r="G375" s="130"/>
+      <c r="G375" s="125"/>
       <c r="H375" s="45"/>
       <c r="I375" s="39"/>
       <c r="J375" s="165"/>
@@ -30044,14 +30130,14 @@
       <c r="A376" s="39"/>
       <c r="B376" s="39"/>
       <c r="C376" s="279"/>
-      <c r="D376" s="213" t="s">
-        <v>543</v>
-      </c>
-      <c r="E376" s="445">
-        <v>-50392</v>
+      <c r="D376" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="E376" s="40">
+        <v>-3061</v>
       </c>
       <c r="F376" s="39"/>
-      <c r="G376" s="137"/>
+      <c r="G376" s="130"/>
       <c r="H376" s="45"/>
       <c r="I376" s="39"/>
       <c r="J376" s="165"/>
@@ -30061,637 +30147,714 @@
       <c r="A377" s="39"/>
       <c r="B377" s="39"/>
       <c r="C377" s="279"/>
-      <c r="D377" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="E377" s="40">
-        <v>-2350</v>
+      <c r="D377" s="213" t="s">
+        <v>543</v>
+      </c>
+      <c r="E377" s="445">
+        <v>-50392</v>
       </c>
       <c r="F377" s="39"/>
+      <c r="G377" s="137"/>
       <c r="H377" s="45"/>
-      <c r="I377" s="420" t="s">
-        <v>1759</v>
-      </c>
+      <c r="I377" s="39"/>
       <c r="J377" s="165"/>
       <c r="K377" s="39"/>
-      <c r="O377"/>
-    </row>
-    <row r="378" spans="1:17" s="38" customFormat="1">
-      <c r="A378" s="41"/>
-      <c r="B378" s="41"/>
-      <c r="C378" s="41"/>
-      <c r="D378" s="42" t="s">
+    </row>
+    <row r="378" spans="1:17">
+      <c r="A378" s="39"/>
+      <c r="B378" s="39"/>
+      <c r="C378" s="279"/>
+      <c r="D378" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="E378" s="40">
+        <v>-2350</v>
+      </c>
+      <c r="F378" s="39"/>
+      <c r="H378" s="45"/>
+      <c r="I378" s="420" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J378" s="165"/>
+      <c r="K378" s="39"/>
+      <c r="O378"/>
+    </row>
+    <row r="379" spans="1:17" s="38" customFormat="1">
+      <c r="A379" s="41"/>
+      <c r="B379" s="41"/>
+      <c r="C379" s="41"/>
+      <c r="D379" s="42" t="s">
         <v>1758</v>
       </c>
-      <c r="E378" s="43">
-        <f>SUM(E2:E377)</f>
-        <v>317744</v>
-      </c>
-      <c r="F378" s="44"/>
-      <c r="G378" s="48"/>
-      <c r="H378" s="47"/>
-      <c r="I378" s="46">
-        <f>SUM(I361,I317,I295,I266,I217,I190,I165,I126,I109,I97,I79,I64,I57,I47,I36,I2,I358,I149,I275,I271)</f>
-        <v>317744</v>
-      </c>
-      <c r="J378" s="43"/>
-      <c r="K378" s="41"/>
-      <c r="L378" s="423" t="s">
+      <c r="E379" s="43">
+        <f>SUM(E2:E378)</f>
+        <v>321684</v>
+      </c>
+      <c r="F379" s="44"/>
+      <c r="G379" s="48"/>
+      <c r="H379" s="47"/>
+      <c r="I379" s="46">
+        <f>SUM(I362,I318,I296,I266,I217,I190,I165,I126,I109,I97,I79,I64,I57,I47,I36,I2,I359,I149,I276,I271)</f>
+        <v>321684</v>
+      </c>
+      <c r="J379" s="43"/>
+      <c r="K379" s="41"/>
+      <c r="L379" s="423" t="s">
         <v>1753</v>
       </c>
-      <c r="M378" s="422">
-        <f>E378</f>
-        <v>317744</v>
-      </c>
-      <c r="N378" s="48" t="s">
+      <c r="M379" s="422">
+        <f>E379</f>
+        <v>321684</v>
+      </c>
+      <c r="N379" s="48" t="s">
         <v>1754</v>
       </c>
-      <c r="O378" s="421">
-        <f>SUMIF(M1:M378,"=計",N1:N378)</f>
-        <v>177660</v>
-      </c>
-      <c r="P378" s="424" t="s">
+      <c r="O379" s="421">
+        <f>SUMIF(M1:M379,"=計",N1:N379)</f>
+        <v>179820</v>
+      </c>
+      <c r="P379" s="424" t="s">
         <v>1755</v>
       </c>
-      <c r="Q378" s="422">
-        <f>M378+O378</f>
-        <v>495404</v>
-      </c>
-    </row>
-    <row r="380" spans="1:17">
-      <c r="L380" s="495" t="s">
+      <c r="Q379" s="422">
+        <f>M379+O379</f>
+        <v>501504</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
+      <c r="L381" s="506" t="s">
         <v>1756</v>
       </c>
-      <c r="M380" s="50" t="s">
+      <c r="M381" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="N380" s="138">
+      <c r="N381" s="138">
         <v>2500</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="16.5" thickBot="1">
-      <c r="B381" s="49"/>
-      <c r="G381" s="409"/>
-      <c r="H381" s="409"/>
-      <c r="L381" s="495"/>
-      <c r="M381" s="50" t="s">
+    <row r="382" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B382" s="49"/>
+      <c r="G382" s="409"/>
+      <c r="H382" s="409"/>
+      <c r="L382" s="506"/>
+      <c r="M382" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="N381" s="138">
+      <c r="N382" s="138">
         <v>500</v>
       </c>
     </row>
-    <row r="382" spans="1:17" ht="16.5" thickTop="1">
-      <c r="A382" t="s">
+    <row r="383" spans="1:17" ht="16.5" thickTop="1">
+      <c r="A383" t="s">
         <v>1221</v>
       </c>
-      <c r="L382" s="496"/>
-      <c r="M382" s="139" t="s">
+      <c r="L383" s="507"/>
+      <c r="M383" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="N382" s="140">
+      <c r="N383" s="140">
         <v>1000</v>
       </c>
-      <c r="O382" s="20" t="s">
+      <c r="O383" s="20" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="383" spans="1:17">
-      <c r="A383" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D383" s="184"/>
-      <c r="E383" s="357"/>
-      <c r="K383" s="410" t="s">
-        <v>1757</v>
-      </c>
-      <c r="L383" s="410"/>
-      <c r="M383" s="141">
-        <f>M378/SUM(N380:N382)</f>
-        <v>79.436000000000007</v>
-      </c>
-      <c r="N383" s="37" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="384" spans="1:17">
       <c r="A384" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D384" s="184"/>
+      <c r="E384" s="357"/>
+      <c r="K384" s="410" t="s">
+        <v>1757</v>
+      </c>
+      <c r="L384" s="410"/>
+      <c r="M384" s="141">
+        <f>M379/SUM(N381:N383)</f>
+        <v>80.421000000000006</v>
+      </c>
+      <c r="N384" s="37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20">
+      <c r="A385" t="s">
         <v>1223</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B385" t="s">
         <v>1226</v>
       </c>
-      <c r="O384" s="497">
-        <v>43710</v>
-      </c>
-      <c r="P384" s="498"/>
-      <c r="Q384" t="s">
+      <c r="O385" s="499">
+        <v>43717</v>
+      </c>
+      <c r="P385" s="500"/>
+      <c r="Q385" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="385" spans="1:19">
-      <c r="A385" t="s">
+    <row r="386" spans="1:20">
+      <c r="A386" t="s">
         <v>1224</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>1227</v>
       </c>
-      <c r="L385" s="178" t="s">
+      <c r="L386" s="178" t="s">
         <v>689</v>
       </c>
-      <c r="M385" s="179">
-        <f>P385/M383</f>
-        <v>0.55390503046477657</v>
-      </c>
-      <c r="N385" s="179"/>
-      <c r="O385" s="72" t="s">
+      <c r="M386" s="179">
+        <f>P386/M384</f>
+        <v>0.55955534002312823</v>
+      </c>
+      <c r="N386" s="179"/>
+      <c r="O386" s="72" t="s">
         <v>690</v>
       </c>
-      <c r="P385" s="170">
-        <v>44</v>
-      </c>
-      <c r="Q385" t="s">
+      <c r="P386" s="170">
+        <v>45</v>
+      </c>
+      <c r="Q386" t="s">
         <v>691</v>
       </c>
-      <c r="R385" s="37"/>
-    </row>
-    <row r="387" spans="1:19">
-      <c r="H387" s="177"/>
-    </row>
-    <row r="388" spans="1:19">
-      <c r="H388" s="180"/>
-      <c r="J388" s="490" t="s">
+      <c r="R386" s="37"/>
+    </row>
+    <row r="388" spans="1:20">
+      <c r="H388" s="177"/>
+    </row>
+    <row r="389" spans="1:20">
+      <c r="H389" s="180"/>
+      <c r="J389" s="505" t="s">
         <v>1706</v>
       </c>
-      <c r="K388" s="490"/>
-      <c r="L388" s="68" t="s">
+      <c r="K389" s="505"/>
+      <c r="L389" s="68" t="s">
         <v>1747</v>
       </c>
-      <c r="M388" s="68" t="s">
+      <c r="M389" s="68" t="s">
         <v>1749</v>
       </c>
-      <c r="N388" s="68" t="s">
+      <c r="N389" s="478" t="s">
+        <v>1966</v>
+      </c>
+      <c r="O389" s="68" t="s">
         <v>1843</v>
       </c>
-      <c r="O388" s="427" t="s">
+      <c r="P389" s="427" t="s">
         <v>1795</v>
       </c>
-      <c r="P388" s="427" t="s">
+      <c r="Q389" s="427" t="s">
         <v>1797</v>
       </c>
-      <c r="Q388" s="427" t="s">
+      <c r="R389" s="427" t="s">
         <v>1799</v>
       </c>
-      <c r="R388" s="427" t="s">
+      <c r="S389" s="427" t="s">
         <v>1800</v>
       </c>
-      <c r="S388" s="427" t="s">
+      <c r="T389" s="427" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="389" spans="1:19">
-      <c r="H389" s="180"/>
-      <c r="J389" s="7" t="s">
+    <row r="390" spans="1:20">
+      <c r="H390" s="180"/>
+      <c r="J390" s="7" t="s">
         <v>1519</v>
       </c>
-      <c r="K389" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J389&amp;"")</f>
+      <c r="K390" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J390&amp;"")</f>
         <v>9</v>
       </c>
-      <c r="L389" s="412">
+      <c r="L390" s="412">
         <f>I36</f>
         <v>57923</v>
       </c>
-      <c r="M389" s="7">
-        <f t="shared" ref="M389:M400" si="0">L389/K389</f>
+      <c r="M390" s="7">
+        <f>L390/K390</f>
         <v>6435.8888888888887</v>
       </c>
-      <c r="N389" s="409">
+      <c r="N390" s="7">
+        <f>L390-(2000*K390)</f>
+        <v>39923</v>
+      </c>
+      <c r="O390" s="409">
         <v>92</v>
       </c>
-      <c r="O389" s="428" t="s">
+      <c r="P390" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="P389" s="428" t="s">
+      <c r="Q390" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="Q389" s="428" t="s">
+      <c r="R390" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="R389" s="428" t="s">
+      <c r="S390" s="428" t="s">
         <v>1863</v>
       </c>
-      <c r="S389" t="s">
+      <c r="T390" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="390" spans="1:19">
-      <c r="H390" s="180"/>
-      <c r="J390" s="411" t="s">
+    <row r="391" spans="1:20">
+      <c r="H391" s="180"/>
+      <c r="J391" s="411" t="s">
         <v>1520</v>
       </c>
-      <c r="K390" s="83">
-        <f>COUNTIF(P2:P378,"="&amp;J390&amp;"")</f>
+      <c r="K391" s="83">
+        <f>COUNTIF(P2:P379,"="&amp;J391&amp;"")</f>
         <v>4</v>
       </c>
-      <c r="L390" s="413">
+      <c r="L391" s="413">
         <f>I47</f>
         <v>2887</v>
       </c>
-      <c r="M390" s="417">
-        <f t="shared" si="0"/>
+      <c r="M391" s="417">
+        <f>L391/K391</f>
         <v>721.75</v>
       </c>
-      <c r="N390" s="83" t="s">
+      <c r="N391" s="417" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O391" s="83" t="s">
         <v>1739</v>
       </c>
-      <c r="O390" s="83" t="s">
+      <c r="P391" s="83" t="s">
         <v>1798</v>
       </c>
-      <c r="P390" s="83" t="s">
+      <c r="Q391" s="83" t="s">
         <v>1798</v>
       </c>
-      <c r="Q390" s="83" t="s">
+      <c r="R391" s="83" t="s">
         <v>1798</v>
       </c>
-      <c r="R390" s="83" t="s">
+      <c r="S391" s="83" t="s">
         <v>1798</v>
       </c>
-      <c r="S390" s="243" t="s">
+      <c r="T391" s="243" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="391" spans="1:19">
-      <c r="J391" s="7" t="s">
+    <row r="392" spans="1:20">
+      <c r="J392" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="K391" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J391&amp;"")</f>
+      <c r="K392" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J392&amp;"")</f>
         <v>10</v>
       </c>
-      <c r="L391" s="412">
+      <c r="L392" s="412">
         <f>I57</f>
         <v>15089</v>
       </c>
-      <c r="M391" s="7">
-        <f t="shared" si="0"/>
+      <c r="M392" s="7">
+        <f>L392/K392</f>
         <v>1508.9</v>
       </c>
-      <c r="N391" s="409">
+      <c r="N392" s="7">
+        <f>L392-(2000*K392)</f>
+        <v>-4911</v>
+      </c>
+      <c r="O392" s="409">
         <v>82</v>
       </c>
-      <c r="O391" s="428" t="s">
+      <c r="P392" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="P391" s="428" t="s">
+      <c r="Q392" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q391" s="428" t="s">
+      <c r="R392" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="R391" s="428" t="s">
+      <c r="S392" s="428" t="s">
         <v>1864</v>
       </c>
-      <c r="S391" t="s">
+      <c r="T392" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="392" spans="1:19">
-      <c r="H392" s="181"/>
-      <c r="J392" s="7" t="s">
+    <row r="393" spans="1:20">
+      <c r="H393" s="181"/>
+      <c r="J393" s="7" t="s">
         <v>1737</v>
       </c>
-      <c r="K392" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J392&amp;"")</f>
+      <c r="K393" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J393&amp;"")</f>
         <v>9</v>
       </c>
-      <c r="L392" s="412">
+      <c r="L393" s="412">
         <f>I64</f>
         <v>25444</v>
       </c>
-      <c r="M392" s="7">
-        <f t="shared" si="0"/>
+      <c r="M393" s="7">
+        <f>L393/K393</f>
         <v>2827.1111111111113</v>
       </c>
-      <c r="N392" s="409">
+      <c r="N393" s="7">
+        <f>L393-(2000*K393)</f>
+        <v>7444</v>
+      </c>
+      <c r="O393" s="409">
         <v>89</v>
       </c>
-      <c r="O392" s="428" t="s">
+      <c r="P393" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="P392" s="428" t="s">
+      <c r="Q393" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q392" s="428" t="s">
+      <c r="R393" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="R392" s="428" t="s">
+      <c r="S393" s="428" t="s">
         <v>1865</v>
       </c>
-      <c r="S392" t="s">
+      <c r="T393" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="31.5">
-      <c r="H393" s="181"/>
-      <c r="J393" s="7" t="s">
+    <row r="394" spans="1:20" ht="31.5">
+      <c r="H394" s="181"/>
+      <c r="J394" s="7" t="s">
         <v>1712</v>
       </c>
-      <c r="K393" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J393&amp;"")</f>
+      <c r="K394" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J394&amp;"")</f>
         <v>15</v>
       </c>
-      <c r="L393" s="412">
+      <c r="L394" s="412">
         <f>I79</f>
         <v>50558</v>
       </c>
-      <c r="M393" s="7">
-        <f t="shared" si="0"/>
+      <c r="M394" s="7">
+        <f>L394/K394</f>
         <v>3370.5333333333333</v>
       </c>
-      <c r="N393" s="409">
+      <c r="N394" s="7">
+        <f>L394-(2000*K394)</f>
+        <v>20558</v>
+      </c>
+      <c r="O394" s="409">
         <v>92</v>
       </c>
-      <c r="O393" s="428" t="s">
+      <c r="P394" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="P393" s="428" t="s">
+      <c r="Q394" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q393" s="428" t="s">
+      <c r="R394" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="R393" s="308" t="s">
+      <c r="S394" s="308" t="s">
         <v>1866</v>
       </c>
-      <c r="S393" t="s">
+      <c r="T394" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="394" spans="1:19">
-      <c r="J394" s="7" t="s">
+    <row r="395" spans="1:20">
+      <c r="J395" s="7" t="s">
         <v>1707</v>
       </c>
-      <c r="K394" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J394&amp;"")</f>
+      <c r="K395" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J395&amp;"")</f>
         <v>11</v>
       </c>
-      <c r="L394" s="412">
+      <c r="L395" s="412">
         <f>I97</f>
         <v>46524</v>
       </c>
-      <c r="M394" s="7">
-        <f t="shared" si="0"/>
+      <c r="M395" s="7">
+        <f>L395/K395</f>
         <v>4229.454545454545</v>
       </c>
-      <c r="N394" s="409">
+      <c r="N395" s="7">
+        <f>L395-(2000*K395)</f>
+        <v>24524</v>
+      </c>
+      <c r="O395" s="409">
         <v>89</v>
       </c>
-      <c r="O394" s="428" t="s">
+      <c r="P395" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="P394" s="428" t="s">
+      <c r="Q395" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q394" s="428" t="s">
+      <c r="R395" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="R394" s="428" t="s">
+      <c r="S395" s="428" t="s">
         <v>1867</v>
       </c>
-      <c r="S394" t="s">
+      <c r="T395" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="395" spans="1:19">
-      <c r="J395" s="7" t="s">
+    <row r="396" spans="1:20">
+      <c r="J396" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="K395" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J395&amp;"")</f>
+      <c r="K396" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J396&amp;"")</f>
         <v>3</v>
       </c>
-      <c r="L395" s="412">
+      <c r="L396" s="412">
         <f>I109</f>
         <v>45521</v>
       </c>
-      <c r="M395" s="7">
-        <f t="shared" si="0"/>
+      <c r="M396" s="7">
+        <f>L396/K396</f>
         <v>15173.666666666666</v>
       </c>
-      <c r="N395" s="409">
+      <c r="N396" s="7">
+        <f>L396-(2000*K396)</f>
+        <v>39521</v>
+      </c>
+      <c r="O396" s="409">
         <v>92</v>
       </c>
-      <c r="O395" s="428" t="s">
+      <c r="P396" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="P395" s="428" t="s">
+      <c r="Q396" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q395" s="428" t="s">
+      <c r="R396" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="R395" s="428" t="s">
+      <c r="S396" s="428" t="s">
         <v>1868</v>
       </c>
-      <c r="S395" t="s">
+      <c r="T396" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="396" spans="1:19">
-      <c r="J396" s="7" t="s">
+    <row r="397" spans="1:20">
+      <c r="J397" s="7" t="s">
         <v>1523</v>
       </c>
-      <c r="K396" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J396&amp;"")</f>
+      <c r="K397" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J397&amp;"")</f>
         <v>5</v>
       </c>
-      <c r="L396" s="412">
+      <c r="L397" s="412">
         <f>I126</f>
         <v>25399</v>
       </c>
-      <c r="M396" s="7">
-        <f t="shared" si="0"/>
+      <c r="M397" s="7">
+        <f>L397/K397</f>
         <v>5079.8</v>
       </c>
-      <c r="N396" s="409" t="s">
+      <c r="N397" s="7">
+        <f>L397-(2000*K397)</f>
+        <v>15399</v>
+      </c>
+      <c r="O397" s="409" t="s">
         <v>1740</v>
       </c>
-      <c r="O396" s="428" t="s">
+      <c r="P397" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="P396" s="428" t="s">
+      <c r="Q397" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q396" s="428" t="s">
+      <c r="R397" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="R396" s="428" t="s">
+      <c r="S397" s="428" t="s">
         <v>1869</v>
       </c>
-      <c r="S396" t="s">
+      <c r="T397" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="397" spans="1:19">
-      <c r="J397" s="7" t="s">
+    <row r="398" spans="1:20">
+      <c r="J398" s="7" t="s">
         <v>1738</v>
       </c>
-      <c r="K397" s="409">
-        <f>COUNTIF(P2:P378,"="&amp;J397&amp;"")</f>
+      <c r="K398" s="409">
+        <f>COUNTIF(P2:P379,"="&amp;J398&amp;"")</f>
         <v>9</v>
       </c>
-      <c r="L397" s="412">
+      <c r="L398" s="412">
         <f>I149</f>
         <v>20145</v>
       </c>
-      <c r="M397" s="7">
-        <f t="shared" si="0"/>
+      <c r="M398" s="7">
+        <f>L398/K398</f>
         <v>2238.3333333333335</v>
       </c>
-      <c r="N397" s="409">
+      <c r="N398" s="7">
+        <f>L398-(1000*K398)</f>
+        <v>11145</v>
+      </c>
+      <c r="O398" s="409">
         <v>90</v>
       </c>
-      <c r="O397" s="428" t="s">
+      <c r="P398" s="428" t="s">
         <v>1796</v>
       </c>
-      <c r="P397" s="428" t="s">
+      <c r="Q398" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="Q397" s="428" t="s">
+      <c r="R398" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="R397" s="428" t="s">
+      <c r="S398" s="428" t="s">
         <v>1798</v>
       </c>
-      <c r="S397" t="s">
+      <c r="T398" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="398" spans="1:19">
-      <c r="J398" s="436" t="s">
+    <row r="399" spans="1:20">
+      <c r="J399" s="436" t="s">
         <v>1708</v>
       </c>
-      <c r="K398" s="50">
-        <f>COUNTIF(P2:P378,"="&amp;J398&amp;"")</f>
+      <c r="K399" s="50">
+        <f>COUNTIF(P2:P379,"="&amp;J399&amp;"")</f>
         <v>5</v>
       </c>
-      <c r="L398" s="437">
-        <f>I275</f>
+      <c r="L399" s="437">
+        <f>I276</f>
         <v>25037</v>
       </c>
-      <c r="M398" s="436">
-        <f t="shared" si="0"/>
+      <c r="M399" s="436">
+        <f>L399/K399</f>
         <v>5007.3999999999996</v>
       </c>
-      <c r="N398" s="50">
+      <c r="N399" s="7">
+        <f>L399-(1000*K399)</f>
+        <v>20037</v>
+      </c>
+      <c r="O399" s="50">
         <v>80</v>
       </c>
-      <c r="O398" s="50" t="s">
+      <c r="P399" s="50" t="s">
         <v>1796</v>
       </c>
-      <c r="P398" s="50" t="s">
+      <c r="Q399" s="50" t="s">
         <v>1798</v>
       </c>
-      <c r="Q398" s="50" t="s">
+      <c r="R399" s="50" t="s">
         <v>1798</v>
       </c>
-      <c r="R398" s="50" t="s">
+      <c r="S399" s="50" t="s">
         <v>1798</v>
       </c>
-      <c r="S398" s="142" t="s">
+      <c r="T399" s="142" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="399" spans="1:19">
-      <c r="G399" s="461"/>
-      <c r="H399" s="461"/>
-      <c r="J399" s="436" t="s">
-        <v>1905</v>
-      </c>
-      <c r="K399" s="50">
-        <f>COUNTIF(P1:P377,"="&amp;J399&amp;"")</f>
+    <row r="400" spans="1:20">
+      <c r="G400" s="461"/>
+      <c r="H400" s="461"/>
+      <c r="J400" s="436" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K400" s="50">
+        <f>COUNTIF(P1:P378,"="&amp;J400&amp;"")</f>
         <v>4</v>
       </c>
-      <c r="L399" s="437">
+      <c r="L400" s="437">
         <f>I266</f>
         <v>10111</v>
       </c>
-      <c r="M399" s="436">
-        <f t="shared" si="0"/>
+      <c r="M400" s="436">
+        <f>L400/K400</f>
         <v>2527.75</v>
       </c>
-      <c r="N399" s="50" t="s">
+      <c r="N400" s="436">
+        <f>L400-(1000*K400)</f>
+        <v>6111</v>
+      </c>
+      <c r="O400" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="O399" s="50" t="s">
+      <c r="P400" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="P399" s="50" t="s">
+      <c r="Q400" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="Q399" s="50" t="s">
+      <c r="R400" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="R399" s="50" t="s">
+      <c r="S400" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="S399" s="142" t="s">
+      <c r="T400" s="142" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="400" spans="1:19">
-      <c r="G400" s="433"/>
-      <c r="H400" s="433"/>
-      <c r="J400" s="414" t="s">
-        <v>1898</v>
-      </c>
-      <c r="K400" s="139">
-        <f>COUNTIF(P1:P377,"="&amp;J400&amp;"")</f>
+    <row r="401" spans="7:20">
+      <c r="G401" s="433"/>
+      <c r="H401" s="433"/>
+      <c r="J401" s="414" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K401" s="139">
+        <f>COUNTIF(P1:P378,"="&amp;J401&amp;"")</f>
         <v>1</v>
       </c>
-      <c r="L400" s="415">
+      <c r="L401" s="415">
         <f>I271</f>
-        <v>1092</v>
-      </c>
-      <c r="M400" s="414">
-        <f t="shared" si="0"/>
-        <v>1092</v>
-      </c>
-      <c r="N400" s="139" t="s">
+        <v>5032</v>
+      </c>
+      <c r="M401" s="414">
+        <f>L401/K401</f>
+        <v>5032</v>
+      </c>
+      <c r="N401" s="414">
+        <f>L401-(1000*K401)</f>
+        <v>4032</v>
+      </c>
+      <c r="O401" s="139" t="s">
         <v>1839</v>
       </c>
-      <c r="O400" s="139" t="s">
+      <c r="P401" s="139" t="s">
         <v>464</v>
       </c>
-      <c r="P400" s="139" t="s">
+      <c r="Q401" s="139" t="s">
         <v>464</v>
       </c>
-      <c r="Q400" s="139" t="s">
+      <c r="R401" s="139" t="s">
         <v>464</v>
       </c>
-      <c r="R400" s="139" t="s">
+      <c r="S401" s="139" t="s">
         <v>464</v>
       </c>
-      <c r="S400" s="56" t="s">
+      <c r="T401" s="56" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="401" spans="10:12">
-      <c r="J401" s="147" t="s">
+    <row r="402" spans="7:20" ht="15.75" customHeight="1">
+      <c r="J402" s="147" t="s">
         <v>1748</v>
       </c>
-      <c r="K401" s="11">
-        <f>SUM(K389:K398)</f>
+      <c r="K402" s="11">
+        <f>SUM(K390:K399)</f>
         <v>80</v>
       </c>
-      <c r="L401" s="416">
-        <f>SUM(L389:L398)</f>
+      <c r="L402" s="416">
+        <f>SUM(L390:L399)</f>
         <v>314527</v>
       </c>
+      <c r="M402" s="480"/>
+      <c r="N402" s="517" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="403" spans="7:20">
+      <c r="N403" s="518"/>
+    </row>
+    <row r="404" spans="7:20">
+      <c r="N404" s="518"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q131"/>
@@ -30700,7 +30863,26 @@
     <sortCondition ref="C2:C25"/>
     <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="N402:N404"/>
+    <mergeCell ref="J389:K389"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="L381:L383"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="O385:P385"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A64:C64"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="A165:C165"/>
@@ -30708,24 +30890,6 @@
     <mergeCell ref="A190:C190"/>
     <mergeCell ref="A126:C126"/>
     <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="O384:P384"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="C361:E361"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="J388:K388"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="L380:L382"/>
-    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30781,7 +30945,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="33.75" customHeight="1">
-      <c r="B6" s="505" t="s">
+      <c r="B6" s="508" t="s">
         <v>1477</v>
       </c>
       <c r="C6" t="s">
@@ -30789,7 +30953,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="33.75" customHeight="1">
-      <c r="B7" s="505"/>
+      <c r="B7" s="508"/>
       <c r="C7" t="s">
         <v>1476</v>
       </c>
@@ -30989,34 +31153,34 @@
       <c r="B1" s="188" t="s">
         <v>780</v>
       </c>
-      <c r="C1" s="508" t="s">
+      <c r="C1" s="509" t="s">
         <v>743</v>
       </c>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508" t="s">
+      <c r="D1" s="509"/>
+      <c r="E1" s="509" t="s">
         <v>751</v>
       </c>
-      <c r="F1" s="508"/>
+      <c r="F1" s="509"/>
       <c r="G1" s="189" t="s">
         <v>779</v>
       </c>
       <c r="H1" s="189" t="s">
         <v>760</v>
       </c>
-      <c r="I1" s="508" t="s">
+      <c r="I1" s="509" t="s">
         <v>757</v>
       </c>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
-      <c r="L1" s="508"/>
-      <c r="M1" s="508"/>
-      <c r="N1" s="508"/>
-      <c r="O1" s="508"/>
-      <c r="P1" s="508" t="s">
+      <c r="J1" s="509"/>
+      <c r="K1" s="509"/>
+      <c r="L1" s="509"/>
+      <c r="M1" s="509"/>
+      <c r="N1" s="509"/>
+      <c r="O1" s="509"/>
+      <c r="P1" s="509" t="s">
         <v>754</v>
       </c>
-      <c r="Q1" s="508"/>
-      <c r="R1" s="509"/>
+      <c r="Q1" s="509"/>
+      <c r="R1" s="510"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -31037,21 +31201,21 @@
       <c r="F2" s="186" t="s">
         <v>745</v>
       </c>
-      <c r="G2" s="507" t="s">
+      <c r="G2" s="512" t="s">
         <v>805</v>
       </c>
       <c r="H2" s="7">
         <v>38000</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="508" t="s">
         <v>765</v>
       </c>
-      <c r="J2" s="505"/>
-      <c r="K2" s="505"/>
-      <c r="L2" s="505"/>
-      <c r="M2" s="505"/>
-      <c r="N2" s="505"/>
-      <c r="O2" s="505"/>
+      <c r="J2" s="508"/>
+      <c r="K2" s="508"/>
+      <c r="L2" s="508"/>
+      <c r="M2" s="508"/>
+      <c r="N2" s="508"/>
+      <c r="O2" s="508"/>
       <c r="P2" t="s">
         <v>755</v>
       </c>
@@ -31075,19 +31239,19 @@
       <c r="F3" s="186" t="s">
         <v>745</v>
       </c>
-      <c r="G3" s="507"/>
+      <c r="G3" s="512"/>
       <c r="H3" s="7">
         <v>19000</v>
       </c>
-      <c r="I3" s="505" t="s">
+      <c r="I3" s="508" t="s">
         <v>1229</v>
       </c>
-      <c r="J3" s="505"/>
-      <c r="K3" s="505"/>
-      <c r="L3" s="505"/>
-      <c r="M3" s="505"/>
-      <c r="N3" s="505"/>
-      <c r="O3" s="505"/>
+      <c r="J3" s="508"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="508"/>
+      <c r="M3" s="508"/>
+      <c r="N3" s="508"/>
+      <c r="O3" s="508"/>
       <c r="P3" s="184" t="s">
         <v>756</v>
       </c>
@@ -31111,19 +31275,19 @@
       <c r="F4" s="186" t="s">
         <v>745</v>
       </c>
-      <c r="G4" s="507"/>
+      <c r="G4" s="512"/>
       <c r="H4" s="7">
         <v>9250</v>
       </c>
-      <c r="I4" s="505" t="s">
+      <c r="I4" s="508" t="s">
         <v>1228</v>
       </c>
-      <c r="J4" s="505"/>
-      <c r="K4" s="505"/>
-      <c r="L4" s="505"/>
-      <c r="M4" s="505"/>
-      <c r="N4" s="505"/>
-      <c r="O4" s="505"/>
+      <c r="J4" s="508"/>
+      <c r="K4" s="508"/>
+      <c r="L4" s="508"/>
+      <c r="M4" s="508"/>
+      <c r="N4" s="508"/>
+      <c r="O4" s="508"/>
       <c r="P4" s="184" t="s">
         <v>761</v>
       </c>
@@ -31147,7 +31311,7 @@
       <c r="F5" s="135" t="s">
         <v>745</v>
       </c>
-      <c r="G5" s="507"/>
+      <c r="G5" s="512"/>
       <c r="H5" s="205">
         <v>11000</v>
       </c>
@@ -31191,15 +31355,15 @@
       <c r="H6" s="7">
         <v>5999</v>
       </c>
-      <c r="I6" s="506" t="s">
+      <c r="I6" s="511" t="s">
         <v>1215</v>
       </c>
-      <c r="J6" s="506"/>
-      <c r="K6" s="506"/>
-      <c r="L6" s="506"/>
-      <c r="M6" s="506"/>
-      <c r="N6" s="506"/>
-      <c r="O6" s="506"/>
+      <c r="J6" s="511"/>
+      <c r="K6" s="511"/>
+      <c r="L6" s="511"/>
+      <c r="M6" s="511"/>
+      <c r="N6" s="511"/>
+      <c r="O6" s="511"/>
       <c r="P6" t="s">
         <v>759</v>
       </c>
@@ -31229,15 +31393,15 @@
       <c r="H7" s="7">
         <v>24700</v>
       </c>
-      <c r="I7" s="505" t="s">
+      <c r="I7" s="508" t="s">
         <v>1216</v>
       </c>
-      <c r="J7" s="505"/>
-      <c r="K7" s="505"/>
-      <c r="L7" s="505"/>
-      <c r="M7" s="505"/>
-      <c r="N7" s="505"/>
-      <c r="O7" s="505"/>
+      <c r="J7" s="508"/>
+      <c r="K7" s="508"/>
+      <c r="L7" s="508"/>
+      <c r="M7" s="508"/>
+      <c r="N7" s="508"/>
+      <c r="O7" s="508"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
       <c r="A8" t="s">
@@ -31667,16 +31831,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -34381,7 +34545,7 @@
       <c r="S28" s="87"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="H29" s="510" t="s">
+      <c r="H29" s="513" t="s">
         <v>301</v>
       </c>
       <c r="I29" s="91">
@@ -34395,7 +34559,7 @@
       <c r="S29" s="87"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="H30" s="510"/>
+      <c r="H30" s="513"/>
       <c r="I30" s="91">
         <v>890</v>
       </c>
@@ -34407,7 +34571,7 @@
       <c r="S30" s="87"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="H31" s="510"/>
+      <c r="H31" s="513"/>
       <c r="I31" s="91">
         <v>899</v>
       </c>
